--- a/repo.xlsx
+++ b/repo.xlsx
@@ -7172,7 +7172,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7189,7 +7189,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7240,7 +7240,7 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -7257,7 +7257,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -7274,7 +7274,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>6141</v>
+        <v>6168</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -7308,7 +7308,7 @@
         <v>44</v>
       </c>
       <c r="C10">
-        <v>2260</v>
+        <v>2272</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -7325,7 +7325,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -7342,7 +7342,7 @@
         <v>52</v>
       </c>
       <c r="C12">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -7376,7 +7376,7 @@
         <v>61</v>
       </c>
       <c r="C14">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -7444,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="C18">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
         <v>75</v>
@@ -7461,7 +7461,7 @@
         <v>81</v>
       </c>
       <c r="C19">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -7478,7 +7478,7 @@
         <v>85</v>
       </c>
       <c r="C20">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -7512,7 +7512,7 @@
         <v>92</v>
       </c>
       <c r="C22">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -7648,7 +7648,7 @@
         <v>122</v>
       </c>
       <c r="C30">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -7682,7 +7682,7 @@
         <v>128</v>
       </c>
       <c r="C32">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -7716,7 +7716,7 @@
         <v>135</v>
       </c>
       <c r="C34">
-        <v>8379</v>
+        <v>8381</v>
       </c>
       <c r="D34" t="s">
         <v>25</v>
@@ -7767,7 +7767,7 @@
         <v>145</v>
       </c>
       <c r="C37">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
         <v>143</v>
@@ -7852,7 +7852,7 @@
         <v>164</v>
       </c>
       <c r="C42">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D42" t="s">
         <v>162</v>
@@ -7971,7 +7971,7 @@
         <v>189</v>
       </c>
       <c r="C49">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
         <v>166</v>
@@ -8294,7 +8294,7 @@
         <v>260</v>
       </c>
       <c r="C68">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D68" t="s">
         <v>258</v>
@@ -8345,7 +8345,7 @@
         <v>271</v>
       </c>
       <c r="C71">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D71" t="s">
         <v>269</v>
@@ -8447,7 +8447,7 @@
         <v>293</v>
       </c>
       <c r="C77">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="D77" t="s">
         <v>291</v>
@@ -8464,7 +8464,7 @@
         <v>296</v>
       </c>
       <c r="C78">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="D78" t="s">
         <v>166</v>
@@ -8549,7 +8549,7 @@
         <v>314</v>
       </c>
       <c r="C83">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
         <v>166</v>
@@ -8583,7 +8583,7 @@
         <v>321</v>
       </c>
       <c r="C85">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D85" t="s">
         <v>245</v>
@@ -8600,7 +8600,7 @@
         <v>325</v>
       </c>
       <c r="C86">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D86" t="s">
         <v>323</v>
@@ -8668,7 +8668,7 @@
         <v>340</v>
       </c>
       <c r="C90">
-        <v>7501</v>
+        <v>7505</v>
       </c>
       <c r="D90" t="s">
         <v>25</v>
@@ -8699,7 +8699,7 @@
         <v>346</v>
       </c>
       <c r="C92">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D92" t="s">
         <v>191</v>
@@ -8716,7 +8716,7 @@
         <v>349</v>
       </c>
       <c r="C93">
-        <v>7577</v>
+        <v>7580</v>
       </c>
       <c r="D93" t="s">
         <v>25</v>
@@ -8733,7 +8733,7 @@
         <v>353</v>
       </c>
       <c r="C94">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D94" t="s">
         <v>351</v>
@@ -8784,7 +8784,7 @@
         <v>362</v>
       </c>
       <c r="C97">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D97" t="s">
         <v>55</v>
@@ -8801,7 +8801,7 @@
         <v>367</v>
       </c>
       <c r="C98">
-        <v>5798</v>
+        <v>5802</v>
       </c>
       <c r="D98" t="s">
         <v>365</v>
@@ -8835,7 +8835,7 @@
         <v>373</v>
       </c>
       <c r="C100">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D100" t="s">
         <v>46</v>
@@ -8886,7 +8886,7 @@
         <v>384</v>
       </c>
       <c r="C103">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D103" t="s">
         <v>25</v>
@@ -8971,7 +8971,7 @@
         <v>401</v>
       </c>
       <c r="C108">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
         <v>25</v>
@@ -9022,7 +9022,7 @@
         <v>411</v>
       </c>
       <c r="C111">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="D111" t="s">
         <v>55</v>
@@ -9056,7 +9056,7 @@
         <v>418</v>
       </c>
       <c r="C113">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D113" t="s">
         <v>213</v>
@@ -9124,7 +9124,7 @@
         <v>434</v>
       </c>
       <c r="C117">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D117" t="s">
         <v>432</v>
@@ -9158,7 +9158,7 @@
         <v>440</v>
       </c>
       <c r="C119">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D119" t="s">
         <v>55</v>
@@ -9345,7 +9345,7 @@
         <v>478</v>
       </c>
       <c r="C130">
-        <v>4731</v>
+        <v>4751</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -9362,7 +9362,7 @@
         <v>482</v>
       </c>
       <c r="C131">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D131" t="s">
         <v>424</v>
@@ -9379,7 +9379,7 @@
         <v>485</v>
       </c>
       <c r="C132">
-        <v>5161</v>
+        <v>5166</v>
       </c>
       <c r="D132" t="s">
         <v>55</v>
@@ -9447,7 +9447,7 @@
         <v>499</v>
       </c>
       <c r="C136">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D136" t="s">
         <v>497</v>
@@ -9464,7 +9464,7 @@
         <v>502</v>
       </c>
       <c r="C137">
-        <v>30042</v>
+        <v>30049</v>
       </c>
       <c r="D137" t="s">
         <v>25</v>
@@ -9566,7 +9566,7 @@
         <v>522</v>
       </c>
       <c r="C143">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="D143" t="s">
         <v>25</v>
@@ -9617,7 +9617,7 @@
         <v>532</v>
       </c>
       <c r="C146">
-        <v>9862</v>
+        <v>9864</v>
       </c>
       <c r="D146" t="s">
         <v>530</v>
@@ -9668,7 +9668,7 @@
         <v>543</v>
       </c>
       <c r="C149">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="D149" t="s">
         <v>166</v>
@@ -9702,7 +9702,7 @@
         <v>549</v>
       </c>
       <c r="C151">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D151" t="s">
         <v>424</v>
@@ -9804,7 +9804,7 @@
         <v>570</v>
       </c>
       <c r="C157">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D157" t="s">
         <v>106</v>
@@ -9821,7 +9821,7 @@
         <v>574</v>
       </c>
       <c r="C158">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D158" t="s">
         <v>55</v>
@@ -9838,7 +9838,7 @@
         <v>577</v>
       </c>
       <c r="C159">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D159" t="s">
         <v>213</v>
@@ -9889,7 +9889,7 @@
         <v>587</v>
       </c>
       <c r="C162">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D162" t="s">
         <v>55</v>
@@ -9957,7 +9957,7 @@
         <v>601</v>
       </c>
       <c r="C166">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D166" t="s">
         <v>291</v>
@@ -10042,7 +10042,7 @@
         <v>618</v>
       </c>
       <c r="C171">
-        <v>5253</v>
+        <v>5254</v>
       </c>
       <c r="D171" t="s">
         <v>143</v>
@@ -10059,7 +10059,7 @@
         <v>621</v>
       </c>
       <c r="C172">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D172" t="s">
         <v>209</v>
@@ -10076,7 +10076,7 @@
         <v>624</v>
       </c>
       <c r="C173">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="D173" t="s">
         <v>209</v>
@@ -10110,7 +10110,7 @@
         <v>630</v>
       </c>
       <c r="C175">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D175" t="s">
         <v>166</v>
@@ -10141,7 +10141,7 @@
         <v>636</v>
       </c>
       <c r="C177">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="D177" t="s">
         <v>166</v>
@@ -10243,7 +10243,7 @@
         <v>656</v>
       </c>
       <c r="C183">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="D183" t="s">
         <v>21</v>
@@ -10441,7 +10441,7 @@
         <v>696</v>
       </c>
       <c r="C195">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D195" t="s">
         <v>55</v>
@@ -10577,7 +10577,7 @@
         <v>723</v>
       </c>
       <c r="C203">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="D203" t="s">
         <v>530</v>
@@ -10713,7 +10713,7 @@
         <v>750</v>
       </c>
       <c r="C211">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="D211" t="s">
         <v>25</v>
@@ -10730,7 +10730,7 @@
         <v>753</v>
       </c>
       <c r="C212">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="D212" t="s">
         <v>55</v>
@@ -10866,7 +10866,7 @@
         <v>782</v>
       </c>
       <c r="C220">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="D220" t="s">
         <v>25</v>
@@ -10900,7 +10900,7 @@
         <v>789</v>
       </c>
       <c r="C222">
-        <v>20790</v>
+        <v>20793</v>
       </c>
       <c r="D222" t="s">
         <v>467</v>
@@ -11053,7 +11053,7 @@
         <v>817</v>
       </c>
       <c r="C231">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="D231" t="s">
         <v>191</v>
@@ -11087,7 +11087,7 @@
         <v>825</v>
       </c>
       <c r="C233">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D233" t="s">
         <v>50</v>
@@ -11104,7 +11104,7 @@
         <v>828</v>
       </c>
       <c r="C234">
-        <v>3898</v>
+        <v>3902</v>
       </c>
       <c r="D234" t="s">
         <v>25</v>
@@ -11138,7 +11138,7 @@
         <v>834</v>
       </c>
       <c r="C236">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D236" t="s">
         <v>191</v>
@@ -11172,7 +11172,7 @@
         <v>842</v>
       </c>
       <c r="C238">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="D238" t="s">
         <v>840</v>
@@ -11206,7 +11206,7 @@
         <v>849</v>
       </c>
       <c r="C240">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D240" t="s">
         <v>25</v>
@@ -11223,7 +11223,7 @@
         <v>852</v>
       </c>
       <c r="C241">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D241" t="s">
         <v>166</v>
@@ -11325,7 +11325,7 @@
         <v>873</v>
       </c>
       <c r="C247">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D247" t="s">
         <v>55</v>
@@ -11444,7 +11444,7 @@
         <v>898</v>
       </c>
       <c r="C254">
-        <v>6401</v>
+        <v>6404</v>
       </c>
       <c r="D254" t="s">
         <v>55</v>
@@ -11495,7 +11495,7 @@
         <v>909</v>
       </c>
       <c r="C257">
-        <v>23836</v>
+        <v>23837</v>
       </c>
       <c r="D257" t="s">
         <v>25</v>
@@ -11529,7 +11529,7 @@
         <v>916</v>
       </c>
       <c r="C259">
-        <v>9147</v>
+        <v>9148</v>
       </c>
       <c r="D259" t="s">
         <v>413</v>
@@ -11580,7 +11580,7 @@
         <v>927</v>
       </c>
       <c r="C262">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D262" t="s">
         <v>925</v>
@@ -11631,7 +11631,7 @@
         <v>939</v>
       </c>
       <c r="C265">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D265" t="s">
         <v>55</v>
@@ -11849,7 +11849,7 @@
         <v>981</v>
       </c>
       <c r="C278">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="D278" t="s">
         <v>166</v>
@@ -11917,7 +11917,7 @@
         <v>996</v>
       </c>
       <c r="C282">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="D282" t="s">
         <v>603</v>
@@ -11985,7 +11985,7 @@
         <v>1009</v>
       </c>
       <c r="C286">
-        <v>8307</v>
+        <v>8314</v>
       </c>
       <c r="D286" t="s">
         <v>25</v>
@@ -12002,7 +12002,7 @@
         <v>1012</v>
       </c>
       <c r="C287">
-        <v>13639</v>
+        <v>13647</v>
       </c>
       <c r="D287" t="s">
         <v>166</v>
@@ -12104,7 +12104,7 @@
         <v>1030</v>
       </c>
       <c r="C293">
-        <v>9061</v>
+        <v>9064</v>
       </c>
       <c r="D293" t="s">
         <v>745</v>
@@ -12155,7 +12155,7 @@
         <v>1040</v>
       </c>
       <c r="C296">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D296" t="s">
         <v>424</v>
@@ -12206,7 +12206,7 @@
         <v>1050</v>
       </c>
       <c r="C299">
-        <v>20984</v>
+        <v>20986</v>
       </c>
       <c r="D299" t="s">
         <v>1048</v>
@@ -12291,7 +12291,7 @@
         <v>1066</v>
       </c>
       <c r="C304">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D304" t="s">
         <v>25</v>
@@ -12325,7 +12325,7 @@
         <v>1072</v>
       </c>
       <c r="C306">
-        <v>40230</v>
+        <v>40234</v>
       </c>
       <c r="D306" t="s">
         <v>25</v>
@@ -12376,7 +12376,7 @@
         <v>1082</v>
       </c>
       <c r="C309">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D309" t="s">
         <v>213</v>
@@ -12444,7 +12444,7 @@
         <v>1094</v>
       </c>
       <c r="C313">
-        <v>10133</v>
+        <v>10135</v>
       </c>
       <c r="D313" t="s">
         <v>55</v>
@@ -12478,7 +12478,7 @@
         <v>1101</v>
       </c>
       <c r="C315">
-        <v>4777</v>
+        <v>4783</v>
       </c>
       <c r="D315" t="s">
         <v>16</v>
@@ -12512,7 +12512,7 @@
         <v>1107</v>
       </c>
       <c r="C317">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D317" t="s">
         <v>901</v>
@@ -12662,7 +12662,7 @@
         <v>1136</v>
       </c>
       <c r="C326">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D326" t="s">
         <v>25</v>
@@ -12730,7 +12730,7 @@
         <v>1149</v>
       </c>
       <c r="C330">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D330" t="s">
         <v>55</v>
@@ -12747,7 +12747,7 @@
         <v>1152</v>
       </c>
       <c r="C331">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="D331" t="s">
         <v>25</v>
@@ -12781,7 +12781,7 @@
         <v>1160</v>
       </c>
       <c r="C333">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D333" t="s">
         <v>530</v>
@@ -12849,7 +12849,7 @@
         <v>1174</v>
       </c>
       <c r="C337">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="D337" t="s">
         <v>1172</v>
@@ -12951,7 +12951,7 @@
         <v>1192</v>
       </c>
       <c r="C343">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D343" t="s">
         <v>25</v>
@@ -13050,7 +13050,7 @@
         <v>1211</v>
       </c>
       <c r="C349">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="D349" t="s">
         <v>538</v>
@@ -13067,7 +13067,7 @@
         <v>1215</v>
       </c>
       <c r="C350">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="D350" t="s">
         <v>1213</v>
@@ -13152,7 +13152,7 @@
         <v>1230</v>
       </c>
       <c r="C355">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D355" t="s">
         <v>25</v>
@@ -13186,7 +13186,7 @@
         <v>1237</v>
       </c>
       <c r="C357">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="D357" t="s">
         <v>25</v>
@@ -13237,7 +13237,7 @@
         <v>1248</v>
       </c>
       <c r="C360">
-        <v>7148</v>
+        <v>7151</v>
       </c>
       <c r="D360" t="s">
         <v>1246</v>
@@ -13322,7 +13322,7 @@
         <v>1264</v>
       </c>
       <c r="C365">
-        <v>35877</v>
+        <v>35881</v>
       </c>
       <c r="D365" t="s">
         <v>55</v>
@@ -13356,7 +13356,7 @@
         <v>1271</v>
       </c>
       <c r="C367">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="D367" t="s">
         <v>603</v>
@@ -13373,7 +13373,7 @@
         <v>1275</v>
       </c>
       <c r="C368">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D368" t="s">
         <v>1273</v>
@@ -13475,7 +13475,7 @@
         <v>1294</v>
       </c>
       <c r="C374">
-        <v>23022</v>
+        <v>23024</v>
       </c>
       <c r="D374" t="s">
         <v>1138</v>
@@ -13577,7 +13577,7 @@
         <v>1314</v>
       </c>
       <c r="C380">
-        <v>6864</v>
+        <v>6870</v>
       </c>
       <c r="D380" t="s">
         <v>1312</v>
@@ -13628,7 +13628,7 @@
         <v>1323</v>
       </c>
       <c r="C383">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="D383" t="s">
         <v>166</v>
@@ -13764,7 +13764,7 @@
         <v>1349</v>
       </c>
       <c r="C391">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D391" t="s">
         <v>55</v>
@@ -13781,7 +13781,7 @@
         <v>1353</v>
       </c>
       <c r="C392">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D392" t="s">
         <v>1351</v>
@@ -13798,7 +13798,7 @@
         <v>1356</v>
       </c>
       <c r="C393">
-        <v>11599</v>
+        <v>11601</v>
       </c>
       <c r="D393" t="s">
         <v>25</v>
@@ -13815,7 +13815,7 @@
         <v>1359</v>
       </c>
       <c r="C394">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D394" t="s">
         <v>213</v>
@@ -13866,7 +13866,7 @@
         <v>1370</v>
       </c>
       <c r="C397">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D397" t="s">
         <v>258</v>
@@ -13883,7 +13883,7 @@
         <v>1373</v>
       </c>
       <c r="C398">
-        <v>139544</v>
+        <v>139553</v>
       </c>
       <c r="D398" t="s">
         <v>1048</v>
@@ -13900,7 +13900,7 @@
         <v>1376</v>
       </c>
       <c r="C399">
-        <v>7644</v>
+        <v>7645</v>
       </c>
       <c r="D399" t="s">
         <v>25</v>
@@ -14036,7 +14036,7 @@
         <v>1401</v>
       </c>
       <c r="C407">
-        <v>8126</v>
+        <v>8127</v>
       </c>
       <c r="D407" t="s">
         <v>55</v>
@@ -14104,7 +14104,7 @@
         <v>1414</v>
       </c>
       <c r="C411">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="D411" t="s">
         <v>33</v>
@@ -14121,7 +14121,7 @@
         <v>1418</v>
       </c>
       <c r="C412">
-        <v>10959</v>
+        <v>10961</v>
       </c>
       <c r="D412" t="s">
         <v>1416</v>
@@ -14189,7 +14189,7 @@
         <v>1431</v>
       </c>
       <c r="C416">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="D416" t="s">
         <v>218</v>
@@ -14274,7 +14274,7 @@
         <v>1448</v>
       </c>
       <c r="C421">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="D421" t="s">
         <v>530</v>
@@ -14291,7 +14291,7 @@
         <v>1451</v>
       </c>
       <c r="C422">
-        <v>15625</v>
+        <v>15626</v>
       </c>
       <c r="D422" t="s">
         <v>424</v>
@@ -14376,7 +14376,7 @@
         <v>1469</v>
       </c>
       <c r="C427">
-        <v>15058</v>
+        <v>15060</v>
       </c>
       <c r="D427" t="s">
         <v>55</v>
@@ -14393,7 +14393,7 @@
         <v>1473</v>
       </c>
       <c r="C428">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="D428" t="s">
         <v>55</v>
@@ -14410,7 +14410,7 @@
         <v>1476</v>
       </c>
       <c r="C429">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D429" t="s">
         <v>166</v>
@@ -14427,7 +14427,7 @@
         <v>1479</v>
       </c>
       <c r="C430">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="D430" t="s">
         <v>25</v>
@@ -14444,7 +14444,7 @@
         <v>1482</v>
       </c>
       <c r="C431">
-        <v>31969</v>
+        <v>31980</v>
       </c>
       <c r="D431" t="s">
         <v>55</v>
@@ -14478,7 +14478,7 @@
         <v>1488</v>
       </c>
       <c r="C433">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D433" t="s">
         <v>55</v>
@@ -14495,7 +14495,7 @@
         <v>1491</v>
       </c>
       <c r="C434">
-        <v>31404</v>
+        <v>31412</v>
       </c>
       <c r="D434" t="s">
         <v>1454</v>
@@ -14512,7 +14512,7 @@
         <v>1494</v>
       </c>
       <c r="C435">
-        <v>15313</v>
+        <v>15312</v>
       </c>
       <c r="D435" t="s">
         <v>33</v>
@@ -14529,7 +14529,7 @@
         <v>1497</v>
       </c>
       <c r="C436">
-        <v>25038</v>
+        <v>25039</v>
       </c>
       <c r="D436" t="s">
         <v>21</v>
@@ -14597,7 +14597,7 @@
         <v>1510</v>
       </c>
       <c r="C440">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D440" t="s">
         <v>55</v>
@@ -14631,7 +14631,7 @@
         <v>1516</v>
       </c>
       <c r="C442">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D442" t="s">
         <v>55</v>
@@ -14682,7 +14682,7 @@
         <v>1526</v>
       </c>
       <c r="C445">
-        <v>12751</v>
+        <v>12752</v>
       </c>
       <c r="D445" t="s">
         <v>25</v>
@@ -14750,7 +14750,7 @@
         <v>1539</v>
       </c>
       <c r="C449">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D449" t="s">
         <v>166</v>
@@ -14852,7 +14852,7 @@
         <v>1558</v>
       </c>
       <c r="C455">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="D455" t="s">
         <v>59</v>
@@ -14886,7 +14886,7 @@
         <v>1564</v>
       </c>
       <c r="C457">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="D457" t="s">
         <v>166</v>
@@ -14988,7 +14988,7 @@
         <v>1584</v>
       </c>
       <c r="C463">
-        <v>6738</v>
+        <v>6739</v>
       </c>
       <c r="D463" t="s">
         <v>55</v>
@@ -15257,7 +15257,7 @@
         <v>1633</v>
       </c>
       <c r="C479">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="D479" t="s">
         <v>55</v>
@@ -15308,7 +15308,7 @@
         <v>1643</v>
       </c>
       <c r="C482">
-        <v>7207</v>
+        <v>7208</v>
       </c>
       <c r="D482" t="s">
         <v>55</v>
@@ -15492,7 +15492,7 @@
         <v>1678</v>
       </c>
       <c r="C493">
-        <v>4016</v>
+        <v>4018</v>
       </c>
       <c r="D493" t="s">
         <v>25</v>
@@ -15526,7 +15526,7 @@
         <v>1684</v>
       </c>
       <c r="C495">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D495" t="s">
         <v>213</v>
@@ -15543,7 +15543,7 @@
         <v>1687</v>
       </c>
       <c r="C496">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D496" t="s">
         <v>55</v>
@@ -15577,7 +15577,7 @@
         <v>1694</v>
       </c>
       <c r="C498">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="D498" t="s">
         <v>213</v>
@@ -15645,7 +15645,7 @@
         <v>1708</v>
       </c>
       <c r="C502">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D502" t="s">
         <v>55</v>
@@ -15662,7 +15662,7 @@
         <v>1711</v>
       </c>
       <c r="C503">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D503" t="s">
         <v>25</v>
@@ -15679,7 +15679,7 @@
         <v>1714</v>
       </c>
       <c r="C504">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="D504" t="s">
         <v>55</v>
@@ -15798,7 +15798,7 @@
         <v>1740</v>
       </c>
       <c r="C511">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="D511" t="s">
         <v>55</v>
@@ -15815,7 +15815,7 @@
         <v>1744</v>
       </c>
       <c r="C512">
-        <v>7778</v>
+        <v>7779</v>
       </c>
       <c r="D512" t="s">
         <v>151</v>
@@ -15883,7 +15883,7 @@
         <v>1758</v>
       </c>
       <c r="C516">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="D516" t="s">
         <v>1756</v>
@@ -15900,7 +15900,7 @@
         <v>1762</v>
       </c>
       <c r="C517">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="D517" t="s">
         <v>55</v>
@@ -15917,7 +15917,7 @@
         <v>1766</v>
       </c>
       <c r="C518">
-        <v>8286</v>
+        <v>8287</v>
       </c>
       <c r="D518" t="s">
         <v>55</v>
@@ -15985,7 +15985,7 @@
         <v>1779</v>
       </c>
       <c r="C522">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="D522" t="s">
         <v>166</v>
@@ -16019,7 +16019,7 @@
         <v>1786</v>
       </c>
       <c r="C524">
-        <v>23358</v>
+        <v>23361</v>
       </c>
       <c r="D524" t="s">
         <v>67</v>
@@ -16036,7 +16036,7 @@
         <v>1790</v>
       </c>
       <c r="C525">
-        <v>3702</v>
+        <v>3707</v>
       </c>
       <c r="D525" t="s">
         <v>166</v>
@@ -16070,7 +16070,7 @@
         <v>1796</v>
       </c>
       <c r="C527">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="D527" t="s">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         <v>1800</v>
       </c>
       <c r="C528">
-        <v>10170</v>
+        <v>10174</v>
       </c>
       <c r="D528" t="s">
         <v>213</v>
@@ -16138,7 +16138,7 @@
         <v>1812</v>
       </c>
       <c r="C531">
-        <v>24239</v>
+        <v>24240</v>
       </c>
       <c r="D531" t="s">
         <v>55</v>
@@ -16172,7 +16172,7 @@
         <v>1818</v>
       </c>
       <c r="C533">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="D533" t="s">
         <v>55</v>
@@ -16223,7 +16223,7 @@
         <v>1829</v>
       </c>
       <c r="C536">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="D536" t="s">
         <v>25</v>
@@ -16240,7 +16240,7 @@
         <v>1833</v>
       </c>
       <c r="C537">
-        <v>6029</v>
+        <v>6036</v>
       </c>
       <c r="D537" t="s">
         <v>25</v>
@@ -16274,7 +16274,7 @@
         <v>1841</v>
       </c>
       <c r="C539">
-        <v>20755</v>
+        <v>20761</v>
       </c>
       <c r="D539" t="s">
         <v>241</v>
@@ -16308,7 +16308,7 @@
         <v>1849</v>
       </c>
       <c r="C541">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D541" t="s">
         <v>1847</v>
@@ -16325,7 +16325,7 @@
         <v>1853</v>
       </c>
       <c r="C542">
-        <v>10521</v>
+        <v>10524</v>
       </c>
       <c r="D542" t="s">
         <v>191</v>
@@ -16387,7 +16387,7 @@
         <v>1867</v>
       </c>
       <c r="C546">
-        <v>6131</v>
+        <v>6133</v>
       </c>
       <c r="D546" t="s">
         <v>209</v>
@@ -16421,7 +16421,7 @@
         <v>1875</v>
       </c>
       <c r="C548">
-        <v>7989</v>
+        <v>7990</v>
       </c>
       <c r="D548" t="s">
         <v>67</v>
@@ -16489,7 +16489,7 @@
         <v>1891</v>
       </c>
       <c r="C552">
-        <v>21881</v>
+        <v>21884</v>
       </c>
       <c r="D552" t="s">
         <v>351</v>
@@ -16506,7 +16506,7 @@
         <v>1895</v>
       </c>
       <c r="C553">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="D553" t="s">
         <v>1213</v>
@@ -16574,7 +16574,7 @@
         <v>1910</v>
       </c>
       <c r="C557">
-        <v>32307</v>
+        <v>32309</v>
       </c>
       <c r="D557" t="s">
         <v>166</v>
@@ -16591,7 +16591,7 @@
         <v>1914</v>
       </c>
       <c r="C558">
-        <v>5884</v>
+        <v>5885</v>
       </c>
       <c r="D558" t="s">
         <v>209</v>
@@ -16608,7 +16608,7 @@
         <v>1918</v>
       </c>
       <c r="C559">
-        <v>33825</v>
+        <v>33828</v>
       </c>
       <c r="D559" t="s">
         <v>25</v>
@@ -16625,7 +16625,7 @@
         <v>1922</v>
       </c>
       <c r="C560">
-        <v>39249</v>
+        <v>39252</v>
       </c>
       <c r="D560" t="s">
         <v>166</v>
@@ -16642,7 +16642,7 @@
         <v>1925</v>
       </c>
       <c r="C561">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="D561" t="s">
         <v>25</v>
@@ -16659,7 +16659,7 @@
         <v>1929</v>
       </c>
       <c r="C562">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="D562" t="s">
         <v>25</v>
@@ -16693,7 +16693,7 @@
         <v>1937</v>
       </c>
       <c r="C564">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="D564" t="s">
         <v>1935</v>
@@ -16710,7 +16710,7 @@
         <v>1940</v>
       </c>
       <c r="C565">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="D565" t="s">
         <v>55</v>
@@ -16761,7 +16761,7 @@
         <v>1951</v>
       </c>
       <c r="C568">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="D568" t="s">
         <v>55</v>
@@ -16778,7 +16778,7 @@
         <v>1954</v>
       </c>
       <c r="C569">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D569" t="s">
         <v>55</v>
@@ -16812,7 +16812,7 @@
         <v>1960</v>
       </c>
       <c r="C571">
-        <v>37759</v>
+        <v>37760</v>
       </c>
       <c r="D571" t="s">
         <v>55</v>
@@ -16897,7 +16897,7 @@
         <v>1977</v>
       </c>
       <c r="C576">
-        <v>80124</v>
+        <v>80127</v>
       </c>
       <c r="D576" t="s">
         <v>166</v>
@@ -16914,7 +16914,7 @@
         <v>1980</v>
       </c>
       <c r="C577">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="D577" t="s">
         <v>25</v>
@@ -17047,7 +17047,7 @@
         <v>2003</v>
       </c>
       <c r="C585">
-        <v>13153</v>
+        <v>13154</v>
       </c>
       <c r="D585" t="s">
         <v>55</v>
@@ -17064,7 +17064,7 @@
         <v>2007</v>
       </c>
       <c r="C586">
-        <v>26201</v>
+        <v>26202</v>
       </c>
       <c r="D586" t="s">
         <v>55</v>
@@ -17081,7 +17081,7 @@
         <v>2010</v>
       </c>
       <c r="C587">
-        <v>5523</v>
+        <v>5524</v>
       </c>
       <c r="D587" t="s">
         <v>55</v>
@@ -17180,7 +17180,7 @@
         <v>2030</v>
       </c>
       <c r="C593">
-        <v>7022</v>
+        <v>7023</v>
       </c>
       <c r="D593" t="s">
         <v>291</v>
@@ -17231,7 +17231,7 @@
         <v>2043</v>
       </c>
       <c r="C596">
-        <v>24551</v>
+        <v>24556</v>
       </c>
       <c r="D596" t="s">
         <v>2041</v>
@@ -17265,7 +17265,7 @@
         <v>2051</v>
       </c>
       <c r="C598">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="D598" t="s">
         <v>25</v>
@@ -17282,7 +17282,7 @@
         <v>2055</v>
       </c>
       <c r="C599">
-        <v>12493</v>
+        <v>12502</v>
       </c>
       <c r="D599" t="s">
         <v>59</v>
@@ -17299,7 +17299,7 @@
         <v>2059</v>
       </c>
       <c r="C600">
-        <v>10004</v>
+        <v>10025</v>
       </c>
       <c r="D600" t="s">
         <v>25</v>
@@ -17316,7 +17316,7 @@
         <v>2063</v>
       </c>
       <c r="C601">
-        <v>17343</v>
+        <v>17346</v>
       </c>
       <c r="D601" t="s">
         <v>25</v>
@@ -17381,7 +17381,7 @@
         <v>2077</v>
       </c>
       <c r="C605">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="D605" t="s">
         <v>33</v>
@@ -17449,7 +17449,7 @@
         <v>2094</v>
       </c>
       <c r="C609">
-        <v>47517</v>
+        <v>47539</v>
       </c>
       <c r="D609" t="s">
         <v>25</v>
@@ -17483,7 +17483,7 @@
         <v>2102</v>
       </c>
       <c r="C611">
-        <v>3888</v>
+        <v>3889</v>
       </c>
       <c r="D611" t="s">
         <v>213</v>
@@ -17500,7 +17500,7 @@
         <v>2106</v>
       </c>
       <c r="C612">
-        <v>8468</v>
+        <v>8469</v>
       </c>
       <c r="D612" t="s">
         <v>689</v>
@@ -17517,7 +17517,7 @@
         <v>2109</v>
       </c>
       <c r="C613">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="D613" t="s">
         <v>1454</v>
@@ -17551,7 +17551,7 @@
         <v>2117</v>
       </c>
       <c r="C615">
-        <v>12058</v>
+        <v>12061</v>
       </c>
       <c r="D615" t="s">
         <v>209</v>
@@ -17568,7 +17568,7 @@
         <v>2120</v>
       </c>
       <c r="C616">
-        <v>6229</v>
+        <v>6234</v>
       </c>
       <c r="D616" t="s">
         <v>25</v>
@@ -17619,7 +17619,7 @@
         <v>2131</v>
       </c>
       <c r="C619">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="D619" t="s">
         <v>1232</v>
@@ -17636,7 +17636,7 @@
         <v>2136</v>
       </c>
       <c r="C620">
-        <v>19754</v>
+        <v>19757</v>
       </c>
       <c r="D620" t="s">
         <v>2134</v>
@@ -17704,7 +17704,7 @@
         <v>2151</v>
       </c>
       <c r="C624">
-        <v>4146</v>
+        <v>4149</v>
       </c>
       <c r="D624" t="s">
         <v>530</v>
@@ -17721,7 +17721,7 @@
         <v>2155</v>
       </c>
       <c r="C625">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="D625" t="s">
         <v>151</v>
@@ -17806,7 +17806,7 @@
         <v>2175</v>
       </c>
       <c r="C630">
-        <v>6581</v>
+        <v>6582</v>
       </c>
       <c r="D630" t="s">
         <v>589</v>
@@ -17823,7 +17823,7 @@
         <v>2178</v>
       </c>
       <c r="C631">
-        <v>9992</v>
+        <v>9993</v>
       </c>
       <c r="D631" t="s">
         <v>209</v>
@@ -17840,7 +17840,7 @@
         <v>2181</v>
       </c>
       <c r="C632">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="D632" t="s">
         <v>177</v>
@@ -17891,7 +17891,7 @@
         <v>2193</v>
       </c>
       <c r="C635">
-        <v>3931</v>
+        <v>3934</v>
       </c>
       <c r="D635" t="s">
         <v>209</v>
@@ -17959,7 +17959,7 @@
         <v>2207</v>
       </c>
       <c r="C639">
-        <v>83446</v>
+        <v>83462</v>
       </c>
       <c r="D639" t="s">
         <v>209</v>
@@ -17993,7 +17993,7 @@
         <v>2214</v>
       </c>
       <c r="C641">
-        <v>14637</v>
+        <v>14638</v>
       </c>
       <c r="D641" t="s">
         <v>213</v>
@@ -18010,7 +18010,7 @@
         <v>2218</v>
       </c>
       <c r="C642">
-        <v>56005</v>
+        <v>56010</v>
       </c>
       <c r="D642" t="s">
         <v>2041</v>
@@ -18027,7 +18027,7 @@
         <v>2222</v>
       </c>
       <c r="C643">
-        <v>13444</v>
+        <v>13446</v>
       </c>
       <c r="D643" t="s">
         <v>55</v>
@@ -18075,7 +18075,7 @@
         <v>2233</v>
       </c>
       <c r="C646">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="D646" t="s">
         <v>413</v>
@@ -18092,7 +18092,7 @@
         <v>2238</v>
       </c>
       <c r="C647">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="D647" t="s">
         <v>2236</v>
@@ -18143,7 +18143,7 @@
         <v>2250</v>
       </c>
       <c r="C650">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="D650" t="s">
         <v>209</v>

--- a/repo.xlsx
+++ b/repo.xlsx
@@ -466,16 +466,16 @@
     <t>2023-06-29</t>
   </si>
   <si>
-    <t>IMOSR/Media-LLaMA</t>
+    <t>IMOSR/MediaGPT</t>
   </si>
   <si>
     <t>🔠⛽🚕2️⃣🀄</t>
   </si>
   <si>
-    <t>中文的自媒体大语言模型</t>
-  </si>
-  <si>
-    <t>https://github.com/IMOSR/Media-LLaMA</t>
+    <t>中文的自媒体大语言模型MediaGPT(曾用名Media LLaMA)</t>
+  </si>
+  <si>
+    <t>https://github.com/IMOSR/MediaGPT</t>
   </si>
   <si>
     <t>dabit3/openai-functions-god-app</t>
@@ -2062,7 +2062,7 @@
     <t>smol-ai/menubar</t>
   </si>
   <si>
-    <t>a menubar with Zero latency access to ChatGPT/Bard/Claude! A/B test them, or use them in the background. I use this 20 times a day.</t>
+    <t>One keyboard shortcut =&gt; Fast, Full webapp access to ChatGPT/Bard/Claude/Bing! A/B test them, or use them in the background. I use this 20 times a day.</t>
   </si>
   <si>
     <t>https://github.com/smol-ai/menubar</t>
@@ -4741,7 +4741,7 @@
     <t>🔠🚌2️⃣✅</t>
   </si>
   <si>
-    <t>Join us at H2O.ai to make the world's best open-source GPT with document and image Q&amp;A, 100% private chat, no data leaks, Apache 2.0 https://arxiv.org/pdf/2306.08161.pdf   Live Demo: https://gpt.h2o.ai/</t>
+    <t>Private Q&amp;A and summarization of documents+images or chat with local GPT, 100% private, no data leaks, Apache 2.0. Demo: https://gpt.h2o.ai/</t>
   </si>
   <si>
     <t>https://github.com/h2oai/h2ogpt</t>
@@ -5443,7 +5443,7 @@
     <t>ChenyangQiQi/FateZero</t>
   </si>
   <si>
-    <t>Pytorch Implementation for "FateZero: Fusing Attentions for Zero-shot Text-based Video Editing"</t>
+    <t>Pytorch Implementation for [ICCV 2023] "FateZero: Fusing Attentions for Zero-shot Text-based Video Editing"</t>
   </si>
   <si>
     <t>https://github.com/ChenyangQiQi/FateZero</t>
@@ -6127,7 +6127,7 @@
     <t>e2b-dev/e2b</t>
   </si>
   <si>
-    <t>Developer-first AgentOps platform - deploy, test, and monitor AI agents</t>
+    <t>Dashboard for the e2b platform - debug, deploy, test, and monitor AI agents</t>
   </si>
   <si>
     <t>https://github.com/e2b-dev/e2b</t>
@@ -8732,7 +8732,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -8749,7 +8749,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -8766,7 +8766,7 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -8783,7 +8783,7 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -8800,7 +8800,7 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>1245</v>
+        <v>1492</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -8817,7 +8817,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -8834,7 +8834,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -8851,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -8868,7 +8868,7 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -8885,7 +8885,7 @@
         <v>45</v>
       </c>
       <c r="C11">
-        <v>270</v>
+        <v>501</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -8902,7 +8902,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -8919,7 +8919,7 @@
         <v>53</v>
       </c>
       <c r="C13">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -8936,7 +8936,7 @@
         <v>57</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -8953,7 +8953,7 @@
         <v>60</v>
       </c>
       <c r="C15">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -8970,7 +8970,7 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -8987,7 +8987,7 @@
         <v>69</v>
       </c>
       <c r="C17">
-        <v>699</v>
+        <v>740</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -9004,7 +9004,7 @@
         <v>73</v>
       </c>
       <c r="C18">
-        <v>1879</v>
+        <v>1985</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -9021,7 +9021,7 @@
         <v>76</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -9035,7 +9035,7 @@
         <v>80</v>
       </c>
       <c r="C20">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
         <v>78</v>
@@ -9052,7 +9052,7 @@
         <v>84</v>
       </c>
       <c r="C21">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
@@ -9069,7 +9069,7 @@
         <v>88</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -9086,7 +9086,7 @@
         <v>91</v>
       </c>
       <c r="C23">
-        <v>224</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -9103,7 +9103,7 @@
         <v>95</v>
       </c>
       <c r="C24">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -9120,7 +9120,7 @@
         <v>98</v>
       </c>
       <c r="C25">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -9137,7 +9137,7 @@
         <v>103</v>
       </c>
       <c r="C26">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
         <v>101</v>
@@ -9154,7 +9154,7 @@
         <v>106</v>
       </c>
       <c r="C27">
-        <v>3115</v>
+        <v>3579</v>
       </c>
       <c r="D27" t="s">
         <v>39</v>
@@ -9171,7 +9171,7 @@
         <v>110</v>
       </c>
       <c r="C28">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D28" t="s">
         <v>108</v>
@@ -9205,7 +9205,7 @@
         <v>118</v>
       </c>
       <c r="C30">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -9222,7 +9222,7 @@
         <v>121</v>
       </c>
       <c r="C31">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
@@ -9273,7 +9273,7 @@
         <v>133</v>
       </c>
       <c r="C34">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>82</v>
@@ -9290,7 +9290,7 @@
         <v>138</v>
       </c>
       <c r="C35">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -9307,7 +9307,7 @@
         <v>141</v>
       </c>
       <c r="C36">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -9324,7 +9324,7 @@
         <v>144</v>
       </c>
       <c r="C37">
-        <v>3408</v>
+        <v>3751</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -9341,7 +9341,7 @@
         <v>147</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>51</v>
@@ -9358,7 +9358,7 @@
         <v>152</v>
       </c>
       <c r="C39">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
         <v>150</v>
@@ -9375,7 +9375,7 @@
         <v>155</v>
       </c>
       <c r="C40">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -9392,7 +9392,7 @@
         <v>160</v>
       </c>
       <c r="C41">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -9409,7 +9409,7 @@
         <v>163</v>
       </c>
       <c r="C42">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -9426,7 +9426,7 @@
         <v>166</v>
       </c>
       <c r="C43">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
@@ -9443,7 +9443,7 @@
         <v>170</v>
       </c>
       <c r="C44">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -9460,7 +9460,7 @@
         <v>173</v>
       </c>
       <c r="C45">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D45" t="s">
         <v>75</v>
@@ -9477,7 +9477,7 @@
         <v>177</v>
       </c>
       <c r="C46">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
@@ -9511,7 +9511,7 @@
         <v>184</v>
       </c>
       <c r="C48">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="D48" t="s">
         <v>82</v>
@@ -9528,7 +9528,7 @@
         <v>187</v>
       </c>
       <c r="C49">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -9545,7 +9545,7 @@
         <v>191</v>
       </c>
       <c r="C50">
-        <v>5763</v>
+        <v>5818</v>
       </c>
       <c r="D50" t="s">
         <v>21</v>
@@ -9562,7 +9562,7 @@
         <v>195</v>
       </c>
       <c r="C51">
-        <v>8749</v>
+        <v>8926</v>
       </c>
       <c r="D51" t="s">
         <v>193</v>
@@ -9579,7 +9579,7 @@
         <v>199</v>
       </c>
       <c r="C52">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D52" t="s">
         <v>67</v>
@@ -9596,7 +9596,7 @@
         <v>203</v>
       </c>
       <c r="C53">
-        <v>2948</v>
+        <v>2979</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
@@ -9613,7 +9613,7 @@
         <v>206</v>
       </c>
       <c r="C54">
-        <v>2099</v>
+        <v>3322</v>
       </c>
       <c r="D54" t="s">
         <v>21</v>
@@ -9630,7 +9630,7 @@
         <v>210</v>
       </c>
       <c r="C55">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D55" t="s">
         <v>208</v>
@@ -9647,7 +9647,7 @@
         <v>213</v>
       </c>
       <c r="C56">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -9664,7 +9664,7 @@
         <v>217</v>
       </c>
       <c r="C57">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
@@ -9681,7 +9681,7 @@
         <v>221</v>
       </c>
       <c r="C58">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D58" t="s">
         <v>219</v>
@@ -9698,7 +9698,7 @@
         <v>224</v>
       </c>
       <c r="C59">
-        <v>4827</v>
+        <v>4944</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -9715,7 +9715,7 @@
         <v>227</v>
       </c>
       <c r="C60">
-        <v>3470</v>
+        <v>3499</v>
       </c>
       <c r="D60" t="s">
         <v>21</v>
@@ -9732,7 +9732,7 @@
         <v>230</v>
       </c>
       <c r="C61">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s">
         <v>39</v>
@@ -9749,7 +9749,7 @@
         <v>233</v>
       </c>
       <c r="C62">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -9766,7 +9766,7 @@
         <v>238</v>
       </c>
       <c r="C63">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D63" t="s">
         <v>236</v>
@@ -9800,7 +9800,7 @@
         <v>244</v>
       </c>
       <c r="C65">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
@@ -9834,7 +9834,7 @@
         <v>253</v>
       </c>
       <c r="C67">
-        <v>593</v>
+        <v>1031</v>
       </c>
       <c r="D67" t="s">
         <v>251</v>
@@ -9851,7 +9851,7 @@
         <v>256</v>
       </c>
       <c r="C68">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D68" t="s">
         <v>39</v>
@@ -9868,7 +9868,7 @@
         <v>259</v>
       </c>
       <c r="C69">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -9885,7 +9885,7 @@
         <v>263</v>
       </c>
       <c r="C70">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="D70" t="s">
         <v>261</v>
@@ -9902,7 +9902,7 @@
         <v>268</v>
       </c>
       <c r="C71">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D71" t="s">
         <v>266</v>
@@ -9919,7 +9919,7 @@
         <v>271</v>
       </c>
       <c r="C72">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
         <v>67</v>
@@ -9936,7 +9936,7 @@
         <v>276</v>
       </c>
       <c r="C73">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D73" t="s">
         <v>274</v>
@@ -9970,7 +9970,7 @@
         <v>284</v>
       </c>
       <c r="C75">
-        <v>4418</v>
+        <v>4454</v>
       </c>
       <c r="D75" t="s">
         <v>282</v>
@@ -10004,7 +10004,7 @@
         <v>290</v>
       </c>
       <c r="C77">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
@@ -10021,7 +10021,7 @@
         <v>294</v>
       </c>
       <c r="C78">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
         <v>292</v>
@@ -10038,7 +10038,7 @@
         <v>297</v>
       </c>
       <c r="C79">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
@@ -10055,7 +10055,7 @@
         <v>302</v>
       </c>
       <c r="C80">
-        <v>1249</v>
+        <v>1262</v>
       </c>
       <c r="D80" t="s">
         <v>300</v>
@@ -10072,7 +10072,7 @@
         <v>305</v>
       </c>
       <c r="C81">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D81" t="s">
         <v>82</v>
@@ -10089,7 +10089,7 @@
         <v>310</v>
       </c>
       <c r="C82">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
         <v>308</v>
@@ -10106,7 +10106,7 @@
         <v>314</v>
       </c>
       <c r="C83">
-        <v>895</v>
+        <v>968</v>
       </c>
       <c r="D83" t="s">
         <v>312</v>
@@ -10123,7 +10123,7 @@
         <v>317</v>
       </c>
       <c r="C84">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="D84" t="s">
         <v>113</v>
@@ -10140,7 +10140,7 @@
         <v>321</v>
       </c>
       <c r="C85">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -10157,7 +10157,7 @@
         <v>326</v>
       </c>
       <c r="C86">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s">
         <v>324</v>
@@ -10174,7 +10174,7 @@
         <v>329</v>
       </c>
       <c r="C87">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
         <v>328</v>
@@ -10205,7 +10205,7 @@
         <v>335</v>
       </c>
       <c r="C89">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -10222,7 +10222,7 @@
         <v>338</v>
       </c>
       <c r="C90">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
@@ -10239,7 +10239,7 @@
         <v>342</v>
       </c>
       <c r="C91">
-        <v>8639</v>
+        <v>8670</v>
       </c>
       <c r="D91" t="s">
         <v>158</v>
@@ -10256,7 +10256,7 @@
         <v>347</v>
       </c>
       <c r="C92">
-        <v>4009</v>
+        <v>4088</v>
       </c>
       <c r="D92" t="s">
         <v>345</v>
@@ -10273,7 +10273,7 @@
         <v>351</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D93" t="s">
         <v>308</v>
@@ -10290,7 +10290,7 @@
         <v>356</v>
       </c>
       <c r="C94">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D94" t="s">
         <v>354</v>
@@ -10307,7 +10307,7 @@
         <v>359</v>
       </c>
       <c r="C95">
-        <v>3962</v>
+        <v>4001</v>
       </c>
       <c r="D95" t="s">
         <v>247</v>
@@ -10341,7 +10341,7 @@
         <v>366</v>
       </c>
       <c r="C97">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D97" t="s">
         <v>364</v>
@@ -10358,7 +10358,7 @@
         <v>369</v>
       </c>
       <c r="C98">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D98" t="s">
         <v>308</v>
@@ -10375,7 +10375,7 @@
         <v>373</v>
       </c>
       <c r="C99">
-        <v>1931</v>
+        <v>1962</v>
       </c>
       <c r="D99" t="s">
         <v>39</v>
@@ -10392,7 +10392,7 @@
         <v>377</v>
       </c>
       <c r="C100">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D100" t="s">
         <v>375</v>
@@ -10409,7 +10409,7 @@
         <v>380</v>
       </c>
       <c r="C101">
-        <v>1208</v>
+        <v>1215</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -10426,7 +10426,7 @@
         <v>383</v>
       </c>
       <c r="C102">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D102" t="s">
         <v>39</v>
@@ -10443,7 +10443,7 @@
         <v>386</v>
       </c>
       <c r="C103">
-        <v>2954</v>
+        <v>3063</v>
       </c>
       <c r="D103" t="s">
         <v>39</v>
@@ -10460,7 +10460,7 @@
         <v>390</v>
       </c>
       <c r="C104">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D104" t="s">
         <v>67</v>
@@ -10477,7 +10477,7 @@
         <v>393</v>
       </c>
       <c r="C105">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s">
         <v>21</v>
@@ -10494,7 +10494,7 @@
         <v>397</v>
       </c>
       <c r="C106">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D106" t="s">
         <v>21</v>
@@ -10511,7 +10511,7 @@
         <v>401</v>
       </c>
       <c r="C107">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="D107" t="s">
         <v>399</v>
@@ -10528,7 +10528,7 @@
         <v>405</v>
       </c>
       <c r="C108">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D108" t="s">
         <v>251</v>
@@ -10545,7 +10545,7 @@
         <v>408</v>
       </c>
       <c r="C109">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D109" t="s">
         <v>308</v>
@@ -10562,7 +10562,7 @@
         <v>412</v>
       </c>
       <c r="C110">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D110" t="s">
         <v>21</v>
@@ -10579,7 +10579,7 @@
         <v>415</v>
       </c>
       <c r="C111">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -10596,7 +10596,7 @@
         <v>418</v>
       </c>
       <c r="C112">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -10613,7 +10613,7 @@
         <v>422</v>
       </c>
       <c r="C113">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D113" t="s">
         <v>420</v>
@@ -10630,7 +10630,7 @@
         <v>425</v>
       </c>
       <c r="C114">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D114" t="s">
         <v>324</v>
@@ -10647,7 +10647,7 @@
         <v>429</v>
       </c>
       <c r="C115">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D115" t="s">
         <v>21</v>
@@ -10664,7 +10664,7 @@
         <v>432</v>
       </c>
       <c r="C116">
-        <v>4243</v>
+        <v>4255</v>
       </c>
       <c r="D116" t="s">
         <v>39</v>
@@ -10681,7 +10681,7 @@
         <v>437</v>
       </c>
       <c r="C117">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D117" t="s">
         <v>435</v>
@@ -10698,7 +10698,7 @@
         <v>442</v>
       </c>
       <c r="C118">
-        <v>1118</v>
+        <v>1127</v>
       </c>
       <c r="D118" t="s">
         <v>440</v>
@@ -10732,7 +10732,7 @@
         <v>448</v>
       </c>
       <c r="C120">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D120" t="s">
         <v>21</v>
@@ -10766,7 +10766,7 @@
         <v>455</v>
       </c>
       <c r="C122">
-        <v>1330</v>
+        <v>1365</v>
       </c>
       <c r="D122" t="s">
         <v>453</v>
@@ -10800,7 +10800,7 @@
         <v>461</v>
       </c>
       <c r="C124">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D124" t="s">
         <v>308</v>
@@ -10817,7 +10817,7 @@
         <v>465</v>
       </c>
       <c r="C125">
-        <v>3702</v>
+        <v>3708</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -10834,7 +10834,7 @@
         <v>468</v>
       </c>
       <c r="C126">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="D126" t="s">
         <v>21</v>
@@ -10851,7 +10851,7 @@
         <v>471</v>
       </c>
       <c r="C127">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -10868,7 +10868,7 @@
         <v>475</v>
       </c>
       <c r="C128">
-        <v>1271</v>
+        <v>1306</v>
       </c>
       <c r="D128" t="s">
         <v>473</v>
@@ -10885,7 +10885,7 @@
         <v>478</v>
       </c>
       <c r="C129">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
         <v>21</v>
@@ -10902,7 +10902,7 @@
         <v>482</v>
       </c>
       <c r="C130">
-        <v>9813</v>
+        <v>9857</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -10953,7 +10953,7 @@
         <v>492</v>
       </c>
       <c r="C133">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="D133" t="s">
         <v>490</v>
@@ -10987,7 +10987,7 @@
         <v>500</v>
       </c>
       <c r="C135">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D135" t="s">
         <v>498</v>
@@ -11021,7 +11021,7 @@
         <v>507</v>
       </c>
       <c r="C137">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D137" t="s">
         <v>21</v>
@@ -11038,7 +11038,7 @@
         <v>510</v>
       </c>
       <c r="C138">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D138" t="s">
         <v>128</v>
@@ -11055,7 +11055,7 @@
         <v>514</v>
       </c>
       <c r="C139">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="D139" t="s">
         <v>512</v>
@@ -11072,7 +11072,7 @@
         <v>517</v>
       </c>
       <c r="C140">
-        <v>3525</v>
+        <v>3561</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
@@ -11089,7 +11089,7 @@
         <v>520</v>
       </c>
       <c r="C141">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
@@ -11140,7 +11140,7 @@
         <v>531</v>
       </c>
       <c r="C144">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D144" t="s">
         <v>529</v>
@@ -11157,7 +11157,7 @@
         <v>534</v>
       </c>
       <c r="C145">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D145" t="s">
         <v>82</v>
@@ -11191,7 +11191,7 @@
         <v>541</v>
       </c>
       <c r="C147">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -11225,7 +11225,7 @@
         <v>548</v>
       </c>
       <c r="C149">
-        <v>2258</v>
+        <v>2263</v>
       </c>
       <c r="D149" t="s">
         <v>39</v>
@@ -11242,7 +11242,7 @@
         <v>551</v>
       </c>
       <c r="C150">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D150" t="s">
         <v>21</v>
@@ -11259,7 +11259,7 @@
         <v>555</v>
       </c>
       <c r="C151">
-        <v>3229</v>
+        <v>3235</v>
       </c>
       <c r="D151" t="s">
         <v>82</v>
@@ -11276,7 +11276,7 @@
         <v>559</v>
       </c>
       <c r="C152">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D152" t="s">
         <v>21</v>
@@ -11293,7 +11293,7 @@
         <v>562</v>
       </c>
       <c r="C153">
-        <v>4731</v>
+        <v>4736</v>
       </c>
       <c r="D153" t="s">
         <v>75</v>
@@ -11310,7 +11310,7 @@
         <v>565</v>
       </c>
       <c r="C154">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D154" t="s">
         <v>17</v>
@@ -11327,7 +11327,7 @@
         <v>568</v>
       </c>
       <c r="C155">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D155" t="s">
         <v>51</v>
@@ -11344,7 +11344,7 @@
         <v>573</v>
       </c>
       <c r="C156">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D156" t="s">
         <v>571</v>
@@ -11361,7 +11361,7 @@
         <v>576</v>
       </c>
       <c r="C157">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
@@ -11378,7 +11378,7 @@
         <v>580</v>
       </c>
       <c r="C158">
-        <v>4528</v>
+        <v>4544</v>
       </c>
       <c r="D158" t="s">
         <v>578</v>
@@ -11412,7 +11412,7 @@
         <v>587</v>
       </c>
       <c r="C160">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D160" t="s">
         <v>21</v>
@@ -11429,7 +11429,7 @@
         <v>590</v>
       </c>
       <c r="C161">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D161" t="s">
         <v>39</v>
@@ -11446,7 +11446,7 @@
         <v>593</v>
       </c>
       <c r="C162">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D162" t="s">
         <v>123</v>
@@ -11463,7 +11463,7 @@
         <v>596</v>
       </c>
       <c r="C163">
-        <v>2115</v>
+        <v>2136</v>
       </c>
       <c r="D163" t="s">
         <v>39</v>
@@ -11480,7 +11480,7 @@
         <v>601</v>
       </c>
       <c r="C164">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D164" t="s">
         <v>599</v>
@@ -11497,7 +11497,7 @@
         <v>604</v>
       </c>
       <c r="C165">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D165" t="s">
         <v>47</v>
@@ -11565,7 +11565,7 @@
         <v>616</v>
       </c>
       <c r="C169">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" t="s">
         <v>261</v>
@@ -11582,7 +11582,7 @@
         <v>620</v>
       </c>
       <c r="C170">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D170" t="s">
         <v>618</v>
@@ -11616,7 +11616,7 @@
         <v>627</v>
       </c>
       <c r="C172">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D172" t="s">
         <v>571</v>
@@ -11633,7 +11633,7 @@
         <v>631</v>
       </c>
       <c r="C173">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D173" t="s">
         <v>629</v>
@@ -11667,7 +11667,7 @@
         <v>638</v>
       </c>
       <c r="C175">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D175" t="s">
         <v>21</v>
@@ -11684,7 +11684,7 @@
         <v>641</v>
       </c>
       <c r="C176">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="D176" t="s">
         <v>266</v>
@@ -11735,7 +11735,7 @@
         <v>650</v>
       </c>
       <c r="C179">
-        <v>2675</v>
+        <v>2687</v>
       </c>
       <c r="D179" t="s">
         <v>236</v>
@@ -11752,7 +11752,7 @@
         <v>653</v>
       </c>
       <c r="C180">
-        <v>3021</v>
+        <v>3026</v>
       </c>
       <c r="D180" t="s">
         <v>17</v>
@@ -11769,7 +11769,7 @@
         <v>657</v>
       </c>
       <c r="C181">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D181" t="s">
         <v>655</v>
@@ -11871,7 +11871,7 @@
         <v>679</v>
       </c>
       <c r="C187">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D187" t="s">
         <v>677</v>
@@ -11888,7 +11888,7 @@
         <v>682</v>
       </c>
       <c r="C188">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="D188" t="s">
         <v>39</v>
@@ -11905,7 +11905,7 @@
         <v>686</v>
       </c>
       <c r="C189">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D189" t="s">
         <v>21</v>
@@ -11922,7 +11922,7 @@
         <v>691</v>
       </c>
       <c r="C190">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D190" t="s">
         <v>689</v>
@@ -11939,7 +11939,7 @@
         <v>694</v>
       </c>
       <c r="C191">
-        <v>10357</v>
+        <v>10421</v>
       </c>
       <c r="D191" t="s">
         <v>21</v>
@@ -11956,7 +11956,7 @@
         <v>696</v>
       </c>
       <c r="C192">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D192" t="s">
         <v>247</v>
@@ -11970,7 +11970,7 @@
         <v>699</v>
       </c>
       <c r="C193">
-        <v>1049</v>
+        <v>1101</v>
       </c>
       <c r="D193" t="s">
         <v>128</v>
@@ -11987,7 +11987,7 @@
         <v>703</v>
       </c>
       <c r="C194">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D194" t="s">
         <v>543</v>
@@ -12004,7 +12004,7 @@
         <v>706</v>
       </c>
       <c r="C195">
-        <v>16056</v>
+        <v>17267</v>
       </c>
       <c r="D195" t="s">
         <v>21</v>
@@ -12021,7 +12021,7 @@
         <v>710</v>
       </c>
       <c r="C196">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="D196" t="s">
         <v>708</v>
@@ -12038,7 +12038,7 @@
         <v>713</v>
       </c>
       <c r="C197">
-        <v>960</v>
+        <v>1610</v>
       </c>
       <c r="D197" t="s">
         <v>21</v>
@@ -12055,7 +12055,7 @@
         <v>716</v>
       </c>
       <c r="C198">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="D198" t="s">
         <v>21</v>
@@ -12106,7 +12106,7 @@
         <v>726</v>
       </c>
       <c r="C201">
-        <v>6578</v>
+        <v>6596</v>
       </c>
       <c r="D201" t="s">
         <v>55</v>
@@ -12123,7 +12123,7 @@
         <v>729</v>
       </c>
       <c r="C202">
-        <v>3560</v>
+        <v>3623</v>
       </c>
       <c r="D202" t="s">
         <v>39</v>
@@ -12140,7 +12140,7 @@
         <v>732</v>
       </c>
       <c r="C203">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D203" t="s">
         <v>364</v>
@@ -12174,7 +12174,7 @@
         <v>740</v>
       </c>
       <c r="C205">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D205" t="s">
         <v>738</v>
@@ -12191,7 +12191,7 @@
         <v>743</v>
       </c>
       <c r="C206">
-        <v>1557</v>
+        <v>1592</v>
       </c>
       <c r="D206" t="s">
         <v>21</v>
@@ -12208,7 +12208,7 @@
         <v>746</v>
       </c>
       <c r="C207">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="D207" t="s">
         <v>39</v>
@@ -12225,7 +12225,7 @@
         <v>749</v>
       </c>
       <c r="C208">
-        <v>2318</v>
+        <v>2464</v>
       </c>
       <c r="D208" t="s">
         <v>39</v>
@@ -12242,7 +12242,7 @@
         <v>752</v>
       </c>
       <c r="C209">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D209" t="s">
         <v>328</v>
@@ -12259,7 +12259,7 @@
         <v>756</v>
       </c>
       <c r="C210">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D210" t="s">
         <v>21</v>
@@ -12276,7 +12276,7 @@
         <v>759</v>
       </c>
       <c r="C211">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D211" t="s">
         <v>21</v>
@@ -12293,7 +12293,7 @@
         <v>762</v>
       </c>
       <c r="C212">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D212" t="s">
         <v>39</v>
@@ -12310,7 +12310,7 @@
         <v>765</v>
       </c>
       <c r="C213">
-        <v>2282</v>
+        <v>2345</v>
       </c>
       <c r="D213" t="s">
         <v>21</v>
@@ -12327,7 +12327,7 @@
         <v>769</v>
       </c>
       <c r="C214">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="D214" t="s">
         <v>39</v>
@@ -12344,7 +12344,7 @@
         <v>773</v>
       </c>
       <c r="C215">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D215" t="s">
         <v>771</v>
@@ -12361,7 +12361,7 @@
         <v>776</v>
       </c>
       <c r="C216">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="D216" t="s">
         <v>51</v>
@@ -12378,7 +12378,7 @@
         <v>779</v>
       </c>
       <c r="C217">
-        <v>4776</v>
+        <v>4788</v>
       </c>
       <c r="D217" t="s">
         <v>21</v>
@@ -12395,7 +12395,7 @@
         <v>782</v>
       </c>
       <c r="C218">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D218" t="s">
         <v>39</v>
@@ -12446,7 +12446,7 @@
         <v>795</v>
       </c>
       <c r="C221">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="D221" t="s">
         <v>793</v>
@@ -12463,7 +12463,7 @@
         <v>798</v>
       </c>
       <c r="C222">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D222" t="s">
         <v>21</v>
@@ -12480,7 +12480,7 @@
         <v>801</v>
       </c>
       <c r="C223">
-        <v>1287</v>
+        <v>1349</v>
       </c>
       <c r="D223" t="s">
         <v>39</v>
@@ -12497,7 +12497,7 @@
         <v>804</v>
       </c>
       <c r="C224">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D224" t="s">
         <v>51</v>
@@ -12514,7 +12514,7 @@
         <v>807</v>
       </c>
       <c r="C225">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="D225" t="s">
         <v>21</v>
@@ -12548,7 +12548,7 @@
         <v>815</v>
       </c>
       <c r="C227">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D227" t="s">
         <v>261</v>
@@ -12565,7 +12565,7 @@
         <v>819</v>
       </c>
       <c r="C228">
-        <v>7332</v>
+        <v>7356</v>
       </c>
       <c r="D228" t="s">
         <v>817</v>
@@ -12582,7 +12582,7 @@
         <v>822</v>
       </c>
       <c r="C229">
-        <v>2061</v>
+        <v>2097</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
@@ -12616,7 +12616,7 @@
         <v>830</v>
       </c>
       <c r="C231">
-        <v>1739</v>
+        <v>1759</v>
       </c>
       <c r="D231" t="s">
         <v>828</v>
@@ -12633,7 +12633,7 @@
         <v>833</v>
       </c>
       <c r="C232">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D232" t="s">
         <v>108</v>
@@ -12650,7 +12650,7 @@
         <v>836</v>
       </c>
       <c r="C233">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="D233" t="s">
         <v>324</v>
@@ -12667,7 +12667,7 @@
         <v>839</v>
       </c>
       <c r="C234">
-        <v>1114</v>
+        <v>1133</v>
       </c>
       <c r="D234" t="s">
         <v>308</v>
@@ -12684,7 +12684,7 @@
         <v>842</v>
       </c>
       <c r="C235">
-        <v>6079</v>
+        <v>6097</v>
       </c>
       <c r="D235" t="s">
         <v>82</v>
@@ -12701,7 +12701,7 @@
         <v>846</v>
       </c>
       <c r="C236">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D236" t="s">
         <v>785</v>
@@ -12718,7 +12718,7 @@
         <v>849</v>
       </c>
       <c r="C237">
-        <v>7205</v>
+        <v>7245</v>
       </c>
       <c r="D237" t="s">
         <v>39</v>
@@ -12735,7 +12735,7 @@
         <v>852</v>
       </c>
       <c r="C238">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="D238" t="s">
         <v>67</v>
@@ -12769,7 +12769,7 @@
         <v>858</v>
       </c>
       <c r="C240">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D240" t="s">
         <v>324</v>
@@ -12786,7 +12786,7 @@
         <v>863</v>
       </c>
       <c r="C241">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="D241" t="s">
         <v>861</v>
@@ -12803,7 +12803,7 @@
         <v>866</v>
       </c>
       <c r="C242">
-        <v>33227</v>
+        <v>33338</v>
       </c>
       <c r="D242" t="s">
         <v>21</v>
@@ -12837,7 +12837,7 @@
         <v>872</v>
       </c>
       <c r="C244">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="D244" t="s">
         <v>490</v>
@@ -12854,7 +12854,7 @@
         <v>875</v>
       </c>
       <c r="C245">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D245" t="s">
         <v>21</v>
@@ -12871,7 +12871,7 @@
         <v>880</v>
       </c>
       <c r="C246">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D246" t="s">
         <v>878</v>
@@ -12888,7 +12888,7 @@
         <v>883</v>
       </c>
       <c r="C247">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D247" t="s">
         <v>17</v>
@@ -12905,7 +12905,7 @@
         <v>887</v>
       </c>
       <c r="C248">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D248" t="s">
         <v>21</v>
@@ -12922,7 +12922,7 @@
         <v>890</v>
       </c>
       <c r="C249">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D249" t="s">
         <v>17</v>
@@ -12939,7 +12939,7 @@
         <v>893</v>
       </c>
       <c r="C250">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D250" t="s">
         <v>21</v>
@@ -12956,7 +12956,7 @@
         <v>897</v>
       </c>
       <c r="C251">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="D251" t="s">
         <v>21</v>
@@ -12973,7 +12973,7 @@
         <v>900</v>
       </c>
       <c r="C252">
-        <v>37861</v>
+        <v>38144</v>
       </c>
       <c r="D252" t="s">
         <v>21</v>
@@ -13007,7 +13007,7 @@
         <v>906</v>
       </c>
       <c r="C254">
-        <v>963</v>
+        <v>972</v>
       </c>
       <c r="D254" t="s">
         <v>498</v>
@@ -13024,7 +13024,7 @@
         <v>909</v>
       </c>
       <c r="C255">
-        <v>10369</v>
+        <v>10390</v>
       </c>
       <c r="D255" t="s">
         <v>128</v>
@@ -13058,7 +13058,7 @@
         <v>916</v>
       </c>
       <c r="C257">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D257" t="s">
         <v>282</v>
@@ -13075,7 +13075,7 @@
         <v>919</v>
       </c>
       <c r="C258">
-        <v>5479</v>
+        <v>5498</v>
       </c>
       <c r="D258" t="s">
         <v>17</v>
@@ -13092,7 +13092,7 @@
         <v>922</v>
       </c>
       <c r="C259">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D259" t="s">
         <v>861</v>
@@ -13109,7 +13109,7 @@
         <v>925</v>
       </c>
       <c r="C260">
-        <v>2722</v>
+        <v>2744</v>
       </c>
       <c r="D260" t="s">
         <v>785</v>
@@ -13126,7 +13126,7 @@
         <v>929</v>
       </c>
       <c r="C261">
-        <v>6208</v>
+        <v>6234</v>
       </c>
       <c r="D261" t="s">
         <v>927</v>
@@ -13160,7 +13160,7 @@
         <v>936</v>
       </c>
       <c r="C263">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D263" t="s">
         <v>21</v>
@@ -13177,7 +13177,7 @@
         <v>940</v>
       </c>
       <c r="C264">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D264" t="s">
         <v>108</v>
@@ -13211,7 +13211,7 @@
         <v>946</v>
       </c>
       <c r="C266">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D266" t="s">
         <v>21</v>
@@ -13228,7 +13228,7 @@
         <v>949</v>
       </c>
       <c r="C267">
-        <v>1781</v>
+        <v>1793</v>
       </c>
       <c r="D267" t="s">
         <v>123</v>
@@ -13245,7 +13245,7 @@
         <v>953</v>
       </c>
       <c r="C268">
-        <v>2136</v>
+        <v>2157</v>
       </c>
       <c r="D268" t="s">
         <v>39</v>
@@ -13262,7 +13262,7 @@
         <v>956</v>
       </c>
       <c r="C269">
-        <v>1472</v>
+        <v>1494</v>
       </c>
       <c r="D269" t="s">
         <v>51</v>
@@ -13279,7 +13279,7 @@
         <v>959</v>
       </c>
       <c r="C270">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D270" t="s">
         <v>39</v>
@@ -13296,7 +13296,7 @@
         <v>963</v>
       </c>
       <c r="C271">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="D271" t="s">
         <v>961</v>
@@ -13313,7 +13313,7 @@
         <v>966</v>
       </c>
       <c r="C272">
-        <v>1214</v>
+        <v>1219</v>
       </c>
       <c r="D272" t="s">
         <v>39</v>
@@ -13330,7 +13330,7 @@
         <v>970</v>
       </c>
       <c r="C273">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D273" t="s">
         <v>968</v>
@@ -13347,7 +13347,7 @@
         <v>973</v>
       </c>
       <c r="C274">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D274" t="s">
         <v>502</v>
@@ -13381,7 +13381,7 @@
         <v>980</v>
       </c>
       <c r="C276">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D276" t="s">
         <v>21</v>
@@ -13415,7 +13415,7 @@
         <v>986</v>
       </c>
       <c r="C278">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="D278" t="s">
         <v>78</v>
@@ -13432,7 +13432,7 @@
         <v>989</v>
       </c>
       <c r="C279">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="D279" t="s">
         <v>21</v>
@@ -13449,7 +13449,7 @@
         <v>992</v>
       </c>
       <c r="C280">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D280" t="s">
         <v>21</v>
@@ -13466,7 +13466,7 @@
         <v>995</v>
       </c>
       <c r="C281">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="D281" t="s">
         <v>21</v>
@@ -13483,7 +13483,7 @@
         <v>999</v>
       </c>
       <c r="C282">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D282" t="s">
         <v>21</v>
@@ -13500,7 +13500,7 @@
         <v>1002</v>
       </c>
       <c r="C283">
-        <v>5709</v>
+        <v>5723</v>
       </c>
       <c r="D283" t="s">
         <v>490</v>
@@ -13517,7 +13517,7 @@
         <v>1005</v>
       </c>
       <c r="C284">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="D284" t="s">
         <v>75</v>
@@ -13534,7 +13534,7 @@
         <v>1008</v>
       </c>
       <c r="C285">
-        <v>2240</v>
+        <v>2269</v>
       </c>
       <c r="D285" t="s">
         <v>75</v>
@@ -13568,7 +13568,7 @@
         <v>1014</v>
       </c>
       <c r="C287">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="D287" t="s">
         <v>17</v>
@@ -13599,7 +13599,7 @@
         <v>1020</v>
       </c>
       <c r="C289">
-        <v>5559</v>
+        <v>5586</v>
       </c>
       <c r="D289" t="s">
         <v>17</v>
@@ -13616,7 +13616,7 @@
         <v>1023</v>
       </c>
       <c r="C290">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
@@ -13633,7 +13633,7 @@
         <v>1026</v>
       </c>
       <c r="C291">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D291" t="s">
         <v>78</v>
@@ -13650,7 +13650,7 @@
         <v>1030</v>
       </c>
       <c r="C292">
-        <v>2946</v>
+        <v>2960</v>
       </c>
       <c r="D292" t="s">
         <v>1028</v>
@@ -13667,7 +13667,7 @@
         <v>1033</v>
       </c>
       <c r="C293">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D293" t="s">
         <v>39</v>
@@ -13684,7 +13684,7 @@
         <v>1036</v>
       </c>
       <c r="C294">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D294" t="s">
         <v>931</v>
@@ -13718,7 +13718,7 @@
         <v>1043</v>
       </c>
       <c r="C296">
-        <v>4023</v>
+        <v>4051</v>
       </c>
       <c r="D296" t="s">
         <v>324</v>
@@ -13735,7 +13735,7 @@
         <v>1046</v>
       </c>
       <c r="C297">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="D297" t="s">
         <v>21</v>
@@ -13752,7 +13752,7 @@
         <v>1050</v>
       </c>
       <c r="C298">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="D298" t="s">
         <v>247</v>
@@ -13769,7 +13769,7 @@
         <v>1053</v>
       </c>
       <c r="C299">
-        <v>1307</v>
+        <v>1345</v>
       </c>
       <c r="D299" t="s">
         <v>39</v>
@@ -13786,7 +13786,7 @@
         <v>1057</v>
       </c>
       <c r="C300">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D300" t="s">
         <v>21</v>
@@ -13803,7 +13803,7 @@
         <v>1060</v>
       </c>
       <c r="C301">
-        <v>6453</v>
+        <v>6477</v>
       </c>
       <c r="D301" t="s">
         <v>17</v>
@@ -13837,7 +13837,7 @@
         <v>1067</v>
       </c>
       <c r="C303">
-        <v>4291</v>
+        <v>4307</v>
       </c>
       <c r="D303" t="s">
         <v>1065</v>
@@ -13871,7 +13871,7 @@
         <v>1072</v>
       </c>
       <c r="C305">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D305" t="s">
         <v>123</v>
@@ -13885,7 +13885,7 @@
         <v>1076</v>
       </c>
       <c r="C306">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D306" t="s">
         <v>1074</v>
@@ -13902,7 +13902,7 @@
         <v>1080</v>
       </c>
       <c r="C307">
-        <v>3093</v>
+        <v>3098</v>
       </c>
       <c r="D307" t="s">
         <v>128</v>
@@ -13919,7 +13919,7 @@
         <v>1083</v>
       </c>
       <c r="C308">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D308" t="s">
         <v>878</v>
@@ -13936,7 +13936,7 @@
         <v>1085</v>
       </c>
       <c r="C309">
-        <v>1892</v>
+        <v>1912</v>
       </c>
       <c r="D309" t="s">
         <v>543</v>
@@ -13950,7 +13950,7 @@
         <v>1088</v>
       </c>
       <c r="C310">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D310" t="s">
         <v>39</v>
@@ -13967,7 +13967,7 @@
         <v>1091</v>
       </c>
       <c r="C311">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D311" t="s">
         <v>39</v>
@@ -13984,7 +13984,7 @@
         <v>1094</v>
       </c>
       <c r="C312">
-        <v>4950</v>
+        <v>4952</v>
       </c>
       <c r="D312" t="s">
         <v>150</v>
@@ -14001,7 +14001,7 @@
         <v>1097</v>
       </c>
       <c r="C313">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D313" t="s">
         <v>810</v>
@@ -14018,7 +14018,7 @@
         <v>1101</v>
       </c>
       <c r="C314">
-        <v>1953</v>
+        <v>1962</v>
       </c>
       <c r="D314" t="s">
         <v>82</v>
@@ -14035,7 +14035,7 @@
         <v>1104</v>
       </c>
       <c r="C315">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="D315" t="s">
         <v>810</v>
@@ -14069,7 +14069,7 @@
         <v>1111</v>
       </c>
       <c r="C317">
-        <v>14992</v>
+        <v>14993</v>
       </c>
       <c r="D317" t="s">
         <v>67</v>
@@ -14086,7 +14086,7 @@
         <v>1114</v>
       </c>
       <c r="C318">
-        <v>5009</v>
+        <v>5040</v>
       </c>
       <c r="D318" t="s">
         <v>128</v>
@@ -14103,7 +14103,7 @@
         <v>1117</v>
       </c>
       <c r="C319">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="D319" t="s">
         <v>21</v>
@@ -14120,7 +14120,7 @@
         <v>1120</v>
       </c>
       <c r="C320">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D320" t="s">
         <v>266</v>
@@ -14137,7 +14137,7 @@
         <v>1123</v>
       </c>
       <c r="C321">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D321" t="s">
         <v>771</v>
@@ -14188,7 +14188,7 @@
         <v>1134</v>
       </c>
       <c r="C324">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="D324" t="s">
         <v>39</v>
@@ -14205,7 +14205,7 @@
         <v>1138</v>
       </c>
       <c r="C325">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="D325" t="s">
         <v>1136</v>
@@ -14222,7 +14222,7 @@
         <v>1141</v>
       </c>
       <c r="C326">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="D326" t="s">
         <v>21</v>
@@ -14239,7 +14239,7 @@
         <v>1144</v>
       </c>
       <c r="C327">
-        <v>2922</v>
+        <v>2928</v>
       </c>
       <c r="D327" t="s">
         <v>39</v>
@@ -14256,7 +14256,7 @@
         <v>1148</v>
       </c>
       <c r="C328">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D328" t="s">
         <v>21</v>
@@ -14273,7 +14273,7 @@
         <v>1151</v>
       </c>
       <c r="C329">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D329" t="s">
         <v>21</v>
@@ -14290,7 +14290,7 @@
         <v>1155</v>
       </c>
       <c r="C330">
-        <v>2205</v>
+        <v>2235</v>
       </c>
       <c r="D330" t="s">
         <v>1153</v>
@@ -14307,7 +14307,7 @@
         <v>1159</v>
       </c>
       <c r="C331">
-        <v>3553</v>
+        <v>3574</v>
       </c>
       <c r="D331" t="s">
         <v>1157</v>
@@ -14324,7 +14324,7 @@
         <v>1162</v>
       </c>
       <c r="C332">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D332" t="s">
         <v>51</v>
@@ -14341,7 +14341,7 @@
         <v>1165</v>
       </c>
       <c r="C333">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D333" t="s">
         <v>536</v>
@@ -14358,7 +14358,7 @@
         <v>1168</v>
       </c>
       <c r="C334">
-        <v>1951</v>
+        <v>1961</v>
       </c>
       <c r="D334" t="s">
         <v>21</v>
@@ -14375,7 +14375,7 @@
         <v>1172</v>
       </c>
       <c r="C335">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D335" t="s">
         <v>21</v>
@@ -14392,7 +14392,7 @@
         <v>1175</v>
       </c>
       <c r="C336">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D336" t="s">
         <v>21</v>
@@ -14409,7 +14409,7 @@
         <v>1179</v>
       </c>
       <c r="C337">
-        <v>2207</v>
+        <v>2219</v>
       </c>
       <c r="D337" t="s">
         <v>21</v>
@@ -14426,7 +14426,7 @@
         <v>1183</v>
       </c>
       <c r="C338">
-        <v>11157</v>
+        <v>11179</v>
       </c>
       <c r="D338" t="s">
         <v>1181</v>
@@ -14443,7 +14443,7 @@
         <v>1186</v>
       </c>
       <c r="C339">
-        <v>21539</v>
+        <v>21586</v>
       </c>
       <c r="D339" t="s">
         <v>828</v>
@@ -14477,7 +14477,7 @@
         <v>1192</v>
       </c>
       <c r="C341">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="D341" t="s">
         <v>21</v>
@@ -14494,7 +14494,7 @@
         <v>1195</v>
       </c>
       <c r="C342">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D342" t="s">
         <v>21</v>
@@ -14528,7 +14528,7 @@
         <v>1202</v>
       </c>
       <c r="C344">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D344" t="s">
         <v>21</v>
@@ -14545,7 +14545,7 @@
         <v>1205</v>
       </c>
       <c r="C345">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D345" t="s">
         <v>21</v>
@@ -14562,7 +14562,7 @@
         <v>1208</v>
       </c>
       <c r="C346">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D346" t="s">
         <v>21</v>
@@ -14579,7 +14579,7 @@
         <v>1211</v>
       </c>
       <c r="C347">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D347" t="s">
         <v>39</v>
@@ -14596,7 +14596,7 @@
         <v>1214</v>
       </c>
       <c r="C348">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D348" t="s">
         <v>21</v>
@@ -14613,7 +14613,7 @@
         <v>1217</v>
       </c>
       <c r="C349">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="D349" t="s">
         <v>39</v>
@@ -14630,7 +14630,7 @@
         <v>1220</v>
       </c>
       <c r="C350">
-        <v>3240</v>
+        <v>3245</v>
       </c>
       <c r="D350" t="s">
         <v>543</v>
@@ -14664,7 +14664,7 @@
         <v>1228</v>
       </c>
       <c r="C352">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D352" t="s">
         <v>490</v>
@@ -14681,7 +14681,7 @@
         <v>1231</v>
       </c>
       <c r="C353">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="D353" t="s">
         <v>308</v>
@@ -14698,7 +14698,7 @@
         <v>1234</v>
       </c>
       <c r="C354">
-        <v>5339</v>
+        <v>5383</v>
       </c>
       <c r="D354" t="s">
         <v>21</v>
@@ -14715,7 +14715,7 @@
         <v>1237</v>
       </c>
       <c r="C355">
-        <v>6544</v>
+        <v>6554</v>
       </c>
       <c r="D355" t="s">
         <v>128</v>
@@ -14732,7 +14732,7 @@
         <v>1240</v>
       </c>
       <c r="C356">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D356" t="s">
         <v>543</v>
@@ -14749,7 +14749,7 @@
         <v>1244</v>
       </c>
       <c r="C357">
-        <v>1292</v>
+        <v>1301</v>
       </c>
       <c r="D357" t="s">
         <v>51</v>
@@ -14766,7 +14766,7 @@
         <v>1248</v>
       </c>
       <c r="C358">
-        <v>5325</v>
+        <v>5357</v>
       </c>
       <c r="D358" t="s">
         <v>1246</v>
@@ -14783,7 +14783,7 @@
         <v>1251</v>
       </c>
       <c r="C359">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D359" t="s">
         <v>498</v>
@@ -14800,7 +14800,7 @@
         <v>1255</v>
       </c>
       <c r="C360">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D360" t="s">
         <v>21</v>
@@ -14817,7 +14817,7 @@
         <v>1258</v>
       </c>
       <c r="C361">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D361" t="s">
         <v>17</v>
@@ -14834,7 +14834,7 @@
         <v>1261</v>
       </c>
       <c r="C362">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D362" t="s">
         <v>21</v>
@@ -14851,7 +14851,7 @@
         <v>1266</v>
       </c>
       <c r="C363">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D363" t="s">
         <v>1264</v>
@@ -14868,7 +14868,7 @@
         <v>1269</v>
       </c>
       <c r="C364">
-        <v>2107</v>
+        <v>2116</v>
       </c>
       <c r="D364" t="s">
         <v>51</v>
@@ -14885,7 +14885,7 @@
         <v>1273</v>
       </c>
       <c r="C365">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D365" t="s">
         <v>1271</v>
@@ -14902,7 +14902,7 @@
         <v>1276</v>
       </c>
       <c r="C366">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="D366" t="s">
         <v>21</v>
@@ -14919,7 +14919,7 @@
         <v>1279</v>
       </c>
       <c r="C367">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D367" t="s">
         <v>21</v>
@@ -14936,7 +14936,7 @@
         <v>1282</v>
       </c>
       <c r="C368">
-        <v>1704</v>
+        <v>1720</v>
       </c>
       <c r="D368" t="s">
         <v>39</v>
@@ -14953,7 +14953,7 @@
         <v>1286</v>
       </c>
       <c r="C369">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D369" t="s">
         <v>51</v>
@@ -14970,7 +14970,7 @@
         <v>1289</v>
       </c>
       <c r="C370">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D370" t="s">
         <v>39</v>
@@ -14987,7 +14987,7 @@
         <v>1292</v>
       </c>
       <c r="C371">
-        <v>3364</v>
+        <v>3375</v>
       </c>
       <c r="D371" t="s">
         <v>261</v>
@@ -15004,7 +15004,7 @@
         <v>1296</v>
       </c>
       <c r="C372">
-        <v>3581</v>
+        <v>3588</v>
       </c>
       <c r="D372" t="s">
         <v>1294</v>
@@ -15021,7 +15021,7 @@
         <v>1299</v>
       </c>
       <c r="C373">
-        <v>3602</v>
+        <v>3605</v>
       </c>
       <c r="D373" t="s">
         <v>21</v>
@@ -15038,7 +15038,7 @@
         <v>1302</v>
       </c>
       <c r="C374">
-        <v>2148</v>
+        <v>2156</v>
       </c>
       <c r="D374" t="s">
         <v>75</v>
@@ -15055,7 +15055,7 @@
         <v>1306</v>
       </c>
       <c r="C375">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="D375" t="s">
         <v>771</v>
@@ -15072,7 +15072,7 @@
         <v>1310</v>
       </c>
       <c r="C376">
-        <v>2185</v>
+        <v>2231</v>
       </c>
       <c r="D376" t="s">
         <v>1308</v>
@@ -15089,7 +15089,7 @@
         <v>1313</v>
       </c>
       <c r="C377">
-        <v>7877</v>
+        <v>7928</v>
       </c>
       <c r="D377" t="s">
         <v>39</v>
@@ -15123,7 +15123,7 @@
         <v>1321</v>
       </c>
       <c r="C379">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D379" t="s">
         <v>1319</v>
@@ -15140,7 +15140,7 @@
         <v>1324</v>
       </c>
       <c r="C380">
-        <v>4409</v>
+        <v>4438</v>
       </c>
       <c r="D380" t="s">
         <v>17</v>
@@ -15157,7 +15157,7 @@
         <v>1327</v>
       </c>
       <c r="C381">
-        <v>24912</v>
+        <v>24946</v>
       </c>
       <c r="D381" t="s">
         <v>21</v>
@@ -15174,7 +15174,7 @@
         <v>1330</v>
       </c>
       <c r="C382">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="D382" t="s">
         <v>771</v>
@@ -15191,7 +15191,7 @@
         <v>1334</v>
       </c>
       <c r="C383">
-        <v>9799</v>
+        <v>9816</v>
       </c>
       <c r="D383" t="s">
         <v>771</v>
@@ -15208,7 +15208,7 @@
         <v>1338</v>
       </c>
       <c r="C384">
-        <v>3044</v>
+        <v>3055</v>
       </c>
       <c r="D384" t="s">
         <v>1336</v>
@@ -15225,7 +15225,7 @@
         <v>1341</v>
       </c>
       <c r="C385">
-        <v>2434</v>
+        <v>2449</v>
       </c>
       <c r="D385" t="s">
         <v>39</v>
@@ -15242,7 +15242,7 @@
         <v>1345</v>
       </c>
       <c r="C386">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="D386" t="s">
         <v>1343</v>
@@ -15259,7 +15259,7 @@
         <v>1349</v>
       </c>
       <c r="C387">
-        <v>3533</v>
+        <v>3546</v>
       </c>
       <c r="D387" t="s">
         <v>1347</v>
@@ -15276,7 +15276,7 @@
         <v>1352</v>
       </c>
       <c r="C388">
-        <v>1953</v>
+        <v>1982</v>
       </c>
       <c r="D388" t="s">
         <v>300</v>
@@ -15293,7 +15293,7 @@
         <v>1356</v>
       </c>
       <c r="C389">
-        <v>3128</v>
+        <v>3133</v>
       </c>
       <c r="D389" t="s">
         <v>21</v>
@@ -15310,7 +15310,7 @@
         <v>1359</v>
       </c>
       <c r="C390">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D390" t="s">
         <v>39</v>
@@ -15327,7 +15327,7 @@
         <v>1362</v>
       </c>
       <c r="C391">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D391" t="s">
         <v>39</v>
@@ -15361,7 +15361,7 @@
         <v>1369</v>
       </c>
       <c r="C393">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D393" t="s">
         <v>39</v>
@@ -15378,7 +15378,7 @@
         <v>1372</v>
       </c>
       <c r="C394">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D394" t="s">
         <v>21</v>
@@ -15395,7 +15395,7 @@
         <v>1375</v>
       </c>
       <c r="C395">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D395" t="s">
         <v>771</v>
@@ -15412,7 +15412,7 @@
         <v>1378</v>
       </c>
       <c r="C396">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D396" t="s">
         <v>1319</v>
@@ -15429,7 +15429,7 @@
         <v>1382</v>
       </c>
       <c r="C397">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="D397" t="s">
         <v>21</v>
@@ -15446,7 +15446,7 @@
         <v>1386</v>
       </c>
       <c r="C398">
-        <v>1858</v>
+        <v>1867</v>
       </c>
       <c r="D398" t="s">
         <v>1384</v>
@@ -15463,7 +15463,7 @@
         <v>1389</v>
       </c>
       <c r="C399">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D399" t="s">
         <v>39</v>
@@ -15480,7 +15480,7 @@
         <v>1392</v>
       </c>
       <c r="C400">
-        <v>1579</v>
+        <v>1604</v>
       </c>
       <c r="D400" t="s">
         <v>1336</v>
@@ -15497,7 +15497,7 @@
         <v>1394</v>
       </c>
       <c r="C401">
-        <v>16002</v>
+        <v>16033</v>
       </c>
       <c r="D401" t="s">
         <v>21</v>
@@ -15511,7 +15511,7 @@
         <v>1398</v>
       </c>
       <c r="C402">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="D402" t="s">
         <v>128</v>
@@ -15528,7 +15528,7 @@
         <v>1401</v>
       </c>
       <c r="C403">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="D403" t="s">
         <v>17</v>
@@ -15562,7 +15562,7 @@
         <v>1408</v>
       </c>
       <c r="C405">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="D405" t="s">
         <v>1406</v>
@@ -15579,7 +15579,7 @@
         <v>1413</v>
       </c>
       <c r="C406">
-        <v>2477</v>
+        <v>2488</v>
       </c>
       <c r="D406" t="s">
         <v>1411</v>
@@ -15596,7 +15596,7 @@
         <v>1416</v>
       </c>
       <c r="C407">
-        <v>2114</v>
+        <v>2122</v>
       </c>
       <c r="D407" t="s">
         <v>78</v>
@@ -15630,7 +15630,7 @@
         <v>1423</v>
       </c>
       <c r="C409">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D409" t="s">
         <v>21</v>
@@ -15647,7 +15647,7 @@
         <v>1426</v>
       </c>
       <c r="C410">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D410" t="s">
         <v>39</v>
@@ -15664,7 +15664,7 @@
         <v>1429</v>
       </c>
       <c r="C411">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="D411" t="s">
         <v>21</v>
@@ -15681,7 +15681,7 @@
         <v>1432</v>
       </c>
       <c r="C412">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D412" t="s">
         <v>17</v>
@@ -15698,7 +15698,7 @@
         <v>1436</v>
       </c>
       <c r="C413">
-        <v>10530</v>
+        <v>10607</v>
       </c>
       <c r="D413" t="s">
         <v>21</v>
@@ -15715,7 +15715,7 @@
         <v>1439</v>
       </c>
       <c r="C414">
-        <v>15110</v>
+        <v>15136</v>
       </c>
       <c r="D414" t="s">
         <v>17</v>
@@ -15749,7 +15749,7 @@
         <v>1445</v>
       </c>
       <c r="C416">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D416" t="s">
         <v>282</v>
@@ -15766,7 +15766,7 @@
         <v>1448</v>
       </c>
       <c r="C417">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="D417" t="s">
         <v>261</v>
@@ -15783,7 +15783,7 @@
         <v>1451</v>
       </c>
       <c r="C418">
-        <v>3310</v>
+        <v>3329</v>
       </c>
       <c r="D418" t="s">
         <v>150</v>
@@ -15800,7 +15800,7 @@
         <v>1454</v>
       </c>
       <c r="C419">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="D419" t="s">
         <v>490</v>
@@ -15817,7 +15817,7 @@
         <v>1457</v>
       </c>
       <c r="C420">
-        <v>11751</v>
+        <v>11858</v>
       </c>
       <c r="D420" t="s">
         <v>1136</v>
@@ -15834,7 +15834,7 @@
         <v>1460</v>
       </c>
       <c r="C421">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D421" t="s">
         <v>21</v>
@@ -15851,7 +15851,7 @@
         <v>1463</v>
       </c>
       <c r="C422">
-        <v>2929</v>
+        <v>2934</v>
       </c>
       <c r="D422" t="s">
         <v>324</v>
@@ -15868,7 +15868,7 @@
         <v>1467</v>
       </c>
       <c r="C423">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D423" t="s">
         <v>785</v>
@@ -15885,7 +15885,7 @@
         <v>1470</v>
       </c>
       <c r="C424">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D424" t="s">
         <v>17</v>
@@ -15902,7 +15902,7 @@
         <v>1473</v>
       </c>
       <c r="C425">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D425" t="s">
         <v>689</v>
@@ -15919,7 +15919,7 @@
         <v>1476</v>
       </c>
       <c r="C426">
-        <v>21314</v>
+        <v>21333</v>
       </c>
       <c r="D426" t="s">
         <v>292</v>
@@ -15953,7 +15953,7 @@
         <v>1482</v>
       </c>
       <c r="C428">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="D428" t="s">
         <v>128</v>
@@ -15970,7 +15970,7 @@
         <v>1485</v>
       </c>
       <c r="C429">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="D429" t="s">
         <v>39</v>
@@ -15987,7 +15987,7 @@
         <v>1489</v>
       </c>
       <c r="C430">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D430" t="s">
         <v>324</v>
@@ -16004,7 +16004,7 @@
         <v>1492</v>
       </c>
       <c r="C431">
-        <v>1222</v>
+        <v>1235</v>
       </c>
       <c r="D431" t="s">
         <v>21</v>
@@ -16021,7 +16021,7 @@
         <v>1495</v>
       </c>
       <c r="C432">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D432" t="s">
         <v>21</v>
@@ -16038,7 +16038,7 @@
         <v>1498</v>
       </c>
       <c r="C433">
-        <v>42643</v>
+        <v>42742</v>
       </c>
       <c r="D433" t="s">
         <v>21</v>
@@ -16055,7 +16055,7 @@
         <v>1501</v>
       </c>
       <c r="C434">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D434" t="s">
         <v>543</v>
@@ -16072,7 +16072,7 @@
         <v>1505</v>
       </c>
       <c r="C435">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="D435" t="s">
         <v>21</v>
@@ -16089,7 +16089,7 @@
         <v>1508</v>
       </c>
       <c r="C436">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D436" t="s">
         <v>1038</v>
@@ -16106,7 +16106,7 @@
         <v>1511</v>
       </c>
       <c r="C437">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D437" t="s">
         <v>51</v>
@@ -16123,7 +16123,7 @@
         <v>1514</v>
       </c>
       <c r="C438">
-        <v>2417</v>
+        <v>2432</v>
       </c>
       <c r="D438" t="s">
         <v>21</v>
@@ -16140,7 +16140,7 @@
         <v>1517</v>
       </c>
       <c r="C439">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="D439" t="s">
         <v>39</v>
@@ -16157,7 +16157,7 @@
         <v>1520</v>
       </c>
       <c r="C440">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D440" t="s">
         <v>39</v>
@@ -16174,7 +16174,7 @@
         <v>1523</v>
       </c>
       <c r="C441">
-        <v>10718</v>
+        <v>10739</v>
       </c>
       <c r="D441" t="s">
         <v>39</v>
@@ -16191,7 +16191,7 @@
         <v>1527</v>
       </c>
       <c r="C442">
-        <v>6869</v>
+        <v>6881</v>
       </c>
       <c r="D442" t="s">
         <v>677</v>
@@ -16208,7 +16208,7 @@
         <v>1530</v>
       </c>
       <c r="C443">
-        <v>7175</v>
+        <v>7291</v>
       </c>
       <c r="D443" t="s">
         <v>113</v>
@@ -16225,7 +16225,7 @@
         <v>1533</v>
       </c>
       <c r="C444">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="D444" t="s">
         <v>21</v>
@@ -16242,7 +16242,7 @@
         <v>1536</v>
       </c>
       <c r="C445">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D445" t="s">
         <v>1319</v>
@@ -16259,7 +16259,7 @@
         <v>1539</v>
       </c>
       <c r="C446">
-        <v>48940</v>
+        <v>49030</v>
       </c>
       <c r="D446" t="s">
         <v>39</v>
@@ -16290,7 +16290,7 @@
         <v>1545</v>
       </c>
       <c r="C448">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="D448" t="s">
         <v>39</v>
@@ -16307,7 +16307,7 @@
         <v>1548</v>
       </c>
       <c r="C449">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D449" t="s">
         <v>39</v>
@@ -16324,7 +16324,7 @@
         <v>1551</v>
       </c>
       <c r="C450">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="D450" t="s">
         <v>21</v>
@@ -16341,7 +16341,7 @@
         <v>1554</v>
       </c>
       <c r="C451">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="D451" t="s">
         <v>247</v>
@@ -16358,7 +16358,7 @@
         <v>1558</v>
       </c>
       <c r="C452">
-        <v>4750</v>
+        <v>4769</v>
       </c>
       <c r="D452" t="s">
         <v>21</v>
@@ -16375,7 +16375,7 @@
         <v>1562</v>
       </c>
       <c r="C453">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D453" t="s">
         <v>39</v>
@@ -16392,7 +16392,7 @@
         <v>1565</v>
       </c>
       <c r="C454">
-        <v>1861</v>
+        <v>1873</v>
       </c>
       <c r="D454" t="s">
         <v>1336</v>
@@ -16409,7 +16409,7 @@
         <v>1568</v>
       </c>
       <c r="C455">
-        <v>10438</v>
+        <v>10451</v>
       </c>
       <c r="D455" t="s">
         <v>1153</v>
@@ -16426,7 +16426,7 @@
         <v>1571</v>
       </c>
       <c r="C456">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D456" t="s">
         <v>21</v>
@@ -16443,7 +16443,7 @@
         <v>1575</v>
       </c>
       <c r="C457">
-        <v>4552</v>
+        <v>4775</v>
       </c>
       <c r="D457" t="s">
         <v>1573</v>
@@ -16477,7 +16477,7 @@
         <v>1581</v>
       </c>
       <c r="C459">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D459" t="s">
         <v>21</v>
@@ -16494,7 +16494,7 @@
         <v>1584</v>
       </c>
       <c r="C460">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D460" t="s">
         <v>39</v>
@@ -16511,7 +16511,7 @@
         <v>1587</v>
       </c>
       <c r="C461">
-        <v>4520</v>
+        <v>4547</v>
       </c>
       <c r="D461" t="s">
         <v>21</v>
@@ -16528,7 +16528,7 @@
         <v>1592</v>
       </c>
       <c r="C462">
-        <v>3813</v>
+        <v>3821</v>
       </c>
       <c r="D462" t="s">
         <v>1590</v>
@@ -16545,7 +16545,7 @@
         <v>1595</v>
       </c>
       <c r="C463">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D463" t="s">
         <v>128</v>
@@ -16562,7 +16562,7 @@
         <v>1598</v>
       </c>
       <c r="C464">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="D464" t="s">
         <v>300</v>
@@ -16579,7 +16579,7 @@
         <v>1601</v>
       </c>
       <c r="C465">
-        <v>18811</v>
+        <v>18830</v>
       </c>
       <c r="D465" t="s">
         <v>21</v>
@@ -16613,7 +16613,7 @@
         <v>1609</v>
       </c>
       <c r="C467">
-        <v>4811</v>
+        <v>4818</v>
       </c>
       <c r="D467" t="s">
         <v>1607</v>
@@ -16630,7 +16630,7 @@
         <v>1612</v>
       </c>
       <c r="C468">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="D468" t="s">
         <v>39</v>
@@ -16647,7 +16647,7 @@
         <v>1615</v>
       </c>
       <c r="C469">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D469" t="s">
         <v>810</v>
@@ -16664,7 +16664,7 @@
         <v>1618</v>
       </c>
       <c r="C470">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="D470" t="s">
         <v>21</v>
@@ -16681,7 +16681,7 @@
         <v>1621</v>
       </c>
       <c r="C471">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="D471" t="s">
         <v>39</v>
@@ -16698,7 +16698,7 @@
         <v>1624</v>
       </c>
       <c r="C472">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D472" t="s">
         <v>39</v>
@@ -16715,7 +16715,7 @@
         <v>1627</v>
       </c>
       <c r="C473">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="D473" t="s">
         <v>21</v>
@@ -16732,7 +16732,7 @@
         <v>1630</v>
       </c>
       <c r="C474">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D474" t="s">
         <v>1336</v>
@@ -16766,7 +16766,7 @@
         <v>1638</v>
       </c>
       <c r="C476">
-        <v>2270</v>
+        <v>2280</v>
       </c>
       <c r="D476" t="s">
         <v>1636</v>
@@ -16783,7 +16783,7 @@
         <v>1641</v>
       </c>
       <c r="C477">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D477" t="s">
         <v>21</v>
@@ -16800,7 +16800,7 @@
         <v>1643</v>
       </c>
       <c r="C478">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="D478" t="s">
         <v>490</v>
@@ -16814,7 +16814,7 @@
         <v>1646</v>
       </c>
       <c r="C479">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="D479" t="s">
         <v>282</v>
@@ -16831,7 +16831,7 @@
         <v>1649</v>
       </c>
       <c r="C480">
-        <v>3036</v>
+        <v>3043</v>
       </c>
       <c r="D480" t="s">
         <v>420</v>
@@ -16865,7 +16865,7 @@
         <v>1655</v>
       </c>
       <c r="C482">
-        <v>3756</v>
+        <v>3759</v>
       </c>
       <c r="D482" t="s">
         <v>21</v>
@@ -16882,7 +16882,7 @@
         <v>1658</v>
       </c>
       <c r="C483">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="D483" t="s">
         <v>543</v>
@@ -16899,7 +16899,7 @@
         <v>1661</v>
       </c>
       <c r="C484">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="D484" t="s">
         <v>21</v>
@@ -16916,7 +16916,7 @@
         <v>1664</v>
       </c>
       <c r="C485">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="D485" t="s">
         <v>21</v>
@@ -16933,7 +16933,7 @@
         <v>1668</v>
       </c>
       <c r="C486">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D486" t="s">
         <v>1666</v>
@@ -16950,7 +16950,7 @@
         <v>1671</v>
       </c>
       <c r="C487">
-        <v>2848</v>
+        <v>2865</v>
       </c>
       <c r="D487" t="s">
         <v>21</v>
@@ -16967,7 +16967,7 @@
         <v>1675</v>
       </c>
       <c r="C488">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D488" t="s">
         <v>1673</v>
@@ -16984,7 +16984,7 @@
         <v>1678</v>
       </c>
       <c r="C489">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="D489" t="s">
         <v>39</v>
@@ -17001,7 +17001,7 @@
         <v>1681</v>
       </c>
       <c r="C490">
-        <v>5350</v>
+        <v>5410</v>
       </c>
       <c r="D490" t="s">
         <v>21</v>
@@ -17018,7 +17018,7 @@
         <v>1685</v>
       </c>
       <c r="C491">
-        <v>7616</v>
+        <v>7634</v>
       </c>
       <c r="D491" t="s">
         <v>1683</v>
@@ -17035,7 +17035,7 @@
         <v>1689</v>
       </c>
       <c r="C492">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D492" t="s">
         <v>82</v>
@@ -17052,7 +17052,7 @@
         <v>1692</v>
       </c>
       <c r="C493">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D493" t="s">
         <v>17</v>
@@ -17086,7 +17086,7 @@
         <v>1698</v>
       </c>
       <c r="C495">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D495" t="s">
         <v>21</v>
@@ -17103,7 +17103,7 @@
         <v>1701</v>
       </c>
       <c r="C496">
-        <v>37987</v>
+        <v>38061</v>
       </c>
       <c r="D496" t="s">
         <v>21</v>
@@ -17120,7 +17120,7 @@
         <v>1704</v>
       </c>
       <c r="C497">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D497" t="s">
         <v>39</v>
@@ -17137,7 +17137,7 @@
         <v>1708</v>
       </c>
       <c r="C498">
-        <v>4362</v>
+        <v>4372</v>
       </c>
       <c r="D498" t="s">
         <v>78</v>
@@ -17154,7 +17154,7 @@
         <v>1712</v>
       </c>
       <c r="C499">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D499" t="s">
         <v>1710</v>
@@ -17171,7 +17171,7 @@
         <v>1715</v>
       </c>
       <c r="C500">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D500" t="s">
         <v>21</v>
@@ -17188,7 +17188,7 @@
         <v>1718</v>
       </c>
       <c r="C501">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="D501" t="s">
         <v>39</v>
@@ -17205,7 +17205,7 @@
         <v>1721</v>
       </c>
       <c r="C502">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D502" t="s">
         <v>128</v>
@@ -17222,7 +17222,7 @@
         <v>1724</v>
       </c>
       <c r="C503">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D503" t="s">
         <v>51</v>
@@ -17239,7 +17239,7 @@
         <v>1728</v>
       </c>
       <c r="C504">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D504" t="s">
         <v>1726</v>
@@ -17256,7 +17256,7 @@
         <v>1731</v>
       </c>
       <c r="C505">
-        <v>24869</v>
+        <v>24939</v>
       </c>
       <c r="D505" t="s">
         <v>1573</v>
@@ -17273,7 +17273,7 @@
         <v>1734</v>
       </c>
       <c r="C506">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="D506" t="s">
         <v>39</v>
@@ -17290,7 +17290,7 @@
         <v>1737</v>
       </c>
       <c r="C507">
-        <v>4567</v>
+        <v>4574</v>
       </c>
       <c r="D507" t="s">
         <v>39</v>
@@ -17307,7 +17307,7 @@
         <v>1740</v>
       </c>
       <c r="C508">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D508" t="s">
         <v>21</v>
@@ -17324,7 +17324,7 @@
         <v>1743</v>
       </c>
       <c r="C509">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="D509" t="s">
         <v>236</v>
@@ -17341,7 +17341,7 @@
         <v>1747</v>
       </c>
       <c r="C510">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D510" t="s">
         <v>324</v>
@@ -17358,7 +17358,7 @@
         <v>1750</v>
       </c>
       <c r="C511">
-        <v>5127</v>
+        <v>5128</v>
       </c>
       <c r="D511" t="s">
         <v>21</v>
@@ -17375,7 +17375,7 @@
         <v>1753</v>
       </c>
       <c r="C512">
-        <v>8350</v>
+        <v>8395</v>
       </c>
       <c r="D512" t="s">
         <v>7</v>
@@ -17392,7 +17392,7 @@
         <v>1756</v>
       </c>
       <c r="C513">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D513" t="s">
         <v>21</v>
@@ -17409,7 +17409,7 @@
         <v>1759</v>
       </c>
       <c r="C514">
-        <v>3654</v>
+        <v>3658</v>
       </c>
       <c r="D514" t="s">
         <v>39</v>
@@ -17426,7 +17426,7 @@
         <v>1762</v>
       </c>
       <c r="C515">
-        <v>3998</v>
+        <v>4001</v>
       </c>
       <c r="D515" t="s">
         <v>17</v>
@@ -17443,7 +17443,7 @@
         <v>1765</v>
       </c>
       <c r="C516">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D516" t="s">
         <v>21</v>
@@ -17460,7 +17460,7 @@
         <v>1768</v>
       </c>
       <c r="C517">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D517" t="s">
         <v>21</v>
@@ -17477,7 +17477,7 @@
         <v>1771</v>
       </c>
       <c r="C518">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D518" t="s">
         <v>17</v>
@@ -17494,7 +17494,7 @@
         <v>1775</v>
       </c>
       <c r="C519">
-        <v>6193</v>
+        <v>6203</v>
       </c>
       <c r="D519" t="s">
         <v>1406</v>
@@ -17511,7 +17511,7 @@
         <v>1778</v>
       </c>
       <c r="C520">
-        <v>2566</v>
+        <v>2578</v>
       </c>
       <c r="D520" t="s">
         <v>21</v>
@@ -17528,7 +17528,7 @@
         <v>1781</v>
       </c>
       <c r="C521">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D521" t="s">
         <v>21</v>
@@ -17545,7 +17545,7 @@
         <v>1785</v>
       </c>
       <c r="C522">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="D522" t="s">
         <v>1783</v>
@@ -17562,7 +17562,7 @@
         <v>1788</v>
       </c>
       <c r="C523">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D523" t="s">
         <v>39</v>
@@ -17579,7 +17579,7 @@
         <v>1792</v>
       </c>
       <c r="C524">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D524" t="s">
         <v>1790</v>
@@ -17596,7 +17596,7 @@
         <v>1795</v>
       </c>
       <c r="C525">
-        <v>12294</v>
+        <v>12321</v>
       </c>
       <c r="D525" t="s">
         <v>21</v>
@@ -17613,7 +17613,7 @@
         <v>1798</v>
       </c>
       <c r="C526">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D526" t="s">
         <v>51</v>
@@ -17630,7 +17630,7 @@
         <v>1801</v>
       </c>
       <c r="C527">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="D527" t="s">
         <v>128</v>
@@ -17647,7 +17647,7 @@
         <v>1806</v>
       </c>
       <c r="C528">
-        <v>8898</v>
+        <v>8903</v>
       </c>
       <c r="D528" t="s">
         <v>1804</v>
@@ -17664,7 +17664,7 @@
         <v>1809</v>
       </c>
       <c r="C529">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="D529" t="s">
         <v>618</v>
@@ -17681,7 +17681,7 @@
         <v>1812</v>
       </c>
       <c r="C530">
-        <v>143743</v>
+        <v>143864</v>
       </c>
       <c r="D530" t="s">
         <v>292</v>
@@ -17698,7 +17698,7 @@
         <v>1815</v>
       </c>
       <c r="C531">
-        <v>8511</v>
+        <v>8570</v>
       </c>
       <c r="D531" t="s">
         <v>21</v>
@@ -17715,7 +17715,7 @@
         <v>1818</v>
       </c>
       <c r="C532">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D532" t="s">
         <v>21</v>
@@ -17732,7 +17732,7 @@
         <v>1821</v>
       </c>
       <c r="C533">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="D533" t="s">
         <v>39</v>
@@ -17749,7 +17749,7 @@
         <v>1824</v>
       </c>
       <c r="C534">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="D534" t="s">
         <v>17</v>
@@ -17783,7 +17783,7 @@
         <v>1830</v>
       </c>
       <c r="C536">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D536" t="s">
         <v>21</v>
@@ -17800,7 +17800,7 @@
         <v>1833</v>
       </c>
       <c r="C537">
-        <v>3120</v>
+        <v>3134</v>
       </c>
       <c r="D537" t="s">
         <v>1343</v>
@@ -17817,7 +17817,7 @@
         <v>1836</v>
       </c>
       <c r="C538">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="D538" t="s">
         <v>21</v>
@@ -17834,7 +17834,7 @@
         <v>1840</v>
       </c>
       <c r="C539">
-        <v>8426</v>
+        <v>8433</v>
       </c>
       <c r="D539" t="s">
         <v>39</v>
@@ -17851,7 +17851,7 @@
         <v>1843</v>
       </c>
       <c r="C540">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D540" t="s">
         <v>128</v>
@@ -17868,7 +17868,7 @@
         <v>1846</v>
       </c>
       <c r="C541">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="D541" t="s">
         <v>21</v>
@@ -17902,7 +17902,7 @@
         <v>1853</v>
       </c>
       <c r="C543">
-        <v>6158</v>
+        <v>6177</v>
       </c>
       <c r="D543" t="s">
         <v>158</v>
@@ -17919,7 +17919,7 @@
         <v>1857</v>
       </c>
       <c r="C544">
-        <v>12534</v>
+        <v>12588</v>
       </c>
       <c r="D544" t="s">
         <v>1855</v>
@@ -17936,7 +17936,7 @@
         <v>1861</v>
       </c>
       <c r="C545">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="D545" t="s">
         <v>39</v>
@@ -17953,7 +17953,7 @@
         <v>1864</v>
       </c>
       <c r="C546">
-        <v>2266</v>
+        <v>2289</v>
       </c>
       <c r="D546" t="s">
         <v>39</v>
@@ -17970,7 +17970,7 @@
         <v>1867</v>
       </c>
       <c r="C547">
-        <v>4061</v>
+        <v>4117</v>
       </c>
       <c r="D547" t="s">
         <v>17</v>
@@ -17987,7 +17987,7 @@
         <v>1870</v>
       </c>
       <c r="C548">
-        <v>3014</v>
+        <v>3024</v>
       </c>
       <c r="D548" t="s">
         <v>571</v>
@@ -18004,7 +18004,7 @@
         <v>1873</v>
       </c>
       <c r="C549">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="D549" t="s">
         <v>39</v>
@@ -18021,7 +18021,7 @@
         <v>1876</v>
       </c>
       <c r="C550">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="D550" t="s">
         <v>1343</v>
@@ -18055,7 +18055,7 @@
         <v>1884</v>
       </c>
       <c r="C552">
-        <v>31770</v>
+        <v>31862</v>
       </c>
       <c r="D552" t="s">
         <v>1590</v>
@@ -18072,7 +18072,7 @@
         <v>1887</v>
       </c>
       <c r="C553">
-        <v>4231</v>
+        <v>4256</v>
       </c>
       <c r="D553" t="s">
         <v>128</v>
@@ -18089,7 +18089,7 @@
         <v>1890</v>
       </c>
       <c r="C554">
-        <v>16230</v>
+        <v>16254</v>
       </c>
       <c r="D554" t="s">
         <v>785</v>
@@ -18106,7 +18106,7 @@
         <v>1894</v>
       </c>
       <c r="C555">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D555" t="s">
         <v>274</v>
@@ -18123,7 +18123,7 @@
         <v>1897</v>
       </c>
       <c r="C556">
-        <v>12317</v>
+        <v>12324</v>
       </c>
       <c r="D556" t="s">
         <v>39</v>
@@ -18140,7 +18140,7 @@
         <v>1900</v>
       </c>
       <c r="C557">
-        <v>16236</v>
+        <v>16243</v>
       </c>
       <c r="D557" t="s">
         <v>82</v>
@@ -18157,7 +18157,7 @@
         <v>1904</v>
       </c>
       <c r="C558">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D558" t="s">
         <v>51</v>
@@ -18174,7 +18174,7 @@
         <v>1907</v>
       </c>
       <c r="C559">
-        <v>15924</v>
+        <v>15980</v>
       </c>
       <c r="D559" t="s">
         <v>39</v>
@@ -18191,7 +18191,7 @@
         <v>1910</v>
       </c>
       <c r="C560">
-        <v>3585</v>
+        <v>3588</v>
       </c>
       <c r="D560" t="s">
         <v>21</v>
@@ -18208,7 +18208,7 @@
         <v>1914</v>
       </c>
       <c r="C561">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="D561" t="s">
         <v>39</v>
@@ -18225,7 +18225,7 @@
         <v>1917</v>
       </c>
       <c r="C562">
-        <v>1639</v>
+        <v>1649</v>
       </c>
       <c r="D562" t="s">
         <v>17</v>
@@ -18242,7 +18242,7 @@
         <v>1920</v>
       </c>
       <c r="C563">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="D563" t="s">
         <v>21</v>
@@ -18259,7 +18259,7 @@
         <v>1923</v>
       </c>
       <c r="C564">
-        <v>2977</v>
+        <v>2986</v>
       </c>
       <c r="D564" t="s">
         <v>21</v>
@@ -18276,7 +18276,7 @@
         <v>1926</v>
       </c>
       <c r="C565">
-        <v>36366</v>
+        <v>36553</v>
       </c>
       <c r="D565" t="s">
         <v>39</v>
@@ -18293,7 +18293,7 @@
         <v>1929</v>
       </c>
       <c r="C566">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D566" t="s">
         <v>39</v>
@@ -18310,7 +18310,7 @@
         <v>1932</v>
       </c>
       <c r="C567">
-        <v>1955</v>
+        <v>1988</v>
       </c>
       <c r="D567" t="s">
         <v>39</v>
@@ -18327,7 +18327,7 @@
         <v>1935</v>
       </c>
       <c r="C568">
-        <v>34432</v>
+        <v>34520</v>
       </c>
       <c r="D568" t="s">
         <v>274</v>
@@ -18344,7 +18344,7 @@
         <v>1938</v>
       </c>
       <c r="C569">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="D569" t="s">
         <v>21</v>
@@ -18361,7 +18361,7 @@
         <v>1941</v>
       </c>
       <c r="C570">
-        <v>16929</v>
+        <v>17005</v>
       </c>
       <c r="D570" t="s">
         <v>158</v>
@@ -18378,7 +18378,7 @@
         <v>1944</v>
       </c>
       <c r="C571">
-        <v>25760</v>
+        <v>25791</v>
       </c>
       <c r="D571" t="s">
         <v>324</v>
@@ -18395,7 +18395,7 @@
         <v>1947</v>
       </c>
       <c r="C572">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D572" t="s">
         <v>571</v>
@@ -18412,7 +18412,7 @@
         <v>1951</v>
       </c>
       <c r="C573">
-        <v>2509</v>
+        <v>2524</v>
       </c>
       <c r="D573" t="s">
         <v>629</v>
@@ -18429,7 +18429,7 @@
         <v>1954</v>
       </c>
       <c r="C574">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D574" t="s">
         <v>21</v>
@@ -18446,7 +18446,7 @@
         <v>1957</v>
       </c>
       <c r="C575">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="D575" t="s">
         <v>39</v>
@@ -18463,7 +18463,7 @@
         <v>1960</v>
       </c>
       <c r="C576">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D576" t="s">
         <v>39</v>
@@ -18480,7 +18480,7 @@
         <v>1963</v>
       </c>
       <c r="C577">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D577" t="s">
         <v>39</v>
@@ -18497,7 +18497,7 @@
         <v>1967</v>
       </c>
       <c r="C578">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D578" t="s">
         <v>21</v>
@@ -18531,7 +18531,7 @@
         <v>1973</v>
       </c>
       <c r="C580">
-        <v>13458</v>
+        <v>13491</v>
       </c>
       <c r="D580" t="s">
         <v>21</v>
@@ -18548,7 +18548,7 @@
         <v>1976</v>
       </c>
       <c r="C581">
-        <v>4116</v>
+        <v>4119</v>
       </c>
       <c r="D581" t="s">
         <v>21</v>
@@ -18565,7 +18565,7 @@
         <v>1980</v>
       </c>
       <c r="C582">
-        <v>5382</v>
+        <v>5390</v>
       </c>
       <c r="D582" t="s">
         <v>21</v>
@@ -18582,7 +18582,7 @@
         <v>1983</v>
       </c>
       <c r="C583">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="D583" t="s">
         <v>51</v>
@@ -18599,7 +18599,7 @@
         <v>1986</v>
       </c>
       <c r="C584">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="D584" t="s">
         <v>17</v>
@@ -18616,7 +18616,7 @@
         <v>1989</v>
       </c>
       <c r="C585">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="D585" t="s">
         <v>21</v>
@@ -18633,7 +18633,7 @@
         <v>1993</v>
       </c>
       <c r="C586">
-        <v>13567</v>
+        <v>13627</v>
       </c>
       <c r="D586" t="s">
         <v>39</v>
@@ -18667,7 +18667,7 @@
         <v>1999</v>
       </c>
       <c r="C588">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D588" t="s">
         <v>21</v>
@@ -18684,7 +18684,7 @@
         <v>2002</v>
       </c>
       <c r="C589">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="D589" t="s">
         <v>39</v>
@@ -18701,7 +18701,7 @@
         <v>2005</v>
       </c>
       <c r="C590">
-        <v>4244</v>
+        <v>4252</v>
       </c>
       <c r="D590" t="s">
         <v>21</v>
@@ -18718,7 +18718,7 @@
         <v>2008</v>
       </c>
       <c r="C591">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D591" t="s">
         <v>375</v>
@@ -18735,7 +18735,7 @@
         <v>2011</v>
       </c>
       <c r="C592">
-        <v>2323</v>
+        <v>2332</v>
       </c>
       <c r="D592" t="s">
         <v>308</v>
@@ -18752,7 +18752,7 @@
         <v>2014</v>
       </c>
       <c r="C593">
-        <v>4441</v>
+        <v>4447</v>
       </c>
       <c r="D593" t="s">
         <v>17</v>
@@ -18769,7 +18769,7 @@
         <v>2018</v>
       </c>
       <c r="C594">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="D594" t="s">
         <v>21</v>
@@ -18786,7 +18786,7 @@
         <v>2021</v>
       </c>
       <c r="C595">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="D595" t="s">
         <v>21</v>
@@ -18803,7 +18803,7 @@
         <v>2024</v>
       </c>
       <c r="C596">
-        <v>3972</v>
+        <v>3976</v>
       </c>
       <c r="D596" t="s">
         <v>82</v>
@@ -18837,7 +18837,7 @@
         <v>2031</v>
       </c>
       <c r="C598">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D598" t="s">
         <v>21</v>
@@ -18854,7 +18854,7 @@
         <v>2034</v>
       </c>
       <c r="C599">
-        <v>7086</v>
+        <v>7108</v>
       </c>
       <c r="D599" t="s">
         <v>39</v>
@@ -18871,7 +18871,7 @@
         <v>2037</v>
       </c>
       <c r="C600">
-        <v>5260</v>
+        <v>5263</v>
       </c>
       <c r="D600" t="s">
         <v>21</v>
@@ -18888,7 +18888,7 @@
         <v>2040</v>
       </c>
       <c r="C601">
-        <v>17280</v>
+        <v>17296</v>
       </c>
       <c r="D601" t="s">
         <v>21</v>
@@ -18905,7 +18905,7 @@
         <v>2043</v>
       </c>
       <c r="C602">
-        <v>2866</v>
+        <v>2874</v>
       </c>
       <c r="D602" t="s">
         <v>39</v>
@@ -18939,7 +18939,7 @@
         <v>2049</v>
       </c>
       <c r="C604">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D604" t="s">
         <v>39</v>
@@ -18956,7 +18956,7 @@
         <v>2052</v>
       </c>
       <c r="C605">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D605" t="s">
         <v>21</v>
@@ -18973,7 +18973,7 @@
         <v>2056</v>
       </c>
       <c r="C606">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="D606" t="s">
         <v>2054</v>
@@ -18990,7 +18990,7 @@
         <v>2060</v>
       </c>
       <c r="C607">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="D607" t="s">
         <v>39</v>
@@ -19024,7 +19024,7 @@
         <v>2066</v>
       </c>
       <c r="C609">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="D609" t="s">
         <v>39</v>
@@ -19041,7 +19041,7 @@
         <v>2069</v>
       </c>
       <c r="C610">
-        <v>3594</v>
+        <v>3597</v>
       </c>
       <c r="D610" t="s">
         <v>39</v>
@@ -19058,7 +19058,7 @@
         <v>2072</v>
       </c>
       <c r="C611">
-        <v>2169</v>
+        <v>2182</v>
       </c>
       <c r="D611" t="s">
         <v>39</v>
@@ -19092,7 +19092,7 @@
         <v>2078</v>
       </c>
       <c r="C613">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="D613" t="s">
         <v>39</v>
@@ -19109,7 +19109,7 @@
         <v>2080</v>
       </c>
       <c r="C614">
-        <v>8668</v>
+        <v>8674</v>
       </c>
       <c r="D614" t="s">
         <v>708</v>
@@ -19123,7 +19123,7 @@
         <v>2083</v>
       </c>
       <c r="C615">
-        <v>5044</v>
+        <v>5076</v>
       </c>
       <c r="D615" t="s">
         <v>39</v>
@@ -19140,7 +19140,7 @@
         <v>2087</v>
       </c>
       <c r="C616">
-        <v>11631</v>
+        <v>11654</v>
       </c>
       <c r="D616" t="s">
         <v>39</v>
@@ -19157,7 +19157,7 @@
         <v>2090</v>
       </c>
       <c r="C617">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D617" t="s">
         <v>39</v>
@@ -19174,7 +19174,7 @@
         <v>2093</v>
       </c>
       <c r="C618">
-        <v>7353</v>
+        <v>7360</v>
       </c>
       <c r="D618" t="s">
         <v>39</v>
@@ -19191,7 +19191,7 @@
         <v>2096</v>
       </c>
       <c r="C619">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="D619" t="s">
         <v>39</v>
@@ -19208,7 +19208,7 @@
         <v>2099</v>
       </c>
       <c r="C620">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="D620" t="s">
         <v>51</v>
@@ -19225,7 +19225,7 @@
         <v>2102</v>
       </c>
       <c r="C621">
-        <v>33667</v>
+        <v>33682</v>
       </c>
       <c r="D621" t="s">
         <v>771</v>
@@ -19242,7 +19242,7 @@
         <v>2106</v>
       </c>
       <c r="C622">
-        <v>2974</v>
+        <v>2988</v>
       </c>
       <c r="D622" t="s">
         <v>2104</v>
@@ -19259,7 +19259,7 @@
         <v>2109</v>
       </c>
       <c r="C623">
-        <v>2092</v>
+        <v>2114</v>
       </c>
       <c r="D623" t="s">
         <v>39</v>
@@ -19276,7 +19276,7 @@
         <v>2112</v>
       </c>
       <c r="C624">
-        <v>5963</v>
+        <v>5967</v>
       </c>
       <c r="D624" t="s">
         <v>21</v>
@@ -19293,7 +19293,7 @@
         <v>2115</v>
       </c>
       <c r="C625">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D625" t="s">
         <v>498</v>
@@ -19307,7 +19307,7 @@
         <v>2118</v>
       </c>
       <c r="C626">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="D626" t="s">
         <v>21</v>
@@ -19324,7 +19324,7 @@
         <v>2122</v>
       </c>
       <c r="C627">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D627" t="s">
         <v>21</v>
@@ -19341,7 +19341,7 @@
         <v>2125</v>
       </c>
       <c r="C628">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="D628" t="s">
         <v>21</v>
@@ -19358,7 +19358,7 @@
         <v>2128</v>
       </c>
       <c r="C629">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D629" t="s">
         <v>21</v>
@@ -19375,7 +19375,7 @@
         <v>2131</v>
       </c>
       <c r="C630">
-        <v>2440</v>
+        <v>2445</v>
       </c>
       <c r="D630" t="s">
         <v>308</v>
@@ -19392,7 +19392,7 @@
         <v>2135</v>
       </c>
       <c r="C631">
-        <v>4523</v>
+        <v>4533</v>
       </c>
       <c r="D631" t="s">
         <v>21</v>
@@ -19409,7 +19409,7 @@
         <v>2138</v>
       </c>
       <c r="C632">
-        <v>1220</v>
+        <v>1225</v>
       </c>
       <c r="D632" t="s">
         <v>878</v>
@@ -19426,7 +19426,7 @@
         <v>2141</v>
       </c>
       <c r="C633">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="D633" t="s">
         <v>51</v>
@@ -19443,7 +19443,7 @@
         <v>2144</v>
       </c>
       <c r="C634">
-        <v>2753</v>
+        <v>2768</v>
       </c>
       <c r="D634" t="s">
         <v>39</v>
@@ -19460,7 +19460,7 @@
         <v>2148</v>
       </c>
       <c r="C635">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D635" t="s">
         <v>2146</v>
@@ -19477,7 +19477,7 @@
         <v>2151</v>
       </c>
       <c r="C636">
-        <v>10829</v>
+        <v>10861</v>
       </c>
       <c r="D636" t="s">
         <v>21</v>
@@ -19494,7 +19494,7 @@
         <v>2154</v>
       </c>
       <c r="C637">
-        <v>3113</v>
+        <v>3128</v>
       </c>
       <c r="D637" t="s">
         <v>51</v>
@@ -19528,7 +19528,7 @@
         <v>2162</v>
       </c>
       <c r="C639">
-        <v>3661</v>
+        <v>3673</v>
       </c>
       <c r="D639" t="s">
         <v>2160</v>
@@ -19545,7 +19545,7 @@
         <v>2165</v>
       </c>
       <c r="C640">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="D640" t="s">
         <v>39</v>
@@ -19562,7 +19562,7 @@
         <v>2168</v>
       </c>
       <c r="C641">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="D641" t="s">
         <v>39</v>
@@ -19579,7 +19579,7 @@
         <v>2171</v>
       </c>
       <c r="C642">
-        <v>2467</v>
+        <v>2479</v>
       </c>
       <c r="D642" t="s">
         <v>21</v>
@@ -19596,7 +19596,7 @@
         <v>2174</v>
       </c>
       <c r="C643">
-        <v>5061</v>
+        <v>5072</v>
       </c>
       <c r="D643" t="s">
         <v>39</v>
@@ -19613,7 +19613,7 @@
         <v>2178</v>
       </c>
       <c r="C644">
-        <v>5319</v>
+        <v>5324</v>
       </c>
       <c r="D644" t="s">
         <v>2176</v>
@@ -19630,7 +19630,7 @@
         <v>2182</v>
       </c>
       <c r="C645">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D645" t="s">
         <v>51</v>
@@ -19647,7 +19647,7 @@
         <v>2186</v>
       </c>
       <c r="C646">
-        <v>4876</v>
+        <v>4885</v>
       </c>
       <c r="D646" t="s">
         <v>17</v>
@@ -19664,7 +19664,7 @@
         <v>2189</v>
       </c>
       <c r="C647">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="D647" t="s">
         <v>123</v>
@@ -19715,7 +19715,7 @@
         <v>2199</v>
       </c>
       <c r="C650">
-        <v>2042</v>
+        <v>2064</v>
       </c>
       <c r="D650" t="s">
         <v>21</v>
@@ -19732,7 +19732,7 @@
         <v>2203</v>
       </c>
       <c r="C651">
-        <v>3056</v>
+        <v>3075</v>
       </c>
       <c r="D651" t="s">
         <v>39</v>
@@ -19749,7 +19749,7 @@
         <v>2207</v>
       </c>
       <c r="C652">
-        <v>8061</v>
+        <v>8066</v>
       </c>
       <c r="D652" t="s">
         <v>498</v>
@@ -19766,7 +19766,7 @@
         <v>2210</v>
       </c>
       <c r="C653">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="D653" t="s">
         <v>17</v>
@@ -19783,7 +19783,7 @@
         <v>2214</v>
       </c>
       <c r="C654">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="D654" t="s">
         <v>17</v>
@@ -19817,7 +19817,7 @@
         <v>2221</v>
       </c>
       <c r="C656">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="D656" t="s">
         <v>2219</v>
@@ -19834,7 +19834,7 @@
         <v>2225</v>
       </c>
       <c r="C657">
-        <v>3020</v>
+        <v>3043</v>
       </c>
       <c r="D657" t="s">
         <v>39</v>
@@ -19851,7 +19851,7 @@
         <v>2229</v>
       </c>
       <c r="C658">
-        <v>8579</v>
+        <v>8592</v>
       </c>
       <c r="D658" t="s">
         <v>39</v>
@@ -19868,7 +19868,7 @@
         <v>2232</v>
       </c>
       <c r="C659">
-        <v>2175</v>
+        <v>2182</v>
       </c>
       <c r="D659" t="s">
         <v>39</v>
@@ -19902,7 +19902,7 @@
         <v>2238</v>
       </c>
       <c r="C661">
-        <v>3545</v>
+        <v>3548</v>
       </c>
       <c r="D661" t="s">
         <v>39</v>
@@ -19919,7 +19919,7 @@
         <v>2242</v>
       </c>
       <c r="C662">
-        <v>3542</v>
+        <v>3551</v>
       </c>
       <c r="D662" t="s">
         <v>17</v>
@@ -19936,7 +19936,7 @@
         <v>2245</v>
       </c>
       <c r="C663">
-        <v>8318</v>
+        <v>8323</v>
       </c>
       <c r="D663" t="s">
         <v>128</v>
@@ -19953,7 +19953,7 @@
         <v>2249</v>
       </c>
       <c r="C664">
-        <v>5641</v>
+        <v>5652</v>
       </c>
       <c r="D664" t="s">
         <v>21</v>
@@ -19970,7 +19970,7 @@
         <v>2252</v>
       </c>
       <c r="C665">
-        <v>24658</v>
+        <v>24722</v>
       </c>
       <c r="D665" t="s">
         <v>67</v>
@@ -19987,7 +19987,7 @@
         <v>2256</v>
       </c>
       <c r="C666">
-        <v>4339</v>
+        <v>4358</v>
       </c>
       <c r="D666" t="s">
         <v>17</v>
@@ -20004,7 +20004,7 @@
         <v>2259</v>
       </c>
       <c r="C667">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="D667" t="s">
         <v>498</v>
@@ -20021,7 +20021,7 @@
         <v>2262</v>
       </c>
       <c r="C668">
-        <v>3139</v>
+        <v>3151</v>
       </c>
       <c r="D668" t="s">
         <v>82</v>
@@ -20038,7 +20038,7 @@
         <v>2266</v>
       </c>
       <c r="C669">
-        <v>11196</v>
+        <v>11235</v>
       </c>
       <c r="D669" t="s">
         <v>51</v>
@@ -20055,7 +20055,7 @@
         <v>2271</v>
       </c>
       <c r="C670">
-        <v>6969</v>
+        <v>7050</v>
       </c>
       <c r="D670" t="s">
         <v>2269</v>
@@ -20072,7 +20072,7 @@
         <v>2274</v>
       </c>
       <c r="C671">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="D671" t="s">
         <v>39</v>
@@ -20089,7 +20089,7 @@
         <v>2277</v>
       </c>
       <c r="C672">
-        <v>2043</v>
+        <v>2054</v>
       </c>
       <c r="D672" t="s">
         <v>266</v>
@@ -20106,7 +20106,7 @@
         <v>2280</v>
       </c>
       <c r="C673">
-        <v>2671</v>
+        <v>2678</v>
       </c>
       <c r="D673" t="s">
         <v>21</v>
@@ -20123,7 +20123,7 @@
         <v>2284</v>
       </c>
       <c r="C674">
-        <v>2945</v>
+        <v>2969</v>
       </c>
       <c r="D674" t="s">
         <v>2282</v>
@@ -20140,7 +20140,7 @@
         <v>2288</v>
       </c>
       <c r="C675">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="D675" t="s">
         <v>39</v>
@@ -20157,7 +20157,7 @@
         <v>2292</v>
       </c>
       <c r="C676">
-        <v>25400</v>
+        <v>25446</v>
       </c>
       <c r="D676" t="s">
         <v>39</v>
@@ -20174,7 +20174,7 @@
         <v>2295</v>
       </c>
       <c r="C677">
-        <v>7620</v>
+        <v>7631</v>
       </c>
       <c r="D677" t="s">
         <v>39</v>
@@ -20191,7 +20191,7 @@
         <v>2298</v>
       </c>
       <c r="C678">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="D678" t="s">
         <v>21</v>
@@ -20208,7 +20208,7 @@
         <v>2301</v>
       </c>
       <c r="C679">
-        <v>3587</v>
+        <v>3629</v>
       </c>
       <c r="D679" t="s">
         <v>128</v>
@@ -20225,7 +20225,7 @@
         <v>2304</v>
       </c>
       <c r="C680">
-        <v>2942</v>
+        <v>2949</v>
       </c>
       <c r="D680" t="s">
         <v>39</v>
@@ -20242,7 +20242,7 @@
         <v>2308</v>
       </c>
       <c r="C681">
-        <v>2907</v>
+        <v>2917</v>
       </c>
       <c r="D681" t="s">
         <v>21</v>
@@ -20259,7 +20259,7 @@
         <v>2311</v>
       </c>
       <c r="C682">
-        <v>10514</v>
+        <v>10563</v>
       </c>
       <c r="D682" t="s">
         <v>39</v>
@@ -20276,7 +20276,7 @@
         <v>2315</v>
       </c>
       <c r="C683">
-        <v>4663</v>
+        <v>4667</v>
       </c>
       <c r="D683" t="s">
         <v>21</v>
@@ -20293,7 +20293,7 @@
         <v>2319</v>
       </c>
       <c r="C684">
-        <v>7035</v>
+        <v>7077</v>
       </c>
       <c r="D684" t="s">
         <v>21</v>
@@ -20310,7 +20310,7 @@
         <v>2323</v>
       </c>
       <c r="C685">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="D685" t="s">
         <v>21</v>
@@ -20327,7 +20327,7 @@
         <v>2327</v>
       </c>
       <c r="C686">
-        <v>6038</v>
+        <v>6051</v>
       </c>
       <c r="D686" t="s">
         <v>21</v>
@@ -20344,7 +20344,7 @@
         <v>2331</v>
       </c>
       <c r="C687">
-        <v>21815</v>
+        <v>21856</v>
       </c>
       <c r="D687" t="s">
         <v>47</v>
@@ -20361,7 +20361,7 @@
         <v>2334</v>
       </c>
       <c r="C688">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="D688" t="s">
         <v>21</v>
@@ -20378,7 +20378,7 @@
         <v>2338</v>
       </c>
       <c r="C689">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="D689" t="s">
         <v>21</v>
@@ -20412,7 +20412,7 @@
         <v>2347</v>
       </c>
       <c r="C691">
-        <v>11106</v>
+        <v>11113</v>
       </c>
       <c r="D691" t="s">
         <v>543</v>
@@ -20429,7 +20429,7 @@
         <v>2350</v>
       </c>
       <c r="C692">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="D692" t="s">
         <v>21</v>
@@ -20443,7 +20443,7 @@
         <v>2353</v>
       </c>
       <c r="C693">
-        <v>6870</v>
+        <v>6875</v>
       </c>
       <c r="D693" t="s">
         <v>571</v>
@@ -20457,7 +20457,7 @@
         <v>2357</v>
       </c>
       <c r="C694">
-        <v>5563</v>
+        <v>5580</v>
       </c>
       <c r="D694" t="s">
         <v>39</v>
@@ -20474,7 +20474,7 @@
         <v>2361</v>
       </c>
       <c r="C695">
-        <v>7438</v>
+        <v>7550</v>
       </c>
       <c r="D695" t="s">
         <v>75</v>
@@ -20491,7 +20491,7 @@
         <v>2365</v>
       </c>
       <c r="C696">
-        <v>3008</v>
+        <v>3023</v>
       </c>
       <c r="D696" t="s">
         <v>21</v>
@@ -20508,7 +20508,7 @@
         <v>2369</v>
       </c>
       <c r="C697">
-        <v>8365</v>
+        <v>8375</v>
       </c>
       <c r="D697" t="s">
         <v>67</v>
@@ -20525,7 +20525,7 @@
         <v>2372</v>
       </c>
       <c r="C698">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="D698" t="s">
         <v>21</v>
@@ -20542,7 +20542,7 @@
         <v>2376</v>
       </c>
       <c r="C699">
-        <v>4921</v>
+        <v>4932</v>
       </c>
       <c r="D699" t="s">
         <v>108</v>
@@ -20559,7 +20559,7 @@
         <v>2380</v>
       </c>
       <c r="C700">
-        <v>4408</v>
+        <v>4429</v>
       </c>
       <c r="D700" t="s">
         <v>655</v>
@@ -20576,7 +20576,7 @@
         <v>2384</v>
       </c>
       <c r="C701">
-        <v>4023</v>
+        <v>4042</v>
       </c>
       <c r="D701" t="s">
         <v>113</v>
@@ -20593,7 +20593,7 @@
         <v>2387</v>
       </c>
       <c r="C702">
-        <v>3809</v>
+        <v>3815</v>
       </c>
       <c r="D702" t="s">
         <v>39</v>
@@ -20610,7 +20610,7 @@
         <v>2391</v>
       </c>
       <c r="C703">
-        <v>22732</v>
+        <v>22781</v>
       </c>
       <c r="D703" t="s">
         <v>708</v>
@@ -20627,7 +20627,7 @@
         <v>2395</v>
       </c>
       <c r="C704">
-        <v>3411</v>
+        <v>3418</v>
       </c>
       <c r="D704" t="s">
         <v>420</v>
@@ -20644,7 +20644,7 @@
         <v>2399</v>
       </c>
       <c r="C705">
-        <v>17586</v>
+        <v>17681</v>
       </c>
       <c r="D705" t="s">
         <v>39</v>
@@ -20661,7 +20661,7 @@
         <v>2403</v>
       </c>
       <c r="C706">
-        <v>4765</v>
+        <v>4774</v>
       </c>
       <c r="D706" t="s">
         <v>51</v>
@@ -20678,7 +20678,7 @@
         <v>2406</v>
       </c>
       <c r="C707">
-        <v>2769</v>
+        <v>2779</v>
       </c>
       <c r="D707" t="s">
         <v>543</v>
@@ -20695,7 +20695,7 @@
         <v>2410</v>
       </c>
       <c r="C708">
-        <v>33727</v>
+        <v>33769</v>
       </c>
       <c r="D708" t="s">
         <v>17</v>
@@ -20712,7 +20712,7 @@
         <v>2414</v>
       </c>
       <c r="C709">
-        <v>6079</v>
+        <v>6085</v>
       </c>
       <c r="D709" t="s">
         <v>75</v>
@@ -20729,7 +20729,7 @@
         <v>2418</v>
       </c>
       <c r="C710">
-        <v>34380</v>
+        <v>34401</v>
       </c>
       <c r="D710" t="s">
         <v>21</v>
@@ -20746,7 +20746,7 @@
         <v>2422</v>
       </c>
       <c r="C711">
-        <v>41328</v>
+        <v>41455</v>
       </c>
       <c r="D711" t="s">
         <v>17</v>
@@ -20763,7 +20763,7 @@
         <v>2425</v>
       </c>
       <c r="C712">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="D712" t="s">
         <v>21</v>
@@ -20780,7 +20780,7 @@
         <v>2429</v>
       </c>
       <c r="C713">
-        <v>7123</v>
+        <v>7137</v>
       </c>
       <c r="D713" t="s">
         <v>21</v>
@@ -20797,7 +20797,7 @@
         <v>2432</v>
       </c>
       <c r="C714">
-        <v>2227</v>
+        <v>2235</v>
       </c>
       <c r="D714" t="s">
         <v>21</v>
@@ -20814,7 +20814,7 @@
         <v>2436</v>
       </c>
       <c r="C715">
-        <v>7126</v>
+        <v>7133</v>
       </c>
       <c r="D715" t="s">
         <v>2146</v>
@@ -20831,7 +20831,7 @@
         <v>2440</v>
       </c>
       <c r="C716">
-        <v>3822</v>
+        <v>3838</v>
       </c>
       <c r="D716" t="s">
         <v>2438</v>
@@ -20848,7 +20848,7 @@
         <v>2443</v>
       </c>
       <c r="C717">
-        <v>5956</v>
+        <v>5959</v>
       </c>
       <c r="D717" t="s">
         <v>39</v>
@@ -20865,7 +20865,7 @@
         <v>2446</v>
       </c>
       <c r="C718">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="D718" t="s">
         <v>39</v>
@@ -20882,7 +20882,7 @@
         <v>2450</v>
       </c>
       <c r="C719">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D719" t="s">
         <v>39</v>
@@ -20899,7 +20899,7 @@
         <v>2453</v>
       </c>
       <c r="C720">
-        <v>5228</v>
+        <v>5244</v>
       </c>
       <c r="D720" t="s">
         <v>968</v>
@@ -20916,7 +20916,7 @@
         <v>2457</v>
       </c>
       <c r="C721">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="D721" t="s">
         <v>39</v>
@@ -20933,7 +20933,7 @@
         <v>2460</v>
       </c>
       <c r="C722">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="D722" t="s">
         <v>39</v>
@@ -20950,7 +20950,7 @@
         <v>2463</v>
       </c>
       <c r="C723">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="D723" t="s">
         <v>21</v>
@@ -20967,7 +20967,7 @@
         <v>2466</v>
       </c>
       <c r="C724">
-        <v>39129</v>
+        <v>39196</v>
       </c>
       <c r="D724" t="s">
         <v>39</v>
@@ -20984,7 +20984,7 @@
         <v>2470</v>
       </c>
       <c r="C725">
-        <v>12441</v>
+        <v>12450</v>
       </c>
       <c r="D725" t="s">
         <v>39</v>
@@ -21001,7 +21001,7 @@
         <v>2473</v>
       </c>
       <c r="C726">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="D726" t="s">
         <v>39</v>
@@ -21018,7 +21018,7 @@
         <v>2476</v>
       </c>
       <c r="C727">
-        <v>5651</v>
+        <v>5653</v>
       </c>
       <c r="D727" t="s">
         <v>1879</v>
@@ -21035,7 +21035,7 @@
         <v>2480</v>
       </c>
       <c r="C728">
-        <v>4110</v>
+        <v>4116</v>
       </c>
       <c r="D728" t="s">
         <v>39</v>
@@ -21052,7 +21052,7 @@
         <v>2483</v>
       </c>
       <c r="C729">
-        <v>83538</v>
+        <v>83687</v>
       </c>
       <c r="D729" t="s">
         <v>17</v>
@@ -21069,7 +21069,7 @@
         <v>2486</v>
       </c>
       <c r="C730">
-        <v>4447</v>
+        <v>4458</v>
       </c>
       <c r="D730" t="s">
         <v>21</v>
@@ -21086,7 +21086,7 @@
         <v>2488</v>
       </c>
       <c r="C731">
-        <v>3673</v>
+        <v>3679</v>
       </c>
       <c r="D731" t="s">
         <v>39</v>
@@ -21100,7 +21100,7 @@
         <v>2491</v>
       </c>
       <c r="C732">
-        <v>8126</v>
+        <v>8154</v>
       </c>
       <c r="D732" t="s">
         <v>39</v>
@@ -21117,7 +21117,7 @@
         <v>2494</v>
       </c>
       <c r="C733">
-        <v>4109</v>
+        <v>4113</v>
       </c>
       <c r="D733" t="s">
         <v>39</v>
@@ -21134,7 +21134,7 @@
         <v>2497</v>
       </c>
       <c r="C734">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="D734" t="s">
         <v>498</v>
@@ -21151,7 +21151,7 @@
         <v>2501</v>
       </c>
       <c r="C735">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="D735" t="s">
         <v>21</v>
@@ -21168,7 +21168,7 @@
         <v>2503</v>
       </c>
       <c r="C736">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="D736" t="s">
         <v>39</v>
@@ -21185,7 +21185,7 @@
         <v>2506</v>
       </c>
       <c r="C737">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="D737" t="s">
         <v>39</v>
@@ -21202,7 +21202,7 @@
         <v>2509</v>
       </c>
       <c r="C738">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="D738" t="s">
         <v>39</v>
@@ -21219,7 +21219,7 @@
         <v>2512</v>
       </c>
       <c r="C739">
-        <v>13222</v>
+        <v>13223</v>
       </c>
       <c r="D739" t="s">
         <v>39</v>
@@ -21236,7 +21236,7 @@
         <v>2516</v>
       </c>
       <c r="C740">
-        <v>26733</v>
+        <v>26751</v>
       </c>
       <c r="D740" t="s">
         <v>39</v>
@@ -21253,7 +21253,7 @@
         <v>2519</v>
       </c>
       <c r="C741">
-        <v>5706</v>
+        <v>5721</v>
       </c>
       <c r="D741" t="s">
         <v>39</v>
@@ -21270,7 +21270,7 @@
         <v>2522</v>
       </c>
       <c r="C742">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="D742" t="s">
         <v>39</v>
@@ -21287,7 +21287,7 @@
         <v>2525</v>
       </c>
       <c r="C743">
-        <v>4773</v>
+        <v>4777</v>
       </c>
       <c r="D743" t="s">
         <v>39</v>
@@ -21304,7 +21304,7 @@
         <v>2528</v>
       </c>
       <c r="C744">
-        <v>14703</v>
+        <v>14715</v>
       </c>
       <c r="D744" t="s">
         <v>39</v>
@@ -21352,7 +21352,7 @@
         <v>2539</v>
       </c>
       <c r="C747">
-        <v>7899</v>
+        <v>7944</v>
       </c>
       <c r="D747" t="s">
         <v>236</v>
@@ -21369,7 +21369,7 @@
         <v>2543</v>
       </c>
       <c r="C748">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="D748" t="s">
         <v>2541</v>
@@ -21386,7 +21386,7 @@
         <v>2548</v>
       </c>
       <c r="C749">
-        <v>5202</v>
+        <v>5250</v>
       </c>
       <c r="D749" t="s">
         <v>2546</v>
@@ -21403,7 +21403,7 @@
         <v>2552</v>
       </c>
       <c r="C750">
-        <v>26942</v>
+        <v>27025</v>
       </c>
       <c r="D750" t="s">
         <v>2550</v>
@@ -21420,7 +21420,7 @@
         <v>2556</v>
       </c>
       <c r="C751">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="D751" t="s">
         <v>2541</v>
@@ -21437,7 +21437,7 @@
         <v>2559</v>
       </c>
       <c r="C752">
-        <v>9111</v>
+        <v>9118</v>
       </c>
       <c r="D752" t="s">
         <v>21</v>
@@ -21454,7 +21454,7 @@
         <v>2563</v>
       </c>
       <c r="C753">
-        <v>13500</v>
+        <v>13512</v>
       </c>
       <c r="D753" t="s">
         <v>375</v>
@@ -21471,7 +21471,7 @@
         <v>2567</v>
       </c>
       <c r="C754">
-        <v>11455</v>
+        <v>11502</v>
       </c>
       <c r="D754" t="s">
         <v>21</v>
@@ -21488,7 +21488,7 @@
         <v>2571</v>
       </c>
       <c r="C755">
-        <v>18904</v>
+        <v>18949</v>
       </c>
       <c r="D755" t="s">
         <v>21</v>
@@ -21505,7 +21505,7 @@
         <v>2574</v>
       </c>
       <c r="C756">
-        <v>4500</v>
+        <v>4538</v>
       </c>
       <c r="D756" t="s">
         <v>75</v>
@@ -21522,7 +21522,7 @@
         <v>2578</v>
       </c>
       <c r="C757">
-        <v>4973</v>
+        <v>4980</v>
       </c>
       <c r="D757" t="s">
         <v>529</v>
@@ -21539,7 +21539,7 @@
         <v>2581</v>
       </c>
       <c r="C758">
-        <v>3390</v>
+        <v>3395</v>
       </c>
       <c r="D758" t="s">
         <v>17</v>
@@ -21553,7 +21553,7 @@
         <v>2585</v>
       </c>
       <c r="C759">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="D759" t="s">
         <v>158</v>
@@ -21570,7 +21570,7 @@
         <v>2590</v>
       </c>
       <c r="C760">
-        <v>2482</v>
+        <v>2490</v>
       </c>
       <c r="D760" t="s">
         <v>2588</v>
@@ -21587,7 +21587,7 @@
         <v>2594</v>
       </c>
       <c r="C761">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="D761" t="s">
         <v>571</v>
@@ -21621,7 +21621,7 @@
         <v>2602</v>
       </c>
       <c r="C763">
-        <v>54299</v>
+        <v>54564</v>
       </c>
       <c r="D763" t="s">
         <v>21</v>
@@ -21638,7 +21638,7 @@
         <v>2606</v>
       </c>
       <c r="C764">
-        <v>2149</v>
+        <v>2178</v>
       </c>
       <c r="D764" t="s">
         <v>498</v>
@@ -21655,7 +21655,7 @@
         <v>2610</v>
       </c>
       <c r="C765">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="D765" t="s">
         <v>878</v>
@@ -21672,7 +21672,7 @@
         <v>2614</v>
       </c>
       <c r="C766">
-        <v>4154</v>
+        <v>4163</v>
       </c>
       <c r="D766" t="s">
         <v>51</v>
@@ -21689,7 +21689,7 @@
         <v>2618</v>
       </c>
       <c r="C767">
-        <v>8977</v>
+        <v>8995</v>
       </c>
       <c r="D767" t="s">
         <v>878</v>
@@ -21706,7 +21706,7 @@
         <v>2621</v>
       </c>
       <c r="C768">
-        <v>2871</v>
+        <v>2916</v>
       </c>
       <c r="D768" t="s">
         <v>274</v>
@@ -21723,7 +21723,7 @@
         <v>2625</v>
       </c>
       <c r="C769">
-        <v>6275</v>
+        <v>6295</v>
       </c>
       <c r="D769" t="s">
         <v>1879</v>
@@ -21740,7 +21740,7 @@
         <v>2629</v>
       </c>
       <c r="C770">
-        <v>12801</v>
+        <v>12833</v>
       </c>
       <c r="D770" t="s">
         <v>75</v>
@@ -21757,7 +21757,7 @@
         <v>2632</v>
       </c>
       <c r="C771">
-        <v>7094</v>
+        <v>7134</v>
       </c>
       <c r="D771" t="s">
         <v>21</v>
@@ -21774,7 +21774,7 @@
         <v>2636</v>
       </c>
       <c r="C772">
-        <v>3638</v>
+        <v>3647</v>
       </c>
       <c r="D772" t="s">
         <v>2146</v>
@@ -21791,7 +21791,7 @@
         <v>2639</v>
       </c>
       <c r="C773">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="D773" t="s">
         <v>498</v>
@@ -21808,7 +21808,7 @@
         <v>2643</v>
       </c>
       <c r="C774">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="D774" t="s">
         <v>1666</v>
@@ -21825,7 +21825,7 @@
         <v>2648</v>
       </c>
       <c r="C775">
-        <v>20938</v>
+        <v>20992</v>
       </c>
       <c r="D775" t="s">
         <v>2646</v>
@@ -21842,7 +21842,7 @@
         <v>2651</v>
       </c>
       <c r="C776">
-        <v>2963</v>
+        <v>2971</v>
       </c>
       <c r="D776" t="s">
         <v>39</v>
@@ -21859,7 +21859,7 @@
         <v>2655</v>
       </c>
       <c r="C777">
-        <v>6670</v>
+        <v>6690</v>
       </c>
       <c r="D777" t="s">
         <v>123</v>
@@ -21876,7 +21876,7 @@
         <v>2659</v>
       </c>
       <c r="C778">
-        <v>6217</v>
+        <v>6223</v>
       </c>
       <c r="D778" t="s">
         <v>75</v>
@@ -21893,7 +21893,7 @@
         <v>2663</v>
       </c>
       <c r="C779">
-        <v>5516</v>
+        <v>5544</v>
       </c>
       <c r="D779" t="s">
         <v>128</v>
@@ -21910,7 +21910,7 @@
         <v>2667</v>
       </c>
       <c r="C780">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="D780" t="s">
         <v>498</v>
@@ -21927,7 +21927,7 @@
         <v>2671</v>
       </c>
       <c r="C781">
-        <v>6130</v>
+        <v>6153</v>
       </c>
       <c r="D781" t="s">
         <v>2669</v>
@@ -21944,7 +21944,7 @@
         <v>2675</v>
       </c>
       <c r="C782">
-        <v>41016</v>
+        <v>41090</v>
       </c>
       <c r="D782" t="s">
         <v>1804</v>
@@ -21978,7 +21978,7 @@
         <v>2683</v>
       </c>
       <c r="C784">
-        <v>7213</v>
+        <v>7217</v>
       </c>
       <c r="D784" t="s">
         <v>498</v>
@@ -21995,7 +21995,7 @@
         <v>2687</v>
       </c>
       <c r="C785">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="D785" t="s">
         <v>689</v>
@@ -22012,7 +22012,7 @@
         <v>2691</v>
       </c>
       <c r="C786">
-        <v>6859</v>
+        <v>6864</v>
       </c>
       <c r="D786" t="s">
         <v>498</v>
@@ -22029,7 +22029,7 @@
         <v>2695</v>
       </c>
       <c r="C787">
-        <v>6751</v>
+        <v>6759</v>
       </c>
       <c r="D787" t="s">
         <v>968</v>
@@ -22046,7 +22046,7 @@
         <v>2698</v>
       </c>
       <c r="C788">
-        <v>10496</v>
+        <v>10504</v>
       </c>
       <c r="D788" t="s">
         <v>75</v>
@@ -22063,7 +22063,7 @@
         <v>2701</v>
       </c>
       <c r="C789">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="D789" t="s">
         <v>529</v>
@@ -22080,7 +22080,7 @@
         <v>2705</v>
       </c>
       <c r="C790">
-        <v>3459</v>
+        <v>3467</v>
       </c>
       <c r="D790" t="s">
         <v>655</v>
@@ -22097,7 +22097,7 @@
         <v>2709</v>
       </c>
       <c r="C791">
-        <v>3486</v>
+        <v>3492</v>
       </c>
       <c r="D791" t="s">
         <v>498</v>
@@ -22114,7 +22114,7 @@
         <v>2713</v>
       </c>
       <c r="C792">
-        <v>4209</v>
+        <v>4223</v>
       </c>
       <c r="D792" t="s">
         <v>75</v>
@@ -22148,7 +22148,7 @@
         <v>2720</v>
       </c>
       <c r="C794">
-        <v>5901</v>
+        <v>5921</v>
       </c>
       <c r="D794" t="s">
         <v>1157</v>
@@ -22165,7 +22165,7 @@
         <v>2724</v>
       </c>
       <c r="C795">
-        <v>7118</v>
+        <v>7122</v>
       </c>
       <c r="D795" t="s">
         <v>75</v>
@@ -22182,7 +22182,7 @@
         <v>2727</v>
       </c>
       <c r="C796">
-        <v>90471</v>
+        <v>90773</v>
       </c>
       <c r="D796" t="s">
         <v>75</v>
@@ -22199,7 +22199,7 @@
         <v>2730</v>
       </c>
       <c r="C797">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="D797" t="s">
         <v>75</v>
@@ -22216,7 +22216,7 @@
         <v>2734</v>
       </c>
       <c r="C798">
-        <v>15581</v>
+        <v>15608</v>
       </c>
       <c r="D798" t="s">
         <v>51</v>
@@ -22233,7 +22233,7 @@
         <v>2738</v>
       </c>
       <c r="C799">
-        <v>57677</v>
+        <v>57743</v>
       </c>
       <c r="D799" t="s">
         <v>2550</v>
@@ -22250,7 +22250,7 @@
         <v>2742</v>
       </c>
       <c r="C800">
-        <v>14333</v>
+        <v>14364</v>
       </c>
       <c r="D800" t="s">
         <v>39</v>
@@ -22267,7 +22267,7 @@
         <v>2746</v>
       </c>
       <c r="C801">
-        <v>6731</v>
+        <v>6746</v>
       </c>
       <c r="D801" t="s">
         <v>67</v>
@@ -22284,7 +22284,7 @@
         <v>2749</v>
       </c>
       <c r="C802">
-        <v>2484</v>
+        <v>2489</v>
       </c>
       <c r="D802" t="s">
         <v>108</v>
@@ -22298,7 +22298,7 @@
         <v>2753</v>
       </c>
       <c r="C803">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="D803" t="s">
         <v>771</v>
@@ -22315,7 +22315,7 @@
         <v>2758</v>
       </c>
       <c r="C804">
-        <v>2764</v>
+        <v>2796</v>
       </c>
       <c r="D804" t="s">
         <v>2756</v>
@@ -22332,7 +22332,7 @@
         <v>2762</v>
       </c>
       <c r="C805">
-        <v>4067</v>
+        <v>4074</v>
       </c>
       <c r="D805" t="s">
         <v>375</v>
@@ -22349,7 +22349,7 @@
         <v>2766</v>
       </c>
       <c r="C806">
-        <v>10400</v>
+        <v>10415</v>
       </c>
       <c r="D806" t="s">
         <v>878</v>
@@ -22383,7 +22383,7 @@
         <v>2774</v>
       </c>
       <c r="C808">
-        <v>4284</v>
+        <v>4316</v>
       </c>
       <c r="D808" t="s">
         <v>123</v>
@@ -22400,7 +22400,7 @@
         <v>2779</v>
       </c>
       <c r="C809">
-        <v>16441</v>
+        <v>16481</v>
       </c>
       <c r="D809" t="s">
         <v>2777</v>

--- a/repo.xlsx
+++ b/repo.xlsx
@@ -9194,7 +9194,7 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -9211,7 +9211,7 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -9276,7 +9276,7 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -9395,7 +9395,7 @@
         <v>69</v>
       </c>
       <c r="C17">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -9463,7 +9463,7 @@
         <v>82</v>
       </c>
       <c r="C21">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D21" t="s">
         <v>32</v>
@@ -9480,7 +9480,7 @@
         <v>86</v>
       </c>
       <c r="C22">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -9766,7 +9766,7 @@
         <v>151</v>
       </c>
       <c r="C39">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -9953,7 +9953,7 @@
         <v>192</v>
       </c>
       <c r="C50">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -10089,7 +10089,7 @@
         <v>222</v>
       </c>
       <c r="C58">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D58" t="s">
         <v>220</v>
@@ -10140,7 +10140,7 @@
         <v>232</v>
       </c>
       <c r="C61">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
@@ -10157,7 +10157,7 @@
         <v>235</v>
       </c>
       <c r="C62">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D62" t="s">
         <v>92</v>
@@ -10293,7 +10293,7 @@
         <v>262</v>
       </c>
       <c r="C70">
-        <v>5856</v>
+        <v>5857</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
@@ -10446,7 +10446,7 @@
         <v>293</v>
       </c>
       <c r="C79">
-        <v>3893</v>
+        <v>3896</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
@@ -10701,7 +10701,7 @@
         <v>342</v>
       </c>
       <c r="C94">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D94" t="s">
         <v>28</v>
@@ -10735,7 +10735,7 @@
         <v>348</v>
       </c>
       <c r="C96">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
@@ -10803,7 +10803,7 @@
         <v>364</v>
       </c>
       <c r="C100">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="D100" t="s">
         <v>362</v>
@@ -11041,7 +11041,7 @@
         <v>414</v>
       </c>
       <c r="C114">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
@@ -11259,7 +11259,7 @@
         <v>464</v>
       </c>
       <c r="C127">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="D127" t="s">
         <v>246</v>
@@ -11378,7 +11378,7 @@
         <v>490</v>
       </c>
       <c r="C134">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D134" t="s">
         <v>32</v>
@@ -11446,7 +11446,7 @@
         <v>503</v>
       </c>
       <c r="C138">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="D138" t="s">
         <v>32</v>
@@ -11854,7 +11854,7 @@
         <v>589</v>
       </c>
       <c r="C162">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -11956,7 +11956,7 @@
         <v>610</v>
       </c>
       <c r="C168">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D168" t="s">
         <v>608</v>
@@ -12143,7 +12143,7 @@
         <v>649</v>
       </c>
       <c r="C179">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D179" t="s">
         <v>647</v>
@@ -12228,7 +12228,7 @@
         <v>666</v>
       </c>
       <c r="C184">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D184" t="s">
         <v>32</v>
@@ -12398,7 +12398,7 @@
         <v>701</v>
       </c>
       <c r="C194">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D194" t="s">
         <v>699</v>
@@ -12466,7 +12466,7 @@
         <v>713</v>
       </c>
       <c r="C198">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D198" t="s">
         <v>32</v>
@@ -12483,7 +12483,7 @@
         <v>718</v>
       </c>
       <c r="C199">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D199" t="s">
         <v>716</v>
@@ -13007,7 +13007,7 @@
         <v>827</v>
       </c>
       <c r="C230">
-        <v>17600</v>
+        <v>17602</v>
       </c>
       <c r="D230" t="s">
         <v>28</v>
@@ -13041,7 +13041,7 @@
         <v>834</v>
       </c>
       <c r="C232">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D232" t="s">
         <v>28</v>
@@ -13313,7 +13313,7 @@
         <v>886</v>
       </c>
       <c r="C248">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="D248" t="s">
         <v>28</v>
@@ -13636,7 +13636,7 @@
         <v>953</v>
       </c>
       <c r="C267">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D267" t="s">
         <v>157</v>
@@ -13670,7 +13670,7 @@
         <v>959</v>
       </c>
       <c r="C269">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D269" t="s">
         <v>425</v>
@@ -13687,7 +13687,7 @@
         <v>962</v>
       </c>
       <c r="C270">
-        <v>6137</v>
+        <v>6138</v>
       </c>
       <c r="D270" t="s">
         <v>123</v>
@@ -13823,7 +13823,7 @@
         <v>989</v>
       </c>
       <c r="C278">
-        <v>33463</v>
+        <v>33462</v>
       </c>
       <c r="D278" t="s">
         <v>28</v>
@@ -13993,7 +13993,7 @@
         <v>1023</v>
       </c>
       <c r="C288">
-        <v>38487</v>
+        <v>38490</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
@@ -14636,7 +14636,7 @@
         <v>1147</v>
       </c>
       <c r="C326">
-        <v>5640</v>
+        <v>5641</v>
       </c>
       <c r="D326" t="s">
         <v>12</v>
@@ -14823,7 +14823,7 @@
         <v>1183</v>
       </c>
       <c r="C337">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D337" t="s">
         <v>32</v>
@@ -15038,7 +15038,7 @@
         <v>1224</v>
       </c>
       <c r="C350">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="D350" t="s">
         <v>198</v>
@@ -15140,7 +15140,7 @@
         <v>1244</v>
       </c>
       <c r="C356">
-        <v>5081</v>
+        <v>5083</v>
       </c>
       <c r="D356" t="s">
         <v>176</v>
@@ -15378,7 +15378,7 @@
         <v>1292</v>
       </c>
       <c r="C370">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D370" t="s">
         <v>92</v>
@@ -15463,7 +15463,7 @@
         <v>1309</v>
       </c>
       <c r="C375">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D375" t="s">
         <v>28</v>
@@ -15582,7 +15582,7 @@
         <v>1333</v>
       </c>
       <c r="C382">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D382" t="s">
         <v>28</v>
@@ -15616,7 +15616,7 @@
         <v>1339</v>
       </c>
       <c r="C384">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="D384" t="s">
         <v>28</v>
@@ -16058,7 +16058,7 @@
         <v>1427</v>
       </c>
       <c r="C410">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="D410" t="s">
         <v>1425</v>
@@ -16109,7 +16109,7 @@
         <v>1437</v>
       </c>
       <c r="C413">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D413" t="s">
         <v>892</v>
@@ -16330,7 +16330,7 @@
         <v>1483</v>
       </c>
       <c r="C426">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="D426" t="s">
         <v>417</v>
@@ -16500,7 +16500,7 @@
         <v>1517</v>
       </c>
       <c r="C436">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="D436" t="s">
         <v>1515</v>
@@ -16701,7 +16701,7 @@
         <v>1557</v>
       </c>
       <c r="C448">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D448" t="s">
         <v>32</v>
@@ -16752,7 +16752,7 @@
         <v>1567</v>
       </c>
       <c r="C451">
-        <v>10700</v>
+        <v>10704</v>
       </c>
       <c r="D451" t="s">
         <v>28</v>
@@ -16888,7 +16888,7 @@
         <v>1591</v>
       </c>
       <c r="C459">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D459" t="s">
         <v>28</v>
@@ -17058,7 +17058,7 @@
         <v>1625</v>
       </c>
       <c r="C469">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="D469" t="s">
         <v>28</v>
@@ -17092,7 +17092,7 @@
         <v>1631</v>
       </c>
       <c r="C471">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="D471" t="s">
         <v>28</v>
@@ -17143,7 +17143,7 @@
         <v>1641</v>
       </c>
       <c r="C474">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D474" t="s">
         <v>1168</v>
@@ -17160,7 +17160,7 @@
         <v>1644</v>
       </c>
       <c r="C475">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D475" t="s">
         <v>92</v>
@@ -17262,7 +17262,7 @@
         <v>1663</v>
       </c>
       <c r="C481">
-        <v>7528</v>
+        <v>7530</v>
       </c>
       <c r="D481" t="s">
         <v>162</v>
@@ -17313,7 +17313,7 @@
         <v>1672</v>
       </c>
       <c r="C484">
-        <v>49184</v>
+        <v>49188</v>
       </c>
       <c r="D484" t="s">
         <v>32</v>
@@ -17412,7 +17412,7 @@
         <v>1691</v>
       </c>
       <c r="C490">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="D490" t="s">
         <v>28</v>
@@ -17497,7 +17497,7 @@
         <v>1708</v>
       </c>
       <c r="C495">
-        <v>5050</v>
+        <v>5057</v>
       </c>
       <c r="D495" t="s">
         <v>1706</v>
@@ -17599,7 +17599,7 @@
         <v>1728</v>
       </c>
       <c r="C501">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="D501" t="s">
         <v>176</v>
@@ -18429,7 +18429,7 @@
         <v>1887</v>
       </c>
       <c r="C550">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="D550" t="s">
         <v>48</v>
@@ -18599,7 +18599,7 @@
         <v>1919</v>
       </c>
       <c r="C560">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="D560" t="s">
         <v>1917</v>
@@ -18650,7 +18650,7 @@
         <v>1929</v>
       </c>
       <c r="C563">
-        <v>12351</v>
+        <v>12352</v>
       </c>
       <c r="D563" t="s">
         <v>28</v>
@@ -18718,7 +18718,7 @@
         <v>1943</v>
       </c>
       <c r="C567">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D567" t="s">
         <v>736</v>
@@ -18735,7 +18735,7 @@
         <v>1946</v>
       </c>
       <c r="C568">
-        <v>144092</v>
+        <v>144094</v>
       </c>
       <c r="D568" t="s">
         <v>409</v>
@@ -18752,7 +18752,7 @@
         <v>1949</v>
       </c>
       <c r="C569">
-        <v>8768</v>
+        <v>8772</v>
       </c>
       <c r="D569" t="s">
         <v>28</v>
@@ -19177,7 +19177,7 @@
         <v>2031</v>
       </c>
       <c r="C594">
-        <v>12342</v>
+        <v>12343</v>
       </c>
       <c r="D594" t="s">
         <v>32</v>
@@ -19330,7 +19330,7 @@
         <v>2060</v>
       </c>
       <c r="C603">
-        <v>36788</v>
+        <v>36789</v>
       </c>
       <c r="D603" t="s">
         <v>32</v>
@@ -19381,7 +19381,7 @@
         <v>2069</v>
       </c>
       <c r="C606">
-        <v>34652</v>
+        <v>34655</v>
       </c>
       <c r="D606" t="s">
         <v>391</v>
@@ -19449,7 +19449,7 @@
         <v>2081</v>
       </c>
       <c r="C610">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D610" t="s">
         <v>142</v>
@@ -19585,7 +19585,7 @@
         <v>2108</v>
       </c>
       <c r="C618">
-        <v>13593</v>
+        <v>13594</v>
       </c>
       <c r="D618" t="s">
         <v>28</v>
@@ -19908,7 +19908,7 @@
         <v>2169</v>
       </c>
       <c r="C637">
-        <v>7136</v>
+        <v>7138</v>
       </c>
       <c r="D637" t="s">
         <v>32</v>
@@ -20429,7 +20429,7 @@
         <v>2266</v>
       </c>
       <c r="C668">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="D668" t="s">
         <v>425</v>
@@ -20531,7 +20531,7 @@
         <v>2286</v>
       </c>
       <c r="C674">
-        <v>10914</v>
+        <v>10915</v>
       </c>
       <c r="D674" t="s">
         <v>28</v>
@@ -20650,7 +20650,7 @@
         <v>2309</v>
       </c>
       <c r="C681">
-        <v>5085</v>
+        <v>5086</v>
       </c>
       <c r="D681" t="s">
         <v>32</v>
@@ -21041,7 +21041,7 @@
         <v>2390</v>
       </c>
       <c r="C704">
-        <v>24821</v>
+        <v>24822</v>
       </c>
       <c r="D704" t="s">
         <v>108</v>
@@ -21109,7 +21109,7 @@
         <v>2404</v>
       </c>
       <c r="C708">
-        <v>11299</v>
+        <v>11300</v>
       </c>
       <c r="D708" t="s">
         <v>92</v>
@@ -21228,7 +21228,7 @@
         <v>2430</v>
       </c>
       <c r="C715">
-        <v>25498</v>
+        <v>25499</v>
       </c>
       <c r="D715" t="s">
         <v>32</v>
@@ -21398,7 +21398,7 @@
         <v>2465</v>
       </c>
       <c r="C725">
-        <v>6071</v>
+        <v>6072</v>
       </c>
       <c r="D725" t="s">
         <v>28</v>
@@ -21545,7 +21545,7 @@
         <v>2499</v>
       </c>
       <c r="C734">
-        <v>7708</v>
+        <v>7710</v>
       </c>
       <c r="D734" t="s">
         <v>116</v>
@@ -21579,7 +21579,7 @@
         <v>2507</v>
       </c>
       <c r="C736">
-        <v>8391</v>
+        <v>8392</v>
       </c>
       <c r="D736" t="s">
         <v>108</v>
@@ -21681,7 +21681,7 @@
         <v>2529</v>
       </c>
       <c r="C742">
-        <v>22847</v>
+        <v>22848</v>
       </c>
       <c r="D742" t="s">
         <v>829</v>
@@ -21715,7 +21715,7 @@
         <v>2537</v>
       </c>
       <c r="C744">
-        <v>17814</v>
+        <v>17815</v>
       </c>
       <c r="D744" t="s">
         <v>32</v>
@@ -21766,7 +21766,7 @@
         <v>2548</v>
       </c>
       <c r="C747">
-        <v>33855</v>
+        <v>33856</v>
       </c>
       <c r="D747" t="s">
         <v>12</v>
@@ -21817,7 +21817,7 @@
         <v>2560</v>
       </c>
       <c r="C750">
-        <v>41552</v>
+        <v>41553</v>
       </c>
       <c r="D750" t="s">
         <v>12</v>
@@ -21902,7 +21902,7 @@
         <v>2577</v>
       </c>
       <c r="C755">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="D755" t="s">
         <v>24</v>
@@ -21936,7 +21936,7 @@
         <v>2583</v>
       </c>
       <c r="C757">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D757" t="s">
         <v>32</v>
@@ -22457,7 +22457,7 @@
         <v>2685</v>
       </c>
       <c r="C788">
-        <v>5337</v>
+        <v>5338</v>
       </c>
       <c r="D788" t="s">
         <v>2683</v>
@@ -22474,7 +22474,7 @@
         <v>2689</v>
       </c>
       <c r="C789">
-        <v>27125</v>
+        <v>27126</v>
       </c>
       <c r="D789" t="s">
         <v>2687</v>
@@ -22641,7 +22641,7 @@
         <v>2727</v>
       </c>
       <c r="C799">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="D799" t="s">
         <v>2725</v>
@@ -22692,7 +22692,7 @@
         <v>2739</v>
       </c>
       <c r="C802">
-        <v>54906</v>
+        <v>54908</v>
       </c>
       <c r="D802" t="s">
         <v>28</v>
@@ -22913,7 +22913,7 @@
         <v>2788</v>
       </c>
       <c r="C815">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="D815" t="s">
         <v>32</v>
@@ -22930,7 +22930,7 @@
         <v>2792</v>
       </c>
       <c r="C816">
-        <v>6718</v>
+        <v>6719</v>
       </c>
       <c r="D816" t="s">
         <v>7</v>
@@ -23253,7 +23253,7 @@
         <v>2864</v>
       </c>
       <c r="C835">
-        <v>91196</v>
+        <v>91199</v>
       </c>
       <c r="D835" t="s">
         <v>116</v>
@@ -23304,7 +23304,7 @@
         <v>2875</v>
       </c>
       <c r="C838">
-        <v>57839</v>
+        <v>57840</v>
       </c>
       <c r="D838" t="s">
         <v>2687</v>
@@ -23321,7 +23321,7 @@
         <v>2879</v>
       </c>
       <c r="C839">
-        <v>14416</v>
+        <v>14417</v>
       </c>
       <c r="D839" t="s">
         <v>32</v>
@@ -23338,7 +23338,7 @@
         <v>2883</v>
       </c>
       <c r="C840">
-        <v>6771</v>
+        <v>6772</v>
       </c>
       <c r="D840" t="s">
         <v>108</v>

--- a/repo.xlsx
+++ b/repo.xlsx
@@ -40,7 +40,7 @@
     <t>MiuLab/Taiwan-LLaMa</t>
   </si>
   <si>
-    <t>🔠⛽🚌🀄</t>
+    <t>🔠,⛽,🚌,🀄</t>
   </si>
   <si>
     <t>Traditional Mandarin LLMs for Taiwan</t>
@@ -52,7 +52,7 @@
     <t>modelscope/facechain</t>
   </si>
   <si>
-    <t>🖼️📱</t>
+    <t>🖼️,📱</t>
   </si>
   <si>
     <t>FaceChain is a deep-learning toolchain for generating your Digital-Twin.</t>
@@ -67,7 +67,7 @@
     <t>lllyasviel/Fooocus</t>
   </si>
   <si>
-    <t>🖼️🔌</t>
+    <t>🖼️,🔌</t>
   </si>
   <si>
     <t>Focus on prompting and generating</t>
@@ -79,7 +79,7 @@
     <t>mshumer/gpt-llm-trainer</t>
   </si>
   <si>
-    <t>🔠2️⃣</t>
+    <t>🔠,2️⃣</t>
   </si>
   <si>
     <t>https://github.com/mshumer/gpt-llm-trainer</t>
@@ -91,7 +91,7 @@
     <t>mhss1/AIStudyAssistant</t>
   </si>
   <si>
-    <t>🔠📱</t>
+    <t>🔠,📱</t>
   </si>
   <si>
     <t>AI chatbot, Lecture Summarizer, Essay Writer and Questions Generator.</t>
@@ -106,7 +106,7 @@
     <t>xverse-ai/XVERSE-13B</t>
   </si>
   <si>
-    <t>🔠🚌💰🀄</t>
+    <t>🔠,🚌,💰,🀄</t>
   </si>
   <si>
     <t>XVERSE-13B: A multilingual large language model developed by XVERSE Technology Inc.</t>
@@ -121,7 +121,7 @@
     <t>bkitano/llama-from-scratch</t>
   </si>
   <si>
-    <t>🔠📝</t>
+    <t>🔠,📝</t>
   </si>
   <si>
     <t>provide some tips from my experience implementing a paper.</t>
@@ -136,7 +136,7 @@
     <t>haoheliu/AudioLDM2</t>
   </si>
   <si>
-    <t>🔠🎵🚕</t>
+    <t>🔠,🎵,🚕</t>
   </si>
   <si>
     <t>Text-to-Audio/Music Generation</t>
@@ -148,7 +148,7 @@
     <t>jmaczan/gdansk-ai</t>
   </si>
   <si>
-    <t>🔠🔨</t>
+    <t>🔠,🔨</t>
   </si>
   <si>
     <t>🦭 Full stack AI voice chatbot (speech-to-text, LLM, text-to-speech) with integrations to Auth0, OpenAI, Google Cloud and Stripe - Web App, Web API and AI API</t>
@@ -172,7 +172,7 @@
     <t>OpenGVLab/all-seeing</t>
   </si>
   <si>
-    <t>🔠🖼️`🚌`</t>
+    <t>🔠,🖼️,`🚌`</t>
   </si>
   <si>
     <t>This is the official implementation of the paper "The All-Seeing Project: Towards Panoptic Visual Recognition and Understanding of the Open World"</t>
@@ -184,7 +184,7 @@
     <t>QwenLM/Qwen-7B</t>
   </si>
   <si>
-    <t>🔠🚌</t>
+    <t>🔠,🚌</t>
   </si>
   <si>
     <t>The official repo of Qwen-7B (通义千问-7B) chat &amp; pretrained large language model proposed by Alibaba Cloud.</t>
@@ -211,7 +211,7 @@
     <t>HIT-SCIR-SC/QiaoBan</t>
   </si>
   <si>
-    <t>🔠⛽🚕2️⃣</t>
+    <t>🔠,⛽,🚕,2️⃣</t>
   </si>
   <si>
     <t>这是一个巧板大模型的仓库，旨在构建一个面向儿童情感陪伴的大模型</t>
@@ -223,7 +223,7 @@
     <t>diStyApps/VisionCrafter</t>
   </si>
   <si>
-    <t>🎥🔨</t>
+    <t>🎥,🔨</t>
   </si>
   <si>
     <t>Craft your visions</t>
@@ -235,7 +235,7 @@
     <t>dvlab-research/LISA</t>
   </si>
   <si>
-    <t>🔠🖼️⛽🚌</t>
+    <t>🔠,🖼️,⛽,🚌</t>
   </si>
   <si>
     <t>Project Page for "LISA: Reasoning Segmentation via Large Language Model"</t>
@@ -250,7 +250,7 @@
     <t>LinkSoul-AI/LLaSM</t>
   </si>
   <si>
-    <t>🔠🎵🚌💰🀄</t>
+    <t>🔠,🎵,🚌,💰,🀄</t>
   </si>
   <si>
     <t>第一个支持中英文双语语音-文本多模态对话的开源可商用对话模型。便捷的语音输入将大幅改善以文本为输入的大模型的使用体验，同时避免了基于 ASR 解决方案的繁琐流程以及可能引入的错误。</t>
@@ -283,7 +283,7 @@
     <t>LinkSoul-AI/Chinese-LLaVA</t>
   </si>
   <si>
-    <t>🔠🖼️🔨💰🀄</t>
+    <t>🔠,🖼️,🔨,💰,🀄</t>
   </si>
   <si>
     <t>支持中英文双语视觉-文本对话的开源可商用多模态模型。</t>
@@ -295,7 +295,7 @@
     <t>OpenLLMAI/OpenLLaMA2</t>
   </si>
   <si>
-    <t>🔠2️⃣3️⃣</t>
+    <t>🔠,2️⃣,3️⃣</t>
   </si>
   <si>
     <t>LLaMA2 SFT/RLHF training framework</t>
@@ -307,7 +307,7 @@
     <t>rai-llc/LanguageModels.jl</t>
   </si>
   <si>
-    <t>🔠💡</t>
+    <t>🔠,💡</t>
   </si>
   <si>
     <t>Load nanoGPT-style transformers in Julia. Code ported from @karpathy's llama2.c</t>
@@ -331,7 +331,7 @@
     <t>RahulSChand/llama2.c-for-dummies</t>
   </si>
   <si>
-    <t>🔠💡📝</t>
+    <t>🔠,💡,📝</t>
   </si>
   <si>
     <t>Step by step explanation/tutorial of llama2.c</t>
@@ -343,7 +343,7 @@
     <t>e2b-dev/chatgpt-plugin</t>
   </si>
   <si>
-    <t>🔠🔌</t>
+    <t>🔠,🔌</t>
   </si>
   <si>
     <t>Code interpreter on steroids for ChatGPT. Run any language, any terminal process, use filesystem freely. All with access to the internet.</t>
@@ -397,7 +397,7 @@
     <t>llm-attacks/llm-attacks</t>
   </si>
   <si>
-    <t>🔠❓</t>
+    <t>🔠,❓</t>
   </si>
   <si>
     <t>Universal and Transferable Attacks on Aligned Language Models</t>
@@ -412,7 +412,7 @@
     <t>Audio-AGI/WavJourney</t>
   </si>
   <si>
-    <t>🔠🎵📱</t>
+    <t>🔠,🎵,📱</t>
   </si>
   <si>
     <t>WavJourney: Compositional Audio Creation with LLMs</t>
@@ -424,7 +424,7 @@
     <t>IDEA-Research/DWPose</t>
   </si>
   <si>
-    <t>🎥🚌2️⃣</t>
+    <t>🎥,🚌,2️⃣</t>
   </si>
   <si>
     <t>Official implementation of the paper "Effective Whole-body Pose Estimation with Two-stages Distillation"</t>
@@ -550,7 +550,7 @@
     <t>Gadersd/whisper-burn</t>
   </si>
   <si>
-    <t>🎵💡</t>
+    <t>🎵,💡</t>
   </si>
   <si>
     <t>A Rust implementation of OpenAI's Whisper model using the burn framework</t>
@@ -619,7 +619,7 @@
     <t>Alpha-VLLM/LLaMA2-Accessory</t>
   </si>
   <si>
-    <t>🔠🖼️⛽1️⃣2️⃣📱</t>
+    <t>🔠,🖼️,⛽,1️⃣,2️⃣,📱</t>
   </si>
   <si>
     <t>An Open-source Toolkit for LLM Development</t>
@@ -631,7 +631,7 @@
     <t>OPPO-Mente-Lab/Subject-Diffusion</t>
   </si>
   <si>
-    <t>🖼️`⛽`🚌2️⃣</t>
+    <t>🖼️,`⛽`,🚌,2️⃣</t>
   </si>
   <si>
     <t>Subject-Diffusion:Open Domain Personalized Text-to-Image Generation without Test-time Fine-tuning</t>
@@ -652,7 +652,7 @@
     <t>segmind/distill-sd</t>
   </si>
   <si>
-    <t>🖼️🚌2️⃣</t>
+    <t>🖼️,🚌,2️⃣</t>
   </si>
   <si>
     <t>Segmind Distilled diffusion</t>
@@ -667,7 +667,7 @@
     <t>LinkSoul-AI/Chinese-Llama-2-7b</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣💰🀄</t>
+    <t>🔠,⛽,🚌,2️⃣,💰,🀄</t>
   </si>
   <si>
     <t>开源社区第一个能下载、能运行的中文 LLaMA2 模型！</t>
@@ -688,7 +688,7 @@
     <t>ThisisBillhe/tiny-stable-diffusion</t>
   </si>
   <si>
-    <t>🔠🖼️✂️</t>
+    <t>🔠,🖼️,✂️</t>
   </si>
   <si>
     <t>Tiny optimized Stable-diffusion that can run on GPUs with just 1GB of VRAM. (Beta)</t>
@@ -709,7 +709,7 @@
     <t>omerbt/TokenFlow</t>
   </si>
   <si>
-    <t>🎥`2️⃣`</t>
+    <t>🎥,`2️⃣`</t>
   </si>
   <si>
     <t>Official Pytorch Implementation for "TokenFlow: Consistent Diffusion Features for Consistent Video Editing" presenting "TokenFlow"</t>
@@ -769,7 +769,7 @@
     <t>michael-wzhu/Chinese-LlaMA2</t>
   </si>
   <si>
-    <t>🔠`🚌``🚕``1️⃣``2️⃣`💰🀄</t>
+    <t>🔠,`🚌`,`🚕`,`1️⃣`,`2️⃣`,💰,🀄</t>
   </si>
   <si>
     <t>Repo for adapting Meta LlaMA2 in Chinese! META最新发布的LlaMA2的汉化版！ （完全开源可商用）</t>
@@ -808,7 +808,7 @@
     <t>yangjianxin1/Firefly-LLaMA2-Chinese</t>
   </si>
   <si>
-    <t>🔠`🚌``🚕``1️⃣``2️⃣`🀄</t>
+    <t>🔠,`🚌`,`🚕`,`1️⃣`,`2️⃣`,🀄</t>
   </si>
   <si>
     <t>中文LLaMA-2大模型，兼容对中文大模型进行增量预训练</t>
@@ -832,7 +832,7 @@
     <t>facebookresearch/LLM-QAT</t>
   </si>
   <si>
-    <t>🔠✂️</t>
+    <t>🔠,✂️</t>
   </si>
   <si>
     <t>Code repo for the paper "LLM-QAT Data-Free Quantization Aware Training for Large Language Models"</t>
@@ -844,7 +844,7 @@
     <t>longyuewangdcu/Chinese-Llama-2</t>
   </si>
   <si>
-    <t>🔠🚌`1️⃣`2️⃣</t>
+    <t>🔠,🚌,`1️⃣`,2️⃣</t>
   </si>
   <si>
     <t>Chinese-Llama-2 is a project that aims to expand the impressive capabilities of the Llama-2 language model to the Chinese language.</t>
@@ -865,7 +865,7 @@
     <t>ymcui/Chinese-LLaMA-Alpaca-2</t>
   </si>
   <si>
-    <t>🔠`🚌``1️⃣``2️⃣`💰🀄</t>
+    <t>🔠,`🚌`,`1️⃣`,`2️⃣`,💰,🀄</t>
   </si>
   <si>
     <t>中文 LLaMA-2 &amp; Alpaca-2 大模型二期项目 + 本地CPU/GPU训练部署  (Chinese LLaMA-2 &amp; Alpaca-2 LLMs)</t>
@@ -880,7 +880,7 @@
     <t>DUOMO/TransGPT</t>
   </si>
   <si>
-    <t>🔠⛽🚕2️⃣💰🀄</t>
+    <t>🔠,⛽,🚕,2️⃣,💰,🀄</t>
   </si>
   <si>
     <t>TransGPT是国内首款开源交通大模型，主要致力于在真实交通行业中发挥实际价值。</t>
@@ -901,7 +901,7 @@
     <t>Fictionarry/ER-NeRF</t>
   </si>
   <si>
-    <t>🎥⛽🚌2️⃣</t>
+    <t>🎥,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>[ICCV'23] Efficient Region-Aware Neural Radiance Fields for High-Fidelity Talking Portrait Synthesis</t>
@@ -922,7 +922,7 @@
     <t>facebookresearch/llama-recipes</t>
   </si>
   <si>
-    <t>🔠🚌2️⃣</t>
+    <t>🔠,🚌,2️⃣</t>
   </si>
   <si>
     <t>Examples and recipes for Llama 2 model</t>
@@ -1021,7 +1021,7 @@
     <t>AILab-CVC/SEED</t>
   </si>
   <si>
-    <t>🖼️`🚌`</t>
+    <t>🖼️,`🚌`</t>
   </si>
   <si>
     <t>Empowers LLMs with the ability to see and draw.</t>
@@ -1033,7 +1033,7 @@
     <t>CodeAlchemyAI/ViLT-GPT</t>
   </si>
   <si>
-    <t>🔠🖼️📱</t>
+    <t>🔠,🖼️,📱</t>
   </si>
   <si>
     <t xml:space="preserve">By integrating OpenAI's Language Models (LLM) and LangChain with Vision-and-Language models, this app can answer queries based on the content of images. </t>
@@ -1072,7 +1072,7 @@
     <t>hugofloresgarcia/unloop</t>
   </si>
   <si>
-    <t>🎵📱</t>
+    <t>🎵,📱</t>
   </si>
   <si>
     <t xml:space="preserve">a co-creative looper that uses generative modeling to **not** repeat itself. </t>
@@ -1111,7 +1111,7 @@
     <t>vitoplantamura/OnnxStream</t>
   </si>
   <si>
-    <t>🖼️💡</t>
+    <t>🖼️,💡</t>
   </si>
   <si>
     <t>Running Stable Diffusion on a RPI Zero 2 (or in 260MB of RAM)</t>
@@ -1144,7 +1144,7 @@
     <t>X-PLUG/CValues</t>
   </si>
   <si>
-    <t>🔠⛽🀄❓</t>
+    <t>🔠,⛽,🀄,❓</t>
   </si>
   <si>
     <t>面向中文大模型价值观的评估与对齐研究</t>
@@ -1156,7 +1156,7 @@
     <t>bytedance/lynx-llm</t>
   </si>
   <si>
-    <t>🔠🖼️2️⃣❓</t>
+    <t>🔠,🖼️,2️⃣,❓</t>
   </si>
   <si>
     <t>paper: https://arxiv.org/abs/2307.02469 page: https://lynx-llm.github.io/</t>
@@ -1180,7 +1180,7 @@
     <t>SeargeDP/SeargeSDXL</t>
   </si>
   <si>
-    <t>🖼️🔨</t>
+    <t>🖼️,🔨</t>
   </si>
   <si>
     <t>Custom nodes and workflows for SDXL in ComfyUI</t>
@@ -1255,7 +1255,7 @@
     <t>yangyuke001/SD-inference</t>
   </si>
   <si>
-    <t>🔠🖼️💡</t>
+    <t>🔠,🖼️,💡</t>
   </si>
   <si>
     <t>Stable Diffusion inference</t>
@@ -1279,7 +1279,7 @@
     <t>baaivision/Emu</t>
   </si>
   <si>
-    <t>🔠🖼️🚌</t>
+    <t>🔠,🖼️,🚌</t>
   </si>
   <si>
     <t>Emu: An Open Multimodal Generalist</t>
@@ -1312,7 +1312,7 @@
     <t>baichuan-inc/Baichuan-13B</t>
   </si>
   <si>
-    <t>🔠🚌✂️</t>
+    <t>🔠,🚌,✂️</t>
   </si>
   <si>
     <t>A 13B large language model developed by Baichuan Intelligent Technology</t>
@@ -1423,7 +1423,7 @@
     <t>ringa-tech/asistente-virtual</t>
   </si>
   <si>
-    <t>🔠🖼️🚕</t>
+    <t>🔠,🖼️,🚕</t>
   </si>
   <si>
     <t>An attempt to extend PULSE to a biomedical multimodal conversational assistant.</t>
@@ -1456,7 +1456,7 @@
     <t>YuanGongND/whisper-at</t>
   </si>
   <si>
-    <t>🎵🚌</t>
+    <t>🎵,🚌</t>
   </si>
   <si>
     <t>Code and Pretrained Models for Interspeech 2023 Paper "Whisper-AT: Noise-Robust Automatic Speech Recognizers are Also Strong Audio Event Taggers"</t>
@@ -1474,7 +1474,7 @@
     <t>jshilong/GPT4RoI</t>
   </si>
   <si>
-    <t>🔠🖼️⛽`🚌`2️⃣</t>
+    <t>🔠,🖼️,⛽,`🚌`,2️⃣</t>
   </si>
   <si>
     <t>GPT4RoI: Instruction Tuning Large Language Model on Region-of-Interest</t>
@@ -1486,7 +1486,7 @@
     <t>kennethleungty/Llama-2-Open-Source-LLM-CPU-Inference</t>
   </si>
   <si>
-    <t>🔠💡📱</t>
+    <t>🔠,💡,📱</t>
   </si>
   <si>
     <t>Running Llama 2 and other Open-Source LLMs on CPU Inference Locally for Document Q&amp;A</t>
@@ -1537,7 +1537,7 @@
     <t>OpenLMLab/MOSS-RLHF</t>
   </si>
   <si>
-    <t>🔠🚌3️⃣🀄</t>
+    <t>🔠,🚌,3️⃣,🀄</t>
   </si>
   <si>
     <t>MOSS-RLHF</t>
@@ -1570,7 +1570,7 @@
     <t>SpongebBob/Finetune-ChatGLM2-6B</t>
   </si>
   <si>
-    <t>🔠⛽2️⃣✂️</t>
+    <t>🔠,⛽,2️⃣,✂️</t>
   </si>
   <si>
     <t>ChatGLM2-6B 全参数微调，支持多轮对话的高效微调。</t>
@@ -1597,7 +1597,7 @@
     <t>text2cinemagraph/text2cinemagraph</t>
   </si>
   <si>
-    <t>🔠🎥🚌2️⃣</t>
+    <t>🔠,🎥,🚌,2️⃣</t>
   </si>
   <si>
     <t>Official Pytorch implementation of Text2Cinemagraph: Synthesizing Artistic Cinemagraphs from Text</t>
@@ -1609,7 +1609,7 @@
     <t>zideliu/StyleDrop-PyTorch</t>
   </si>
   <si>
-    <t>🖼️⛽🚌2️⃣</t>
+    <t>🖼️,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>Unoffical implement for [StyleDrop](https://arxiv.org/abs/2306.00983)</t>
@@ -1624,7 +1624,7 @@
     <t>Illyism/openai-whisper-api</t>
   </si>
   <si>
-    <t>🎵🔨</t>
+    <t>🎵,🔨</t>
   </si>
   <si>
     <t>OpenAI Whisper API based on Node.js / Bun.sh in a Docker Container + Google Cloud Run Example</t>
@@ -1675,7 +1675,7 @@
     <t>TonyLianLong/stable-diffusion-xl-demo</t>
   </si>
   <si>
-    <t>🔠🖼️🔨</t>
+    <t>🔠,🖼️,🔨</t>
   </si>
   <si>
     <t>A gradio web UI demo for Stable Diffusion XL 1.0, with refiner and MultiGPU support</t>
@@ -1708,7 +1708,7 @@
     <t>OpenBMB/VisCPM</t>
   </si>
   <si>
-    <t>🔠🖼️🚌`2️⃣`🀄</t>
+    <t>🔠,🖼️,🚌,`2️⃣`,🀄</t>
   </si>
   <si>
     <t>Chinese and English Multimodal Large Model Series (Chat and Paint) \| 基于CPM基础模型的中英双语多模态大模型系列</t>
@@ -1750,7 +1750,7 @@
     <t>IMOSR/MediaGPT</t>
   </si>
   <si>
-    <t>🔠⛽🚕2️⃣🀄</t>
+    <t>🔠,⛽,🚕,2️⃣,🀄</t>
   </si>
   <si>
     <t>中文的自媒体大语言模型MediaGPT(曾用名Media LLaMA)</t>
@@ -1783,7 +1783,7 @@
     <t>gmltmd789/UnitSpeech</t>
   </si>
   <si>
-    <t>🎵🚌2️⃣</t>
+    <t>🎵,🚌,2️⃣</t>
   </si>
   <si>
     <t>An official implementation of "UnitSpeech: Speaker-adaptive Speech Synthesis with Untranscribed Data"</t>
@@ -1813,7 +1813,7 @@
     <t>replicate/cog-llama-template</t>
   </si>
   <si>
-    <t>🔠2️⃣❓</t>
+    <t>🔠,2️⃣,❓</t>
   </si>
   <si>
     <t>LLaMA Cog template</t>
@@ -1846,7 +1846,7 @@
     <t>RayVentura/ShortGPT</t>
   </si>
   <si>
-    <t>🔠🎥📱</t>
+    <t>🔠,🎥,📱</t>
   </si>
   <si>
     <t>🚀🎬 ShortGPT - Experimental AI framework for automated short/video content creation.</t>
@@ -1858,7 +1858,7 @@
     <t>SALT-NLP/LLaVAR</t>
   </si>
   <si>
-    <t>🔠🖼️⛽🚌2️⃣</t>
+    <t>🔠,🖼️,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>Code/Data for the paper: "LLaVAR: Enhanced Visual Instruction Tuning for Text-Rich Image Understanding"</t>
@@ -1936,7 +1936,7 @@
     <t>icalk-nlp/EduChat</t>
   </si>
   <si>
-    <t>🔠⛽🚕</t>
+    <t>🔠,⛽,🚕</t>
   </si>
   <si>
     <t>An open-source educational chat model from ICALK, East China Normal University. 开源中英教育对话大模型。(通用基座模型，GPU部署，数据清理) 致敬: LLaMA, MOSS, BELLE, Ziya</t>
@@ -2026,7 +2026,7 @@
     <t>THUDM/ChatGLM2-6B</t>
   </si>
   <si>
-    <t>🔠🚌✂️🀄</t>
+    <t>🔠,🚌,✂️,🀄</t>
   </si>
   <si>
     <t>ChatGLM2-6B: An Open Bilingual Chat LLM \| 开源双语对话语言模型</t>
@@ -2149,7 +2149,7 @@
     <t>OpenMotionLab/MotionGPT</t>
   </si>
   <si>
-    <t>🔠🎥📝</t>
+    <t>🔠,🎥,📝</t>
   </si>
   <si>
     <t>MotionGPT: Human Motion as a Foreign Language, a unified motion-language generation model using LLMs</t>
@@ -2293,7 +2293,7 @@
     <t>guoyww/AnimateDiff</t>
   </si>
   <si>
-    <t>🔠🎥🚌</t>
+    <t>🔠,🎥,🚌</t>
   </si>
   <si>
     <t>Official implementation of AnimateDiff.</t>
@@ -2353,7 +2353,7 @@
     <t>SpeechifyInc/Meta-voicebox</t>
   </si>
   <si>
-    <t>🎵`2️⃣`</t>
+    <t>🎵,`2️⃣`</t>
   </si>
   <si>
     <t>Implementation of Meta-Voicebox : The first generative AI model for speech to generalize across tasks with state-of-the-art performance.</t>
@@ -2386,7 +2386,7 @@
     <t>InternLM/lmdeploy</t>
   </si>
   <si>
-    <t>🔠✂️💡</t>
+    <t>🔠,✂️,💡</t>
   </si>
   <si>
     <t>LMDeploy is a toolkit for compressing, deploying, and serving LLM</t>
@@ -2437,7 +2437,7 @@
     <t>life-exe/UnrealOpenAIPlugin</t>
   </si>
   <si>
-    <t>🔠🖼️🎵📱</t>
+    <t>🔠,🖼️,🎵,📱</t>
   </si>
   <si>
     <t>This plugin is a comprehensive Unreal Engine wrapper for the OpenAI API.</t>
@@ -2470,7 +2470,7 @@
     <t>SizheAn/PanoHead</t>
   </si>
   <si>
-    <t>🖼️🚌2️⃣🧊</t>
+    <t>🖼️,🚌,2️⃣,🧊</t>
   </si>
   <si>
     <t>Code Repository for CVPR 2023 Paper "PanoHead: Geometry-Aware 3D Full-Head Synthesis in 360 degree"</t>
@@ -2503,7 +2503,7 @@
     <t>lyogavin/Anima</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣🀄</t>
+    <t>🔠,⛽,🚌,2️⃣,🀄</t>
   </si>
   <si>
     <t>第一个开源的基于QLoRA的33B中文大语言模型First QLoRA based open source 33B Chinese LLM</t>
@@ -2539,7 +2539,7 @@
     <t>allenai/open-instruct</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣</t>
+    <t>🔠,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>We explore instruction-tuning popular base models on publicly available datasets.</t>
@@ -2551,7 +2551,7 @@
     <t>camenduru/MusicGen-colab</t>
   </si>
   <si>
-    <t>🎵📝</t>
+    <t>🎵,📝</t>
   </si>
   <si>
     <t>https://github.com/camenduru/MusicGen-colab</t>
@@ -2590,7 +2590,7 @@
     <t>facebookresearch/audiocraft</t>
   </si>
   <si>
-    <t>🎵🚌`2️⃣`</t>
+    <t>🎵,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>Audiocraft is a library for audio processing and generation with deep learning. It features the state-of-the-art EnCodec audio compressor / tokenizer, along with MusicGen, a simple and controllable music generation LM with textual and melodic conditioning.</t>
@@ -2647,7 +2647,7 @@
     <t>BrandonHanx/HeadSculpt</t>
   </si>
   <si>
-    <t>🔠2️⃣🧊</t>
+    <t>🔠,2️⃣,🧊</t>
   </si>
   <si>
     <t>[arXiv 2023 WIP] HeadSculpt: Crafting 3D Head Avatars with Text</t>
@@ -2677,7 +2677,7 @@
     <t>Richasy/FantasyCopilot</t>
   </si>
   <si>
-    <t>🔠🖼️🎵🔨</t>
+    <t>🔠,🖼️,🎵,🔨</t>
   </si>
   <si>
     <t>A new-age AI desktop tool</t>
@@ -2749,7 +2749,7 @@
     <t>InternLM/InternLM-techreport</t>
   </si>
   <si>
-    <t>🔠`🚌`</t>
+    <t>🔠,`🚌`</t>
   </si>
   <si>
     <t>We present InternLM, a multilingual foundational language model with 104B parameters. InternLM is pre-trained on a large corpora with 1.6T tokens with a multi-phase progressive process, and then fine-tuned to align with human preferences.</t>
@@ -2791,7 +2791,7 @@
     <t>shibing624/MedicalGPT</t>
   </si>
   <si>
-    <t>🔠⛽🚕1️⃣2️⃣3️⃣🀄</t>
+    <t>🔠,⛽,🚕,1️⃣,2️⃣,3️⃣,🀄</t>
   </si>
   <si>
     <t>MedicalGPT: Training Your Own Medical GPT Model with ChatGPT Training Pipeline. 训练医疗大模型，实现包括二次预训练、有监督微调、奖励建模、强化学习训练。</t>
@@ -2854,7 +2854,7 @@
     <t>xaviviro/refacer</t>
   </si>
   <si>
-    <t>🎥🚌</t>
+    <t>🎥,🚌</t>
   </si>
   <si>
     <t>Refacer: One-Click Deepfake Multi-Face Swap Tool</t>
@@ -2899,7 +2899,7 @@
     <t>icoz69/StyleAvatar3D</t>
   </si>
   <si>
-    <t>🖼️📝🧊</t>
+    <t>🖼️,📝,🧊</t>
   </si>
   <si>
     <t>Official repo for StyleAvatar3D</t>
@@ -2914,7 +2914,7 @@
     <t>THUDM/WebGLM</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣📱🀄</t>
+    <t>🔠,⛽,🚌,2️⃣,📱,🀄</t>
   </si>
   <si>
     <t>WebGLM: An Efficient Web-enhanced Question Answering System (KDD 2023)</t>
@@ -2953,7 +2953,7 @@
     <t>hiyouga/LLaMA-Efficient-Tuning</t>
   </si>
   <si>
-    <t>🔠1️⃣2️⃣3️⃣</t>
+    <t>🔠,1️⃣,2️⃣,3️⃣</t>
   </si>
   <si>
     <t>Easy-to-use fine-tuning framework using PEFT (PT+SFT+RLHF with QLoRA) (LLaMA-2, BLOOM, Falcon, Baichuan, Qwen, ChatGLM2)</t>
@@ -2983,7 +2983,7 @@
     <t>s0md3v/roop</t>
   </si>
   <si>
-    <t>🎥📱</t>
+    <t>🎥,📱</t>
   </si>
   <si>
     <t>one-click deepfake (face swap)</t>
@@ -3025,7 +3025,7 @@
     <t>imoneoi/openchat</t>
   </si>
   <si>
-    <t>🔠⛽🚌🚕2️⃣</t>
+    <t>🔠,⛽,🚌,🚕,2️⃣</t>
   </si>
   <si>
     <t>OpenChat: Advancing Open-source Language Models with Imperfect Data</t>
@@ -3115,7 +3115,7 @@
     <t>OFA-Sys/ExpertLLaMA</t>
   </si>
   <si>
-    <t>🔠⛽`🚌`2️⃣</t>
+    <t>🔠,⛽,`🚌`,2️⃣</t>
   </si>
   <si>
     <t>An opensource ChatBot built with ExpertPrompting which achieves 96% of ChatGPT's capability.</t>
@@ -3163,7 +3163,7 @@
     <t>lyuchenyang/Macaw-LLM</t>
   </si>
   <si>
-    <t>🔠🖼️🎵⛽🚌2️⃣</t>
+    <t>🔠,🖼️,🎵,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>Macaw-LLM: Multi-Modal Language Modeling with Image, Video, Audio, and Text Integration</t>
@@ -3232,7 +3232,7 @@
     <t>cg1177/VideoLLM</t>
   </si>
   <si>
-    <t>🎥📝</t>
+    <t>🎥,📝</t>
   </si>
   <si>
     <t>VideoLLM: Modeling Video Sequence with Large Language Models</t>
@@ -3253,7 +3253,7 @@
     <t>google-research-datasets/seahorse</t>
   </si>
   <si>
-    <t>🔠⛽</t>
+    <t>🔠,⛽</t>
   </si>
   <si>
     <t>Seahorse is a dataset for multilingual, multi-faceted summarization evaluation. It consists of 96K summaries with human ratings along 6 quality dimensions: comprehensibility, repetition, grammar, attribution, main idea(s), and conciseness, covering 6 languages, 9 systems and 4 datasets.</t>
@@ -3346,7 +3346,7 @@
     <t>SHI-Labs/Prompt-Free-Diffusion</t>
   </si>
   <si>
-    <t>🖼️🚌</t>
+    <t>🖼️,🚌</t>
   </si>
   <si>
     <t>Prompt-Free Diffusion: Taking "Text" out of Text-to-Image Diffusion Models</t>
@@ -3367,7 +3367,7 @@
     <t>ShishirPatil/gorilla</t>
   </si>
   <si>
-    <t>🔠⛽🚌`2️⃣`🔨💰</t>
+    <t>🔠,⛽,🚌,`2️⃣`,🔨,💰</t>
   </si>
   <si>
     <t>Gorilla: An API store for LLMs</t>
@@ -3379,7 +3379,7 @@
     <t>YuanGongND/ltu</t>
   </si>
   <si>
-    <t>🔠🎵`2️⃣`</t>
+    <t>🔠,🎵,`2️⃣`</t>
   </si>
   <si>
     <t>Github Repo for Paper "Listen, Think, and Understand".</t>
@@ -3430,7 +3430,7 @@
     <t>OFA-Sys/ONE-PEACE</t>
   </si>
   <si>
-    <t>🖼️🚌1️⃣2️⃣</t>
+    <t>🖼️,🚌,1️⃣,2️⃣</t>
   </si>
   <si>
     <t>A general representation model across vision, audio, language modalities. Paper: ONE-PEACE: Exploring One General Representation Model Toward Unlimited Modalities</t>
@@ -3442,7 +3442,7 @@
     <t>OpenGVLab/VisionLLM</t>
   </si>
   <si>
-    <t>🖼️`🚌``2️⃣`</t>
+    <t>🖼️,`🚌`,`2️⃣`</t>
   </si>
   <si>
     <t>VisionLLM: Large Language Model is also an Open-Ended Decoder for Vision-Centric Tasks</t>
@@ -3490,7 +3490,7 @@
     <t>mbzuai-oryx/Video-ChatGPT</t>
   </si>
   <si>
-    <t>🔠🎥⛽🚌2️⃣</t>
+    <t>🔠,🎥,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>"Video-ChatGPT" is a video conversation model capable of generating meaningful conversation about videos. It combines the capabilities of LLMs with a pretrained visual encoder adapted for spatiotemporal video representation. We also introduce a rigorous 'Quantitative Evaluation Benchmarking' for video-based conversational models.</t>
@@ -3502,7 +3502,7 @@
     <t>mbzuai-oryx/XrayGPT</t>
   </si>
   <si>
-    <t>🔠🖼️⛽🚕2️⃣</t>
+    <t>🔠,🖼️,⛽,🚕,2️⃣</t>
   </si>
   <si>
     <t>XrayGPT: Chest Radiographs Summarization using Medical Vision-Language Models.</t>
@@ -3523,7 +3523,7 @@
     <t>yxuansu/PandaGPT</t>
   </si>
   <si>
-    <t>🔠🖼️🚌2️⃣</t>
+    <t>🔠,🖼️,🚌,2️⃣</t>
   </si>
   <si>
     <t>PandaGPT: One Model To Instruction-Follow Them All</t>
@@ -3556,7 +3556,7 @@
     <t>lucidrains/soundstorm-pytorch</t>
   </si>
   <si>
-    <t>🎵2️⃣</t>
+    <t>🎵,2️⃣</t>
   </si>
   <si>
     <t>Implementation of SoundStorm, Efficient Parallel Audio Generation from Google Deepmind, in Pytorch</t>
@@ -3568,7 +3568,7 @@
     <t>mit-han-lab/fastcomposer</t>
   </si>
   <si>
-    <t>🖼️`⛽`🚌`2️⃣`</t>
+    <t>🖼️,`⛽`,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>FastComposer: Tuning-Free Multi-Subject Image Generation with Localized Attention</t>
@@ -3589,7 +3589,7 @@
     <t>princeton-nlp/tree-of-thought-llm</t>
   </si>
   <si>
-    <t>🔠`2️⃣`</t>
+    <t>🔠,`2️⃣`</t>
   </si>
   <si>
     <t>Official Implementation of "Tree of Thoughts: Deliberate Problem Solving with Large Language Models"</t>
@@ -3610,7 +3610,7 @@
     <t>simoninithomas/awesome-ai-tools-for-game-dev</t>
   </si>
   <si>
-    <t>🔠🖼️🎵🎥📝</t>
+    <t>🔠,🖼️,🎵,🎥,📝</t>
   </si>
   <si>
     <t>A curated list of awesome AI tools for game developers</t>
@@ -3625,7 +3625,7 @@
     <t>0nutation/SpeechGPT</t>
   </si>
   <si>
-    <t>🔠🎵`⛽``🚌``2️⃣`</t>
+    <t>🔠,🎵,`⛽`,`🚌`,`2️⃣`</t>
   </si>
   <si>
     <t xml:space="preserve">SpeechGPT: Empowering Large Language Models with Intrinsic Cross-Modal Conversational Abilities. </t>
@@ -3676,7 +3676,7 @@
     <t>PKU-Alignment/safe-rlhf</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣3️⃣</t>
+    <t>🔠,⛽,🚌,2️⃣,3️⃣</t>
   </si>
   <si>
     <t>Safe-RLHF: Constrained Value Alignment via Safe Reinforcement Learning from Human Feedback</t>
@@ -3712,7 +3712,7 @@
     <t>HeliosZhao/Make-A-Protagonist</t>
   </si>
   <si>
-    <t>🎥🚌`2️⃣`</t>
+    <t>🎥,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>Make-A-Protagonist: Generic Video Editing with An Ensemble of Experts</t>
@@ -3778,7 +3778,7 @@
     <t>TigerResearch/TigerBot</t>
   </si>
   <si>
-    <t>🔠⛽🚌1️⃣2️⃣</t>
+    <t>🔠,⛽,🚌,1️⃣,2️⃣</t>
   </si>
   <si>
     <t>TigerBot: A multi-language multi-task LLM</t>
@@ -3829,7 +3829,7 @@
     <t>artidoro/qlora</t>
   </si>
   <si>
-    <t>🔠2️⃣✂️</t>
+    <t>🔠,2️⃣,✂️</t>
   </si>
   <si>
     <t>QLoRA: Efficient Finetuning of Quantized LLMs</t>
@@ -3871,7 +3871,7 @@
     <t>Neutralzz/BiLLa</t>
   </si>
   <si>
-    <t>🔠⛽🚌1️⃣2️⃣🀄</t>
+    <t>🔠,⛽,🚌,1️⃣,2️⃣,🀄</t>
   </si>
   <si>
     <t>BiLLa: A Bilingual LLaMA with Enhanced Reasoning Ability</t>
@@ -4021,7 +4021,7 @@
     <t>DAMO-NLP-SG/Video-LLaMA</t>
   </si>
   <si>
-    <t>🔠🎥🚌1️⃣2️⃣</t>
+    <t>🔠,🎥,🚌,1️⃣,2️⃣</t>
   </si>
   <si>
     <t>Video-LLaMA: An Instruction-tuned Audio-Visual Language Model for Video Understanding</t>
@@ -4090,7 +4090,7 @@
     <t>eugeneyan/open-llms</t>
   </si>
   <si>
-    <t>🔠📝💰</t>
+    <t>🔠,📝,💰</t>
   </si>
   <si>
     <t>📋 A list of open LLMs available for commercial use.</t>
@@ -4123,7 +4123,7 @@
     <t>Lightning-AI/lit-gpt</t>
   </si>
   <si>
-    <t>🔠🖼️🚌`1️⃣`2️⃣</t>
+    <t>🔠,🖼️,🚌,`1️⃣`,2️⃣</t>
   </si>
   <si>
     <t>Hackable implementation of state-of-the-art open-source LLMs based on nanoGPT. Supports flash attention, 4-bit and 8-bit quantization, LoRA and LLaMA-Adapter fine-tuning, pre-training. Apache 2.0-licensed.</t>
@@ -4231,7 +4231,7 @@
     <t>Docta-ai/docta</t>
   </si>
   <si>
-    <t>🔠🖼️⛽</t>
+    <t>🔠,🖼️,⛽</t>
   </si>
   <si>
     <t>A Doctor for your data</t>
@@ -4282,7 +4282,7 @@
     <t>FurkanGozukara/Stable-Diffusion</t>
   </si>
   <si>
-    <t>🖼️📝</t>
+    <t>🖼️,📝</t>
   </si>
   <si>
     <t>Stable Diffusion, SDXL, LoRA Training, DreamBooth Training, Automatic1111 Web UI, DeepFake, Deep Fakes, TTS, Animation, Text To Video, Tutorials, Guides, Lectures, Courses, ComfyUI, Google Colab, RunPod, NoteBooks, ControlNet, TTS, Voice Cloning, AI, AI News, ML, ML News, News, Tech, Tech News, Kohya LoRA, Kandinsky 2, DeepFloyd IF, Midjourney</t>
@@ -4420,7 +4420,7 @@
     <t>openlm-research/open_llama</t>
   </si>
   <si>
-    <t>🔠🚌💰</t>
+    <t>🔠,🚌,💰</t>
   </si>
   <si>
     <t>In this repo, we release a permissively licensed open source reproduction of Meta AI's LLaMA large language model.</t>
@@ -4441,7 +4441,7 @@
     <t>replit/ReplitLM</t>
   </si>
   <si>
-    <t>🔠⛽🚌</t>
+    <t>🔠,⛽,🚌</t>
   </si>
   <si>
     <t>Inference code and configs for the ReplitLM model family</t>
@@ -4531,7 +4531,7 @@
     <t>OpenBuddy/OpenBuddy</t>
   </si>
   <si>
-    <t>🔠🚌🀄</t>
+    <t>🔠,🚌,🀄</t>
   </si>
   <si>
     <t>Open Multilingual Chatbot for Everyone</t>
@@ -4552,7 +4552,7 @@
     <t>mosaicml/diffusion</t>
   </si>
   <si>
-    <t>🖼️2️⃣</t>
+    <t>🖼️,2️⃣</t>
   </si>
   <si>
     <t>This repo contains code used to train your own Stable Diffusion model on your own data.</t>
@@ -4741,7 +4741,7 @@
     <t>THUDM/VisualGLM-6B</t>
   </si>
   <si>
-    <t>🔠🖼️⛽🚌2️⃣✂️🀄</t>
+    <t>🔠,🖼️,⛽,🚌,2️⃣,✂️,🀄</t>
   </si>
   <si>
     <t>Chinese and English multimodal conversational language model \| 多模态中英双语对话语言模型</t>
@@ -4780,7 +4780,7 @@
     <t>minosvasilias/godot-dodo</t>
   </si>
   <si>
-    <t>🔠🚕2️⃣</t>
+    <t>🔠,🚕,2️⃣</t>
   </si>
   <si>
     <t>Finetuning large language models for GDScript generation.</t>
@@ -4861,7 +4861,7 @@
     <t>lvwzhen/law-cn-ai</t>
   </si>
   <si>
-    <t>🔠⛽📱🀄</t>
+    <t>🔠,⛽,📱,🀄</t>
   </si>
   <si>
     <t>⚖️ AI 法律助手</t>
@@ -4888,7 +4888,7 @@
     <t>voidful/awesome-chatgpt-dataset</t>
   </si>
   <si>
-    <t>🔠⛽📝</t>
+    <t>🔠,⛽,📝</t>
   </si>
   <si>
     <t>Unlock the Power of LLM: Explore These Datasets to Train Your Own ChatGPT!</t>
@@ -4984,7 +4984,7 @@
     <t>RiseInRose/MiniGPT-4-ZH</t>
   </si>
   <si>
-    <t>🔠🖼️🚌2️⃣✂️</t>
+    <t>🔠,🖼️,🚌,2️⃣,✂️</t>
   </si>
   <si>
     <t>MiniGPT-4 中文部署翻译 完善部署细节</t>
@@ -5050,7 +5050,7 @@
     <t>modal-labs/quillman</t>
   </si>
   <si>
-    <t>🔠🎵🔨</t>
+    <t>🔠,🎵,🔨</t>
   </si>
   <si>
     <t>A chat app that transcribes audio in real-time, streams back a response from a language model, and synthesizes this response as natural-sounding speech.</t>
@@ -5074,7 +5074,7 @@
     <t>kaqijiang/Auto-GPT-ZH</t>
   </si>
   <si>
-    <t>🔠📱🀄</t>
+    <t>🔠,📱,🀄</t>
   </si>
   <si>
     <t>Auto-GPT中文版本及爱好者组织 同步更新原项目 AI领域创业 自媒体组织 用AI工作学习创作变现</t>
@@ -5125,7 +5125,7 @@
     <t>h2oai/h2o-llmstudio</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣💰</t>
+    <t>🔠,⛽,🚌,2️⃣,💰</t>
   </si>
   <si>
     <t>H2O LLM Studio - a framework and no-code GUI for fine-tuning LLMs. Documentation: https://h2oai.github.io/h2o-llmstudio/</t>
@@ -5137,7 +5137,7 @@
     <t>haotian-liu/LLaVA</t>
   </si>
   <si>
-    <t>🔠🖼️⛽🚌1️⃣2️⃣</t>
+    <t>🔠,🖼️,⛽,🚌,1️⃣,2️⃣</t>
   </si>
   <si>
     <t>Large Language-and-Vision Assistant built towards multimodal GPT-4 level capabilities.</t>
@@ -5200,7 +5200,7 @@
     <t>OpenLMLab/MOSS</t>
   </si>
   <si>
-    <t>🔠⛽🚌✂️💰🀄</t>
+    <t>🔠,⛽,🚌,✂️,💰,🀄</t>
   </si>
   <si>
     <t>An open-source tool-augmented conversational language model from Fudan University</t>
@@ -5212,7 +5212,7 @@
     <t>Vision-CAIR/MiniGPT-4</t>
   </si>
   <si>
-    <t>🔠🖼️🚌1️⃣2️⃣</t>
+    <t>🔠,🖼️,🚌,1️⃣,2️⃣</t>
   </si>
   <si>
     <t>MiniGPT-4: Enhancing Vision-language Understanding with Advanced Large Language Models</t>
@@ -5329,7 +5329,7 @@
     <t>Anything-of-anything/Anything-3D</t>
   </si>
   <si>
-    <t>🖼️`📱`🧊</t>
+    <t>🖼️,`📱`,🧊</t>
   </si>
   <si>
     <t>Segment-Anything + 3D. Let's lift anything to 3D.</t>
@@ -5398,7 +5398,7 @@
     <t>langgenius/dify</t>
   </si>
   <si>
-    <t>🔠⛽2️⃣📱</t>
+    <t>🔠,⛽,2️⃣,📱</t>
   </si>
   <si>
     <t>One API for plugins and datasets, one interface for prompt engineering and visual operation, all for creating powerful AI applications.</t>
@@ -5461,7 +5461,7 @@
     <t>declare-lab/tango</t>
   </si>
   <si>
-    <t>🔠🎵🚌2️⃣</t>
+    <t>🔠,🎵,🚌,2️⃣</t>
   </si>
   <si>
     <t>Codes and Model of the paper "Text-to-Audio Generation using Instruction Tuned LLM and Latent Diffusion Model"</t>
@@ -5530,7 +5530,7 @@
     <t>geekyutao/Inpaint-Anything</t>
   </si>
   <si>
-    <t>🖼️🎥🚌🧊</t>
+    <t>🖼️,🎥,🚌,🧊</t>
   </si>
   <si>
     <t>Inpaint anything using Segment Anything and inpainting models.</t>
@@ -5572,7 +5572,7 @@
     <t>hiyouga/ChatGLM-Efficient-Tuning</t>
   </si>
   <si>
-    <t>🔠⛽2️⃣3️⃣🀄</t>
+    <t>🔠,⛽,2️⃣,3️⃣,🀄</t>
   </si>
   <si>
     <t>Fine-tuning ChatGLM-6B with PEFT \| 基于 PEFT 的高效 ChatGLM 微调</t>
@@ -5605,7 +5605,7 @@
     <t>ajndkr/lanarky</t>
   </si>
   <si>
-    <t>🔠🔨📱</t>
+    <t>🔠,🔨,📱</t>
   </si>
   <si>
     <t>FastAPI framework to build production-grade LLM applications</t>
@@ -5635,7 +5635,7 @@
     <t>suno-ai/bark</t>
   </si>
   <si>
-    <t>🔠🎵🚌💰</t>
+    <t>🔠,🎵,🚌,💰</t>
   </si>
   <si>
     <t>🔊 Text-Prompted Generative Audio Model</t>
@@ -5668,7 +5668,7 @@
     <t>Instruction-Tuning-with-GPT-4/GPT-4-LLM</t>
   </si>
   <si>
-    <t>🔠⛽2️⃣</t>
+    <t>🔠,⛽,2️⃣</t>
   </si>
   <si>
     <t>Instruction Tuning with GPT-4</t>
@@ -5689,7 +5689,7 @@
     <t>liucongg/ChatGLM-Finetuning</t>
   </si>
   <si>
-    <t>🔠2️⃣🀄</t>
+    <t>🔠,2️⃣,🀄</t>
   </si>
   <si>
     <t>基于ChatGLM-6B、ChatGLM2-6B模型，进行下游具体任务微调，涉及Freeze、Lora、P-tuning、全参微调等</t>
@@ -5701,7 +5701,7 @@
     <t>openai/plugins-quickstart</t>
   </si>
   <si>
-    <t>🔠📝🔌</t>
+    <t>🔠,📝,🔌</t>
   </si>
   <si>
     <t>Get a ChatGPT plugin up and running in under 5 minutes!</t>
@@ -5812,7 +5812,7 @@
     <t>VideoCrafter/VideoCrafter</t>
   </si>
   <si>
-    <t>🔠🎥🚌`2️⃣`</t>
+    <t>🔠,🎥,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>A Toolkit for Text-to-Video Generation and Editing</t>
@@ -5869,7 +5869,7 @@
     <t>yangjianxin1/Firefly</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣✂️🀄</t>
+    <t>🔠,⛽,🚌,2️⃣,✂️,🀄</t>
   </si>
   <si>
     <t>Firefly(流萤): 中文对话式大语言模型(全量微调+QLoRA)，支持微调Llma2、Llama、Qwen、Baichuan、ChatGLM2、InternLM、Ziya、Bloom等大模型</t>
@@ -5884,7 +5884,7 @@
     <t>FreedomIntelligence/LLMZoo</t>
   </si>
   <si>
-    <t>🔠⛽🚌2️⃣✂️📝</t>
+    <t>🔠,⛽,🚌,2️⃣,✂️,📝</t>
   </si>
   <si>
     <t>⚡LLM Zoo is a project that provides data, models, and evaluation benchmark for large language models.⚡</t>
@@ -5905,7 +5905,7 @@
     <t>THUDM/ImageReward</t>
   </si>
   <si>
-    <t>🔠🖼️3️⃣🔌</t>
+    <t>🔠,🖼️,3️⃣,🔌</t>
   </si>
   <si>
     <t>ImageReward: Learning and Evaluating Human Preferences for Text-to-image Generation</t>
@@ -6016,10 +6016,10 @@
     <t>https://github.com/SCIR-HI/Med-ChatGLM</t>
   </si>
   <si>
-    <t>chatchat-space/langchain-ChatGLM</t>
-  </si>
-  <si>
-    <t>Langchain-Chatchat (formerly langchain-ChatGLM), local knowledge based LLM QA app with langchain ｜ 基于 Langchain 与 ChatGLM 等语言模型的本地知识库问答</t>
+    <t>chatchat-space/Langchain-Chatchat</t>
+  </si>
+  <si>
+    <t>Langchain-Chatchat (formerly langchain-ChatGLM), local knowledge based LLM (like ChatGLM) QA app with langchain ｜ 基于 Langchain 与 ChatGLM 等语言模型的本地知识库问答</t>
   </si>
   <si>
     <t>https://github.com/chatchat-space/Langchain-Chatchat</t>
@@ -6049,7 +6049,7 @@
     <t>AetherCortex/Llama-X</t>
   </si>
   <si>
-    <t>🔠`🚌`2️⃣</t>
+    <t>🔠,`🚌`,2️⃣</t>
   </si>
   <si>
     <t>Open Academic Research on Improving LLaMA to SOTA LLM</t>
@@ -6367,7 +6367,7 @@
     <t>h2oai/h2ogpt</t>
   </si>
   <si>
-    <t>🔠🚌2️⃣💰</t>
+    <t>🔠,🚌,2️⃣,💰</t>
   </si>
   <si>
     <t>Private Q&amp;A and summarization of documents+images or chat with local GPT, 100% private, Apache 2.0. Supports LLaMa2, llama.cpp, and more. Demo: https://gpt.h2o.ai/</t>
@@ -6418,7 +6418,7 @@
     <t>Facico/Chinese-Vicuna</t>
   </si>
   <si>
-    <t>🔠🚌2️⃣✂️🀄</t>
+    <t>🔠,🚌,2️⃣,✂️,🀄</t>
   </si>
   <si>
     <t>Chinese-Vicuna: A Chinese Instruction-following LLaMA-based Model —— 一个中文低资源的llama+lora方案，结构参考alpaca</t>
@@ -6439,7 +6439,7 @@
     <t>junshutang/Make-It-3D</t>
   </si>
   <si>
-    <t>🖼️🚌`2️⃣`🧊</t>
+    <t>🖼️,🚌,`2️⃣`,🧊</t>
   </si>
   <si>
     <t>[ICCV 2023] Make-It-3D: High-Fidelity 3D Creation from A Single Image with Diffusion Prior</t>
@@ -6472,7 +6472,7 @@
     <t>Lightning-AI/lit-llama</t>
   </si>
   <si>
-    <t>🔠🚌1️⃣2️⃣✂️💰</t>
+    <t>🔠,🚌,1️⃣,2️⃣,✂️,💰</t>
   </si>
   <si>
     <t>Implementation of the LLaMA language model based on nanoGPT. Supports flash attention, Int8 and GPTQ 4bit quantization, LoRA and LLaMA-Adapter fine-tuning, pre-training. Apache 2.0-licensed.</t>
@@ -6559,7 +6559,7 @@
     <t>CVI-SZU/Linly</t>
   </si>
   <si>
-    <t>🔠⛽🚌1️⃣2️⃣`3️⃣`✂️💡💰🀄</t>
+    <t>🔠,⛽,🚌,1️⃣,2️⃣,`3️⃣`,✂️,💡,💰,🀄</t>
   </si>
   <si>
     <t>Chinese-LLaMA 1&amp;2、Chinese-Falcon 基础模型；ChatFlow中文对话模型；中文OpenLLaMA模型；NLP预训练/指令微调数据集</t>
@@ -6667,7 +6667,7 @@
     <t>lukasHoel/text2room</t>
   </si>
   <si>
-    <t>🔠🖼️🚌🧊</t>
+    <t>🔠,🖼️,🚌,🧊</t>
   </si>
   <si>
     <t>Text2Room generates textured 3D meshes from a given text prompt using 2D text-to-image models (ICCV2023).</t>
@@ -6697,7 +6697,7 @@
     <t>yzfly/awesome-chatgpt-zh</t>
   </si>
   <si>
-    <t>🔠📝🀄</t>
+    <t>🔠,📝,🀄</t>
   </si>
   <si>
     <t>ChatGPT 中文指南🔥，ChatGPT 中文调教指南，指令指南，应用开发指南，精选资源清单，更好的使用 chatGPT 让你的生产力 up up up! 🚀</t>
@@ -6778,7 +6778,7 @@
     <t>camenduru/text-to-video-synthesis-colab</t>
   </si>
   <si>
-    <t>🔠🎥🔨</t>
+    <t>🔠,🎥,🔨</t>
   </si>
   <si>
     <t>Text To Video Synthesis Colab</t>
@@ -6817,7 +6817,7 @@
     <t>kabachuha/sd-webui-text2video</t>
   </si>
   <si>
-    <t>🖼️🎥🔌</t>
+    <t>🖼️,🎥,🔌</t>
   </si>
   <si>
     <t>Auto1111 extension implementing text2video diffusion models (like ModelScope or VideoCrafter) using only Auto1111 webui dependencies</t>
@@ -6988,7 +6988,7 @@
     <t>cvlab-columbia/zero123</t>
   </si>
   <si>
-    <t>🖼️2️⃣🧊</t>
+    <t>🖼️,2️⃣,🧊</t>
   </si>
   <si>
     <t>Zero-1-to-3: Zero-shot One Image to 3D Object (ICCV 2023)</t>
@@ -7009,7 +7009,7 @@
     <t>hikariming/alpaca_chinese_dataset</t>
   </si>
   <si>
-    <t>🔠⛽2️⃣🀄</t>
+    <t>🔠,⛽,2️⃣,🀄</t>
   </si>
   <si>
     <t>人工精调的中文对话数据集和一段chatglm的微调代码</t>
@@ -7051,7 +7051,7 @@
     <t>AIGC-Audio/AudioGPT</t>
   </si>
   <si>
-    <t>🔠🎵🚌</t>
+    <t>🔠,🎵,🚌</t>
   </si>
   <si>
     <t>AudioGPT: Understanding and Generating Speech, Music, Sound, and Talking Head</t>
@@ -7183,7 +7183,7 @@
     <t>microsoft/MM-REACT</t>
   </si>
   <si>
-    <t>🔠🖼️🎥📱</t>
+    <t>🔠,🖼️,🎥,📱</t>
   </si>
   <si>
     <t>Official repo for MM-REACT</t>
@@ -7204,7 +7204,7 @@
     <t>ymcui/Chinese-LLaMA-Alpaca</t>
   </si>
   <si>
-    <t>🔠1️⃣2️⃣✂️💡🀄</t>
+    <t>🔠,1️⃣,2️⃣,✂️,💡,🀄</t>
   </si>
   <si>
     <t>中文LLaMA&amp;Alpaca大语言模型+本地CPU/GPU训练部署 (Chinese LLaMA &amp; Alpaca LLMs)</t>
@@ -7267,7 +7267,7 @@
     <t>KU-CVLAB/3DFuse</t>
   </si>
   <si>
-    <t>🖼️🚌🧊</t>
+    <t>🖼️,🚌,🧊</t>
   </si>
   <si>
     <t>Official implementation of "Let 2D Diffusion Model Know 3D-Consistency for Robust Text-to-3D Generation"</t>
@@ -7480,7 +7480,7 @@
     <t>IDEA-Research/GroundingDINO</t>
   </si>
   <si>
-    <t>🔠🖼️🚌`2️⃣`</t>
+    <t>🔠,🖼️,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>Official implementation of the paper "Grounding DINO: Marrying DINO with Grounded Pre-Training for Open-Set Object Detection"</t>
@@ -7786,7 +7786,7 @@
     <t>yxlllc/DDSP-SVC</t>
   </si>
   <si>
-    <t>🎵⛽🚌2️⃣</t>
+    <t>🎵,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>Real-time end-to-end singing voice conversion system based on DDSP (Differentiable Digital Signal Processing)</t>
@@ -7936,7 +7936,7 @@
     <t>sanchit-gandhi/whisper-jax</t>
   </si>
   <si>
-    <t>🎵❓</t>
+    <t>🎵,❓</t>
   </si>
   <si>
     <t>JAX implementation of OpenAI's Whisper model for up to 70x speed-up on TPU.</t>
@@ -8062,7 +8062,7 @@
     <t>juncongmoo/chatllama</t>
   </si>
   <si>
-    <t>🔠3️⃣</t>
+    <t>🔠,3️⃣</t>
   </si>
   <si>
     <t>ChatLLaMA 📢 Open source implementation for LLaMA-based ChatGPT runnable in a single GPU. 15x faster training process than ChatGPT</t>
@@ -8104,7 +8104,7 @@
     <t>JimmyLv/BibiGPT</t>
   </si>
   <si>
-    <t>🔠🎵🎥📱</t>
+    <t>🔠,🎵,🎥,📱</t>
   </si>
   <si>
     <t>BibiGPT v1 · one-Click AI Summary for Audio/Video &amp; Chat with Learning Content: Bilibili \| YouTube \| Tweet丨TikTok丨Local files \| Websites丨Podcasts \| Meetings \| Lectures, etc. 音视频内容 AI 一键总结 &amp; 对话：哔哩哔哩丨YouTube丨推特丨小红书丨抖音丨网页丨播客丨会议丨本地文件等 (原 BiliGPT 省流神器 &amp; 课代表)</t>
@@ -8152,7 +8152,7 @@
     <t>openai/consistency_models</t>
   </si>
   <si>
-    <t>🖼️🚌2️⃣✂️</t>
+    <t>🖼️,🚌,2️⃣,✂️</t>
   </si>
   <si>
     <t>Official repo for consistency models.</t>
@@ -8281,7 +8281,7 @@
     <t>prompt-engineering/understand-prompt</t>
   </si>
   <si>
-    <t>🔠🖼️📝</t>
+    <t>🔠,🖼️,📝</t>
   </si>
   <si>
     <t>【🔞🔞🔞 内含不适合未成年人阅读的图片】基于我擅长的编程、绘画、写作展开的 AI 探索和总结：StableDiffusion 是一种强大的图像生成模型，能够通过对一张图片进行演化来生成新的图片。ChatGPT 是一个基于 Transformer 的语言生成模型，它能够自动为输入的主题生成合适的文章。而 Github Copilot 是一个智能编程助手，能够加速日常编程活动。</t>
@@ -8440,7 +8440,7 @@
     <t>AI4Finance-Foundation/FinGPT</t>
   </si>
   <si>
-    <t>🔠⛽🚕🀄</t>
+    <t>🔠,⛽,🚕,🀄</t>
   </si>
   <si>
     <t>Data-Centric FinGPT.  Open-source for open finance!  Revolutionize 🔥    We'll soon release the trained model.</t>
@@ -8674,7 +8674,7 @@
     <t>lucidrains/musiclm-pytorch</t>
   </si>
   <si>
-    <t>🎵🚌2️⃣✂️</t>
+    <t>🎵,🚌,2️⃣,✂️</t>
   </si>
   <si>
     <t>Implementation of MusicLM, Google's new SOTA model for music generation using attention networks, in Pytorch</t>
@@ -9283,7 +9283,7 @@
     <t>riffusion/riffusion</t>
   </si>
   <si>
-    <t>🖼️🎵📱</t>
+    <t>🖼️,🎵,📱</t>
   </si>
   <si>
     <t>Stable diffusion for real-time music generation</t>
@@ -9298,7 +9298,7 @@
     <t>OpenTalker/SadTalker</t>
   </si>
   <si>
-    <t>🖼️🎵🎥🚌`2️⃣`</t>
+    <t>🖼️,🎵,🎥,🚌,`2️⃣`</t>
   </si>
   <si>
     <t>[CVPR 2023] SadTalker：Learning Realistic 3D Motion Coefficients for Stylized Audio-Driven Single Image Talking Face Animation</t>
@@ -9310,7 +9310,7 @@
     <t>Stability-AI/stablediffusion</t>
   </si>
   <si>
-    <t>🖼️⛽🚌</t>
+    <t>🖼️,⛽,🚌</t>
   </si>
   <si>
     <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
@@ -9415,7 +9415,7 @@
     <t>mlfoundations/open_flamingo</t>
   </si>
   <si>
-    <t>🔠🖼️`🎥`⛽🚌2️⃣</t>
+    <t>🔠,🖼️,`🎥`,⛽,🚌,2️⃣</t>
   </si>
   <si>
     <t>An open-source framework for training large multimodal models.</t>
@@ -9442,7 +9442,7 @@
     <t>MubertAI/Mubert-Text-to-Music</t>
   </si>
   <si>
-    <t>🔠🎵🎥📝</t>
+    <t>🔠,🎵,🎥,📝</t>
   </si>
   <si>
     <t>A simple notebook demonstrating prompt-based music generation via Mubert API</t>
@@ -9580,7 +9580,7 @@
     <t>ggerganov/whisper.cpp</t>
   </si>
   <si>
-    <t>🎵🚌✂️</t>
+    <t>🎵,🚌,✂️</t>
   </si>
   <si>
     <t>Port of OpenAI's Whisper model in C/C++</t>
@@ -9649,7 +9649,7 @@
     <t>THUDM/CodeGeeX</t>
   </si>
   <si>
-    <t>🔠🚕</t>
+    <t>🔠,🚕</t>
   </si>
   <si>
     <t>CodeGeeX: An Open Multilingual Code Generation Model (KDD 2023)</t>
@@ -9898,7 +9898,7 @@
     <t>modelscope/modelscope</t>
   </si>
   <si>
-    <t>🔠🖼️🎵2️⃣</t>
+    <t>🔠,🖼️,🎵,2️⃣</t>
   </si>
   <si>
     <t>ModelScope: bring the notion of Model-as-a-Service to life.</t>
@@ -9961,7 +9961,7 @@
     <t>huggingface/diffusers</t>
   </si>
   <si>
-    <t>🖼️🎵2️⃣📝</t>
+    <t>🖼️,🎵,2️⃣,📝</t>
   </si>
   <si>
     <t>🤗 Diffusers: State-of-the-art diffusion models for image and audio generation in PyTorch</t>
@@ -10343,7 +10343,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -10360,7 +10360,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -10377,7 +10377,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>954</v>
+        <v>1029</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -10394,7 +10394,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -10425,7 +10425,7 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -10442,7 +10442,7 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -10459,7 +10459,7 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -10493,7 +10493,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -10527,7 +10527,7 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -10544,7 +10544,7 @@
         <v>61</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -10595,7 +10595,7 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -10629,7 +10629,7 @@
         <v>82</v>
       </c>
       <c r="C19">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -10731,7 +10731,7 @@
         <v>106</v>
       </c>
       <c r="C25">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>104</v>
@@ -10765,7 +10765,7 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -10816,7 +10816,7 @@
         <v>124</v>
       </c>
       <c r="C30">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -10833,7 +10833,7 @@
         <v>128</v>
       </c>
       <c r="C31">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="D31" t="s">
         <v>126</v>
@@ -10867,7 +10867,7 @@
         <v>137</v>
       </c>
       <c r="C33">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
@@ -10884,7 +10884,7 @@
         <v>140</v>
       </c>
       <c r="C34">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -10918,7 +10918,7 @@
         <v>146</v>
       </c>
       <c r="C36">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
@@ -10935,7 +10935,7 @@
         <v>149</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
@@ -10986,7 +10986,7 @@
         <v>159</v>
       </c>
       <c r="C40">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -11136,7 +11136,7 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <v>7449</v>
+        <v>7608</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -11153,7 +11153,7 @@
         <v>191</v>
       </c>
       <c r="C50">
-        <v>10773</v>
+        <v>10781</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
@@ -11201,7 +11201,7 @@
         <v>202</v>
       </c>
       <c r="C53">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D53" t="s">
         <v>200</v>
@@ -11252,7 +11252,7 @@
         <v>213</v>
       </c>
       <c r="C56">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
         <v>211</v>
@@ -11269,7 +11269,7 @@
         <v>218</v>
       </c>
       <c r="C57">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D57" t="s">
         <v>216</v>
@@ -11371,7 +11371,7 @@
         <v>239</v>
       </c>
       <c r="C63">
-        <v>3563</v>
+        <v>3566</v>
       </c>
       <c r="D63" t="s">
         <v>216</v>
@@ -11388,7 +11388,7 @@
         <v>242</v>
       </c>
       <c r="C64">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -11405,7 +11405,7 @@
         <v>245</v>
       </c>
       <c r="C65">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -11456,7 +11456,7 @@
         <v>255</v>
       </c>
       <c r="C68">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" t="s">
         <v>43</v>
@@ -11592,7 +11592,7 @@
         <v>284</v>
       </c>
       <c r="C76">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="D76" t="s">
         <v>282</v>
@@ -11643,7 +11643,7 @@
         <v>296</v>
       </c>
       <c r="C79">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>294</v>
@@ -11677,7 +11677,7 @@
         <v>303</v>
       </c>
       <c r="C81">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="D81" t="s">
         <v>301</v>
@@ -11711,7 +11711,7 @@
         <v>309</v>
       </c>
       <c r="C83">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D83" t="s">
         <v>96</v>
@@ -11745,7 +11745,7 @@
         <v>316</v>
       </c>
       <c r="C85">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
         <v>43</v>
@@ -11762,7 +11762,7 @@
         <v>319</v>
       </c>
       <c r="C86">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D86" t="s">
         <v>43</v>
@@ -12133,7 +12133,7 @@
         <v>395</v>
       </c>
       <c r="C108">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -12167,7 +12167,7 @@
         <v>401</v>
       </c>
       <c r="C110">
-        <v>3378</v>
+        <v>3432</v>
       </c>
       <c r="D110" t="s">
         <v>43</v>
@@ -12252,7 +12252,7 @@
         <v>417</v>
       </c>
       <c r="C115">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
         <v>34</v>
@@ -12286,7 +12286,7 @@
         <v>426</v>
       </c>
       <c r="C117">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D117" t="s">
         <v>34</v>
@@ -12320,7 +12320,7 @@
         <v>433</v>
       </c>
       <c r="C119">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="D119" t="s">
         <v>431</v>
@@ -12354,7 +12354,7 @@
         <v>439</v>
       </c>
       <c r="C121">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -12422,7 +12422,7 @@
         <v>452</v>
       </c>
       <c r="C125">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D125" t="s">
         <v>43</v>
@@ -12456,7 +12456,7 @@
         <v>459</v>
       </c>
       <c r="C127">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D127" t="s">
         <v>211</v>
@@ -12507,7 +12507,7 @@
         <v>470</v>
       </c>
       <c r="C130">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D130" t="s">
         <v>468</v>
@@ -12541,7 +12541,7 @@
         <v>477</v>
       </c>
       <c r="C132">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="D132" t="s">
         <v>301</v>
@@ -12674,7 +12674,7 @@
         <v>504</v>
       </c>
       <c r="C140">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
@@ -12759,7 +12759,7 @@
         <v>522</v>
       </c>
       <c r="C145">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
@@ -12994,7 +12994,7 @@
         <v>571</v>
       </c>
       <c r="C159">
-        <v>19770</v>
+        <v>19863</v>
       </c>
       <c r="D159" t="s">
         <v>24</v>
@@ -13266,7 +13266,7 @@
         <v>628</v>
       </c>
       <c r="C175">
-        <v>4699</v>
+        <v>4701</v>
       </c>
       <c r="D175" t="s">
         <v>131</v>
@@ -13317,7 +13317,7 @@
         <v>637</v>
       </c>
       <c r="C178">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D178" t="s">
         <v>43</v>
@@ -13334,7 +13334,7 @@
         <v>641</v>
       </c>
       <c r="C179">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D179" t="s">
         <v>639</v>
@@ -13351,7 +13351,7 @@
         <v>644</v>
       </c>
       <c r="C180">
-        <v>5062</v>
+        <v>5066</v>
       </c>
       <c r="D180" t="s">
         <v>43</v>
@@ -13402,7 +13402,7 @@
         <v>654</v>
       </c>
       <c r="C183">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="D183" t="s">
         <v>126</v>
@@ -13419,7 +13419,7 @@
         <v>657</v>
       </c>
       <c r="C184">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D184" t="s">
         <v>24</v>
@@ -13436,7 +13436,7 @@
         <v>661</v>
       </c>
       <c r="C185">
-        <v>6173</v>
+        <v>6174</v>
       </c>
       <c r="D185" t="s">
         <v>24</v>
@@ -13470,7 +13470,7 @@
         <v>667</v>
       </c>
       <c r="C187">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D187" t="s">
         <v>34</v>
@@ -13487,7 +13487,7 @@
         <v>671</v>
       </c>
       <c r="C188">
-        <v>11268</v>
+        <v>11271</v>
       </c>
       <c r="D188" t="s">
         <v>669</v>
@@ -13572,7 +13572,7 @@
         <v>688</v>
       </c>
       <c r="C193">
-        <v>8387</v>
+        <v>8394</v>
       </c>
       <c r="D193" t="s">
         <v>530</v>
@@ -13640,7 +13640,7 @@
         <v>700</v>
       </c>
       <c r="C197">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D197" t="s">
         <v>34</v>
@@ -13674,7 +13674,7 @@
         <v>708</v>
       </c>
       <c r="C199">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D199" t="s">
         <v>24</v>
@@ -13708,7 +13708,7 @@
         <v>715</v>
       </c>
       <c r="C201">
-        <v>6649</v>
+        <v>6650</v>
       </c>
       <c r="D201" t="s">
         <v>24</v>
@@ -13793,7 +13793,7 @@
         <v>729</v>
       </c>
       <c r="C206">
-        <v>5966</v>
+        <v>5970</v>
       </c>
       <c r="D206" t="s">
         <v>43</v>
@@ -13844,7 +13844,7 @@
         <v>739</v>
       </c>
       <c r="C209">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D209" t="s">
         <v>20</v>
@@ -13946,7 +13946,7 @@
         <v>760</v>
       </c>
       <c r="C215">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="D215" t="s">
         <v>758</v>
@@ -14099,7 +14099,7 @@
         <v>791</v>
       </c>
       <c r="C224">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D224" t="s">
         <v>789</v>
@@ -14133,7 +14133,7 @@
         <v>798</v>
       </c>
       <c r="C226">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -14201,7 +14201,7 @@
         <v>811</v>
       </c>
       <c r="C230">
-        <v>4227</v>
+        <v>4236</v>
       </c>
       <c r="D230" t="s">
         <v>24</v>
@@ -14303,7 +14303,7 @@
         <v>833</v>
       </c>
       <c r="C236">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D236" t="s">
         <v>535</v>
@@ -14354,7 +14354,7 @@
         <v>845</v>
       </c>
       <c r="C239">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D239" t="s">
         <v>844</v>
@@ -14385,7 +14385,7 @@
         <v>851</v>
       </c>
       <c r="C241">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D241" t="s">
         <v>24</v>
@@ -14419,7 +14419,7 @@
         <v>859</v>
       </c>
       <c r="C243">
-        <v>14760</v>
+        <v>14769</v>
       </c>
       <c r="D243" t="s">
         <v>857</v>
@@ -14453,7 +14453,7 @@
         <v>866</v>
       </c>
       <c r="C245">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D245" t="s">
         <v>24</v>
@@ -14521,7 +14521,7 @@
         <v>881</v>
       </c>
       <c r="C249">
-        <v>4405</v>
+        <v>4408</v>
       </c>
       <c r="D249" t="s">
         <v>552</v>
@@ -14555,7 +14555,7 @@
         <v>888</v>
       </c>
       <c r="C251">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D251" t="s">
         <v>886</v>
@@ -14589,7 +14589,7 @@
         <v>895</v>
       </c>
       <c r="C253">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="D253" t="s">
         <v>43</v>
@@ -14623,7 +14623,7 @@
         <v>901</v>
       </c>
       <c r="C255">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D255" t="s">
         <v>34</v>
@@ -14657,7 +14657,7 @@
         <v>907</v>
       </c>
       <c r="C257">
-        <v>4691</v>
+        <v>4693</v>
       </c>
       <c r="D257" t="s">
         <v>43</v>
@@ -14742,7 +14742,7 @@
         <v>926</v>
       </c>
       <c r="C262">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D262" t="s">
         <v>924</v>
@@ -14793,7 +14793,7 @@
         <v>937</v>
       </c>
       <c r="C265">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D265" t="s">
         <v>24</v>
@@ -14861,7 +14861,7 @@
         <v>950</v>
       </c>
       <c r="C269">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D269" t="s">
         <v>840</v>
@@ -14895,7 +14895,7 @@
         <v>957</v>
       </c>
       <c r="C271">
-        <v>4389</v>
+        <v>4391</v>
       </c>
       <c r="D271" t="s">
         <v>43</v>
@@ -14997,7 +14997,7 @@
         <v>980</v>
       </c>
       <c r="C277">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="D277" t="s">
         <v>978</v>
@@ -15048,7 +15048,7 @@
         <v>990</v>
       </c>
       <c r="C280">
-        <v>18616</v>
+        <v>18621</v>
       </c>
       <c r="D280" t="s">
         <v>988</v>
@@ -15065,7 +15065,7 @@
         <v>994</v>
       </c>
       <c r="C281">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="D281" t="s">
         <v>24</v>
@@ -15167,7 +15167,7 @@
         <v>1014</v>
       </c>
       <c r="C287">
-        <v>14668</v>
+        <v>14670</v>
       </c>
       <c r="D287" t="s">
         <v>24</v>
@@ -15184,7 +15184,7 @@
         <v>1017</v>
       </c>
       <c r="C288">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D288" t="s">
         <v>43</v>
@@ -15201,7 +15201,7 @@
         <v>1020</v>
       </c>
       <c r="C289">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="D289" t="s">
         <v>24</v>
@@ -15320,7 +15320,7 @@
         <v>1043</v>
       </c>
       <c r="C296">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D296" t="s">
         <v>24</v>
@@ -15371,7 +15371,7 @@
         <v>1053</v>
       </c>
       <c r="C299">
-        <v>4019</v>
+        <v>4021</v>
       </c>
       <c r="D299" t="s">
         <v>43</v>
@@ -15609,7 +15609,7 @@
         <v>1100</v>
       </c>
       <c r="C313">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D313" t="s">
         <v>34</v>
@@ -15643,7 +15643,7 @@
         <v>1107</v>
       </c>
       <c r="C315">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D315" t="s">
         <v>24</v>
@@ -15694,7 +15694,7 @@
         <v>1118</v>
       </c>
       <c r="C318">
-        <v>7504</v>
+        <v>7506</v>
       </c>
       <c r="D318" t="s">
         <v>1116</v>
@@ -15779,7 +15779,7 @@
         <v>1134</v>
       </c>
       <c r="C323">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="D323" t="s">
         <v>43</v>
@@ -15847,7 +15847,7 @@
         <v>1149</v>
       </c>
       <c r="C327">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D327" t="s">
         <v>34</v>
@@ -16034,7 +16034,7 @@
         <v>1188</v>
       </c>
       <c r="C338">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D338" t="s">
         <v>24</v>
@@ -16068,7 +16068,7 @@
         <v>1195</v>
       </c>
       <c r="C340">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="D340" t="s">
         <v>34</v>
@@ -16255,7 +16255,7 @@
         <v>1236</v>
       </c>
       <c r="C351">
-        <v>11500</v>
+        <v>11505</v>
       </c>
       <c r="D351" t="s">
         <v>24</v>
@@ -16272,7 +16272,7 @@
         <v>1238</v>
       </c>
       <c r="C352">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D352" t="s">
         <v>552</v>
@@ -16320,7 +16320,7 @@
         <v>1248</v>
       </c>
       <c r="C355">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D355" t="s">
         <v>387</v>
@@ -16337,7 +16337,7 @@
         <v>1251</v>
       </c>
       <c r="C356">
-        <v>19875</v>
+        <v>19886</v>
       </c>
       <c r="D356" t="s">
         <v>24</v>
@@ -16371,7 +16371,7 @@
         <v>1258</v>
       </c>
       <c r="C358">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="D358" t="s">
         <v>24</v>
@@ -16439,7 +16439,7 @@
         <v>1272</v>
       </c>
       <c r="C362">
-        <v>7122</v>
+        <v>7123</v>
       </c>
       <c r="D362" t="s">
         <v>1270</v>
@@ -16456,7 +16456,7 @@
         <v>1275</v>
       </c>
       <c r="C363">
-        <v>4067</v>
+        <v>4070</v>
       </c>
       <c r="D363" t="s">
         <v>43</v>
@@ -16524,7 +16524,7 @@
         <v>1289</v>
       </c>
       <c r="C367">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="D367" t="s">
         <v>24</v>
@@ -16558,7 +16558,7 @@
         <v>1295</v>
       </c>
       <c r="C369">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="D369" t="s">
         <v>43</v>
@@ -16643,7 +16643,7 @@
         <v>1311</v>
       </c>
       <c r="C374">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="D374" t="s">
         <v>24</v>
@@ -16677,7 +16677,7 @@
         <v>1318</v>
       </c>
       <c r="C376">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D376" t="s">
         <v>16</v>
@@ -16796,7 +16796,7 @@
         <v>1342</v>
       </c>
       <c r="C383">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="D383" t="s">
         <v>43</v>
@@ -16830,7 +16830,7 @@
         <v>1348</v>
       </c>
       <c r="C385">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D385" t="s">
         <v>24</v>
@@ -16881,7 +16881,7 @@
         <v>1359</v>
       </c>
       <c r="C388">
-        <v>7683</v>
+        <v>7686</v>
       </c>
       <c r="D388" t="s">
         <v>1357</v>
@@ -16983,7 +16983,7 @@
         <v>1379</v>
       </c>
       <c r="C394">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D394" t="s">
         <v>271</v>
@@ -17000,7 +17000,7 @@
         <v>1382</v>
       </c>
       <c r="C395">
-        <v>6294</v>
+        <v>6295</v>
       </c>
       <c r="D395" t="s">
         <v>126</v>
@@ -17136,7 +17136,7 @@
         <v>1409</v>
       </c>
       <c r="C403">
-        <v>35482</v>
+        <v>35510</v>
       </c>
       <c r="D403" t="s">
         <v>24</v>
@@ -17306,7 +17306,7 @@
         <v>1443</v>
       </c>
       <c r="C413">
-        <v>40932</v>
+        <v>40937</v>
       </c>
       <c r="D413" t="s">
         <v>24</v>
@@ -17340,7 +17340,7 @@
         <v>1449</v>
       </c>
       <c r="C415">
-        <v>11717</v>
+        <v>11724</v>
       </c>
       <c r="D415" t="s">
         <v>96</v>
@@ -17374,7 +17374,7 @@
         <v>1456</v>
       </c>
       <c r="C417">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -17391,7 +17391,7 @@
         <v>1459</v>
       </c>
       <c r="C418">
-        <v>5919</v>
+        <v>5920</v>
       </c>
       <c r="D418" t="s">
         <v>34</v>
@@ -17595,7 +17595,7 @@
         <v>1499</v>
       </c>
       <c r="C430">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="D430" t="s">
         <v>16</v>
@@ -17612,7 +17612,7 @@
         <v>1502</v>
       </c>
       <c r="C431">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D431" t="s">
         <v>43</v>
@@ -17714,7 +17714,7 @@
         <v>1523</v>
       </c>
       <c r="C437">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D437" t="s">
         <v>24</v>
@@ -17884,7 +17884,7 @@
         <v>1554</v>
       </c>
       <c r="C447">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="D447" t="s">
         <v>387</v>
@@ -18085,7 +18085,7 @@
         <v>1592</v>
       </c>
       <c r="C459">
-        <v>4718</v>
+        <v>4720</v>
       </c>
       <c r="D459" t="s">
         <v>840</v>
@@ -18136,7 +18136,7 @@
         <v>1602</v>
       </c>
       <c r="C462">
-        <v>2836</v>
+        <v>2840</v>
       </c>
       <c r="D462" t="s">
         <v>43</v>
@@ -18170,7 +18170,7 @@
         <v>1609</v>
       </c>
       <c r="C464">
-        <v>6779</v>
+        <v>6780</v>
       </c>
       <c r="D464" t="s">
         <v>34</v>
@@ -18269,7 +18269,7 @@
         <v>1629</v>
       </c>
       <c r="C470">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="D470" t="s">
         <v>96</v>
@@ -18436,7 +18436,7 @@
         <v>1660</v>
       </c>
       <c r="C480">
-        <v>15281</v>
+        <v>15285</v>
       </c>
       <c r="D480" t="s">
         <v>55</v>
@@ -18453,7 +18453,7 @@
         <v>1663</v>
       </c>
       <c r="C481">
-        <v>5584</v>
+        <v>5586</v>
       </c>
       <c r="D481" t="s">
         <v>96</v>
@@ -18606,7 +18606,7 @@
         <v>1693</v>
       </c>
       <c r="C490">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D490" t="s">
         <v>43</v>
@@ -18657,7 +18657,7 @@
         <v>1704</v>
       </c>
       <c r="C493">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="D493" t="s">
         <v>1702</v>
@@ -18725,7 +18725,7 @@
         <v>1717</v>
       </c>
       <c r="C497">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="D497" t="s">
         <v>24</v>
@@ -18742,7 +18742,7 @@
         <v>1721</v>
       </c>
       <c r="C498">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D498" t="s">
         <v>24</v>
@@ -18793,7 +18793,7 @@
         <v>1733</v>
       </c>
       <c r="C501">
-        <v>22048</v>
+        <v>22049</v>
       </c>
       <c r="D501" t="s">
         <v>1731</v>
@@ -18844,7 +18844,7 @@
         <v>1742</v>
       </c>
       <c r="C504">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D504" t="s">
         <v>24</v>
@@ -18912,7 +18912,7 @@
         <v>1755</v>
       </c>
       <c r="C508">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D508" t="s">
         <v>24</v>
@@ -19014,7 +19014,7 @@
         <v>1775</v>
       </c>
       <c r="C514">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D514" t="s">
         <v>64</v>
@@ -19031,7 +19031,7 @@
         <v>1778</v>
       </c>
       <c r="C515">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D515" t="s">
         <v>271</v>
@@ -19048,7 +19048,7 @@
         <v>1781</v>
       </c>
       <c r="C516">
-        <v>5913</v>
+        <v>5914</v>
       </c>
       <c r="D516" t="s">
         <v>24</v>
@@ -19099,7 +19099,7 @@
         <v>1791</v>
       </c>
       <c r="C519">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D519" t="s">
         <v>16</v>
@@ -19116,7 +19116,7 @@
         <v>1795</v>
       </c>
       <c r="C520">
-        <v>7022</v>
+        <v>7026</v>
       </c>
       <c r="D520" t="s">
         <v>1793</v>
@@ -19201,7 +19201,7 @@
         <v>1812</v>
       </c>
       <c r="C525">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="D525" t="s">
         <v>16</v>
@@ -19269,7 +19269,7 @@
         <v>1825</v>
       </c>
       <c r="C529">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D529" t="s">
         <v>43</v>
@@ -19286,7 +19286,7 @@
         <v>1829</v>
       </c>
       <c r="C530">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D530" t="s">
         <v>16</v>
@@ -19337,7 +19337,7 @@
         <v>1839</v>
       </c>
       <c r="C533">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="D533" t="s">
         <v>1837</v>
@@ -19422,7 +19422,7 @@
         <v>1856</v>
       </c>
       <c r="C538">
-        <v>8714</v>
+        <v>8715</v>
       </c>
       <c r="D538" t="s">
         <v>43</v>
@@ -19490,7 +19490,7 @@
         <v>1870</v>
       </c>
       <c r="C542">
-        <v>25701</v>
+        <v>25705</v>
       </c>
       <c r="D542" t="s">
         <v>24</v>
@@ -19507,7 +19507,7 @@
         <v>1874</v>
       </c>
       <c r="C543">
-        <v>25245</v>
+        <v>25248</v>
       </c>
       <c r="D543" t="s">
         <v>1872</v>
@@ -19558,7 +19558,7 @@
         <v>1885</v>
       </c>
       <c r="C546">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="D546" t="s">
         <v>1883</v>
@@ -19575,7 +19575,7 @@
         <v>1888</v>
       </c>
       <c r="C547">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="D547" t="s">
         <v>43</v>
@@ -19592,7 +19592,7 @@
         <v>1892</v>
       </c>
       <c r="C548">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D548" t="s">
         <v>1890</v>
@@ -19626,7 +19626,7 @@
         <v>1899</v>
       </c>
       <c r="C550">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="D550" t="s">
         <v>817</v>
@@ -19660,7 +19660,7 @@
         <v>1906</v>
       </c>
       <c r="C552">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D552" t="s">
         <v>43</v>
@@ -19745,7 +19745,7 @@
         <v>1922</v>
       </c>
       <c r="C557">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D557" t="s">
         <v>338</v>
@@ -19779,7 +19779,7 @@
         <v>1929</v>
       </c>
       <c r="C559">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D559" t="s">
         <v>24</v>
@@ -19796,7 +19796,7 @@
         <v>1933</v>
       </c>
       <c r="C560">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="D560" t="s">
         <v>1931</v>
@@ -19830,7 +19830,7 @@
         <v>1938</v>
       </c>
       <c r="C562">
-        <v>16549</v>
+        <v>16550</v>
       </c>
       <c r="D562" t="s">
         <v>24</v>
@@ -19861,7 +19861,7 @@
         <v>1945</v>
       </c>
       <c r="C564">
-        <v>3378</v>
+        <v>3386</v>
       </c>
       <c r="D564" t="s">
         <v>34</v>
@@ -20031,7 +20031,7 @@
         <v>1980</v>
       </c>
       <c r="C574">
-        <v>13331</v>
+        <v>13360</v>
       </c>
       <c r="D574" t="s">
         <v>24</v>
@@ -20099,7 +20099,7 @@
         <v>1992</v>
       </c>
       <c r="C578">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D578" t="s">
         <v>108</v>
@@ -20150,7 +20150,7 @@
         <v>2001</v>
       </c>
       <c r="C581">
-        <v>13550</v>
+        <v>13557</v>
       </c>
       <c r="D581" t="s">
         <v>1685</v>
@@ -20184,7 +20184,7 @@
         <v>2007</v>
       </c>
       <c r="C583">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="D583" t="s">
         <v>840</v>
@@ -20252,7 +20252,7 @@
         <v>2021</v>
       </c>
       <c r="C587">
-        <v>21571</v>
+        <v>21572</v>
       </c>
       <c r="D587" t="s">
         <v>806</v>
@@ -20371,7 +20371,7 @@
         <v>2043</v>
       </c>
       <c r="C594">
-        <v>43937</v>
+        <v>43939</v>
       </c>
       <c r="D594" t="s">
         <v>43</v>
@@ -20456,7 +20456,7 @@
         <v>2059</v>
       </c>
       <c r="C599">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="D599" t="s">
         <v>24</v>
@@ -20541,7 +20541,7 @@
         <v>2075</v>
       </c>
       <c r="C604">
-        <v>9638</v>
+        <v>9648</v>
       </c>
       <c r="D604" t="s">
         <v>535</v>
@@ -20592,7 +20592,7 @@
         <v>2084</v>
       </c>
       <c r="C607">
-        <v>50662</v>
+        <v>50664</v>
       </c>
       <c r="D607" t="s">
         <v>43</v>
@@ -20643,7 +20643,7 @@
         <v>2094</v>
       </c>
       <c r="C610">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="D610" t="s">
         <v>24</v>
@@ -20762,7 +20762,7 @@
         <v>2118</v>
       </c>
       <c r="C617">
-        <v>6731</v>
+        <v>6736</v>
       </c>
       <c r="D617" t="s">
         <v>2116</v>
@@ -20898,7 +20898,7 @@
         <v>2145</v>
       </c>
       <c r="C625">
-        <v>19172</v>
+        <v>19173</v>
       </c>
       <c r="D625" t="s">
         <v>24</v>
@@ -21017,7 +21017,7 @@
         <v>2168</v>
       </c>
       <c r="C632">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D632" t="s">
         <v>43</v>
@@ -21119,7 +21119,7 @@
         <v>2187</v>
       </c>
       <c r="C638">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="D638" t="s">
         <v>64</v>
@@ -21133,7 +21133,7 @@
         <v>2190</v>
       </c>
       <c r="C639">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="D639" t="s">
         <v>1504</v>
@@ -21184,7 +21184,7 @@
         <v>2199</v>
       </c>
       <c r="C642">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="D642" t="s">
         <v>24</v>
@@ -21235,7 +21235,7 @@
         <v>2208</v>
       </c>
       <c r="C645">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D645" t="s">
         <v>24</v>
@@ -21320,7 +21320,7 @@
         <v>2224</v>
       </c>
       <c r="C650">
-        <v>6007</v>
+        <v>6009</v>
       </c>
       <c r="D650" t="s">
         <v>24</v>
@@ -21507,7 +21507,7 @@
         <v>2261</v>
       </c>
       <c r="C661">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="D661" t="s">
         <v>43</v>
@@ -21541,7 +21541,7 @@
         <v>2268</v>
       </c>
       <c r="C663">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D663" t="s">
         <v>2266</v>
@@ -21558,7 +21558,7 @@
         <v>2271</v>
       </c>
       <c r="C664">
-        <v>26192</v>
+        <v>26195</v>
       </c>
       <c r="D664" t="s">
         <v>2116</v>
@@ -21592,7 +21592,7 @@
         <v>2277</v>
       </c>
       <c r="C666">
-        <v>4742</v>
+        <v>4744</v>
       </c>
       <c r="D666" t="s">
         <v>43</v>
@@ -21660,7 +21660,7 @@
         <v>2290</v>
       </c>
       <c r="C670">
-        <v>5176</v>
+        <v>5177</v>
       </c>
       <c r="D670" t="s">
         <v>24</v>
@@ -21677,7 +21677,7 @@
         <v>2293</v>
       </c>
       <c r="C671">
-        <v>9763</v>
+        <v>9765</v>
       </c>
       <c r="D671" t="s">
         <v>412</v>
@@ -21813,7 +21813,7 @@
         <v>2318</v>
       </c>
       <c r="C679">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="D679" t="s">
         <v>24</v>
@@ -21898,7 +21898,7 @@
         <v>2335</v>
       </c>
       <c r="C684">
-        <v>12739</v>
+        <v>12740</v>
       </c>
       <c r="D684" t="s">
         <v>24</v>
@@ -21983,7 +21983,7 @@
         <v>2352</v>
       </c>
       <c r="C689">
-        <v>146314</v>
+        <v>146317</v>
       </c>
       <c r="D689" t="s">
         <v>806</v>
@@ -22000,7 +22000,7 @@
         <v>2355</v>
       </c>
       <c r="C690">
-        <v>9240</v>
+        <v>9242</v>
       </c>
       <c r="D690" t="s">
         <v>24</v>
@@ -22017,7 +22017,7 @@
         <v>2358</v>
       </c>
       <c r="C691">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D691" t="s">
         <v>24</v>
@@ -22034,7 +22034,7 @@
         <v>2361</v>
       </c>
       <c r="C692">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D692" t="s">
         <v>43</v>
@@ -22102,7 +22102,7 @@
         <v>2373</v>
       </c>
       <c r="C696">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="D696" t="s">
         <v>1890</v>
@@ -22119,7 +22119,7 @@
         <v>2376</v>
       </c>
       <c r="C697">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="D697" t="s">
         <v>24</v>
@@ -22204,7 +22204,7 @@
         <v>2393</v>
       </c>
       <c r="C702">
-        <v>6555</v>
+        <v>6559</v>
       </c>
       <c r="D702" t="s">
         <v>588</v>
@@ -22221,7 +22221,7 @@
         <v>2397</v>
       </c>
       <c r="C703">
-        <v>13877</v>
+        <v>13879</v>
       </c>
       <c r="D703" t="s">
         <v>2395</v>
@@ -22272,7 +22272,7 @@
         <v>2407</v>
       </c>
       <c r="C706">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D706" t="s">
         <v>34</v>
@@ -22340,7 +22340,7 @@
         <v>2421</v>
       </c>
       <c r="C710">
-        <v>33257</v>
+        <v>33259</v>
       </c>
       <c r="D710" t="s">
         <v>2133</v>
@@ -22357,7 +22357,7 @@
         <v>2424</v>
       </c>
       <c r="C711">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="D711" t="s">
         <v>96</v>
@@ -22374,7 +22374,7 @@
         <v>2427</v>
       </c>
       <c r="C712">
-        <v>16684</v>
+        <v>16685</v>
       </c>
       <c r="D712" t="s">
         <v>301</v>
@@ -22442,7 +22442,7 @@
         <v>2441</v>
       </c>
       <c r="C716">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D716" t="s">
         <v>16</v>
@@ -22459,7 +22459,7 @@
         <v>2444</v>
       </c>
       <c r="C717">
-        <v>16777</v>
+        <v>16780</v>
       </c>
       <c r="D717" t="s">
         <v>43</v>
@@ -22544,7 +22544,7 @@
         <v>2460</v>
       </c>
       <c r="C722">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="D722" t="s">
         <v>24</v>
@@ -22561,7 +22561,7 @@
         <v>2463</v>
       </c>
       <c r="C723">
-        <v>39675</v>
+        <v>39682</v>
       </c>
       <c r="D723" t="s">
         <v>43</v>
@@ -22612,7 +22612,7 @@
         <v>2472</v>
       </c>
       <c r="C726">
-        <v>37861</v>
+        <v>37864</v>
       </c>
       <c r="D726" t="s">
         <v>789</v>
@@ -22646,7 +22646,7 @@
         <v>2478</v>
       </c>
       <c r="C728">
-        <v>18226</v>
+        <v>18231</v>
       </c>
       <c r="D728" t="s">
         <v>588</v>
@@ -22799,7 +22799,7 @@
         <v>2508</v>
       </c>
       <c r="C737">
-        <v>14294</v>
+        <v>14295</v>
       </c>
       <c r="D737" t="s">
         <v>24</v>
@@ -22833,7 +22833,7 @@
         <v>2515</v>
       </c>
       <c r="C739">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="D739" t="s">
         <v>24</v>
@@ -22850,7 +22850,7 @@
         <v>2518</v>
       </c>
       <c r="C740">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="D740" t="s">
         <v>16</v>
@@ -22901,7 +22901,7 @@
         <v>2528</v>
       </c>
       <c r="C743">
-        <v>14196</v>
+        <v>14198</v>
       </c>
       <c r="D743" t="s">
         <v>43</v>
@@ -22918,7 +22918,7 @@
         <v>2531</v>
       </c>
       <c r="C744">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D744" t="s">
         <v>43</v>
@@ -23020,7 +23020,7 @@
         <v>2549</v>
       </c>
       <c r="C750">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="D750" t="s">
         <v>34</v>
@@ -23139,7 +23139,7 @@
         <v>2572</v>
       </c>
       <c r="C757">
-        <v>5344</v>
+        <v>5345</v>
       </c>
       <c r="D757" t="s">
         <v>24</v>
@@ -23156,7 +23156,7 @@
         <v>2575</v>
       </c>
       <c r="C758">
-        <v>17607</v>
+        <v>17610</v>
       </c>
       <c r="D758" t="s">
         <v>24</v>
@@ -23207,7 +23207,7 @@
         <v>2584</v>
       </c>
       <c r="C761">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D761" t="s">
         <v>43</v>
@@ -23292,7 +23292,7 @@
         <v>2601</v>
       </c>
       <c r="C766">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D766" t="s">
         <v>43</v>
@@ -23377,7 +23377,7 @@
         <v>2615</v>
       </c>
       <c r="C771">
-        <v>8823</v>
+        <v>8824</v>
       </c>
       <c r="D771" t="s">
         <v>1253</v>
@@ -23391,7 +23391,7 @@
         <v>2618</v>
       </c>
       <c r="C772">
-        <v>5549</v>
+        <v>5552</v>
       </c>
       <c r="D772" t="s">
         <v>43</v>
@@ -23408,7 +23408,7 @@
         <v>2622</v>
       </c>
       <c r="C773">
-        <v>11969</v>
+        <v>11970</v>
       </c>
       <c r="D773" t="s">
         <v>43</v>
@@ -23442,7 +23442,7 @@
         <v>2628</v>
       </c>
       <c r="C775">
-        <v>7455</v>
+        <v>7454</v>
       </c>
       <c r="D775" t="s">
         <v>43</v>
@@ -23459,7 +23459,7 @@
         <v>2631</v>
       </c>
       <c r="C776">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D776" t="s">
         <v>43</v>
@@ -23493,7 +23493,7 @@
         <v>2637</v>
       </c>
       <c r="C778">
-        <v>33877</v>
+        <v>33878</v>
       </c>
       <c r="D778" t="s">
         <v>338</v>
@@ -23510,7 +23510,7 @@
         <v>2641</v>
       </c>
       <c r="C779">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="D779" t="s">
         <v>2639</v>
@@ -23660,7 +23660,7 @@
         <v>2670</v>
       </c>
       <c r="C788">
-        <v>4768</v>
+        <v>4773</v>
       </c>
       <c r="D788" t="s">
         <v>24</v>
@@ -23745,7 +23745,7 @@
         <v>2686</v>
       </c>
       <c r="C793">
-        <v>11498</v>
+        <v>11500</v>
       </c>
       <c r="D793" t="s">
         <v>24</v>
@@ -23796,7 +23796,7 @@
         <v>2697</v>
       </c>
       <c r="C796">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="D796" t="s">
         <v>2695</v>
@@ -23830,7 +23830,7 @@
         <v>2703</v>
       </c>
       <c r="C798">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D798" t="s">
         <v>43</v>
@@ -23932,7 +23932,7 @@
         <v>2724</v>
       </c>
       <c r="C804">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D804" t="s">
         <v>131</v>
@@ -23983,7 +23983,7 @@
         <v>2734</v>
       </c>
       <c r="C807">
-        <v>3264</v>
+        <v>3269</v>
       </c>
       <c r="D807" t="s">
         <v>24</v>
@@ -24017,7 +24017,7 @@
         <v>2742</v>
       </c>
       <c r="C809">
-        <v>8213</v>
+        <v>8214</v>
       </c>
       <c r="D809" t="s">
         <v>11</v>
@@ -24034,7 +24034,7 @@
         <v>2745</v>
       </c>
       <c r="C810">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="D810" t="s">
         <v>34</v>
@@ -24068,7 +24068,7 @@
         <v>2752</v>
       </c>
       <c r="C812">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="D812" t="s">
         <v>24</v>
@@ -24102,7 +24102,7 @@
         <v>2760</v>
       </c>
       <c r="C814">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="D814" t="s">
         <v>43</v>
@@ -24204,7 +24204,7 @@
         <v>2780</v>
       </c>
       <c r="C820">
-        <v>8419</v>
+        <v>8420</v>
       </c>
       <c r="D820" t="s">
         <v>96</v>
@@ -24221,7 +24221,7 @@
         <v>2783</v>
       </c>
       <c r="C821">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="D821" t="s">
         <v>420</v>
@@ -24238,7 +24238,7 @@
         <v>2787</v>
       </c>
       <c r="C822">
-        <v>5773</v>
+        <v>5774</v>
       </c>
       <c r="D822" t="s">
         <v>24</v>
@@ -24255,7 +24255,7 @@
         <v>2790</v>
       </c>
       <c r="C823">
-        <v>38022</v>
+        <v>38030</v>
       </c>
       <c r="D823" t="s">
         <v>55</v>
@@ -24272,7 +24272,7 @@
         <v>2794</v>
       </c>
       <c r="C824">
-        <v>4713</v>
+        <v>4715</v>
       </c>
       <c r="D824" t="s">
         <v>34</v>
@@ -24306,7 +24306,7 @@
         <v>2800</v>
       </c>
       <c r="C826">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="D826" t="s">
         <v>126</v>
@@ -24323,7 +24323,7 @@
         <v>2804</v>
       </c>
       <c r="C827">
-        <v>11969</v>
+        <v>11971</v>
       </c>
       <c r="D827" t="s">
         <v>16</v>
@@ -24340,7 +24340,7 @@
         <v>2809</v>
       </c>
       <c r="C828">
-        <v>7770</v>
+        <v>7774</v>
       </c>
       <c r="D828" t="s">
         <v>2807</v>
@@ -24374,7 +24374,7 @@
         <v>2815</v>
       </c>
       <c r="C830">
-        <v>2472</v>
+        <v>2482</v>
       </c>
       <c r="D830" t="s">
         <v>1179</v>
@@ -24391,7 +24391,7 @@
         <v>2818</v>
       </c>
       <c r="C831">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D831" t="s">
         <v>24</v>
@@ -24408,7 +24408,7 @@
         <v>2821</v>
       </c>
       <c r="C832">
-        <v>4121</v>
+        <v>4126</v>
       </c>
       <c r="D832" t="s">
         <v>177</v>
@@ -24425,7 +24425,7 @@
         <v>2825</v>
       </c>
       <c r="C833">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="D833" t="s">
         <v>43</v>
@@ -24442,7 +24442,7 @@
         <v>2829</v>
       </c>
       <c r="C834">
-        <v>26121</v>
+        <v>26123</v>
       </c>
       <c r="D834" t="s">
         <v>43</v>
@@ -24459,7 +24459,7 @@
         <v>2832</v>
       </c>
       <c r="C835">
-        <v>7817</v>
+        <v>7816</v>
       </c>
       <c r="D835" t="s">
         <v>43</v>
@@ -24493,7 +24493,7 @@
         <v>2838</v>
       </c>
       <c r="C837">
-        <v>5059</v>
+        <v>5062</v>
       </c>
       <c r="D837" t="s">
         <v>96</v>
@@ -24527,7 +24527,7 @@
         <v>2845</v>
       </c>
       <c r="C839">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="D839" t="s">
         <v>24</v>
@@ -24544,7 +24544,7 @@
         <v>2848</v>
       </c>
       <c r="C840">
-        <v>11468</v>
+        <v>11470</v>
       </c>
       <c r="D840" t="s">
         <v>43</v>
@@ -24612,7 +24612,7 @@
         <v>2864</v>
       </c>
       <c r="C844">
-        <v>6272</v>
+        <v>6271</v>
       </c>
       <c r="D844" t="s">
         <v>24</v>
@@ -24646,7 +24646,7 @@
         <v>2871</v>
       </c>
       <c r="C846">
-        <v>22616</v>
+        <v>22620</v>
       </c>
       <c r="D846" t="s">
         <v>211</v>
@@ -24697,7 +24697,7 @@
         <v>2882</v>
       </c>
       <c r="C849">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D849" t="s">
         <v>43</v>
@@ -24714,7 +24714,7 @@
         <v>2887</v>
       </c>
       <c r="C850">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="D850" t="s">
         <v>2885</v>
@@ -24731,7 +24731,7 @@
         <v>2891</v>
       </c>
       <c r="C851">
-        <v>11470</v>
+        <v>11472</v>
       </c>
       <c r="D851" t="s">
         <v>1078</v>
@@ -24762,7 +24762,7 @@
         <v>2897</v>
       </c>
       <c r="C853">
-        <v>6978</v>
+        <v>6979</v>
       </c>
       <c r="D853" t="s">
         <v>1109</v>
@@ -24793,7 +24793,7 @@
         <v>2905</v>
       </c>
       <c r="C855">
-        <v>10236</v>
+        <v>10244</v>
       </c>
       <c r="D855" t="s">
         <v>387</v>
@@ -24810,7 +24810,7 @@
         <v>2909</v>
       </c>
       <c r="C856">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="D856" t="s">
         <v>24</v>
@@ -24895,7 +24895,7 @@
         <v>2928</v>
       </c>
       <c r="C861">
-        <v>4498</v>
+        <v>4500</v>
       </c>
       <c r="D861" t="s">
         <v>535</v>
@@ -24929,7 +24929,7 @@
         <v>2935</v>
       </c>
       <c r="C863">
-        <v>23953</v>
+        <v>23955</v>
       </c>
       <c r="D863" t="s">
         <v>1253</v>
@@ -24963,7 +24963,7 @@
         <v>2943</v>
       </c>
       <c r="C865">
-        <v>20969</v>
+        <v>20981</v>
       </c>
       <c r="D865" t="s">
         <v>43</v>
@@ -24980,7 +24980,7 @@
         <v>2947</v>
       </c>
       <c r="C866">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="D866" t="s">
         <v>16</v>
@@ -24997,7 +24997,7 @@
         <v>2950</v>
       </c>
       <c r="C867">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="D867" t="s">
         <v>1078</v>
@@ -25014,7 +25014,7 @@
         <v>2954</v>
       </c>
       <c r="C868">
-        <v>34692</v>
+        <v>34693</v>
       </c>
       <c r="D868" t="s">
         <v>34</v>
@@ -25048,7 +25048,7 @@
         <v>2962</v>
       </c>
       <c r="C870">
-        <v>34805</v>
+        <v>34806</v>
       </c>
       <c r="D870" t="s">
         <v>24</v>
@@ -25065,7 +25065,7 @@
         <v>2966</v>
       </c>
       <c r="C871">
-        <v>42563</v>
+        <v>42562</v>
       </c>
       <c r="D871" t="s">
         <v>34</v>
@@ -25150,7 +25150,7 @@
         <v>2984</v>
       </c>
       <c r="C876">
-        <v>7225</v>
+        <v>7227</v>
       </c>
       <c r="D876" t="s">
         <v>2681</v>
@@ -25167,7 +25167,7 @@
         <v>2987</v>
       </c>
       <c r="C877">
-        <v>4211</v>
+        <v>4213</v>
       </c>
       <c r="D877" t="s">
         <v>351</v>
@@ -25269,7 +25269,7 @@
         <v>3007</v>
       </c>
       <c r="C883">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="D883" t="s">
         <v>43</v>
@@ -25303,7 +25303,7 @@
         <v>3013</v>
       </c>
       <c r="C885">
-        <v>40146</v>
+        <v>40148</v>
       </c>
       <c r="D885" t="s">
         <v>43</v>
@@ -25320,7 +25320,7 @@
         <v>3017</v>
       </c>
       <c r="C886">
-        <v>12575</v>
+        <v>12576</v>
       </c>
       <c r="D886" t="s">
         <v>43</v>
@@ -25388,7 +25388,7 @@
         <v>3030</v>
       </c>
       <c r="C890">
-        <v>86067</v>
+        <v>86072</v>
       </c>
       <c r="D890" t="s">
         <v>34</v>
@@ -25436,7 +25436,7 @@
         <v>3038</v>
       </c>
       <c r="C893">
-        <v>8650</v>
+        <v>8652</v>
       </c>
       <c r="D893" t="s">
         <v>43</v>
@@ -25470,7 +25470,7 @@
         <v>3044</v>
       </c>
       <c r="C895">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="D895" t="s">
         <v>11</v>
@@ -25572,7 +25572,7 @@
         <v>3063</v>
       </c>
       <c r="C901">
-        <v>27103</v>
+        <v>27102</v>
       </c>
       <c r="D901" t="s">
         <v>43</v>
@@ -25589,7 +25589,7 @@
         <v>3066</v>
       </c>
       <c r="C902">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="D902" t="s">
         <v>43</v>
@@ -25606,7 +25606,7 @@
         <v>3069</v>
       </c>
       <c r="C903">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="D903" t="s">
         <v>43</v>
@@ -25640,7 +25640,7 @@
         <v>3075</v>
       </c>
       <c r="C905">
-        <v>14863</v>
+        <v>14866</v>
       </c>
       <c r="D905" t="s">
         <v>43</v>
@@ -25688,7 +25688,7 @@
         <v>3086</v>
       </c>
       <c r="C908">
-        <v>8802</v>
+        <v>8805</v>
       </c>
       <c r="D908" t="s">
         <v>20</v>
@@ -25722,7 +25722,7 @@
         <v>3095</v>
       </c>
       <c r="C910">
-        <v>5982</v>
+        <v>5985</v>
       </c>
       <c r="D910" t="s">
         <v>3093</v>
@@ -25739,7 +25739,7 @@
         <v>3099</v>
       </c>
       <c r="C911">
-        <v>28675</v>
+        <v>28677</v>
       </c>
       <c r="D911" t="s">
         <v>3097</v>
@@ -25773,7 +25773,7 @@
         <v>3107</v>
       </c>
       <c r="C913">
-        <v>14191</v>
+        <v>14193</v>
       </c>
       <c r="D913" t="s">
         <v>364</v>
@@ -25790,7 +25790,7 @@
         <v>3111</v>
       </c>
       <c r="C914">
-        <v>12183</v>
+        <v>12184</v>
       </c>
       <c r="D914" t="s">
         <v>24</v>
@@ -25807,7 +25807,7 @@
         <v>3115</v>
       </c>
       <c r="C915">
-        <v>20041</v>
+        <v>20044</v>
       </c>
       <c r="D915" t="s">
         <v>24</v>
@@ -25824,7 +25824,7 @@
         <v>3118</v>
       </c>
       <c r="C916">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="D916" t="s">
         <v>387</v>
@@ -25841,7 +25841,7 @@
         <v>3122</v>
       </c>
       <c r="C917">
-        <v>5207</v>
+        <v>5208</v>
       </c>
       <c r="D917" t="s">
         <v>988</v>
@@ -25858,7 +25858,7 @@
         <v>3125</v>
       </c>
       <c r="C918">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="D918" t="s">
         <v>34</v>
@@ -25906,7 +25906,7 @@
         <v>3138</v>
       </c>
       <c r="C921">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="D921" t="s">
         <v>1109</v>
@@ -25940,7 +25940,7 @@
         <v>3146</v>
       </c>
       <c r="C923">
-        <v>58414</v>
+        <v>58428</v>
       </c>
       <c r="D923" t="s">
         <v>24</v>
@@ -25974,7 +25974,7 @@
         <v>3154</v>
       </c>
       <c r="C925">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="D925" t="s">
         <v>1421</v>
@@ -26008,7 +26008,7 @@
         <v>3162</v>
       </c>
       <c r="C927">
-        <v>9291</v>
+        <v>9293</v>
       </c>
       <c r="D927" t="s">
         <v>1421</v>
@@ -26025,7 +26025,7 @@
         <v>3165</v>
       </c>
       <c r="C928">
-        <v>4311</v>
+        <v>4315</v>
       </c>
       <c r="D928" t="s">
         <v>789</v>
@@ -26042,7 +26042,7 @@
         <v>3169</v>
       </c>
       <c r="C929">
-        <v>6529</v>
+        <v>6530</v>
       </c>
       <c r="D929" t="s">
         <v>2416</v>
@@ -26127,7 +26127,7 @@
         <v>3189</v>
       </c>
       <c r="C934">
-        <v>21908</v>
+        <v>21909</v>
       </c>
       <c r="D934" t="s">
         <v>3187</v>
@@ -26178,7 +26178,7 @@
         <v>3200</v>
       </c>
       <c r="C937">
-        <v>6415</v>
+        <v>6416</v>
       </c>
       <c r="D937" t="s">
         <v>387</v>
@@ -26195,7 +26195,7 @@
         <v>3204</v>
       </c>
       <c r="C938">
-        <v>6260</v>
+        <v>6263</v>
       </c>
       <c r="D938" t="s">
         <v>96</v>
@@ -26229,7 +26229,7 @@
         <v>3212</v>
       </c>
       <c r="C940">
-        <v>6606</v>
+        <v>6607</v>
       </c>
       <c r="D940" t="s">
         <v>3210</v>
@@ -26246,7 +26246,7 @@
         <v>3216</v>
       </c>
       <c r="C941">
-        <v>42756</v>
+        <v>42757</v>
       </c>
       <c r="D941" t="s">
         <v>2344</v>
@@ -26348,7 +26348,7 @@
         <v>3239</v>
       </c>
       <c r="C947">
-        <v>10704</v>
+        <v>10705</v>
       </c>
       <c r="D947" t="s">
         <v>387</v>
@@ -26450,7 +26450,7 @@
         <v>3261</v>
       </c>
       <c r="C953">
-        <v>6274</v>
+        <v>6275</v>
       </c>
       <c r="D953" t="s">
         <v>1706</v>
@@ -26467,7 +26467,7 @@
         <v>3265</v>
       </c>
       <c r="C954">
-        <v>7406</v>
+        <v>7407</v>
       </c>
       <c r="D954" t="s">
         <v>387</v>
@@ -26484,7 +26484,7 @@
         <v>3268</v>
       </c>
       <c r="C955">
-        <v>96579</v>
+        <v>96595</v>
       </c>
       <c r="D955" t="s">
         <v>387</v>
@@ -26518,7 +26518,7 @@
         <v>3275</v>
       </c>
       <c r="C957">
-        <v>18103</v>
+        <v>18106</v>
       </c>
       <c r="D957" t="s">
         <v>16</v>
@@ -26535,7 +26535,7 @@
         <v>3279</v>
       </c>
       <c r="C958">
-        <v>58960</v>
+        <v>58962</v>
       </c>
       <c r="D958" t="s">
         <v>3097</v>
@@ -26552,7 +26552,7 @@
         <v>3283</v>
       </c>
       <c r="C959">
-        <v>15042</v>
+        <v>15041</v>
       </c>
       <c r="D959" t="s">
         <v>43</v>
@@ -26600,7 +26600,7 @@
         <v>3295</v>
       </c>
       <c r="C962">
-        <v>3362</v>
+        <v>3366</v>
       </c>
       <c r="D962" t="s">
         <v>3293</v>
@@ -26634,7 +26634,7 @@
         <v>3303</v>
       </c>
       <c r="C964">
-        <v>10619</v>
+        <v>10620</v>
       </c>
       <c r="D964" t="s">
         <v>1421</v>
@@ -26668,7 +26668,7 @@
         <v>3311</v>
       </c>
       <c r="C966">
-        <v>4759</v>
+        <v>4761</v>
       </c>
       <c r="D966" t="s">
         <v>131</v>
@@ -26685,7 +26685,7 @@
         <v>3316</v>
       </c>
       <c r="C967">
-        <v>17191</v>
+        <v>17194</v>
       </c>
       <c r="D967" t="s">
         <v>3314</v>

--- a/repo.xlsx
+++ b/repo.xlsx
@@ -40,7 +40,7 @@
     <t>MiuLab/Taiwan-LLaMa</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,🀄</t>
+    <t>🔠⛽🚌🀄</t>
   </si>
   <si>
     <t>Traditional Mandarin LLMs for Taiwan</t>
@@ -52,7 +52,7 @@
     <t>modelscope/facechain</t>
   </si>
   <si>
-    <t>🖼️,📱</t>
+    <t>🖼️📱</t>
   </si>
   <si>
     <t>FaceChain is a deep-learning toolchain for generating your Digital-Twin.</t>
@@ -67,7 +67,7 @@
     <t>lllyasviel/Fooocus</t>
   </si>
   <si>
-    <t>🖼️,🔌</t>
+    <t>🖼️🔌</t>
   </si>
   <si>
     <t>Focus on prompting and generating</t>
@@ -79,7 +79,7 @@
     <t>mshumer/gpt-llm-trainer</t>
   </si>
   <si>
-    <t>🔠,2️⃣</t>
+    <t>🔠2️⃣</t>
   </si>
   <si>
     <t>https://github.com/mshumer/gpt-llm-trainer</t>
@@ -91,7 +91,7 @@
     <t>mhss1/AIStudyAssistant</t>
   </si>
   <si>
-    <t>🔠,📱</t>
+    <t>🔠📱</t>
   </si>
   <si>
     <t>AI chatbot, Lecture Summarizer, Essay Writer and Questions Generator.</t>
@@ -106,7 +106,7 @@
     <t>xverse-ai/XVERSE-13B</t>
   </si>
   <si>
-    <t>🔠,🚌,💰,🀄</t>
+    <t>🔠🚌💰🀄</t>
   </si>
   <si>
     <t>XVERSE-13B: A multilingual large language model developed by XVERSE Technology Inc.</t>
@@ -121,7 +121,7 @@
     <t>bkitano/llama-from-scratch</t>
   </si>
   <si>
-    <t>🔠,📝</t>
+    <t>🔠📝</t>
   </si>
   <si>
     <t>provide some tips from my experience implementing a paper.</t>
@@ -136,7 +136,7 @@
     <t>haoheliu/AudioLDM2</t>
   </si>
   <si>
-    <t>🔠,🎵,🚕</t>
+    <t>🔠🎵🚕</t>
   </si>
   <si>
     <t>Text-to-Audio/Music Generation</t>
@@ -148,7 +148,7 @@
     <t>jmaczan/gdansk-ai</t>
   </si>
   <si>
-    <t>🔠,🔨</t>
+    <t>🔠🔨</t>
   </si>
   <si>
     <t>🦭 Full stack AI voice chatbot (speech-to-text, LLM, text-to-speech) with integrations to Auth0, OpenAI, Google Cloud and Stripe - Web App, Web API and AI API</t>
@@ -172,7 +172,7 @@
     <t>OpenGVLab/all-seeing</t>
   </si>
   <si>
-    <t>🔠,🖼️,`🚌`</t>
+    <t>🔠🖼️`🚌`</t>
   </si>
   <si>
     <t>This is the official implementation of the paper "The All-Seeing Project: Towards Panoptic Visual Recognition and Understanding of the Open World"</t>
@@ -184,7 +184,7 @@
     <t>QwenLM/Qwen-7B</t>
   </si>
   <si>
-    <t>🔠,🚌</t>
+    <t>🔠🚌</t>
   </si>
   <si>
     <t>The official repo of Qwen-7B (通义千问-7B) chat &amp; pretrained large language model proposed by Alibaba Cloud.</t>
@@ -211,7 +211,7 @@
     <t>HIT-SCIR-SC/QiaoBan</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕,2️⃣</t>
+    <t>🔠⛽🚕2️⃣</t>
   </si>
   <si>
     <t>这是一个巧板大模型的仓库，旨在构建一个面向儿童情感陪伴的大模型</t>
@@ -223,7 +223,7 @@
     <t>diStyApps/VisionCrafter</t>
   </si>
   <si>
-    <t>🎥,🔨</t>
+    <t>🎥🔨</t>
   </si>
   <si>
     <t>Craft your visions</t>
@@ -235,7 +235,7 @@
     <t>dvlab-research/LISA</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,🚌</t>
+    <t>🔠🖼️⛽🚌</t>
   </si>
   <si>
     <t>Project Page for "LISA: Reasoning Segmentation via Large Language Model"</t>
@@ -250,7 +250,7 @@
     <t>LinkSoul-AI/LLaSM</t>
   </si>
   <si>
-    <t>🔠,🎵,🚌,💰,🀄</t>
+    <t>🔠🎵🚌💰🀄</t>
   </si>
   <si>
     <t>第一个支持中英文双语语音-文本多模态对话的开源可商用对话模型。便捷的语音输入将大幅改善以文本为输入的大模型的使用体验，同时避免了基于 ASR 解决方案的繁琐流程以及可能引入的错误。</t>
@@ -283,7 +283,7 @@
     <t>LinkSoul-AI/Chinese-LLaVA</t>
   </si>
   <si>
-    <t>🔠,🖼️,🔨,💰,🀄</t>
+    <t>🔠🖼️🔨💰🀄</t>
   </si>
   <si>
     <t>支持中英文双语视觉-文本对话的开源可商用多模态模型。</t>
@@ -295,10 +295,10 @@
     <t>OpenLLMAI/OpenLLaMA2</t>
   </si>
   <si>
-    <t>🔠,2️⃣,3️⃣</t>
-  </si>
-  <si>
-    <t>LLaMA2 SFT/RLHF training framework</t>
+    <t>🔠2️⃣3️⃣</t>
+  </si>
+  <si>
+    <t>DeepSpeed+Ray based LLaMA2 SFT/RLHF training framework</t>
   </si>
   <si>
     <t>https://github.com/OpenLLMAI/OpenLLaMA2</t>
@@ -307,7 +307,7 @@
     <t>rai-llc/LanguageModels.jl</t>
   </si>
   <si>
-    <t>🔠,💡</t>
+    <t>🔠💡</t>
   </si>
   <si>
     <t>Load nanoGPT-style transformers in Julia. Code ported from @karpathy's llama2.c</t>
@@ -331,7 +331,7 @@
     <t>RahulSChand/llama2.c-for-dummies</t>
   </si>
   <si>
-    <t>🔠,💡,📝</t>
+    <t>🔠💡📝</t>
   </si>
   <si>
     <t>Step by step explanation/tutorial of llama2.c</t>
@@ -343,7 +343,7 @@
     <t>e2b-dev/chatgpt-plugin</t>
   </si>
   <si>
-    <t>🔠,🔌</t>
+    <t>🔠🔌</t>
   </si>
   <si>
     <t>Code interpreter on steroids for ChatGPT. Run any language, any terminal process, use filesystem freely. All with access to the internet.</t>
@@ -397,7 +397,7 @@
     <t>llm-attacks/llm-attacks</t>
   </si>
   <si>
-    <t>🔠,❓</t>
+    <t>🔠❓</t>
   </si>
   <si>
     <t>Universal and Transferable Attacks on Aligned Language Models</t>
@@ -412,7 +412,7 @@
     <t>Audio-AGI/WavJourney</t>
   </si>
   <si>
-    <t>🔠,🎵,📱</t>
+    <t>🔠🎵📱</t>
   </si>
   <si>
     <t>WavJourney: Compositional Audio Creation with LLMs</t>
@@ -424,7 +424,7 @@
     <t>IDEA-Research/DWPose</t>
   </si>
   <si>
-    <t>🎥,🚌,2️⃣</t>
+    <t>🎥🚌2️⃣</t>
   </si>
   <si>
     <t>Official implementation of the paper "Effective Whole-body Pose Estimation with Two-stages Distillation"</t>
@@ -484,7 +484,7 @@
     <t>JustAIGithub/AI-Code-Convert</t>
   </si>
   <si>
-    <t>AI Code Translator，Generate Code or Natural Language To Programming Language</t>
+    <t>AI Code Translator \| AI Code Converter \| AI Code Generator，Generate Code or Natural Language To Programming Language</t>
   </si>
   <si>
     <t>https://github.com/JustAIGithub/AI-Code-Convert</t>
@@ -550,7 +550,7 @@
     <t>Gadersd/whisper-burn</t>
   </si>
   <si>
-    <t>🎵,💡</t>
+    <t>🎵💡</t>
   </si>
   <si>
     <t>A Rust implementation of OpenAI's Whisper model using the burn framework</t>
@@ -619,7 +619,7 @@
     <t>Alpha-VLLM/LLaMA2-Accessory</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,1️⃣,2️⃣,📱</t>
+    <t>🔠🖼️⛽1️⃣2️⃣📱</t>
   </si>
   <si>
     <t>An Open-source Toolkit for LLM Development</t>
@@ -631,7 +631,7 @@
     <t>OPPO-Mente-Lab/Subject-Diffusion</t>
   </si>
   <si>
-    <t>🖼️,`⛽`,🚌,2️⃣</t>
+    <t>🖼️`⛽`🚌2️⃣</t>
   </si>
   <si>
     <t>Subject-Diffusion:Open Domain Personalized Text-to-Image Generation without Test-time Fine-tuning</t>
@@ -652,7 +652,7 @@
     <t>segmind/distill-sd</t>
   </si>
   <si>
-    <t>🖼️,🚌,2️⃣</t>
+    <t>🖼️🚌2️⃣</t>
   </si>
   <si>
     <t>Segmind Distilled diffusion</t>
@@ -667,7 +667,7 @@
     <t>LinkSoul-AI/Chinese-Llama-2-7b</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,💰,🀄</t>
+    <t>🔠⛽🚌2️⃣💰🀄</t>
   </si>
   <si>
     <t>开源社区第一个能下载、能运行的中文 LLaMA2 模型！</t>
@@ -688,7 +688,7 @@
     <t>ThisisBillhe/tiny-stable-diffusion</t>
   </si>
   <si>
-    <t>🔠,🖼️,✂️</t>
+    <t>🔠🖼️✂️</t>
   </si>
   <si>
     <t>Tiny optimized Stable-diffusion that can run on GPUs with just 1GB of VRAM. (Beta)</t>
@@ -709,7 +709,7 @@
     <t>omerbt/TokenFlow</t>
   </si>
   <si>
-    <t>🎥,`2️⃣`</t>
+    <t>🎥`2️⃣`</t>
   </si>
   <si>
     <t>Official Pytorch Implementation for "TokenFlow: Consistent Diffusion Features for Consistent Video Editing" presenting "TokenFlow"</t>
@@ -769,7 +769,7 @@
     <t>michael-wzhu/Chinese-LlaMA2</t>
   </si>
   <si>
-    <t>🔠,`🚌`,`🚕`,`1️⃣`,`2️⃣`,💰,🀄</t>
+    <t>🔠`🚌``🚕``1️⃣``2️⃣`💰🀄</t>
   </si>
   <si>
     <t>Repo for adapting Meta LlaMA2 in Chinese! META最新发布的LlaMA2的汉化版！ （完全开源可商用）</t>
@@ -808,7 +808,7 @@
     <t>yangjianxin1/Firefly-LLaMA2-Chinese</t>
   </si>
   <si>
-    <t>🔠,`🚌`,`🚕`,`1️⃣`,`2️⃣`,🀄</t>
+    <t>🔠`🚌``🚕``1️⃣``2️⃣`🀄</t>
   </si>
   <si>
     <t>中文LLaMA-2大模型，兼容对中文大模型进行增量预训练</t>
@@ -832,7 +832,7 @@
     <t>facebookresearch/LLM-QAT</t>
   </si>
   <si>
-    <t>🔠,✂️</t>
+    <t>🔠✂️</t>
   </si>
   <si>
     <t>Code repo for the paper "LLM-QAT Data-Free Quantization Aware Training for Large Language Models"</t>
@@ -844,7 +844,7 @@
     <t>longyuewangdcu/Chinese-Llama-2</t>
   </si>
   <si>
-    <t>🔠,🚌,`1️⃣`,2️⃣</t>
+    <t>🔠🚌`1️⃣`2️⃣</t>
   </si>
   <si>
     <t>Chinese-Llama-2 is a project that aims to expand the impressive capabilities of the Llama-2 language model to the Chinese language.</t>
@@ -865,7 +865,7 @@
     <t>ymcui/Chinese-LLaMA-Alpaca-2</t>
   </si>
   <si>
-    <t>🔠,`🚌`,`1️⃣`,`2️⃣`,💰,🀄</t>
+    <t>🔠`🚌``1️⃣``2️⃣`💰🀄</t>
   </si>
   <si>
     <t>中文 LLaMA-2 &amp; Alpaca-2 大模型二期项目 + 本地CPU/GPU训练部署  (Chinese LLaMA-2 &amp; Alpaca-2 LLMs)</t>
@@ -880,7 +880,7 @@
     <t>DUOMO/TransGPT</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕,2️⃣,💰,🀄</t>
+    <t>🔠⛽🚕2️⃣💰🀄</t>
   </si>
   <si>
     <t>TransGPT是国内首款开源交通大模型，主要致力于在真实交通行业中发挥实际价值。</t>
@@ -901,7 +901,7 @@
     <t>Fictionarry/ER-NeRF</t>
   </si>
   <si>
-    <t>🎥,⛽,🚌,2️⃣</t>
+    <t>🎥⛽🚌2️⃣</t>
   </si>
   <si>
     <t>[ICCV'23] Efficient Region-Aware Neural Radiance Fields for High-Fidelity Talking Portrait Synthesis</t>
@@ -922,7 +922,7 @@
     <t>facebookresearch/llama-recipes</t>
   </si>
   <si>
-    <t>🔠,🚌,2️⃣</t>
+    <t>🔠🚌2️⃣</t>
   </si>
   <si>
     <t>Examples and recipes for Llama 2 model</t>
@@ -1021,7 +1021,7 @@
     <t>AILab-CVC/SEED</t>
   </si>
   <si>
-    <t>🖼️,`🚌`</t>
+    <t>🖼️`🚌`</t>
   </si>
   <si>
     <t>Empowers LLMs with the ability to see and draw.</t>
@@ -1033,7 +1033,7 @@
     <t>CodeAlchemyAI/ViLT-GPT</t>
   </si>
   <si>
-    <t>🔠,🖼️,📱</t>
+    <t>🔠🖼️📱</t>
   </si>
   <si>
     <t xml:space="preserve">By integrating OpenAI's Language Models (LLM) and LangChain with Vision-and-Language models, this app can answer queries based on the content of images. </t>
@@ -1072,7 +1072,7 @@
     <t>hugofloresgarcia/unloop</t>
   </si>
   <si>
-    <t>🎵,📱</t>
+    <t>🎵📱</t>
   </si>
   <si>
     <t xml:space="preserve">a co-creative looper that uses generative modeling to **not** repeat itself. </t>
@@ -1111,7 +1111,7 @@
     <t>vitoplantamura/OnnxStream</t>
   </si>
   <si>
-    <t>🖼️,💡</t>
+    <t>🖼️💡</t>
   </si>
   <si>
     <t>Running Stable Diffusion on a RPI Zero 2 (or in 260MB of RAM)</t>
@@ -1144,7 +1144,7 @@
     <t>X-PLUG/CValues</t>
   </si>
   <si>
-    <t>🔠,⛽,🀄,❓</t>
+    <t>🔠⛽🀄❓</t>
   </si>
   <si>
     <t>面向中文大模型价值观的评估与对齐研究</t>
@@ -1156,7 +1156,7 @@
     <t>bytedance/lynx-llm</t>
   </si>
   <si>
-    <t>🔠,🖼️,2️⃣,❓</t>
+    <t>🔠🖼️2️⃣❓</t>
   </si>
   <si>
     <t>paper: https://arxiv.org/abs/2307.02469 page: https://lynx-llm.github.io/</t>
@@ -1180,7 +1180,7 @@
     <t>SeargeDP/SeargeSDXL</t>
   </si>
   <si>
-    <t>🖼️,🔨</t>
+    <t>🖼️🔨</t>
   </si>
   <si>
     <t>Custom nodes and workflows for SDXL in ComfyUI</t>
@@ -1255,7 +1255,7 @@
     <t>yangyuke001/SD-inference</t>
   </si>
   <si>
-    <t>🔠,🖼️,💡</t>
+    <t>🔠🖼️💡</t>
   </si>
   <si>
     <t>Stable Diffusion inference</t>
@@ -1279,7 +1279,7 @@
     <t>baaivision/Emu</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌</t>
+    <t>🔠🖼️🚌</t>
   </si>
   <si>
     <t>Emu: An Open Multimodal Generalist</t>
@@ -1312,7 +1312,7 @@
     <t>baichuan-inc/Baichuan-13B</t>
   </si>
   <si>
-    <t>🔠,🚌,✂️</t>
+    <t>🔠🚌✂️</t>
   </si>
   <si>
     <t>A 13B large language model developed by Baichuan Intelligent Technology</t>
@@ -1423,7 +1423,7 @@
     <t>ringa-tech/asistente-virtual</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚕</t>
+    <t>🔠🖼️🚕</t>
   </si>
   <si>
     <t>An attempt to extend PULSE to a biomedical multimodal conversational assistant.</t>
@@ -1456,7 +1456,7 @@
     <t>YuanGongND/whisper-at</t>
   </si>
   <si>
-    <t>🎵,🚌</t>
+    <t>🎵🚌</t>
   </si>
   <si>
     <t>Code and Pretrained Models for Interspeech 2023 Paper "Whisper-AT: Noise-Robust Automatic Speech Recognizers are Also Strong Audio Event Taggers"</t>
@@ -1474,7 +1474,7 @@
     <t>jshilong/GPT4RoI</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,`🚌`,2️⃣</t>
+    <t>🔠🖼️⛽`🚌`2️⃣</t>
   </si>
   <si>
     <t>GPT4RoI: Instruction Tuning Large Language Model on Region-of-Interest</t>
@@ -1486,7 +1486,7 @@
     <t>kennethleungty/Llama-2-Open-Source-LLM-CPU-Inference</t>
   </si>
   <si>
-    <t>🔠,💡,📱</t>
+    <t>🔠💡📱</t>
   </si>
   <si>
     <t>Running Llama 2 and other Open-Source LLMs on CPU Inference Locally for Document Q&amp;A</t>
@@ -1537,7 +1537,7 @@
     <t>OpenLMLab/MOSS-RLHF</t>
   </si>
   <si>
-    <t>🔠,🚌,3️⃣,🀄</t>
+    <t>🔠🚌3️⃣🀄</t>
   </si>
   <si>
     <t>MOSS-RLHF</t>
@@ -1570,7 +1570,7 @@
     <t>SpongebBob/Finetune-ChatGLM2-6B</t>
   </si>
   <si>
-    <t>🔠,⛽,2️⃣,✂️</t>
+    <t>🔠⛽2️⃣✂️</t>
   </si>
   <si>
     <t>ChatGLM2-6B 全参数微调，支持多轮对话的高效微调。</t>
@@ -1597,7 +1597,7 @@
     <t>text2cinemagraph/text2cinemagraph</t>
   </si>
   <si>
-    <t>🔠,🎥,🚌,2️⃣</t>
+    <t>🔠🎥🚌2️⃣</t>
   </si>
   <si>
     <t>Official Pytorch implementation of Text2Cinemagraph: Synthesizing Artistic Cinemagraphs from Text</t>
@@ -1609,7 +1609,7 @@
     <t>zideliu/StyleDrop-PyTorch</t>
   </si>
   <si>
-    <t>🖼️,⛽,🚌,2️⃣</t>
+    <t>🖼️⛽🚌2️⃣</t>
   </si>
   <si>
     <t>Unoffical implement for [StyleDrop](https://arxiv.org/abs/2306.00983)</t>
@@ -1624,7 +1624,7 @@
     <t>Illyism/openai-whisper-api</t>
   </si>
   <si>
-    <t>🎵,🔨</t>
+    <t>🎵🔨</t>
   </si>
   <si>
     <t>OpenAI Whisper API based on Node.js / Bun.sh in a Docker Container + Google Cloud Run Example</t>
@@ -1675,7 +1675,7 @@
     <t>TonyLianLong/stable-diffusion-xl-demo</t>
   </si>
   <si>
-    <t>🔠,🖼️,🔨</t>
+    <t>🔠🖼️🔨</t>
   </si>
   <si>
     <t>A gradio web UI demo for Stable Diffusion XL 1.0, with refiner and MultiGPU support</t>
@@ -1708,7 +1708,7 @@
     <t>OpenBMB/VisCPM</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,`2️⃣`,🀄</t>
+    <t>🔠🖼️🚌`2️⃣`🀄</t>
   </si>
   <si>
     <t>Chinese and English Multimodal Large Model Series (Chat and Paint) \| 基于CPM基础模型的中英双语多模态大模型系列</t>
@@ -1750,7 +1750,7 @@
     <t>IMOSR/MediaGPT</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕,2️⃣,🀄</t>
+    <t>🔠⛽🚕2️⃣🀄</t>
   </si>
   <si>
     <t>中文的自媒体大语言模型MediaGPT(曾用名Media LLaMA)</t>
@@ -1783,7 +1783,7 @@
     <t>gmltmd789/UnitSpeech</t>
   </si>
   <si>
-    <t>🎵,🚌,2️⃣</t>
+    <t>🎵🚌2️⃣</t>
   </si>
   <si>
     <t>An official implementation of "UnitSpeech: Speaker-adaptive Speech Synthesis with Untranscribed Data"</t>
@@ -1813,7 +1813,7 @@
     <t>replicate/cog-llama-template</t>
   </si>
   <si>
-    <t>🔠,2️⃣,❓</t>
+    <t>🔠2️⃣❓</t>
   </si>
   <si>
     <t>LLaMA Cog template</t>
@@ -1846,7 +1846,7 @@
     <t>RayVentura/ShortGPT</t>
   </si>
   <si>
-    <t>🔠,🎥,📱</t>
+    <t>🔠🎥📱</t>
   </si>
   <si>
     <t>🚀🎬 ShortGPT - Experimental AI framework for automated short/video content creation.</t>
@@ -1858,7 +1858,7 @@
     <t>SALT-NLP/LLaVAR</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,🚌,2️⃣</t>
+    <t>🔠🖼️⛽🚌2️⃣</t>
   </si>
   <si>
     <t>Code/Data for the paper: "LLaVAR: Enhanced Visual Instruction Tuning for Text-Rich Image Understanding"</t>
@@ -1936,7 +1936,7 @@
     <t>icalk-nlp/EduChat</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕</t>
+    <t>🔠⛽🚕</t>
   </si>
   <si>
     <t>An open-source educational chat model from ICALK, East China Normal University. 开源中英教育对话大模型。(通用基座模型，GPU部署，数据清理) 致敬: LLaMA, MOSS, BELLE, Ziya</t>
@@ -2026,7 +2026,7 @@
     <t>THUDM/ChatGLM2-6B</t>
   </si>
   <si>
-    <t>🔠,🚌,✂️,🀄</t>
+    <t>🔠🚌✂️🀄</t>
   </si>
   <si>
     <t>ChatGLM2-6B: An Open Bilingual Chat LLM \| 开源双语对话语言模型</t>
@@ -2149,7 +2149,7 @@
     <t>OpenMotionLab/MotionGPT</t>
   </si>
   <si>
-    <t>🔠,🎥,📝</t>
+    <t>🔠🎥📝</t>
   </si>
   <si>
     <t>MotionGPT: Human Motion as a Foreign Language, a unified motion-language generation model using LLMs</t>
@@ -2293,7 +2293,7 @@
     <t>guoyww/AnimateDiff</t>
   </si>
   <si>
-    <t>🔠,🎥,🚌</t>
+    <t>🔠🎥🚌</t>
   </si>
   <si>
     <t>Official implementation of AnimateDiff.</t>
@@ -2353,7 +2353,7 @@
     <t>SpeechifyInc/Meta-voicebox</t>
   </si>
   <si>
-    <t>🎵,`2️⃣`</t>
+    <t>🎵`2️⃣`</t>
   </si>
   <si>
     <t>Implementation of Meta-Voicebox : The first generative AI model for speech to generalize across tasks with state-of-the-art performance.</t>
@@ -2386,7 +2386,7 @@
     <t>InternLM/lmdeploy</t>
   </si>
   <si>
-    <t>🔠,✂️,💡</t>
+    <t>🔠✂️💡</t>
   </si>
   <si>
     <t>LMDeploy is a toolkit for compressing, deploying, and serving LLM</t>
@@ -2437,7 +2437,7 @@
     <t>life-exe/UnrealOpenAIPlugin</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎵,📱</t>
+    <t>🔠🖼️🎵📱</t>
   </si>
   <si>
     <t>This plugin is a comprehensive Unreal Engine wrapper for the OpenAI API.</t>
@@ -2470,7 +2470,7 @@
     <t>SizheAn/PanoHead</t>
   </si>
   <si>
-    <t>🖼️,🚌,2️⃣,🧊</t>
+    <t>🖼️🚌2️⃣🧊</t>
   </si>
   <si>
     <t>Code Repository for CVPR 2023 Paper "PanoHead: Geometry-Aware 3D Full-Head Synthesis in 360 degree"</t>
@@ -2503,7 +2503,7 @@
     <t>lyogavin/Anima</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,🀄</t>
+    <t>🔠⛽🚌2️⃣🀄</t>
   </si>
   <si>
     <t>第一个开源的基于QLoRA的33B中文大语言模型First QLoRA based open source 33B Chinese LLM</t>
@@ -2539,7 +2539,7 @@
     <t>allenai/open-instruct</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣</t>
+    <t>🔠⛽🚌2️⃣</t>
   </si>
   <si>
     <t>We explore instruction-tuning popular base models on publicly available datasets.</t>
@@ -2551,7 +2551,7 @@
     <t>camenduru/MusicGen-colab</t>
   </si>
   <si>
-    <t>🎵,📝</t>
+    <t>🎵📝</t>
   </si>
   <si>
     <t>https://github.com/camenduru/MusicGen-colab</t>
@@ -2590,7 +2590,7 @@
     <t>facebookresearch/audiocraft</t>
   </si>
   <si>
-    <t>🎵,🚌,`2️⃣`</t>
+    <t>🎵🚌`2️⃣`</t>
   </si>
   <si>
     <t>Audiocraft is a library for audio processing and generation with deep learning. It features the state-of-the-art EnCodec audio compressor / tokenizer, along with MusicGen, a simple and controllable music generation LM with textual and melodic conditioning.</t>
@@ -2647,7 +2647,7 @@
     <t>BrandonHanx/HeadSculpt</t>
   </si>
   <si>
-    <t>🔠,2️⃣,🧊</t>
+    <t>🔠2️⃣🧊</t>
   </si>
   <si>
     <t>[arXiv 2023 WIP] HeadSculpt: Crafting 3D Head Avatars with Text</t>
@@ -2677,7 +2677,7 @@
     <t>Richasy/FantasyCopilot</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎵,🔨</t>
+    <t>🔠🖼️🎵🔨</t>
   </si>
   <si>
     <t>A new-age AI desktop tool</t>
@@ -2749,7 +2749,7 @@
     <t>InternLM/InternLM-techreport</t>
   </si>
   <si>
-    <t>🔠,`🚌`</t>
+    <t>🔠`🚌`</t>
   </si>
   <si>
     <t>We present InternLM, a multilingual foundational language model with 104B parameters. InternLM is pre-trained on a large corpora with 1.6T tokens with a multi-phase progressive process, and then fine-tuned to align with human preferences.</t>
@@ -2791,7 +2791,7 @@
     <t>shibing624/MedicalGPT</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕,1️⃣,2️⃣,3️⃣,🀄</t>
+    <t>🔠⛽🚕1️⃣2️⃣3️⃣🀄</t>
   </si>
   <si>
     <t>MedicalGPT: Training Your Own Medical GPT Model with ChatGPT Training Pipeline. 训练医疗大模型，实现包括二次预训练、有监督微调、奖励建模、强化学习训练。</t>
@@ -2854,7 +2854,7 @@
     <t>xaviviro/refacer</t>
   </si>
   <si>
-    <t>🎥,🚌</t>
+    <t>🎥🚌</t>
   </si>
   <si>
     <t>Refacer: One-Click Deepfake Multi-Face Swap Tool</t>
@@ -2899,7 +2899,7 @@
     <t>icoz69/StyleAvatar3D</t>
   </si>
   <si>
-    <t>🖼️,📝,🧊</t>
+    <t>🖼️📝🧊</t>
   </si>
   <si>
     <t>Official repo for StyleAvatar3D</t>
@@ -2914,7 +2914,7 @@
     <t>THUDM/WebGLM</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,📱,🀄</t>
+    <t>🔠⛽🚌2️⃣📱🀄</t>
   </si>
   <si>
     <t>WebGLM: An Efficient Web-enhanced Question Answering System (KDD 2023)</t>
@@ -2953,7 +2953,7 @@
     <t>hiyouga/LLaMA-Efficient-Tuning</t>
   </si>
   <si>
-    <t>🔠,1️⃣,2️⃣,3️⃣</t>
+    <t>🔠1️⃣2️⃣3️⃣</t>
   </si>
   <si>
     <t>Easy-to-use fine-tuning framework using PEFT (PT+SFT+RLHF with QLoRA) (LLaMA-2, BLOOM, Falcon, Baichuan, Qwen, ChatGLM2)</t>
@@ -2983,7 +2983,7 @@
     <t>s0md3v/roop</t>
   </si>
   <si>
-    <t>🎥,📱</t>
+    <t>🎥📱</t>
   </si>
   <si>
     <t>one-click deepfake (face swap)</t>
@@ -3025,7 +3025,7 @@
     <t>imoneoi/openchat</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,🚕,2️⃣</t>
+    <t>🔠⛽🚌🚕2️⃣</t>
   </si>
   <si>
     <t>OpenChat: Advancing Open-source Language Models with Imperfect Data</t>
@@ -3115,7 +3115,7 @@
     <t>OFA-Sys/ExpertLLaMA</t>
   </si>
   <si>
-    <t>🔠,⛽,`🚌`,2️⃣</t>
+    <t>🔠⛽`🚌`2️⃣</t>
   </si>
   <si>
     <t>An opensource ChatBot built with ExpertPrompting which achieves 96% of ChatGPT's capability.</t>
@@ -3163,7 +3163,7 @@
     <t>lyuchenyang/Macaw-LLM</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎵,⛽,🚌,2️⃣</t>
+    <t>🔠🖼️🎵⛽🚌2️⃣</t>
   </si>
   <si>
     <t>Macaw-LLM: Multi-Modal Language Modeling with Image, Video, Audio, and Text Integration</t>
@@ -3172,13 +3172,13 @@
     <t>https://github.com/lyuchenyang/Macaw-LLM</t>
   </si>
   <si>
-    <t>vercel-labs/ai</t>
+    <t>vercel/ai</t>
   </si>
   <si>
     <t>Build AI-powered applications with React, Svelte, Vue, and Solid</t>
   </si>
   <si>
-    <t>https://github.com/vercel-labs/ai</t>
+    <t>https://github.com/vercel/ai</t>
   </si>
   <si>
     <t>zzkcaesar/Caesar_prompt</t>
@@ -3232,7 +3232,7 @@
     <t>cg1177/VideoLLM</t>
   </si>
   <si>
-    <t>🎥,📝</t>
+    <t>🎥📝</t>
   </si>
   <si>
     <t>VideoLLM: Modeling Video Sequence with Large Language Models</t>
@@ -3253,7 +3253,7 @@
     <t>google-research-datasets/seahorse</t>
   </si>
   <si>
-    <t>🔠,⛽</t>
+    <t>🔠⛽</t>
   </si>
   <si>
     <t>Seahorse is a dataset for multilingual, multi-faceted summarization evaluation. It consists of 96K summaries with human ratings along 6 quality dimensions: comprehensibility, repetition, grammar, attribution, main idea(s), and conciseness, covering 6 languages, 9 systems and 4 datasets.</t>
@@ -3346,7 +3346,7 @@
     <t>SHI-Labs/Prompt-Free-Diffusion</t>
   </si>
   <si>
-    <t>🖼️,🚌</t>
+    <t>🖼️🚌</t>
   </si>
   <si>
     <t>Prompt-Free Diffusion: Taking "Text" out of Text-to-Image Diffusion Models</t>
@@ -3367,7 +3367,7 @@
     <t>ShishirPatil/gorilla</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,`2️⃣`,🔨,💰</t>
+    <t>🔠⛽🚌`2️⃣`🔨💰</t>
   </si>
   <si>
     <t>Gorilla: An API store for LLMs</t>
@@ -3379,7 +3379,7 @@
     <t>YuanGongND/ltu</t>
   </si>
   <si>
-    <t>🔠,🎵,`2️⃣`</t>
+    <t>🔠🎵`2️⃣`</t>
   </si>
   <si>
     <t>Github Repo for Paper "Listen, Think, and Understand".</t>
@@ -3430,7 +3430,7 @@
     <t>OFA-Sys/ONE-PEACE</t>
   </si>
   <si>
-    <t>🖼️,🚌,1️⃣,2️⃣</t>
+    <t>🖼️🚌1️⃣2️⃣</t>
   </si>
   <si>
     <t>A general representation model across vision, audio, language modalities. Paper: ONE-PEACE: Exploring One General Representation Model Toward Unlimited Modalities</t>
@@ -3442,7 +3442,7 @@
     <t>OpenGVLab/VisionLLM</t>
   </si>
   <si>
-    <t>🖼️,`🚌`,`2️⃣`</t>
+    <t>🖼️`🚌``2️⃣`</t>
   </si>
   <si>
     <t>VisionLLM: Large Language Model is also an Open-Ended Decoder for Vision-Centric Tasks</t>
@@ -3490,7 +3490,7 @@
     <t>mbzuai-oryx/Video-ChatGPT</t>
   </si>
   <si>
-    <t>🔠,🎥,⛽,🚌,2️⃣</t>
+    <t>🔠🎥⛽🚌2️⃣</t>
   </si>
   <si>
     <t>"Video-ChatGPT" is a video conversation model capable of generating meaningful conversation about videos. It combines the capabilities of LLMs with a pretrained visual encoder adapted for spatiotemporal video representation. We also introduce a rigorous 'Quantitative Evaluation Benchmarking' for video-based conversational models.</t>
@@ -3502,7 +3502,7 @@
     <t>mbzuai-oryx/XrayGPT</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,🚕,2️⃣</t>
+    <t>🔠🖼️⛽🚕2️⃣</t>
   </si>
   <si>
     <t>XrayGPT: Chest Radiographs Summarization using Medical Vision-Language Models.</t>
@@ -3523,7 +3523,7 @@
     <t>yxuansu/PandaGPT</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,2️⃣</t>
+    <t>🔠🖼️🚌2️⃣</t>
   </si>
   <si>
     <t>PandaGPT: One Model To Instruction-Follow Them All</t>
@@ -3556,7 +3556,7 @@
     <t>lucidrains/soundstorm-pytorch</t>
   </si>
   <si>
-    <t>🎵,2️⃣</t>
+    <t>🎵2️⃣</t>
   </si>
   <si>
     <t>Implementation of SoundStorm, Efficient Parallel Audio Generation from Google Deepmind, in Pytorch</t>
@@ -3568,7 +3568,7 @@
     <t>mit-han-lab/fastcomposer</t>
   </si>
   <si>
-    <t>🖼️,`⛽`,🚌,`2️⃣`</t>
+    <t>🖼️`⛽`🚌`2️⃣`</t>
   </si>
   <si>
     <t>FastComposer: Tuning-Free Multi-Subject Image Generation with Localized Attention</t>
@@ -3589,7 +3589,7 @@
     <t>princeton-nlp/tree-of-thought-llm</t>
   </si>
   <si>
-    <t>🔠,`2️⃣`</t>
+    <t>🔠`2️⃣`</t>
   </si>
   <si>
     <t>Official Implementation of "Tree of Thoughts: Deliberate Problem Solving with Large Language Models"</t>
@@ -3610,7 +3610,7 @@
     <t>simoninithomas/awesome-ai-tools-for-game-dev</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎵,🎥,📝</t>
+    <t>🔠🖼️🎵🎥📝</t>
   </si>
   <si>
     <t>A curated list of awesome AI tools for game developers</t>
@@ -3625,7 +3625,7 @@
     <t>0nutation/SpeechGPT</t>
   </si>
   <si>
-    <t>🔠,🎵,`⛽`,`🚌`,`2️⃣`</t>
+    <t>🔠🎵`⛽``🚌``2️⃣`</t>
   </si>
   <si>
     <t xml:space="preserve">SpeechGPT: Empowering Large Language Models with Intrinsic Cross-Modal Conversational Abilities. </t>
@@ -3676,7 +3676,7 @@
     <t>PKU-Alignment/safe-rlhf</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,3️⃣</t>
+    <t>🔠⛽🚌2️⃣3️⃣</t>
   </si>
   <si>
     <t>Safe-RLHF: Constrained Value Alignment via Safe Reinforcement Learning from Human Feedback</t>
@@ -3712,7 +3712,7 @@
     <t>HeliosZhao/Make-A-Protagonist</t>
   </si>
   <si>
-    <t>🎥,🚌,`2️⃣`</t>
+    <t>🎥🚌`2️⃣`</t>
   </si>
   <si>
     <t>Make-A-Protagonist: Generic Video Editing with An Ensemble of Experts</t>
@@ -3778,7 +3778,7 @@
     <t>TigerResearch/TigerBot</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,1️⃣,2️⃣</t>
+    <t>🔠⛽🚌1️⃣2️⃣</t>
   </si>
   <si>
     <t>TigerBot: A multi-language multi-task LLM</t>
@@ -3829,7 +3829,7 @@
     <t>artidoro/qlora</t>
   </si>
   <si>
-    <t>🔠,2️⃣,✂️</t>
+    <t>🔠2️⃣✂️</t>
   </si>
   <si>
     <t>QLoRA: Efficient Finetuning of Quantized LLMs</t>
@@ -3871,7 +3871,7 @@
     <t>Neutralzz/BiLLa</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,1️⃣,2️⃣,🀄</t>
+    <t>🔠⛽🚌1️⃣2️⃣🀄</t>
   </si>
   <si>
     <t>BiLLa: A Bilingual LLaMA with Enhanced Reasoning Ability</t>
@@ -4021,7 +4021,7 @@
     <t>DAMO-NLP-SG/Video-LLaMA</t>
   </si>
   <si>
-    <t>🔠,🎥,🚌,1️⃣,2️⃣</t>
+    <t>🔠🎥🚌1️⃣2️⃣</t>
   </si>
   <si>
     <t>Video-LLaMA: An Instruction-tuned Audio-Visual Language Model for Video Understanding</t>
@@ -4090,7 +4090,7 @@
     <t>eugeneyan/open-llms</t>
   </si>
   <si>
-    <t>🔠,📝,💰</t>
+    <t>🔠📝💰</t>
   </si>
   <si>
     <t>📋 A list of open LLMs available for commercial use.</t>
@@ -4123,7 +4123,7 @@
     <t>Lightning-AI/lit-gpt</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,`1️⃣`,2️⃣</t>
+    <t>🔠🖼️🚌`1️⃣`2️⃣</t>
   </si>
   <si>
     <t>Hackable implementation of state-of-the-art open-source LLMs based on nanoGPT. Supports flash attention, 4-bit and 8-bit quantization, LoRA and LLaMA-Adapter fine-tuning, pre-training. Apache 2.0-licensed.</t>
@@ -4231,7 +4231,7 @@
     <t>Docta-ai/docta</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽</t>
+    <t>🔠🖼️⛽</t>
   </si>
   <si>
     <t>A Doctor for your data</t>
@@ -4282,7 +4282,7 @@
     <t>FurkanGozukara/Stable-Diffusion</t>
   </si>
   <si>
-    <t>🖼️,📝</t>
+    <t>🖼️📝</t>
   </si>
   <si>
     <t>Stable Diffusion, SDXL, LoRA Training, DreamBooth Training, Automatic1111 Web UI, DeepFake, Deep Fakes, TTS, Animation, Text To Video, Tutorials, Guides, Lectures, Courses, ComfyUI, Google Colab, RunPod, NoteBooks, ControlNet, TTS, Voice Cloning, AI, AI News, ML, ML News, News, Tech, Tech News, Kohya LoRA, Kandinsky 2, DeepFloyd IF, Midjourney</t>
@@ -4420,7 +4420,7 @@
     <t>openlm-research/open_llama</t>
   </si>
   <si>
-    <t>🔠,🚌,💰</t>
+    <t>🔠🚌💰</t>
   </si>
   <si>
     <t>In this repo, we release a permissively licensed open source reproduction of Meta AI's LLaMA large language model.</t>
@@ -4441,7 +4441,7 @@
     <t>replit/ReplitLM</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌</t>
+    <t>🔠⛽🚌</t>
   </si>
   <si>
     <t>Inference code and configs for the ReplitLM model family</t>
@@ -4531,7 +4531,7 @@
     <t>OpenBuddy/OpenBuddy</t>
   </si>
   <si>
-    <t>🔠,🚌,🀄</t>
+    <t>🔠🚌🀄</t>
   </si>
   <si>
     <t>Open Multilingual Chatbot for Everyone</t>
@@ -4552,7 +4552,7 @@
     <t>mosaicml/diffusion</t>
   </si>
   <si>
-    <t>🖼️,2️⃣</t>
+    <t>🖼️2️⃣</t>
   </si>
   <si>
     <t>This repo contains code used to train your own Stable Diffusion model on your own data.</t>
@@ -4741,7 +4741,7 @@
     <t>THUDM/VisualGLM-6B</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,🚌,2️⃣,✂️,🀄</t>
+    <t>🔠🖼️⛽🚌2️⃣✂️🀄</t>
   </si>
   <si>
     <t>Chinese and English multimodal conversational language model \| 多模态中英双语对话语言模型</t>
@@ -4780,7 +4780,7 @@
     <t>minosvasilias/godot-dodo</t>
   </si>
   <si>
-    <t>🔠,🚕,2️⃣</t>
+    <t>🔠🚕2️⃣</t>
   </si>
   <si>
     <t>Finetuning large language models for GDScript generation.</t>
@@ -4792,7 +4792,7 @@
     <t>nlpxucan/WizardLM</t>
   </si>
   <si>
-    <t>Family of instruction-following LLMs powered by Evol-Instruct: WizardLM, WizardCoder</t>
+    <t>Family of instruction-following LLMs powered by Evol-Instruct: WizardLM, WizardCoder and WizardMath</t>
   </si>
   <si>
     <t>https://github.com/nlpxucan/WizardLM</t>
@@ -4861,7 +4861,7 @@
     <t>lvwzhen/law-cn-ai</t>
   </si>
   <si>
-    <t>🔠,⛽,📱,🀄</t>
+    <t>🔠⛽📱🀄</t>
   </si>
   <si>
     <t>⚖️ AI 法律助手</t>
@@ -4888,7 +4888,7 @@
     <t>voidful/awesome-chatgpt-dataset</t>
   </si>
   <si>
-    <t>🔠,⛽,📝</t>
+    <t>🔠⛽📝</t>
   </si>
   <si>
     <t>Unlock the Power of LLM: Explore These Datasets to Train Your Own ChatGPT!</t>
@@ -4984,7 +4984,7 @@
     <t>RiseInRose/MiniGPT-4-ZH</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,2️⃣,✂️</t>
+    <t>🔠🖼️🚌2️⃣✂️</t>
   </si>
   <si>
     <t>MiniGPT-4 中文部署翻译 完善部署细节</t>
@@ -5050,7 +5050,7 @@
     <t>modal-labs/quillman</t>
   </si>
   <si>
-    <t>🔠,🎵,🔨</t>
+    <t>🔠🎵🔨</t>
   </si>
   <si>
     <t>A chat app that transcribes audio in real-time, streams back a response from a language model, and synthesizes this response as natural-sounding speech.</t>
@@ -5074,7 +5074,7 @@
     <t>kaqijiang/Auto-GPT-ZH</t>
   </si>
   <si>
-    <t>🔠,📱,🀄</t>
+    <t>🔠📱🀄</t>
   </si>
   <si>
     <t>Auto-GPT中文版本及爱好者组织 同步更新原项目 AI领域创业 自媒体组织 用AI工作学习创作变现</t>
@@ -5125,7 +5125,7 @@
     <t>h2oai/h2o-llmstudio</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,💰</t>
+    <t>🔠⛽🚌2️⃣💰</t>
   </si>
   <si>
     <t>H2O LLM Studio - a framework and no-code GUI for fine-tuning LLMs. Documentation: https://h2oai.github.io/h2o-llmstudio/</t>
@@ -5137,7 +5137,7 @@
     <t>haotian-liu/LLaVA</t>
   </si>
   <si>
-    <t>🔠,🖼️,⛽,🚌,1️⃣,2️⃣</t>
+    <t>🔠🖼️⛽🚌1️⃣2️⃣</t>
   </si>
   <si>
     <t>Large Language-and-Vision Assistant built towards multimodal GPT-4 level capabilities.</t>
@@ -5200,7 +5200,7 @@
     <t>OpenLMLab/MOSS</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,✂️,💰,🀄</t>
+    <t>🔠⛽🚌✂️💰🀄</t>
   </si>
   <si>
     <t>An open-source tool-augmented conversational language model from Fudan University</t>
@@ -5212,7 +5212,7 @@
     <t>Vision-CAIR/MiniGPT-4</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,1️⃣,2️⃣</t>
+    <t>🔠🖼️🚌1️⃣2️⃣</t>
   </si>
   <si>
     <t>MiniGPT-4: Enhancing Vision-language Understanding with Advanced Large Language Models</t>
@@ -5329,7 +5329,7 @@
     <t>Anything-of-anything/Anything-3D</t>
   </si>
   <si>
-    <t>🖼️,`📱`,🧊</t>
+    <t>🖼️`📱`🧊</t>
   </si>
   <si>
     <t>Segment-Anything + 3D. Let's lift anything to 3D.</t>
@@ -5398,7 +5398,7 @@
     <t>langgenius/dify</t>
   </si>
   <si>
-    <t>🔠,⛽,2️⃣,📱</t>
+    <t>🔠⛽2️⃣📱</t>
   </si>
   <si>
     <t>One API for plugins and datasets, one interface for prompt engineering and visual operation, all for creating powerful AI applications.</t>
@@ -5461,7 +5461,7 @@
     <t>declare-lab/tango</t>
   </si>
   <si>
-    <t>🔠,🎵,🚌,2️⃣</t>
+    <t>🔠🎵🚌2️⃣</t>
   </si>
   <si>
     <t>Codes and Model of the paper "Text-to-Audio Generation using Instruction Tuned LLM and Latent Diffusion Model"</t>
@@ -5530,7 +5530,7 @@
     <t>geekyutao/Inpaint-Anything</t>
   </si>
   <si>
-    <t>🖼️,🎥,🚌,🧊</t>
+    <t>🖼️🎥🚌🧊</t>
   </si>
   <si>
     <t>Inpaint anything using Segment Anything and inpainting models.</t>
@@ -5572,7 +5572,7 @@
     <t>hiyouga/ChatGLM-Efficient-Tuning</t>
   </si>
   <si>
-    <t>🔠,⛽,2️⃣,3️⃣,🀄</t>
+    <t>🔠⛽2️⃣3️⃣🀄</t>
   </si>
   <si>
     <t>Fine-tuning ChatGLM-6B with PEFT \| 基于 PEFT 的高效 ChatGLM 微调</t>
@@ -5605,7 +5605,7 @@
     <t>ajndkr/lanarky</t>
   </si>
   <si>
-    <t>🔠,🔨,📱</t>
+    <t>🔠🔨📱</t>
   </si>
   <si>
     <t>FastAPI framework to build production-grade LLM applications</t>
@@ -5635,7 +5635,7 @@
     <t>suno-ai/bark</t>
   </si>
   <si>
-    <t>🔠,🎵,🚌,💰</t>
+    <t>🔠🎵🚌💰</t>
   </si>
   <si>
     <t>🔊 Text-Prompted Generative Audio Model</t>
@@ -5668,7 +5668,7 @@
     <t>Instruction-Tuning-with-GPT-4/GPT-4-LLM</t>
   </si>
   <si>
-    <t>🔠,⛽,2️⃣</t>
+    <t>🔠⛽2️⃣</t>
   </si>
   <si>
     <t>Instruction Tuning with GPT-4</t>
@@ -5689,7 +5689,7 @@
     <t>liucongg/ChatGLM-Finetuning</t>
   </si>
   <si>
-    <t>🔠,2️⃣,🀄</t>
+    <t>🔠2️⃣🀄</t>
   </si>
   <si>
     <t>基于ChatGLM-6B、ChatGLM2-6B模型，进行下游具体任务微调，涉及Freeze、Lora、P-tuning、全参微调等</t>
@@ -5701,7 +5701,7 @@
     <t>openai/plugins-quickstart</t>
   </si>
   <si>
-    <t>🔠,📝,🔌</t>
+    <t>🔠📝🔌</t>
   </si>
   <si>
     <t>Get a ChatGPT plugin up and running in under 5 minutes!</t>
@@ -5812,7 +5812,7 @@
     <t>VideoCrafter/VideoCrafter</t>
   </si>
   <si>
-    <t>🔠,🎥,🚌,`2️⃣`</t>
+    <t>🔠🎥🚌`2️⃣`</t>
   </si>
   <si>
     <t>A Toolkit for Text-to-Video Generation and Editing</t>
@@ -5869,7 +5869,7 @@
     <t>yangjianxin1/Firefly</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,✂️,🀄</t>
+    <t>🔠⛽🚌2️⃣✂️🀄</t>
   </si>
   <si>
     <t>Firefly(流萤): 中文对话式大语言模型(全量微调+QLoRA)，支持微调Llma2、Llama、Qwen、Baichuan、ChatGLM2、InternLM、Ziya、Bloom等大模型</t>
@@ -5884,7 +5884,7 @@
     <t>FreedomIntelligence/LLMZoo</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,2️⃣,✂️,📝</t>
+    <t>🔠⛽🚌2️⃣✂️📝</t>
   </si>
   <si>
     <t>⚡LLM Zoo is a project that provides data, models, and evaluation benchmark for large language models.⚡</t>
@@ -5905,7 +5905,7 @@
     <t>THUDM/ImageReward</t>
   </si>
   <si>
-    <t>🔠,🖼️,3️⃣,🔌</t>
+    <t>🔠🖼️3️⃣🔌</t>
   </si>
   <si>
     <t>ImageReward: Learning and Evaluating Human Preferences for Text-to-image Generation</t>
@@ -6049,7 +6049,7 @@
     <t>AetherCortex/Llama-X</t>
   </si>
   <si>
-    <t>🔠,`🚌`,2️⃣</t>
+    <t>🔠`🚌`2️⃣</t>
   </si>
   <si>
     <t>Open Academic Research on Improving LLaMA to SOTA LLM</t>
@@ -6367,7 +6367,7 @@
     <t>h2oai/h2ogpt</t>
   </si>
   <si>
-    <t>🔠,🚌,2️⃣,💰</t>
+    <t>🔠🚌2️⃣💰</t>
   </si>
   <si>
     <t>Private Q&amp;A and summarization of documents+images or chat with local GPT, 100% private, Apache 2.0. Supports LLaMa2, llama.cpp, and more. Demo: https://gpt.h2o.ai/</t>
@@ -6418,7 +6418,7 @@
     <t>Facico/Chinese-Vicuna</t>
   </si>
   <si>
-    <t>🔠,🚌,2️⃣,✂️,🀄</t>
+    <t>🔠🚌2️⃣✂️🀄</t>
   </si>
   <si>
     <t>Chinese-Vicuna: A Chinese Instruction-following LLaMA-based Model —— 一个中文低资源的llama+lora方案，结构参考alpaca</t>
@@ -6439,7 +6439,7 @@
     <t>junshutang/Make-It-3D</t>
   </si>
   <si>
-    <t>🖼️,🚌,`2️⃣`,🧊</t>
+    <t>🖼️🚌`2️⃣`🧊</t>
   </si>
   <si>
     <t>[ICCV 2023] Make-It-3D: High-Fidelity 3D Creation from A Single Image with Diffusion Prior</t>
@@ -6472,7 +6472,7 @@
     <t>Lightning-AI/lit-llama</t>
   </si>
   <si>
-    <t>🔠,🚌,1️⃣,2️⃣,✂️,💰</t>
+    <t>🔠🚌1️⃣2️⃣✂️💰</t>
   </si>
   <si>
     <t>Implementation of the LLaMA language model based on nanoGPT. Supports flash attention, Int8 and GPTQ 4bit quantization, LoRA and LLaMA-Adapter fine-tuning, pre-training. Apache 2.0-licensed.</t>
@@ -6559,7 +6559,7 @@
     <t>CVI-SZU/Linly</t>
   </si>
   <si>
-    <t>🔠,⛽,🚌,1️⃣,2️⃣,`3️⃣`,✂️,💡,💰,🀄</t>
+    <t>🔠⛽🚌1️⃣2️⃣`3️⃣`✂️💡💰🀄</t>
   </si>
   <si>
     <t>Chinese-LLaMA 1&amp;2、Chinese-Falcon 基础模型；ChatFlow中文对话模型；中文OpenLLaMA模型；NLP预训练/指令微调数据集</t>
@@ -6667,7 +6667,7 @@
     <t>lukasHoel/text2room</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,🧊</t>
+    <t>🔠🖼️🚌🧊</t>
   </si>
   <si>
     <t>Text2Room generates textured 3D meshes from a given text prompt using 2D text-to-image models (ICCV2023).</t>
@@ -6697,7 +6697,7 @@
     <t>yzfly/awesome-chatgpt-zh</t>
   </si>
   <si>
-    <t>🔠,📝,🀄</t>
+    <t>🔠📝🀄</t>
   </si>
   <si>
     <t>ChatGPT 中文指南🔥，ChatGPT 中文调教指南，指令指南，应用开发指南，精选资源清单，更好的使用 chatGPT 让你的生产力 up up up! 🚀</t>
@@ -6778,7 +6778,7 @@
     <t>camenduru/text-to-video-synthesis-colab</t>
   </si>
   <si>
-    <t>🔠,🎥,🔨</t>
+    <t>🔠🎥🔨</t>
   </si>
   <si>
     <t>Text To Video Synthesis Colab</t>
@@ -6817,7 +6817,7 @@
     <t>kabachuha/sd-webui-text2video</t>
   </si>
   <si>
-    <t>🖼️,🎥,🔌</t>
+    <t>🖼️🎥🔌</t>
   </si>
   <si>
     <t>Auto1111 extension implementing text2video diffusion models (like ModelScope or VideoCrafter) using only Auto1111 webui dependencies</t>
@@ -6988,7 +6988,7 @@
     <t>cvlab-columbia/zero123</t>
   </si>
   <si>
-    <t>🖼️,2️⃣,🧊</t>
+    <t>🖼️2️⃣🧊</t>
   </si>
   <si>
     <t>Zero-1-to-3: Zero-shot One Image to 3D Object (ICCV 2023)</t>
@@ -7009,7 +7009,7 @@
     <t>hikariming/alpaca_chinese_dataset</t>
   </si>
   <si>
-    <t>🔠,⛽,2️⃣,🀄</t>
+    <t>🔠⛽2️⃣🀄</t>
   </si>
   <si>
     <t>人工精调的中文对话数据集和一段chatglm的微调代码</t>
@@ -7051,7 +7051,7 @@
     <t>AIGC-Audio/AudioGPT</t>
   </si>
   <si>
-    <t>🔠,🎵,🚌</t>
+    <t>🔠🎵🚌</t>
   </si>
   <si>
     <t>AudioGPT: Understanding and Generating Speech, Music, Sound, and Talking Head</t>
@@ -7183,7 +7183,7 @@
     <t>microsoft/MM-REACT</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎥,📱</t>
+    <t>🔠🖼️🎥📱</t>
   </si>
   <si>
     <t>Official repo for MM-REACT</t>
@@ -7204,7 +7204,7 @@
     <t>ymcui/Chinese-LLaMA-Alpaca</t>
   </si>
   <si>
-    <t>🔠,1️⃣,2️⃣,✂️,💡,🀄</t>
+    <t>🔠1️⃣2️⃣✂️💡🀄</t>
   </si>
   <si>
     <t>中文LLaMA&amp;Alpaca大语言模型+本地CPU/GPU训练部署 (Chinese LLaMA &amp; Alpaca LLMs)</t>
@@ -7267,7 +7267,7 @@
     <t>KU-CVLAB/3DFuse</t>
   </si>
   <si>
-    <t>🖼️,🚌,🧊</t>
+    <t>🖼️🚌🧊</t>
   </si>
   <si>
     <t>Official implementation of "Let 2D Diffusion Model Know 3D-Consistency for Robust Text-to-3D Generation"</t>
@@ -7480,7 +7480,7 @@
     <t>IDEA-Research/GroundingDINO</t>
   </si>
   <si>
-    <t>🔠,🖼️,🚌,`2️⃣`</t>
+    <t>🔠🖼️🚌`2️⃣`</t>
   </si>
   <si>
     <t>Official implementation of the paper "Grounding DINO: Marrying DINO with Grounded Pre-Training for Open-Set Object Detection"</t>
@@ -7732,7 +7732,7 @@
     <t>e2b-dev/e2b</t>
   </si>
   <si>
-    <t>Dashboard for the e2b platform - Operating System for AI Agents</t>
+    <t>Monorepo for E2B - Operating System for AI Agents</t>
   </si>
   <si>
     <t>https://github.com/e2b-dev/e2b</t>
@@ -7786,7 +7786,7 @@
     <t>yxlllc/DDSP-SVC</t>
   </si>
   <si>
-    <t>🎵,⛽,🚌,2️⃣</t>
+    <t>🎵⛽🚌2️⃣</t>
   </si>
   <si>
     <t>Real-time end-to-end singing voice conversion system based on DDSP (Differentiable Digital Signal Processing)</t>
@@ -7936,7 +7936,7 @@
     <t>sanchit-gandhi/whisper-jax</t>
   </si>
   <si>
-    <t>🎵,❓</t>
+    <t>🎵❓</t>
   </si>
   <si>
     <t>JAX implementation of OpenAI's Whisper model for up to 70x speed-up on TPU.</t>
@@ -8062,7 +8062,7 @@
     <t>juncongmoo/chatllama</t>
   </si>
   <si>
-    <t>🔠,3️⃣</t>
+    <t>🔠3️⃣</t>
   </si>
   <si>
     <t>ChatLLaMA 📢 Open source implementation for LLaMA-based ChatGPT runnable in a single GPU. 15x faster training process than ChatGPT</t>
@@ -8104,7 +8104,7 @@
     <t>JimmyLv/BibiGPT</t>
   </si>
   <si>
-    <t>🔠,🎵,🎥,📱</t>
+    <t>🔠🎵🎥📱</t>
   </si>
   <si>
     <t>BibiGPT v1 · one-Click AI Summary for Audio/Video &amp; Chat with Learning Content: Bilibili \| YouTube \| Tweet丨TikTok丨Local files \| Websites丨Podcasts \| Meetings \| Lectures, etc. 音视频内容 AI 一键总结 &amp; 对话：哔哩哔哩丨YouTube丨推特丨小红书丨抖音丨网页丨播客丨会议丨本地文件等 (原 BiliGPT 省流神器 &amp; 课代表)</t>
@@ -8152,7 +8152,7 @@
     <t>openai/consistency_models</t>
   </si>
   <si>
-    <t>🖼️,🚌,2️⃣,✂️</t>
+    <t>🖼️🚌2️⃣✂️</t>
   </si>
   <si>
     <t>Official repo for consistency models.</t>
@@ -8281,7 +8281,7 @@
     <t>prompt-engineering/understand-prompt</t>
   </si>
   <si>
-    <t>🔠,🖼️,📝</t>
+    <t>🔠🖼️📝</t>
   </si>
   <si>
     <t>【🔞🔞🔞 内含不适合未成年人阅读的图片】基于我擅长的编程、绘画、写作展开的 AI 探索和总结：StableDiffusion 是一种强大的图像生成模型，能够通过对一张图片进行演化来生成新的图片。ChatGPT 是一个基于 Transformer 的语言生成模型，它能够自动为输入的主题生成合适的文章。而 Github Copilot 是一个智能编程助手，能够加速日常编程活动。</t>
@@ -8440,7 +8440,7 @@
     <t>AI4Finance-Foundation/FinGPT</t>
   </si>
   <si>
-    <t>🔠,⛽,🚕,🀄</t>
+    <t>🔠⛽🚕🀄</t>
   </si>
   <si>
     <t>Data-Centric FinGPT.  Open-source for open finance!  Revolutionize 🔥    We'll soon release the trained model.</t>
@@ -8674,7 +8674,7 @@
     <t>lucidrains/musiclm-pytorch</t>
   </si>
   <si>
-    <t>🎵,🚌,2️⃣,✂️</t>
+    <t>🎵🚌2️⃣✂️</t>
   </si>
   <si>
     <t>Implementation of MusicLM, Google's new SOTA model for music generation using attention networks, in Pytorch</t>
@@ -9037,7 +9037,7 @@
     <t>RockChinQ/QChatGPT</t>
   </si>
   <si>
-    <t xml:space="preserve">😎高稳定性、🐒低耦合、🧩支持插件、适配多种模型的 ChatGPT QQ 机器人🤖 \| 支持 ChatGPT 实时联网搜索 </t>
+    <t>😎高稳定性、🐒低耦合、🧩支持插件、适配多种模型的 ChatGPT QQ 机器人🤖 \| 支持 ChatGPT 实时联网搜索 \| 支持 Claude 和 Google Bard</t>
   </si>
   <si>
     <t>https://github.com/RockChinQ/QChatGPT</t>
@@ -9283,7 +9283,7 @@
     <t>riffusion/riffusion</t>
   </si>
   <si>
-    <t>🖼️,🎵,📱</t>
+    <t>🖼️🎵📱</t>
   </si>
   <si>
     <t>Stable diffusion for real-time music generation</t>
@@ -9298,7 +9298,7 @@
     <t>OpenTalker/SadTalker</t>
   </si>
   <si>
-    <t>🖼️,🎵,🎥,🚌,`2️⃣`</t>
+    <t>🖼️🎵🎥🚌`2️⃣`</t>
   </si>
   <si>
     <t>[CVPR 2023] SadTalker：Learning Realistic 3D Motion Coefficients for Stylized Audio-Driven Single Image Talking Face Animation</t>
@@ -9310,7 +9310,7 @@
     <t>Stability-AI/stablediffusion</t>
   </si>
   <si>
-    <t>🖼️,⛽,🚌</t>
+    <t>🖼️⛽🚌</t>
   </si>
   <si>
     <t>High-Resolution Image Synthesis with Latent Diffusion Models</t>
@@ -9415,7 +9415,7 @@
     <t>mlfoundations/open_flamingo</t>
   </si>
   <si>
-    <t>🔠,🖼️,`🎥`,⛽,🚌,2️⃣</t>
+    <t>🔠🖼️`🎥`⛽🚌2️⃣</t>
   </si>
   <si>
     <t>An open-source framework for training large multimodal models.</t>
@@ -9442,7 +9442,7 @@
     <t>MubertAI/Mubert-Text-to-Music</t>
   </si>
   <si>
-    <t>🔠,🎵,🎥,📝</t>
+    <t>🔠🎵🎥📝</t>
   </si>
   <si>
     <t>A simple notebook demonstrating prompt-based music generation via Mubert API</t>
@@ -9580,7 +9580,7 @@
     <t>ggerganov/whisper.cpp</t>
   </si>
   <si>
-    <t>🎵,🚌,✂️</t>
+    <t>🎵🚌✂️</t>
   </si>
   <si>
     <t>Port of OpenAI's Whisper model in C/C++</t>
@@ -9649,7 +9649,7 @@
     <t>THUDM/CodeGeeX</t>
   </si>
   <si>
-    <t>🔠,🚕</t>
+    <t>🔠🚕</t>
   </si>
   <si>
     <t>CodeGeeX: An Open Multilingual Code Generation Model (KDD 2023)</t>
@@ -9898,7 +9898,7 @@
     <t>modelscope/modelscope</t>
   </si>
   <si>
-    <t>🔠,🖼️,🎵,2️⃣</t>
+    <t>🔠🖼️🎵2️⃣</t>
   </si>
   <si>
     <t>ModelScope: bring the notion of Model-as-a-Service to life.</t>
@@ -9961,7 +9961,7 @@
     <t>huggingface/diffusers</t>
   </si>
   <si>
-    <t>🖼️,🎵,2️⃣,📝</t>
+    <t>🖼️🎵2️⃣📝</t>
   </si>
   <si>
     <t>🤗 Diffusers: State-of-the-art diffusion models for image and audio generation in PyTorch</t>
@@ -10343,7 +10343,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -10360,7 +10360,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>396</v>
+        <v>907</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -10377,7 +10377,7 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>1029</v>
+        <v>1836</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -10394,7 +10394,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>685</v>
+        <v>795</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -10408,7 +10408,7 @@
         <v>26</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -10425,7 +10425,7 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -10442,7 +10442,7 @@
         <v>36</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -10459,7 +10459,7 @@
         <v>41</v>
       </c>
       <c r="C9">
-        <v>763</v>
+        <v>793</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -10476,7 +10476,7 @@
         <v>45</v>
       </c>
       <c r="C10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -10493,7 +10493,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -10510,7 +10510,7 @@
         <v>53</v>
       </c>
       <c r="C12">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
@@ -10527,7 +10527,7 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <v>3038</v>
+        <v>3102</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -10544,7 +10544,7 @@
         <v>61</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -10561,7 +10561,7 @@
         <v>66</v>
       </c>
       <c r="C15">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
@@ -10595,7 +10595,7 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
@@ -10612,7 +10612,7 @@
         <v>79</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>77</v>
@@ -10629,7 +10629,7 @@
         <v>82</v>
       </c>
       <c r="C19">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -10646,7 +10646,7 @@
         <v>85</v>
       </c>
       <c r="C20">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -10663,7 +10663,7 @@
         <v>90</v>
       </c>
       <c r="C21">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
         <v>88</v>
@@ -10680,7 +10680,7 @@
         <v>94</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>92</v>
@@ -10697,7 +10697,7 @@
         <v>98</v>
       </c>
       <c r="C23">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>96</v>
@@ -10714,7 +10714,7 @@
         <v>102</v>
       </c>
       <c r="C24">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -10731,7 +10731,7 @@
         <v>106</v>
       </c>
       <c r="C25">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
         <v>104</v>
@@ -10748,7 +10748,7 @@
         <v>110</v>
       </c>
       <c r="C26">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
@@ -10765,7 +10765,7 @@
         <v>113</v>
       </c>
       <c r="C27">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -10782,7 +10782,7 @@
         <v>117</v>
       </c>
       <c r="C28">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -10816,7 +10816,7 @@
         <v>124</v>
       </c>
       <c r="C30">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -10833,7 +10833,7 @@
         <v>128</v>
       </c>
       <c r="C31">
-        <v>1650</v>
+        <v>1673</v>
       </c>
       <c r="D31" t="s">
         <v>126</v>
@@ -10850,7 +10850,7 @@
         <v>133</v>
       </c>
       <c r="C32">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
         <v>131</v>
@@ -10867,7 +10867,7 @@
         <v>137</v>
       </c>
       <c r="C33">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="D33" t="s">
         <v>135</v>
@@ -10884,7 +10884,7 @@
         <v>140</v>
       </c>
       <c r="C34">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -10901,7 +10901,7 @@
         <v>143</v>
       </c>
       <c r="C35">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
@@ -10918,7 +10918,7 @@
         <v>146</v>
       </c>
       <c r="C36">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
@@ -10952,7 +10952,7 @@
         <v>153</v>
       </c>
       <c r="C38">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D38" t="s">
         <v>108</v>
@@ -10969,7 +10969,7 @@
         <v>156</v>
       </c>
       <c r="C39">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
@@ -10986,7 +10986,7 @@
         <v>159</v>
       </c>
       <c r="C40">
-        <v>1362</v>
+        <v>1373</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
@@ -11003,7 +11003,7 @@
         <v>162</v>
       </c>
       <c r="C41">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
@@ -11020,7 +11020,7 @@
         <v>165</v>
       </c>
       <c r="C42">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -11037,7 +11037,7 @@
         <v>169</v>
       </c>
       <c r="C43">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
@@ -11054,7 +11054,7 @@
         <v>171</v>
       </c>
       <c r="C44">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -11068,7 +11068,7 @@
         <v>174</v>
       </c>
       <c r="C45">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -11085,7 +11085,7 @@
         <v>179</v>
       </c>
       <c r="C46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>177</v>
@@ -11102,7 +11102,7 @@
         <v>182</v>
       </c>
       <c r="C47">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
@@ -11136,7 +11136,7 @@
         <v>188</v>
       </c>
       <c r="C49">
-        <v>7608</v>
+        <v>9096</v>
       </c>
       <c r="D49" t="s">
         <v>24</v>
@@ -11153,7 +11153,7 @@
         <v>191</v>
       </c>
       <c r="C50">
-        <v>10781</v>
+        <v>10831</v>
       </c>
       <c r="D50" t="s">
         <v>96</v>
@@ -11184,7 +11184,7 @@
         <v>197</v>
       </c>
       <c r="C52">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="D52" t="s">
         <v>96</v>
@@ -11201,7 +11201,7 @@
         <v>202</v>
       </c>
       <c r="C53">
-        <v>1243</v>
+        <v>1250</v>
       </c>
       <c r="D53" t="s">
         <v>200</v>
@@ -11218,7 +11218,7 @@
         <v>206</v>
       </c>
       <c r="C54">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
         <v>204</v>
@@ -11252,7 +11252,7 @@
         <v>213</v>
       </c>
       <c r="C56">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D56" t="s">
         <v>211</v>
@@ -11269,7 +11269,7 @@
         <v>218</v>
       </c>
       <c r="C57">
-        <v>1538</v>
+        <v>1554</v>
       </c>
       <c r="D57" t="s">
         <v>216</v>
@@ -11286,7 +11286,7 @@
         <v>221</v>
       </c>
       <c r="C58">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
@@ -11320,7 +11320,7 @@
         <v>228</v>
       </c>
       <c r="C60">
-        <v>1361</v>
+        <v>1373</v>
       </c>
       <c r="D60" t="s">
         <v>126</v>
@@ -11337,7 +11337,7 @@
         <v>232</v>
       </c>
       <c r="C61">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D61" t="s">
         <v>230</v>
@@ -11354,7 +11354,7 @@
         <v>235</v>
       </c>
       <c r="C62">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="D62" t="s">
         <v>43</v>
@@ -11371,7 +11371,7 @@
         <v>239</v>
       </c>
       <c r="C63">
-        <v>3566</v>
+        <v>3611</v>
       </c>
       <c r="D63" t="s">
         <v>216</v>
@@ -11388,7 +11388,7 @@
         <v>242</v>
       </c>
       <c r="C64">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
         <v>126</v>
@@ -11405,7 +11405,7 @@
         <v>245</v>
       </c>
       <c r="C65">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
@@ -11439,7 +11439,7 @@
         <v>252</v>
       </c>
       <c r="C67">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="D67" t="s">
         <v>250</v>
@@ -11456,7 +11456,7 @@
         <v>255</v>
       </c>
       <c r="C68">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
         <v>43</v>
@@ -11473,7 +11473,7 @@
         <v>258</v>
       </c>
       <c r="C69">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
         <v>43</v>
@@ -11490,7 +11490,7 @@
         <v>261</v>
       </c>
       <c r="C70">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
         <v>43</v>
@@ -11507,7 +11507,7 @@
         <v>265</v>
       </c>
       <c r="C71">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
         <v>263</v>
@@ -11524,7 +11524,7 @@
         <v>269</v>
       </c>
       <c r="C72">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -11541,7 +11541,7 @@
         <v>273</v>
       </c>
       <c r="C73">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" t="s">
         <v>271</v>
@@ -11558,7 +11558,7 @@
         <v>277</v>
       </c>
       <c r="C74">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
         <v>275</v>
@@ -11592,7 +11592,7 @@
         <v>284</v>
       </c>
       <c r="C76">
-        <v>2099</v>
+        <v>2156</v>
       </c>
       <c r="D76" t="s">
         <v>282</v>
@@ -11609,7 +11609,7 @@
         <v>289</v>
       </c>
       <c r="C77">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D77" t="s">
         <v>287</v>
@@ -11626,7 +11626,7 @@
         <v>292</v>
       </c>
       <c r="C78">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D78" t="s">
         <v>34</v>
@@ -11643,7 +11643,7 @@
         <v>296</v>
       </c>
       <c r="C79">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
         <v>294</v>
@@ -11660,7 +11660,7 @@
         <v>299</v>
       </c>
       <c r="C80">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
         <v>131</v>
@@ -11677,7 +11677,7 @@
         <v>303</v>
       </c>
       <c r="C81">
-        <v>2833</v>
+        <v>2862</v>
       </c>
       <c r="D81" t="s">
         <v>301</v>
@@ -11711,7 +11711,7 @@
         <v>309</v>
       </c>
       <c r="C83">
-        <v>568</v>
+        <v>659</v>
       </c>
       <c r="D83" t="s">
         <v>96</v>
@@ -11728,7 +11728,7 @@
         <v>312</v>
       </c>
       <c r="C84">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
@@ -11745,7 +11745,7 @@
         <v>316</v>
       </c>
       <c r="C85">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
         <v>43</v>
@@ -11762,7 +11762,7 @@
         <v>319</v>
       </c>
       <c r="C86">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
         <v>43</v>
@@ -11779,7 +11779,7 @@
         <v>322</v>
       </c>
       <c r="C87">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
@@ -11830,7 +11830,7 @@
         <v>331</v>
       </c>
       <c r="C90">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
         <v>72</v>
@@ -11881,7 +11881,7 @@
         <v>343</v>
       </c>
       <c r="C93">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D93" t="s">
         <v>96</v>
@@ -11915,7 +11915,7 @@
         <v>349</v>
       </c>
       <c r="C95">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
@@ -11932,7 +11932,7 @@
         <v>353</v>
       </c>
       <c r="C96">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
         <v>351</v>
@@ -11997,7 +11997,7 @@
         <v>366</v>
       </c>
       <c r="C100">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D100" t="s">
         <v>364</v>
@@ -12014,7 +12014,7 @@
         <v>370</v>
       </c>
       <c r="C101">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D101" t="s">
         <v>43</v>
@@ -12031,7 +12031,7 @@
         <v>373</v>
       </c>
       <c r="C102">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
         <v>338</v>
@@ -12048,7 +12048,7 @@
         <v>377</v>
       </c>
       <c r="C103">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
         <v>375</v>
@@ -12065,7 +12065,7 @@
         <v>381</v>
       </c>
       <c r="C104">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
         <v>379</v>
@@ -12099,7 +12099,7 @@
         <v>389</v>
       </c>
       <c r="C106">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
         <v>387</v>
@@ -12133,7 +12133,7 @@
         <v>395</v>
       </c>
       <c r="C108">
-        <v>1249</v>
+        <v>1278</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -12150,7 +12150,7 @@
         <v>398</v>
       </c>
       <c r="C109">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D109" t="s">
         <v>43</v>
@@ -12167,7 +12167,7 @@
         <v>401</v>
       </c>
       <c r="C110">
-        <v>3432</v>
+        <v>4946</v>
       </c>
       <c r="D110" t="s">
         <v>43</v>
@@ -12201,7 +12201,7 @@
         <v>407</v>
       </c>
       <c r="C112">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -12218,7 +12218,7 @@
         <v>410</v>
       </c>
       <c r="C113">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -12235,7 +12235,7 @@
         <v>414</v>
       </c>
       <c r="C114">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
         <v>412</v>
@@ -12252,7 +12252,7 @@
         <v>417</v>
       </c>
       <c r="C115">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
         <v>34</v>
@@ -12269,7 +12269,7 @@
         <v>422</v>
       </c>
       <c r="C116">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D116" t="s">
         <v>420</v>
@@ -12286,7 +12286,7 @@
         <v>426</v>
       </c>
       <c r="C117">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
         <v>34</v>
@@ -12320,7 +12320,7 @@
         <v>433</v>
       </c>
       <c r="C119">
-        <v>2262</v>
+        <v>2275</v>
       </c>
       <c r="D119" t="s">
         <v>431</v>
@@ -12337,7 +12337,7 @@
         <v>436</v>
       </c>
       <c r="C120">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
         <v>96</v>
@@ -12354,7 +12354,7 @@
         <v>439</v>
       </c>
       <c r="C121">
-        <v>2406</v>
+        <v>2432</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -12371,7 +12371,7 @@
         <v>442</v>
       </c>
       <c r="C122">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -12422,7 +12422,7 @@
         <v>452</v>
       </c>
       <c r="C125">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="D125" t="s">
         <v>43</v>
@@ -12439,7 +12439,7 @@
         <v>456</v>
       </c>
       <c r="C126">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D126" t="s">
         <v>34</v>
@@ -12456,7 +12456,7 @@
         <v>459</v>
       </c>
       <c r="C127">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D127" t="s">
         <v>211</v>
@@ -12473,7 +12473,7 @@
         <v>462</v>
       </c>
       <c r="C128">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D128" t="s">
         <v>34</v>
@@ -12524,7 +12524,7 @@
         <v>474</v>
       </c>
       <c r="C131">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="D131" t="s">
         <v>55</v>
@@ -12541,7 +12541,7 @@
         <v>477</v>
       </c>
       <c r="C132">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="D132" t="s">
         <v>301</v>
@@ -12558,7 +12558,7 @@
         <v>481</v>
       </c>
       <c r="C133">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D133" t="s">
         <v>479</v>
@@ -12606,7 +12606,7 @@
         <v>491</v>
       </c>
       <c r="C136">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D136" t="s">
         <v>489</v>
@@ -12623,7 +12623,7 @@
         <v>494</v>
       </c>
       <c r="C137">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
@@ -12674,7 +12674,7 @@
         <v>504</v>
       </c>
       <c r="C140">
-        <v>1530</v>
+        <v>1554</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
@@ -12691,7 +12691,7 @@
         <v>508</v>
       </c>
       <c r="C141">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="D141" t="s">
         <v>506</v>
@@ -12708,7 +12708,7 @@
         <v>511</v>
       </c>
       <c r="C142">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D142" t="s">
         <v>126</v>
@@ -12725,7 +12725,7 @@
         <v>514</v>
       </c>
       <c r="C143">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D143" t="s">
         <v>24</v>
@@ -12742,7 +12742,7 @@
         <v>519</v>
       </c>
       <c r="C144">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D144" t="s">
         <v>517</v>
@@ -12759,7 +12759,7 @@
         <v>522</v>
       </c>
       <c r="C145">
-        <v>4322</v>
+        <v>4334</v>
       </c>
       <c r="D145" t="s">
         <v>43</v>
@@ -12776,7 +12776,7 @@
         <v>524</v>
       </c>
       <c r="C146">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D146" t="s">
         <v>387</v>
@@ -12790,7 +12790,7 @@
         <v>528</v>
       </c>
       <c r="C147">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D147" t="s">
         <v>526</v>
@@ -12841,7 +12841,7 @@
         <v>540</v>
       </c>
       <c r="C150">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D150" t="s">
         <v>34</v>
@@ -12858,7 +12858,7 @@
         <v>543</v>
       </c>
       <c r="C151">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D151" t="s">
         <v>16</v>
@@ -12909,7 +12909,7 @@
         <v>554</v>
       </c>
       <c r="C154">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
         <v>552</v>
@@ -12960,7 +12960,7 @@
         <v>565</v>
       </c>
       <c r="C157">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D157" t="s">
         <v>563</v>
@@ -12977,7 +12977,7 @@
         <v>568</v>
       </c>
       <c r="C158">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D158" t="s">
         <v>24</v>
@@ -12994,7 +12994,7 @@
         <v>571</v>
       </c>
       <c r="C159">
-        <v>19863</v>
+        <v>20649</v>
       </c>
       <c r="D159" t="s">
         <v>24</v>
@@ -13028,7 +13028,7 @@
         <v>579</v>
       </c>
       <c r="C161">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D161" t="s">
         <v>577</v>
@@ -13079,7 +13079,7 @@
         <v>590</v>
       </c>
       <c r="C164">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D164" t="s">
         <v>588</v>
@@ -13096,7 +13096,7 @@
         <v>593</v>
       </c>
       <c r="C165">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D165" t="s">
         <v>43</v>
@@ -13130,7 +13130,7 @@
         <v>600</v>
       </c>
       <c r="C167">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D167" t="s">
         <v>598</v>
@@ -13164,7 +13164,7 @@
         <v>607</v>
       </c>
       <c r="C169">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D169" t="s">
         <v>24</v>
@@ -13181,7 +13181,7 @@
         <v>611</v>
       </c>
       <c r="C170">
-        <v>3285</v>
+        <v>3303</v>
       </c>
       <c r="D170" t="s">
         <v>609</v>
@@ -13249,7 +13249,7 @@
         <v>625</v>
       </c>
       <c r="C174">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D174" t="s">
         <v>126</v>
@@ -13266,7 +13266,7 @@
         <v>628</v>
       </c>
       <c r="C175">
-        <v>4701</v>
+        <v>4712</v>
       </c>
       <c r="D175" t="s">
         <v>131</v>
@@ -13283,7 +13283,7 @@
         <v>631</v>
       </c>
       <c r="C176">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
@@ -13334,7 +13334,7 @@
         <v>641</v>
       </c>
       <c r="C179">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D179" t="s">
         <v>639</v>
@@ -13351,7 +13351,7 @@
         <v>644</v>
       </c>
       <c r="C180">
-        <v>5066</v>
+        <v>5202</v>
       </c>
       <c r="D180" t="s">
         <v>43</v>
@@ -13368,7 +13368,7 @@
         <v>647</v>
       </c>
       <c r="C181">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D181" t="s">
         <v>24</v>
@@ -13385,7 +13385,7 @@
         <v>651</v>
       </c>
       <c r="C182">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D182" t="s">
         <v>24</v>
@@ -13402,7 +13402,7 @@
         <v>654</v>
       </c>
       <c r="C183">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="D183" t="s">
         <v>126</v>
@@ -13419,7 +13419,7 @@
         <v>657</v>
       </c>
       <c r="C184">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D184" t="s">
         <v>24</v>
@@ -13436,7 +13436,7 @@
         <v>661</v>
       </c>
       <c r="C185">
-        <v>6174</v>
+        <v>6179</v>
       </c>
       <c r="D185" t="s">
         <v>24</v>
@@ -13453,7 +13453,7 @@
         <v>664</v>
       </c>
       <c r="C186">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D186" t="s">
         <v>20</v>
@@ -13487,7 +13487,7 @@
         <v>671</v>
       </c>
       <c r="C188">
-        <v>11271</v>
+        <v>11337</v>
       </c>
       <c r="D188" t="s">
         <v>669</v>
@@ -13504,7 +13504,7 @@
         <v>675</v>
       </c>
       <c r="C189">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
         <v>24</v>
@@ -13521,7 +13521,7 @@
         <v>678</v>
       </c>
       <c r="C190">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D190" t="s">
         <v>24</v>
@@ -13572,7 +13572,7 @@
         <v>688</v>
       </c>
       <c r="C193">
-        <v>8394</v>
+        <v>8431</v>
       </c>
       <c r="D193" t="s">
         <v>530</v>
@@ -13589,7 +13589,7 @@
         <v>691</v>
       </c>
       <c r="C194">
-        <v>5104</v>
+        <v>5115</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
@@ -13606,7 +13606,7 @@
         <v>694</v>
       </c>
       <c r="C195">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D195" t="s">
         <v>92</v>
@@ -13640,7 +13640,7 @@
         <v>700</v>
       </c>
       <c r="C197">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D197" t="s">
         <v>34</v>
@@ -13657,7 +13657,7 @@
         <v>704</v>
       </c>
       <c r="C198">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D198" t="s">
         <v>24</v>
@@ -13691,7 +13691,7 @@
         <v>712</v>
       </c>
       <c r="C200">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D200" t="s">
         <v>710</v>
@@ -13708,7 +13708,7 @@
         <v>715</v>
       </c>
       <c r="C201">
-        <v>6650</v>
+        <v>6682</v>
       </c>
       <c r="D201" t="s">
         <v>24</v>
@@ -13725,7 +13725,7 @@
         <v>717</v>
       </c>
       <c r="C202">
-        <v>3856</v>
+        <v>3865</v>
       </c>
       <c r="D202" t="s">
         <v>24</v>
@@ -13759,7 +13759,7 @@
         <v>723</v>
       </c>
       <c r="C204">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="D204" t="s">
         <v>43</v>
@@ -13776,7 +13776,7 @@
         <v>726</v>
       </c>
       <c r="C205">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D205" t="s">
         <v>24</v>
@@ -13793,7 +13793,7 @@
         <v>729</v>
       </c>
       <c r="C206">
-        <v>5970</v>
+        <v>5993</v>
       </c>
       <c r="D206" t="s">
         <v>43</v>
@@ -13810,7 +13810,7 @@
         <v>732</v>
       </c>
       <c r="C207">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="D207" t="s">
         <v>24</v>
@@ -13827,7 +13827,7 @@
         <v>735</v>
       </c>
       <c r="C208">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D208" t="s">
         <v>43</v>
@@ -13844,7 +13844,7 @@
         <v>739</v>
       </c>
       <c r="C209">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D209" t="s">
         <v>20</v>
@@ -13861,7 +13861,7 @@
         <v>742</v>
       </c>
       <c r="C210">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D210" t="s">
         <v>24</v>
@@ -13878,7 +13878,7 @@
         <v>745</v>
       </c>
       <c r="C211">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="D211" t="s">
         <v>24</v>
@@ -13912,7 +13912,7 @@
         <v>752</v>
       </c>
       <c r="C213">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D213" t="s">
         <v>24</v>
@@ -13946,7 +13946,7 @@
         <v>760</v>
       </c>
       <c r="C215">
-        <v>2769</v>
+        <v>2781</v>
       </c>
       <c r="D215" t="s">
         <v>758</v>
@@ -13980,7 +13980,7 @@
         <v>766</v>
       </c>
       <c r="C217">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D217" t="s">
         <v>43</v>
@@ -13997,7 +13997,7 @@
         <v>769</v>
       </c>
       <c r="C218">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D218" t="s">
         <v>34</v>
@@ -14014,7 +14014,7 @@
         <v>772</v>
       </c>
       <c r="C219">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="D219" t="s">
         <v>16</v>
@@ -14048,7 +14048,7 @@
         <v>780</v>
       </c>
       <c r="C221">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D221" t="s">
         <v>778</v>
@@ -14065,7 +14065,7 @@
         <v>783</v>
       </c>
       <c r="C222">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D222" t="s">
         <v>375</v>
@@ -14099,7 +14099,7 @@
         <v>791</v>
       </c>
       <c r="C224">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D224" t="s">
         <v>789</v>
@@ -14133,7 +14133,7 @@
         <v>798</v>
       </c>
       <c r="C226">
-        <v>4887</v>
+        <v>4896</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -14167,7 +14167,7 @@
         <v>804</v>
       </c>
       <c r="C228">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="D228" t="s">
         <v>43</v>
@@ -14201,7 +14201,7 @@
         <v>811</v>
       </c>
       <c r="C230">
-        <v>4236</v>
+        <v>4339</v>
       </c>
       <c r="D230" t="s">
         <v>24</v>
@@ -14218,7 +14218,7 @@
         <v>814</v>
       </c>
       <c r="C231">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D231" t="s">
         <v>96</v>
@@ -14235,7 +14235,7 @@
         <v>819</v>
       </c>
       <c r="C232">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D232" t="s">
         <v>817</v>
@@ -14252,7 +14252,7 @@
         <v>822</v>
       </c>
       <c r="C233">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D233" t="s">
         <v>126</v>
@@ -14269,7 +14269,7 @@
         <v>826</v>
       </c>
       <c r="C234">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D234" t="s">
         <v>271</v>
@@ -14286,7 +14286,7 @@
         <v>830</v>
       </c>
       <c r="C235">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="D235" t="s">
         <v>828</v>
@@ -14303,7 +14303,7 @@
         <v>833</v>
       </c>
       <c r="C236">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D236" t="s">
         <v>535</v>
@@ -14320,7 +14320,7 @@
         <v>837</v>
       </c>
       <c r="C237">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D237" t="s">
         <v>24</v>
@@ -14337,7 +14337,7 @@
         <v>842</v>
       </c>
       <c r="C238">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D238" t="s">
         <v>840</v>
@@ -14368,7 +14368,7 @@
         <v>848</v>
       </c>
       <c r="C240">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D240" t="s">
         <v>24</v>
@@ -14402,7 +14402,7 @@
         <v>854</v>
       </c>
       <c r="C242">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D242" t="s">
         <v>24</v>
@@ -14419,7 +14419,7 @@
         <v>859</v>
       </c>
       <c r="C243">
-        <v>14769</v>
+        <v>14849</v>
       </c>
       <c r="D243" t="s">
         <v>857</v>
@@ -14436,7 +14436,7 @@
         <v>863</v>
       </c>
       <c r="C244">
-        <v>4616</v>
+        <v>4631</v>
       </c>
       <c r="D244" t="s">
         <v>639</v>
@@ -14453,7 +14453,7 @@
         <v>866</v>
       </c>
       <c r="C245">
-        <v>821</v>
+        <v>842</v>
       </c>
       <c r="D245" t="s">
         <v>24</v>
@@ -14470,7 +14470,7 @@
         <v>870</v>
       </c>
       <c r="C246">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D246" t="s">
         <v>387</v>
@@ -14487,7 +14487,7 @@
         <v>873</v>
       </c>
       <c r="C247">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D247" t="s">
         <v>271</v>
@@ -14521,7 +14521,7 @@
         <v>881</v>
       </c>
       <c r="C249">
-        <v>4408</v>
+        <v>4417</v>
       </c>
       <c r="D249" t="s">
         <v>552</v>
@@ -14538,7 +14538,7 @@
         <v>884</v>
       </c>
       <c r="C250">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D250" t="s">
         <v>431</v>
@@ -14555,7 +14555,7 @@
         <v>888</v>
       </c>
       <c r="C251">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D251" t="s">
         <v>886</v>
@@ -14572,7 +14572,7 @@
         <v>891</v>
       </c>
       <c r="C252">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D252" t="s">
         <v>271</v>
@@ -14589,7 +14589,7 @@
         <v>895</v>
       </c>
       <c r="C253">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="D253" t="s">
         <v>43</v>
@@ -14606,7 +14606,7 @@
         <v>898</v>
       </c>
       <c r="C254">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D254" t="s">
         <v>364</v>
@@ -14623,7 +14623,7 @@
         <v>901</v>
       </c>
       <c r="C255">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D255" t="s">
         <v>34</v>
@@ -14640,7 +14640,7 @@
         <v>904</v>
       </c>
       <c r="C256">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D256" t="s">
         <v>43</v>
@@ -14657,7 +14657,7 @@
         <v>907</v>
       </c>
       <c r="C257">
-        <v>4693</v>
+        <v>4709</v>
       </c>
       <c r="D257" t="s">
         <v>43</v>
@@ -14708,7 +14708,7 @@
         <v>918</v>
       </c>
       <c r="C260">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D260" t="s">
         <v>135</v>
@@ -14725,7 +14725,7 @@
         <v>922</v>
       </c>
       <c r="C261">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D261" t="s">
         <v>24</v>
@@ -14742,7 +14742,7 @@
         <v>926</v>
       </c>
       <c r="C262">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="D262" t="s">
         <v>924</v>
@@ -14776,7 +14776,7 @@
         <v>933</v>
       </c>
       <c r="C264">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D264" t="s">
         <v>271</v>
@@ -14793,7 +14793,7 @@
         <v>937</v>
       </c>
       <c r="C265">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D265" t="s">
         <v>24</v>
@@ -14810,7 +14810,7 @@
         <v>940</v>
       </c>
       <c r="C266">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D266" t="s">
         <v>24</v>
@@ -14827,7 +14827,7 @@
         <v>943</v>
       </c>
       <c r="C267">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D267" t="s">
         <v>34</v>
@@ -14844,7 +14844,7 @@
         <v>947</v>
       </c>
       <c r="C268">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D268" t="s">
         <v>945</v>
@@ -14895,7 +14895,7 @@
         <v>957</v>
       </c>
       <c r="C271">
-        <v>4391</v>
+        <v>4408</v>
       </c>
       <c r="D271" t="s">
         <v>43</v>
@@ -14929,7 +14929,7 @@
         <v>967</v>
       </c>
       <c r="C273">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D273" t="s">
         <v>965</v>
@@ -14997,7 +14997,7 @@
         <v>980</v>
       </c>
       <c r="C277">
-        <v>2626</v>
+        <v>2703</v>
       </c>
       <c r="D277" t="s">
         <v>978</v>
@@ -15048,7 +15048,7 @@
         <v>990</v>
       </c>
       <c r="C280">
-        <v>18621</v>
+        <v>18800</v>
       </c>
       <c r="D280" t="s">
         <v>988</v>
@@ -15065,7 +15065,7 @@
         <v>994</v>
       </c>
       <c r="C281">
-        <v>3919</v>
+        <v>3929</v>
       </c>
       <c r="D281" t="s">
         <v>24</v>
@@ -15082,7 +15082,7 @@
         <v>997</v>
       </c>
       <c r="C282">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="D282" t="s">
         <v>24</v>
@@ -15116,7 +15116,7 @@
         <v>1004</v>
       </c>
       <c r="C284">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="D284" t="s">
         <v>1002</v>
@@ -15150,7 +15150,7 @@
         <v>1010</v>
       </c>
       <c r="C286">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D286" t="s">
         <v>126</v>
@@ -15167,7 +15167,7 @@
         <v>1014</v>
       </c>
       <c r="C287">
-        <v>14670</v>
+        <v>14726</v>
       </c>
       <c r="D287" t="s">
         <v>24</v>
@@ -15184,7 +15184,7 @@
         <v>1017</v>
       </c>
       <c r="C288">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="D288" t="s">
         <v>43</v>
@@ -15201,7 +15201,7 @@
         <v>1020</v>
       </c>
       <c r="C289">
-        <v>2718</v>
+        <v>2736</v>
       </c>
       <c r="D289" t="s">
         <v>24</v>
@@ -15235,7 +15235,7 @@
         <v>1026</v>
       </c>
       <c r="C291">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D291" t="s">
         <v>840</v>
@@ -15252,7 +15252,7 @@
         <v>1029</v>
       </c>
       <c r="C292">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D292" t="s">
         <v>64</v>
@@ -15269,7 +15269,7 @@
         <v>1034</v>
       </c>
       <c r="C293">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D293" t="s">
         <v>1032</v>
@@ -15286,7 +15286,7 @@
         <v>1037</v>
       </c>
       <c r="C294">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D294" t="s">
         <v>11</v>
@@ -15303,7 +15303,7 @@
         <v>1040</v>
       </c>
       <c r="C295">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D295" t="s">
         <v>72</v>
@@ -15337,7 +15337,7 @@
         <v>1046</v>
       </c>
       <c r="C297">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="D297" t="s">
         <v>96</v>
@@ -15354,7 +15354,7 @@
         <v>1050</v>
       </c>
       <c r="C298">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D298" t="s">
         <v>1048</v>
@@ -15371,7 +15371,7 @@
         <v>1053</v>
       </c>
       <c r="C299">
-        <v>4021</v>
+        <v>4036</v>
       </c>
       <c r="D299" t="s">
         <v>43</v>
@@ -15439,7 +15439,7 @@
         <v>1066</v>
       </c>
       <c r="C303">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D303" t="s">
         <v>988</v>
@@ -15456,7 +15456,7 @@
         <v>1069</v>
       </c>
       <c r="C304">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D304" t="s">
         <v>126</v>
@@ -15490,7 +15490,7 @@
         <v>1076</v>
       </c>
       <c r="C306">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D306" t="s">
         <v>34</v>
@@ -15524,7 +15524,7 @@
         <v>1083</v>
       </c>
       <c r="C308">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="D308" t="s">
         <v>43</v>
@@ -15541,7 +15541,7 @@
         <v>1086</v>
       </c>
       <c r="C309">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D309" t="s">
         <v>24</v>
@@ -15558,7 +15558,7 @@
         <v>1090</v>
       </c>
       <c r="C310">
-        <v>3349</v>
+        <v>3357</v>
       </c>
       <c r="D310" t="s">
         <v>126</v>
@@ -15592,7 +15592,7 @@
         <v>1097</v>
       </c>
       <c r="C312">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="D312" t="s">
         <v>387</v>
@@ -15609,7 +15609,7 @@
         <v>1100</v>
       </c>
       <c r="C313">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D313" t="s">
         <v>34</v>
@@ -15626,7 +15626,7 @@
         <v>1103</v>
       </c>
       <c r="C314">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D314" t="s">
         <v>16</v>
@@ -15643,7 +15643,7 @@
         <v>1107</v>
       </c>
       <c r="C315">
-        <v>1328</v>
+        <v>1335</v>
       </c>
       <c r="D315" t="s">
         <v>24</v>
@@ -15660,7 +15660,7 @@
         <v>1111</v>
       </c>
       <c r="C316">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D316" t="s">
         <v>1109</v>
@@ -15677,7 +15677,7 @@
         <v>1114</v>
       </c>
       <c r="C317">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D317" t="s">
         <v>34</v>
@@ -15694,7 +15694,7 @@
         <v>1118</v>
       </c>
       <c r="C318">
-        <v>7506</v>
+        <v>7563</v>
       </c>
       <c r="D318" t="s">
         <v>1116</v>
@@ -15711,7 +15711,7 @@
         <v>1122</v>
       </c>
       <c r="C319">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D319" t="s">
         <v>1120</v>
@@ -15728,7 +15728,7 @@
         <v>1125</v>
       </c>
       <c r="C320">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D320" t="s">
         <v>24</v>
@@ -15779,7 +15779,7 @@
         <v>1134</v>
       </c>
       <c r="C323">
-        <v>2520</v>
+        <v>2532</v>
       </c>
       <c r="D323" t="s">
         <v>43</v>
@@ -15898,7 +15898,7 @@
         <v>1159</v>
       </c>
       <c r="C330">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D330" t="s">
         <v>1157</v>
@@ -15915,7 +15915,7 @@
         <v>1163</v>
       </c>
       <c r="C331">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D331" t="s">
         <v>1161</v>
@@ -15949,7 +15949,7 @@
         <v>1170</v>
       </c>
       <c r="C333">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D333" t="s">
         <v>1168</v>
@@ -16000,7 +16000,7 @@
         <v>1181</v>
       </c>
       <c r="C336">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D336" t="s">
         <v>1179</v>
@@ -16034,7 +16034,7 @@
         <v>1188</v>
       </c>
       <c r="C338">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D338" t="s">
         <v>24</v>
@@ -16051,7 +16051,7 @@
         <v>1192</v>
       </c>
       <c r="C339">
-        <v>2932</v>
+        <v>2939</v>
       </c>
       <c r="D339" t="s">
         <v>1190</v>
@@ -16068,7 +16068,7 @@
         <v>1195</v>
       </c>
       <c r="C340">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="D340" t="s">
         <v>34</v>
@@ -16136,7 +16136,7 @@
         <v>1210</v>
       </c>
       <c r="C344">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D344" t="s">
         <v>34</v>
@@ -16170,7 +16170,7 @@
         <v>1217</v>
       </c>
       <c r="C346">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D346" t="s">
         <v>108</v>
@@ -16204,7 +16204,7 @@
         <v>1224</v>
       </c>
       <c r="C348">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D348" t="s">
         <v>43</v>
@@ -16238,7 +16238,7 @@
         <v>1233</v>
       </c>
       <c r="C350">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D350" t="s">
         <v>1231</v>
@@ -16255,7 +16255,7 @@
         <v>1236</v>
       </c>
       <c r="C351">
-        <v>11505</v>
+        <v>11537</v>
       </c>
       <c r="D351" t="s">
         <v>24</v>
@@ -16286,7 +16286,7 @@
         <v>1241</v>
       </c>
       <c r="C353">
-        <v>1725</v>
+        <v>1746</v>
       </c>
       <c r="D353" t="s">
         <v>96</v>
@@ -16303,7 +16303,7 @@
         <v>1245</v>
       </c>
       <c r="C354">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="D354" t="s">
         <v>1078</v>
@@ -16320,7 +16320,7 @@
         <v>1248</v>
       </c>
       <c r="C355">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D355" t="s">
         <v>387</v>
@@ -16337,7 +16337,7 @@
         <v>1251</v>
       </c>
       <c r="C356">
-        <v>19886</v>
+        <v>19927</v>
       </c>
       <c r="D356" t="s">
         <v>24</v>
@@ -16354,7 +16354,7 @@
         <v>1255</v>
       </c>
       <c r="C357">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="D357" t="s">
         <v>1253</v>
@@ -16371,7 +16371,7 @@
         <v>1258</v>
       </c>
       <c r="C358">
-        <v>2841</v>
+        <v>2932</v>
       </c>
       <c r="D358" t="s">
         <v>24</v>
@@ -16388,7 +16388,7 @@
         <v>1261</v>
       </c>
       <c r="C359">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="D359" t="s">
         <v>24</v>
@@ -16422,7 +16422,7 @@
         <v>1267</v>
       </c>
       <c r="C361">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D361" t="s">
         <v>43</v>
@@ -16439,7 +16439,7 @@
         <v>1272</v>
       </c>
       <c r="C362">
-        <v>7123</v>
+        <v>7135</v>
       </c>
       <c r="D362" t="s">
         <v>1270</v>
@@ -16456,7 +16456,7 @@
         <v>1275</v>
       </c>
       <c r="C363">
-        <v>4070</v>
+        <v>4076</v>
       </c>
       <c r="D363" t="s">
         <v>43</v>
@@ -16473,7 +16473,7 @@
         <v>1278</v>
       </c>
       <c r="C364">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="D364" t="s">
         <v>886</v>
@@ -16490,7 +16490,7 @@
         <v>1281</v>
       </c>
       <c r="C365">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D365" t="s">
         <v>20</v>
@@ -16524,7 +16524,7 @@
         <v>1289</v>
       </c>
       <c r="C367">
-        <v>2074</v>
+        <v>2132</v>
       </c>
       <c r="D367" t="s">
         <v>24</v>
@@ -16541,7 +16541,7 @@
         <v>1292</v>
       </c>
       <c r="C368">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="D368" t="s">
         <v>43</v>
@@ -16558,7 +16558,7 @@
         <v>1295</v>
       </c>
       <c r="C369">
-        <v>2946</v>
+        <v>2954</v>
       </c>
       <c r="D369" t="s">
         <v>43</v>
@@ -16575,7 +16575,7 @@
         <v>1298</v>
       </c>
       <c r="C370">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D370" t="s">
         <v>844</v>
@@ -16592,7 +16592,7 @@
         <v>1302</v>
       </c>
       <c r="C371">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D371" t="s">
         <v>24</v>
@@ -16609,7 +16609,7 @@
         <v>1305</v>
       </c>
       <c r="C372">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D372" t="s">
         <v>24</v>
@@ -16626,7 +16626,7 @@
         <v>1308</v>
       </c>
       <c r="C373">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D373" t="s">
         <v>43</v>
@@ -16643,7 +16643,7 @@
         <v>1311</v>
       </c>
       <c r="C374">
-        <v>3222</v>
+        <v>3249</v>
       </c>
       <c r="D374" t="s">
         <v>24</v>
@@ -16660,7 +16660,7 @@
         <v>1315</v>
       </c>
       <c r="C375">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="D375" t="s">
         <v>43</v>
@@ -16677,7 +16677,7 @@
         <v>1318</v>
       </c>
       <c r="C376">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="D376" t="s">
         <v>16</v>
@@ -16694,7 +16694,7 @@
         <v>1321</v>
       </c>
       <c r="C377">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="D377" t="s">
         <v>131</v>
@@ -16711,7 +16711,7 @@
         <v>1324</v>
       </c>
       <c r="C378">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D378" t="s">
         <v>43</v>
@@ -16728,7 +16728,7 @@
         <v>1328</v>
       </c>
       <c r="C379">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D379" t="s">
         <v>301</v>
@@ -16745,7 +16745,7 @@
         <v>1332</v>
       </c>
       <c r="C380">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D380" t="s">
         <v>43</v>
@@ -16762,7 +16762,7 @@
         <v>1336</v>
       </c>
       <c r="C381">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="D381" t="s">
         <v>1334</v>
@@ -16796,7 +16796,7 @@
         <v>1342</v>
       </c>
       <c r="C383">
-        <v>2546</v>
+        <v>2558</v>
       </c>
       <c r="D383" t="s">
         <v>43</v>
@@ -16830,7 +16830,7 @@
         <v>1348</v>
       </c>
       <c r="C385">
-        <v>1219</v>
+        <v>1246</v>
       </c>
       <c r="D385" t="s">
         <v>24</v>
@@ -16847,7 +16847,7 @@
         <v>1352</v>
       </c>
       <c r="C386">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="D386" t="s">
         <v>68</v>
@@ -16881,7 +16881,7 @@
         <v>1359</v>
       </c>
       <c r="C388">
-        <v>7686</v>
+        <v>7699</v>
       </c>
       <c r="D388" t="s">
         <v>1357</v>
@@ -16898,7 +16898,7 @@
         <v>1362</v>
       </c>
       <c r="C389">
-        <v>2434</v>
+        <v>2441</v>
       </c>
       <c r="D389" t="s">
         <v>43</v>
@@ -16915,7 +16915,7 @@
         <v>1365</v>
       </c>
       <c r="C390">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D390" t="s">
         <v>24</v>
@@ -16932,7 +16932,7 @@
         <v>1370</v>
       </c>
       <c r="C391">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="D391" t="s">
         <v>1368</v>
@@ -16949,7 +16949,7 @@
         <v>1373</v>
       </c>
       <c r="C392">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="D392" t="s">
         <v>530</v>
@@ -16966,7 +16966,7 @@
         <v>1376</v>
       </c>
       <c r="C393">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D393" t="s">
         <v>840</v>
@@ -16983,7 +16983,7 @@
         <v>1379</v>
       </c>
       <c r="C394">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="D394" t="s">
         <v>271</v>
@@ -17000,7 +17000,7 @@
         <v>1382</v>
       </c>
       <c r="C395">
-        <v>6295</v>
+        <v>6305</v>
       </c>
       <c r="D395" t="s">
         <v>126</v>
@@ -17017,7 +17017,7 @@
         <v>1386</v>
       </c>
       <c r="C396">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D396" t="s">
         <v>301</v>
@@ -17034,7 +17034,7 @@
         <v>1389</v>
       </c>
       <c r="C397">
-        <v>7758</v>
+        <v>7773</v>
       </c>
       <c r="D397" t="s">
         <v>43</v>
@@ -17068,7 +17068,7 @@
         <v>1395</v>
       </c>
       <c r="C399">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D399" t="s">
         <v>43</v>
@@ -17085,7 +17085,7 @@
         <v>1398</v>
       </c>
       <c r="C400">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D400" t="s">
         <v>43</v>
@@ -17102,7 +17102,7 @@
         <v>1401</v>
       </c>
       <c r="C401">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D401" t="s">
         <v>840</v>
@@ -17119,7 +17119,7 @@
         <v>1406</v>
       </c>
       <c r="C402">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="D402" t="s">
         <v>1404</v>
@@ -17136,7 +17136,7 @@
         <v>1409</v>
       </c>
       <c r="C403">
-        <v>35510</v>
+        <v>35677</v>
       </c>
       <c r="D403" t="s">
         <v>24</v>
@@ -17187,7 +17187,7 @@
         <v>1418</v>
       </c>
       <c r="C406">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D406" t="s">
         <v>24</v>
@@ -17204,7 +17204,7 @@
         <v>1423</v>
       </c>
       <c r="C407">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D407" t="s">
         <v>1421</v>
@@ -17221,7 +17221,7 @@
         <v>1426</v>
       </c>
       <c r="C408">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D408" t="s">
         <v>34</v>
@@ -17289,7 +17289,7 @@
         <v>1440</v>
       </c>
       <c r="C412">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="D412" t="s">
         <v>24</v>
@@ -17306,7 +17306,7 @@
         <v>1443</v>
       </c>
       <c r="C413">
-        <v>40937</v>
+        <v>41009</v>
       </c>
       <c r="D413" t="s">
         <v>24</v>
@@ -17323,7 +17323,7 @@
         <v>1446</v>
       </c>
       <c r="C414">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D414" t="s">
         <v>11</v>
@@ -17340,7 +17340,7 @@
         <v>1449</v>
       </c>
       <c r="C415">
-        <v>11724</v>
+        <v>11799</v>
       </c>
       <c r="D415" t="s">
         <v>96</v>
@@ -17391,7 +17391,7 @@
         <v>1459</v>
       </c>
       <c r="C418">
-        <v>5920</v>
+        <v>5933</v>
       </c>
       <c r="D418" t="s">
         <v>34</v>
@@ -17425,7 +17425,7 @@
         <v>1465</v>
       </c>
       <c r="C420">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="D420" t="s">
         <v>301</v>
@@ -17442,7 +17442,7 @@
         <v>1469</v>
       </c>
       <c r="C421">
-        <v>6476</v>
+        <v>6484</v>
       </c>
       <c r="D421" t="s">
         <v>1467</v>
@@ -17459,7 +17459,7 @@
         <v>1472</v>
       </c>
       <c r="C422">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="D422" t="s">
         <v>126</v>
@@ -17476,7 +17476,7 @@
         <v>1476</v>
       </c>
       <c r="C423">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="D423" t="s">
         <v>1474</v>
@@ -17493,7 +17493,7 @@
         <v>1479</v>
       </c>
       <c r="C424">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D424" t="s">
         <v>24</v>
@@ -17510,7 +17510,7 @@
         <v>1483</v>
       </c>
       <c r="C425">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D425" t="s">
         <v>530</v>
@@ -17527,7 +17527,7 @@
         <v>1486</v>
       </c>
       <c r="C426">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D426" t="s">
         <v>24</v>
@@ -17561,7 +17561,7 @@
         <v>1492</v>
       </c>
       <c r="C428">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D428" t="s">
         <v>131</v>
@@ -17578,7 +17578,7 @@
         <v>1496</v>
       </c>
       <c r="C429">
-        <v>2404</v>
+        <v>2409</v>
       </c>
       <c r="D429" t="s">
         <v>43</v>
@@ -17595,7 +17595,7 @@
         <v>1499</v>
       </c>
       <c r="C430">
-        <v>1866</v>
+        <v>1883</v>
       </c>
       <c r="D430" t="s">
         <v>16</v>
@@ -17612,7 +17612,7 @@
         <v>1502</v>
       </c>
       <c r="C431">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D431" t="s">
         <v>43</v>
@@ -17629,7 +17629,7 @@
         <v>1506</v>
       </c>
       <c r="C432">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D432" t="s">
         <v>1504</v>
@@ -17646,7 +17646,7 @@
         <v>1509</v>
       </c>
       <c r="C433">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="D433" t="s">
         <v>43</v>
@@ -17680,7 +17680,7 @@
         <v>1516</v>
       </c>
       <c r="C435">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="D435" t="s">
         <v>72</v>
@@ -17714,7 +17714,7 @@
         <v>1523</v>
       </c>
       <c r="C437">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D437" t="s">
         <v>24</v>
@@ -17748,7 +17748,7 @@
         <v>1529</v>
       </c>
       <c r="C439">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="D439" t="s">
         <v>613</v>
@@ -17782,7 +17782,7 @@
         <v>1535</v>
       </c>
       <c r="C441">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D441" t="s">
         <v>24</v>
@@ -17799,7 +17799,7 @@
         <v>1538</v>
       </c>
       <c r="C442">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D442" t="s">
         <v>24</v>
@@ -17816,7 +17816,7 @@
         <v>1542</v>
       </c>
       <c r="C443">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D443" t="s">
         <v>24</v>
@@ -17833,7 +17833,7 @@
         <v>1545</v>
       </c>
       <c r="C444">
-        <v>6061</v>
+        <v>6072</v>
       </c>
       <c r="D444" t="s">
         <v>64</v>
@@ -17850,7 +17850,7 @@
         <v>1548</v>
       </c>
       <c r="C445">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="D445" t="s">
         <v>387</v>
@@ -17867,7 +17867,7 @@
         <v>1551</v>
       </c>
       <c r="C446">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="D446" t="s">
         <v>24</v>
@@ -17884,7 +17884,7 @@
         <v>1554</v>
       </c>
       <c r="C447">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="D447" t="s">
         <v>387</v>
@@ -17918,7 +17918,7 @@
         <v>1560</v>
       </c>
       <c r="C449">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D449" t="s">
         <v>34</v>
@@ -17949,7 +17949,7 @@
         <v>1566</v>
       </c>
       <c r="C451">
-        <v>5983</v>
+        <v>5993</v>
       </c>
       <c r="D451" t="s">
         <v>34</v>
@@ -18000,7 +18000,7 @@
         <v>1576</v>
       </c>
       <c r="C454">
-        <v>3192</v>
+        <v>3199</v>
       </c>
       <c r="D454" t="s">
         <v>1574</v>
@@ -18017,7 +18017,7 @@
         <v>1579</v>
       </c>
       <c r="C455">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D455" t="s">
         <v>43</v>
@@ -18034,7 +18034,7 @@
         <v>1582</v>
       </c>
       <c r="C456">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D456" t="s">
         <v>43</v>
@@ -18085,7 +18085,7 @@
         <v>1592</v>
       </c>
       <c r="C459">
-        <v>4720</v>
+        <v>4840</v>
       </c>
       <c r="D459" t="s">
         <v>840</v>
@@ -18119,7 +18119,7 @@
         <v>1599</v>
       </c>
       <c r="C461">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D461" t="s">
         <v>552</v>
@@ -18136,7 +18136,7 @@
         <v>1602</v>
       </c>
       <c r="C462">
-        <v>2840</v>
+        <v>2898</v>
       </c>
       <c r="D462" t="s">
         <v>43</v>
@@ -18153,7 +18153,7 @@
         <v>1606</v>
       </c>
       <c r="C463">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D463" t="s">
         <v>24</v>
@@ -18170,7 +18170,7 @@
         <v>1609</v>
       </c>
       <c r="C464">
-        <v>6780</v>
+        <v>6789</v>
       </c>
       <c r="D464" t="s">
         <v>34</v>
@@ -18204,7 +18204,7 @@
         <v>1616</v>
       </c>
       <c r="C466">
-        <v>4400</v>
+        <v>4404</v>
       </c>
       <c r="D466" t="s">
         <v>1614</v>
@@ -18238,7 +18238,7 @@
         <v>1621</v>
       </c>
       <c r="C468">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D468" t="s">
         <v>131</v>
@@ -18252,7 +18252,7 @@
         <v>1625</v>
       </c>
       <c r="C469">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D469" t="s">
         <v>1623</v>
@@ -18286,7 +18286,7 @@
         <v>1632</v>
       </c>
       <c r="C471">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="D471" t="s">
         <v>1421</v>
@@ -18303,7 +18303,7 @@
         <v>1634</v>
       </c>
       <c r="C472">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="D472" t="s">
         <v>1078</v>
@@ -18317,7 +18317,7 @@
         <v>1637</v>
       </c>
       <c r="C473">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D473" t="s">
         <v>43</v>
@@ -18351,7 +18351,7 @@
         <v>1643</v>
       </c>
       <c r="C475">
-        <v>5066</v>
+        <v>5068</v>
       </c>
       <c r="D475" t="s">
         <v>577</v>
@@ -18368,7 +18368,7 @@
         <v>1646</v>
       </c>
       <c r="C476">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D476" t="s">
         <v>609</v>
@@ -18385,7 +18385,7 @@
         <v>1650</v>
       </c>
       <c r="C477">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="D477" t="s">
         <v>126</v>
@@ -18402,7 +18402,7 @@
         <v>1653</v>
       </c>
       <c r="C478">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="D478" t="s">
         <v>609</v>
@@ -18436,7 +18436,7 @@
         <v>1660</v>
       </c>
       <c r="C480">
-        <v>15285</v>
+        <v>15295</v>
       </c>
       <c r="D480" t="s">
         <v>55</v>
@@ -18453,7 +18453,7 @@
         <v>1663</v>
       </c>
       <c r="C481">
-        <v>5586</v>
+        <v>5599</v>
       </c>
       <c r="D481" t="s">
         <v>96</v>
@@ -18487,7 +18487,7 @@
         <v>1669</v>
       </c>
       <c r="C483">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D483" t="s">
         <v>1179</v>
@@ -18538,7 +18538,7 @@
         <v>1679</v>
       </c>
       <c r="C486">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D486" t="s">
         <v>1677</v>
@@ -18555,7 +18555,7 @@
         <v>1683</v>
       </c>
       <c r="C487">
-        <v>1953</v>
+        <v>1961</v>
       </c>
       <c r="D487" t="s">
         <v>43</v>
@@ -18572,7 +18572,7 @@
         <v>1687</v>
       </c>
       <c r="C488">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D488" t="s">
         <v>1685</v>
@@ -18589,7 +18589,7 @@
         <v>1690</v>
       </c>
       <c r="C489">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="D489" t="s">
         <v>24</v>
@@ -18606,7 +18606,7 @@
         <v>1693</v>
       </c>
       <c r="C490">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="D490" t="s">
         <v>43</v>
@@ -18623,7 +18623,7 @@
         <v>1697</v>
       </c>
       <c r="C491">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D491" t="s">
         <v>24</v>
@@ -18640,7 +18640,7 @@
         <v>1700</v>
       </c>
       <c r="C492">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="D492" t="s">
         <v>24</v>
@@ -18657,7 +18657,7 @@
         <v>1704</v>
       </c>
       <c r="C493">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="D493" t="s">
         <v>1702</v>
@@ -18674,7 +18674,7 @@
         <v>1708</v>
       </c>
       <c r="C494">
-        <v>4405</v>
+        <v>4418</v>
       </c>
       <c r="D494" t="s">
         <v>1706</v>
@@ -18691,7 +18691,7 @@
         <v>1711</v>
       </c>
       <c r="C495">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D495" t="s">
         <v>16</v>
@@ -18708,7 +18708,7 @@
         <v>1714</v>
       </c>
       <c r="C496">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="D496" t="s">
         <v>1071</v>
@@ -18725,7 +18725,7 @@
         <v>1717</v>
       </c>
       <c r="C497">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="D497" t="s">
         <v>24</v>
@@ -18759,7 +18759,7 @@
         <v>1725</v>
       </c>
       <c r="C499">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="D499" t="s">
         <v>24</v>
@@ -18776,7 +18776,7 @@
         <v>1729</v>
       </c>
       <c r="C500">
-        <v>11346</v>
+        <v>11347</v>
       </c>
       <c r="D500" t="s">
         <v>1727</v>
@@ -18793,7 +18793,7 @@
         <v>1733</v>
       </c>
       <c r="C501">
-        <v>22049</v>
+        <v>22064</v>
       </c>
       <c r="D501" t="s">
         <v>1731</v>
@@ -18810,7 +18810,7 @@
         <v>1736</v>
       </c>
       <c r="C502">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D502" t="s">
         <v>108</v>
@@ -18878,7 +18878,7 @@
         <v>1749</v>
       </c>
       <c r="C506">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D506" t="s">
         <v>24</v>
@@ -18895,7 +18895,7 @@
         <v>1752</v>
       </c>
       <c r="C507">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D507" t="s">
         <v>24</v>
@@ -18912,7 +18912,7 @@
         <v>1755</v>
       </c>
       <c r="C508">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="D508" t="s">
         <v>24</v>
@@ -18946,7 +18946,7 @@
         <v>1761</v>
       </c>
       <c r="C510">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D510" t="s">
         <v>24</v>
@@ -18963,7 +18963,7 @@
         <v>1764</v>
       </c>
       <c r="C511">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D511" t="s">
         <v>43</v>
@@ -18980,7 +18980,7 @@
         <v>1767</v>
       </c>
       <c r="C512">
-        <v>3375</v>
+        <v>3381</v>
       </c>
       <c r="D512" t="s">
         <v>1078</v>
@@ -18997,7 +18997,7 @@
         <v>1772</v>
       </c>
       <c r="C513">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="D513" t="s">
         <v>1770</v>
@@ -19014,7 +19014,7 @@
         <v>1775</v>
       </c>
       <c r="C514">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D514" t="s">
         <v>64</v>
@@ -19031,7 +19031,7 @@
         <v>1778</v>
       </c>
       <c r="C515">
-        <v>1596</v>
+        <v>1608</v>
       </c>
       <c r="D515" t="s">
         <v>271</v>
@@ -19048,7 +19048,7 @@
         <v>1781</v>
       </c>
       <c r="C516">
-        <v>5914</v>
+        <v>5929</v>
       </c>
       <c r="D516" t="s">
         <v>24</v>
@@ -19065,7 +19065,7 @@
         <v>1784</v>
       </c>
       <c r="C517">
-        <v>6883</v>
+        <v>6894</v>
       </c>
       <c r="D517" t="s">
         <v>96</v>
@@ -19082,7 +19082,7 @@
         <v>1787</v>
       </c>
       <c r="C518">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D518" t="s">
         <v>1078</v>
@@ -19099,7 +19099,7 @@
         <v>1791</v>
       </c>
       <c r="C519">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D519" t="s">
         <v>16</v>
@@ -19116,7 +19116,7 @@
         <v>1795</v>
       </c>
       <c r="C520">
-        <v>7026</v>
+        <v>7085</v>
       </c>
       <c r="D520" t="s">
         <v>1793</v>
@@ -19133,7 +19133,7 @@
         <v>1798</v>
       </c>
       <c r="C521">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D521" t="s">
         <v>11</v>
@@ -19150,7 +19150,7 @@
         <v>1802</v>
       </c>
       <c r="C522">
-        <v>1483</v>
+        <v>1492</v>
       </c>
       <c r="D522" t="s">
         <v>24</v>
@@ -19167,7 +19167,7 @@
         <v>1805</v>
       </c>
       <c r="C523">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="D523" t="s">
         <v>34</v>
@@ -19184,7 +19184,7 @@
         <v>1808</v>
       </c>
       <c r="C524">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D524" t="s">
         <v>24</v>
@@ -19201,7 +19201,7 @@
         <v>1812</v>
       </c>
       <c r="C525">
-        <v>2357</v>
+        <v>2362</v>
       </c>
       <c r="D525" t="s">
         <v>16</v>
@@ -19252,7 +19252,7 @@
         <v>1822</v>
       </c>
       <c r="C528">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D528" t="s">
         <v>24</v>
@@ -19269,7 +19269,7 @@
         <v>1825</v>
       </c>
       <c r="C529">
-        <v>1997</v>
+        <v>2007</v>
       </c>
       <c r="D529" t="s">
         <v>43</v>
@@ -19303,7 +19303,7 @@
         <v>1832</v>
       </c>
       <c r="C531">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D531" t="s">
         <v>43</v>
@@ -19320,7 +19320,7 @@
         <v>1835</v>
       </c>
       <c r="C532">
-        <v>3512</v>
+        <v>3517</v>
       </c>
       <c r="D532" t="s">
         <v>108</v>
@@ -19337,7 +19337,7 @@
         <v>1839</v>
       </c>
       <c r="C533">
-        <v>3910</v>
+        <v>3921</v>
       </c>
       <c r="D533" t="s">
         <v>1837</v>
@@ -19354,7 +19354,7 @@
         <v>1842</v>
       </c>
       <c r="C534">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="D534" t="s">
         <v>24</v>
@@ -19371,7 +19371,7 @@
         <v>1845</v>
       </c>
       <c r="C535">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="D535" t="s">
         <v>387</v>
@@ -19388,7 +19388,7 @@
         <v>1849</v>
       </c>
       <c r="C536">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="D536" t="s">
         <v>338</v>
@@ -19405,7 +19405,7 @@
         <v>1853</v>
       </c>
       <c r="C537">
-        <v>2842</v>
+        <v>2856</v>
       </c>
       <c r="D537" t="s">
         <v>1851</v>
@@ -19422,7 +19422,7 @@
         <v>1856</v>
       </c>
       <c r="C538">
-        <v>8715</v>
+        <v>8738</v>
       </c>
       <c r="D538" t="s">
         <v>43</v>
@@ -19439,7 +19439,7 @@
         <v>1860</v>
       </c>
       <c r="C539">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D539" t="s">
         <v>24</v>
@@ -19456,7 +19456,7 @@
         <v>1864</v>
       </c>
       <c r="C540">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D540" t="s">
         <v>1862</v>
@@ -19473,7 +19473,7 @@
         <v>1867</v>
       </c>
       <c r="C541">
-        <v>4990</v>
+        <v>5007</v>
       </c>
       <c r="D541" t="s">
         <v>34</v>
@@ -19490,7 +19490,7 @@
         <v>1870</v>
       </c>
       <c r="C542">
-        <v>25705</v>
+        <v>25731</v>
       </c>
       <c r="D542" t="s">
         <v>24</v>
@@ -19507,7 +19507,7 @@
         <v>1874</v>
       </c>
       <c r="C543">
-        <v>25248</v>
+        <v>25308</v>
       </c>
       <c r="D543" t="s">
         <v>1872</v>
@@ -19524,7 +19524,7 @@
         <v>1877</v>
       </c>
       <c r="C544">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="D544" t="s">
         <v>338</v>
@@ -19541,7 +19541,7 @@
         <v>1881</v>
       </c>
       <c r="C545">
-        <v>10383</v>
+        <v>10400</v>
       </c>
       <c r="D545" t="s">
         <v>338</v>
@@ -19558,7 +19558,7 @@
         <v>1885</v>
       </c>
       <c r="C546">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="D546" t="s">
         <v>1883</v>
@@ -19575,7 +19575,7 @@
         <v>1888</v>
       </c>
       <c r="C547">
-        <v>2651</v>
+        <v>2658</v>
       </c>
       <c r="D547" t="s">
         <v>43</v>
@@ -19592,7 +19592,7 @@
         <v>1892</v>
       </c>
       <c r="C548">
-        <v>1289</v>
+        <v>1300</v>
       </c>
       <c r="D548" t="s">
         <v>1890</v>
@@ -19609,7 +19609,7 @@
         <v>1896</v>
       </c>
       <c r="C549">
-        <v>3664</v>
+        <v>3668</v>
       </c>
       <c r="D549" t="s">
         <v>1894</v>
@@ -19626,7 +19626,7 @@
         <v>1899</v>
       </c>
       <c r="C550">
-        <v>2388</v>
+        <v>2400</v>
       </c>
       <c r="D550" t="s">
         <v>817</v>
@@ -19643,7 +19643,7 @@
         <v>1903</v>
       </c>
       <c r="C551">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D551" t="s">
         <v>24</v>
@@ -19660,7 +19660,7 @@
         <v>1906</v>
       </c>
       <c r="C552">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D552" t="s">
         <v>43</v>
@@ -19677,7 +19677,7 @@
         <v>1909</v>
       </c>
       <c r="C553">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D553" t="s">
         <v>43</v>
@@ -19694,7 +19694,7 @@
         <v>1913</v>
       </c>
       <c r="C554">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D554" t="s">
         <v>387</v>
@@ -19711,7 +19711,7 @@
         <v>1916</v>
       </c>
       <c r="C555">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="D555" t="s">
         <v>43</v>
@@ -19728,7 +19728,7 @@
         <v>1919</v>
       </c>
       <c r="C556">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D556" t="s">
         <v>24</v>
@@ -19762,7 +19762,7 @@
         <v>1925</v>
       </c>
       <c r="C558">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D558" t="s">
         <v>1862</v>
@@ -19796,7 +19796,7 @@
         <v>1933</v>
       </c>
       <c r="C560">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="D560" t="s">
         <v>1931</v>
@@ -19830,7 +19830,7 @@
         <v>1938</v>
       </c>
       <c r="C562">
-        <v>16550</v>
+        <v>16558</v>
       </c>
       <c r="D562" t="s">
         <v>24</v>
@@ -19844,7 +19844,7 @@
         <v>1942</v>
       </c>
       <c r="C563">
-        <v>1792</v>
+        <v>1799</v>
       </c>
       <c r="D563" t="s">
         <v>96</v>
@@ -19861,7 +19861,7 @@
         <v>1945</v>
       </c>
       <c r="C564">
-        <v>3386</v>
+        <v>3406</v>
       </c>
       <c r="D564" t="s">
         <v>34</v>
@@ -19878,7 +19878,7 @@
         <v>1948</v>
       </c>
       <c r="C565">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D565" t="s">
         <v>1894</v>
@@ -19895,7 +19895,7 @@
         <v>1952</v>
       </c>
       <c r="C566">
-        <v>1939</v>
+        <v>1960</v>
       </c>
       <c r="D566" t="s">
         <v>1950</v>
@@ -19929,7 +19929,7 @@
         <v>1960</v>
       </c>
       <c r="C568">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D568" t="s">
         <v>613</v>
@@ -19946,7 +19946,7 @@
         <v>1964</v>
       </c>
       <c r="C569">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D569" t="s">
         <v>1962</v>
@@ -19980,7 +19980,7 @@
         <v>1970</v>
       </c>
       <c r="C571">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="D571" t="s">
         <v>43</v>
@@ -19997,7 +19997,7 @@
         <v>1973</v>
       </c>
       <c r="C572">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="D572" t="s">
         <v>24</v>
@@ -20031,7 +20031,7 @@
         <v>1980</v>
       </c>
       <c r="C574">
-        <v>13360</v>
+        <v>13681</v>
       </c>
       <c r="D574" t="s">
         <v>24</v>
@@ -20048,7 +20048,7 @@
         <v>1983</v>
       </c>
       <c r="C575">
-        <v>15611</v>
+        <v>15624</v>
       </c>
       <c r="D575" t="s">
         <v>34</v>
@@ -20065,7 +20065,7 @@
         <v>1986</v>
       </c>
       <c r="C576">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D576" t="s">
         <v>34</v>
@@ -20099,7 +20099,7 @@
         <v>1992</v>
       </c>
       <c r="C578">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="D578" t="s">
         <v>108</v>
@@ -20116,7 +20116,7 @@
         <v>1995</v>
       </c>
       <c r="C579">
-        <v>3513</v>
+        <v>3518</v>
       </c>
       <c r="D579" t="s">
         <v>577</v>
@@ -20133,7 +20133,7 @@
         <v>1998</v>
       </c>
       <c r="C580">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D580" t="s">
         <v>64</v>
@@ -20150,7 +20150,7 @@
         <v>2001</v>
       </c>
       <c r="C581">
-        <v>13557</v>
+        <v>13642</v>
       </c>
       <c r="D581" t="s">
         <v>1685</v>
@@ -20167,7 +20167,7 @@
         <v>2004</v>
       </c>
       <c r="C582">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D582" t="s">
         <v>24</v>
@@ -20184,7 +20184,7 @@
         <v>2007</v>
       </c>
       <c r="C583">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="D583" t="s">
         <v>840</v>
@@ -20201,7 +20201,7 @@
         <v>2012</v>
       </c>
       <c r="C584">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="D584" t="s">
         <v>2010</v>
@@ -20252,7 +20252,7 @@
         <v>2021</v>
       </c>
       <c r="C587">
-        <v>21572</v>
+        <v>21581</v>
       </c>
       <c r="D587" t="s">
         <v>806</v>
@@ -20269,7 +20269,7 @@
         <v>2024</v>
       </c>
       <c r="C588">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D588" t="s">
         <v>24</v>
@@ -20286,7 +20286,7 @@
         <v>2027</v>
       </c>
       <c r="C589">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D589" t="s">
         <v>96</v>
@@ -20303,7 +20303,7 @@
         <v>2030</v>
       </c>
       <c r="C590">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D590" t="s">
         <v>43</v>
@@ -20320,7 +20320,7 @@
         <v>2034</v>
       </c>
       <c r="C591">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D591" t="s">
         <v>840</v>
@@ -20337,7 +20337,7 @@
         <v>2037</v>
       </c>
       <c r="C592">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D592" t="s">
         <v>24</v>
@@ -20354,7 +20354,7 @@
         <v>2040</v>
       </c>
       <c r="C593">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D593" t="s">
         <v>24</v>
@@ -20371,7 +20371,7 @@
         <v>2043</v>
       </c>
       <c r="C594">
-        <v>43939</v>
+        <v>43968</v>
       </c>
       <c r="D594" t="s">
         <v>43</v>
@@ -20388,7 +20388,7 @@
         <v>2046</v>
       </c>
       <c r="C595">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D595" t="s">
         <v>1078</v>
@@ -20405,7 +20405,7 @@
         <v>2050</v>
       </c>
       <c r="C596">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D596" t="s">
         <v>24</v>
@@ -20422,7 +20422,7 @@
         <v>2053</v>
       </c>
       <c r="C597">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D597" t="s">
         <v>1587</v>
@@ -20439,7 +20439,7 @@
         <v>2056</v>
       </c>
       <c r="C598">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D598" t="s">
         <v>16</v>
@@ -20456,7 +20456,7 @@
         <v>2059</v>
       </c>
       <c r="C599">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="D599" t="s">
         <v>24</v>
@@ -20473,7 +20473,7 @@
         <v>2062</v>
       </c>
       <c r="C600">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="D600" t="s">
         <v>43</v>
@@ -20507,7 +20507,7 @@
         <v>2068</v>
       </c>
       <c r="C602">
-        <v>11087</v>
+        <v>11097</v>
       </c>
       <c r="D602" t="s">
         <v>43</v>
@@ -20524,7 +20524,7 @@
         <v>2072</v>
       </c>
       <c r="C603">
-        <v>7072</v>
+        <v>7079</v>
       </c>
       <c r="D603" t="s">
         <v>1219</v>
@@ -20541,7 +20541,7 @@
         <v>2075</v>
       </c>
       <c r="C604">
-        <v>9648</v>
+        <v>9724</v>
       </c>
       <c r="D604" t="s">
         <v>535</v>
@@ -20558,7 +20558,7 @@
         <v>2078</v>
       </c>
       <c r="C605">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="D605" t="s">
         <v>24</v>
@@ -20575,7 +20575,7 @@
         <v>2081</v>
       </c>
       <c r="C606">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D606" t="s">
         <v>1862</v>
@@ -20592,7 +20592,7 @@
         <v>2084</v>
       </c>
       <c r="C607">
-        <v>50664</v>
+        <v>50715</v>
       </c>
       <c r="D607" t="s">
         <v>43</v>
@@ -20609,7 +20609,7 @@
         <v>2088</v>
       </c>
       <c r="C608">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D608" t="s">
         <v>43</v>
@@ -20626,7 +20626,7 @@
         <v>2091</v>
       </c>
       <c r="C609">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="D609" t="s">
         <v>43</v>
@@ -20643,7 +20643,7 @@
         <v>2094</v>
       </c>
       <c r="C610">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="D610" t="s">
         <v>24</v>
@@ -20660,7 +20660,7 @@
         <v>2097</v>
       </c>
       <c r="C611">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D611" t="s">
         <v>552</v>
@@ -20677,7 +20677,7 @@
         <v>2101</v>
       </c>
       <c r="C612">
-        <v>5156</v>
+        <v>5168</v>
       </c>
       <c r="D612" t="s">
         <v>24</v>
@@ -20694,7 +20694,7 @@
         <v>2105</v>
       </c>
       <c r="C613">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D613" t="s">
         <v>43</v>
@@ -20711,7 +20711,7 @@
         <v>2108</v>
       </c>
       <c r="C614">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="D614" t="s">
         <v>1883</v>
@@ -20728,7 +20728,7 @@
         <v>2111</v>
       </c>
       <c r="C615">
-        <v>10518</v>
+        <v>10519</v>
       </c>
       <c r="D615" t="s">
         <v>1702</v>
@@ -20745,7 +20745,7 @@
         <v>2114</v>
       </c>
       <c r="C616">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D616" t="s">
         <v>24</v>
@@ -20762,7 +20762,7 @@
         <v>2118</v>
       </c>
       <c r="C617">
-        <v>6736</v>
+        <v>6769</v>
       </c>
       <c r="D617" t="s">
         <v>2116</v>
@@ -20796,7 +20796,7 @@
         <v>2124</v>
       </c>
       <c r="C619">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D619" t="s">
         <v>24</v>
@@ -20813,7 +20813,7 @@
         <v>2127</v>
       </c>
       <c r="C620">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D620" t="s">
         <v>43</v>
@@ -20830,7 +20830,7 @@
         <v>2130</v>
       </c>
       <c r="C621">
-        <v>4944</v>
+        <v>4952</v>
       </c>
       <c r="D621" t="s">
         <v>24</v>
@@ -20847,7 +20847,7 @@
         <v>2135</v>
       </c>
       <c r="C622">
-        <v>3934</v>
+        <v>3938</v>
       </c>
       <c r="D622" t="s">
         <v>2133</v>
@@ -20864,7 +20864,7 @@
         <v>2138</v>
       </c>
       <c r="C623">
-        <v>2573</v>
+        <v>2599</v>
       </c>
       <c r="D623" t="s">
         <v>96</v>
@@ -20881,7 +20881,7 @@
         <v>2142</v>
       </c>
       <c r="C624">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="D624" t="s">
         <v>2140</v>
@@ -20898,7 +20898,7 @@
         <v>2145</v>
       </c>
       <c r="C625">
-        <v>19173</v>
+        <v>19183</v>
       </c>
       <c r="D625" t="s">
         <v>24</v>
@@ -20932,7 +20932,7 @@
         <v>2153</v>
       </c>
       <c r="C627">
-        <v>5036</v>
+        <v>5043</v>
       </c>
       <c r="D627" t="s">
         <v>2151</v>
@@ -20949,7 +20949,7 @@
         <v>2156</v>
       </c>
       <c r="C628">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D628" t="s">
         <v>43</v>
@@ -20983,7 +20983,7 @@
         <v>2162</v>
       </c>
       <c r="C630">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="D630" t="s">
         <v>24</v>
@@ -21000,7 +21000,7 @@
         <v>2165</v>
       </c>
       <c r="C631">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="D631" t="s">
         <v>43</v>
@@ -21017,7 +21017,7 @@
         <v>2168</v>
       </c>
       <c r="C632">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D632" t="s">
         <v>43</v>
@@ -21034,7 +21034,7 @@
         <v>2171</v>
       </c>
       <c r="C633">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="D633" t="s">
         <v>24</v>
@@ -21051,7 +21051,7 @@
         <v>2174</v>
       </c>
       <c r="C634">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="D634" t="s">
         <v>1883</v>
@@ -21085,7 +21085,7 @@
         <v>2182</v>
       </c>
       <c r="C636">
-        <v>2601</v>
+        <v>2608</v>
       </c>
       <c r="D636" t="s">
         <v>2180</v>
@@ -21102,7 +21102,7 @@
         <v>2185</v>
       </c>
       <c r="C637">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D637" t="s">
         <v>24</v>
@@ -21119,7 +21119,7 @@
         <v>2187</v>
       </c>
       <c r="C638">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="D638" t="s">
         <v>64</v>
@@ -21133,7 +21133,7 @@
         <v>2190</v>
       </c>
       <c r="C639">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D639" t="s">
         <v>1504</v>
@@ -21150,7 +21150,7 @@
         <v>2193</v>
       </c>
       <c r="C640">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="D640" t="s">
         <v>945</v>
@@ -21167,7 +21167,7 @@
         <v>2196</v>
       </c>
       <c r="C641">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D641" t="s">
         <v>24</v>
@@ -21184,7 +21184,7 @@
         <v>2199</v>
       </c>
       <c r="C642">
-        <v>3802</v>
+        <v>3805</v>
       </c>
       <c r="D642" t="s">
         <v>24</v>
@@ -21201,7 +21201,7 @@
         <v>2202</v>
       </c>
       <c r="C643">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="D643" t="s">
         <v>1078</v>
@@ -21235,7 +21235,7 @@
         <v>2208</v>
       </c>
       <c r="C645">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D645" t="s">
         <v>24</v>
@@ -21252,7 +21252,7 @@
         <v>2211</v>
       </c>
       <c r="C646">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D646" t="s">
         <v>294</v>
@@ -21269,7 +21269,7 @@
         <v>2214</v>
       </c>
       <c r="C647">
-        <v>3052</v>
+        <v>3062</v>
       </c>
       <c r="D647" t="s">
         <v>24</v>
@@ -21286,7 +21286,7 @@
         <v>2218</v>
       </c>
       <c r="C648">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D648" t="s">
         <v>2216</v>
@@ -21303,7 +21303,7 @@
         <v>2221</v>
       </c>
       <c r="C649">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="D649" t="s">
         <v>43</v>
@@ -21320,7 +21320,7 @@
         <v>2224</v>
       </c>
       <c r="C650">
-        <v>6009</v>
+        <v>6023</v>
       </c>
       <c r="D650" t="s">
         <v>24</v>
@@ -21337,7 +21337,7 @@
         <v>2228</v>
       </c>
       <c r="C651">
-        <v>7886</v>
+        <v>7894</v>
       </c>
       <c r="D651" t="s">
         <v>2226</v>
@@ -21354,7 +21354,7 @@
         <v>2232</v>
       </c>
       <c r="C652">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D652" t="s">
         <v>126</v>
@@ -21405,7 +21405,7 @@
         <v>2241</v>
       </c>
       <c r="C655">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D655" t="s">
         <v>24</v>
@@ -21422,7 +21422,7 @@
         <v>2244</v>
       </c>
       <c r="C656">
-        <v>39634</v>
+        <v>39681</v>
       </c>
       <c r="D656" t="s">
         <v>24</v>
@@ -21439,7 +21439,7 @@
         <v>2247</v>
       </c>
       <c r="C657">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D657" t="s">
         <v>43</v>
@@ -21456,7 +21456,7 @@
         <v>2251</v>
       </c>
       <c r="C658">
-        <v>4638</v>
+        <v>4643</v>
       </c>
       <c r="D658" t="s">
         <v>613</v>
@@ -21473,7 +21473,7 @@
         <v>2255</v>
       </c>
       <c r="C659">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D659" t="s">
         <v>2253</v>
@@ -21507,7 +21507,7 @@
         <v>2261</v>
       </c>
       <c r="C661">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D661" t="s">
         <v>43</v>
@@ -21524,7 +21524,7 @@
         <v>2264</v>
       </c>
       <c r="C662">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D662" t="s">
         <v>16</v>
@@ -21541,7 +21541,7 @@
         <v>2268</v>
       </c>
       <c r="C663">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="D663" t="s">
         <v>2266</v>
@@ -21558,7 +21558,7 @@
         <v>2271</v>
       </c>
       <c r="C664">
-        <v>26195</v>
+        <v>26239</v>
       </c>
       <c r="D664" t="s">
         <v>2116</v>
@@ -21575,7 +21575,7 @@
         <v>2274</v>
       </c>
       <c r="C665">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="D665" t="s">
         <v>43</v>
@@ -21592,7 +21592,7 @@
         <v>2277</v>
       </c>
       <c r="C666">
-        <v>4744</v>
+        <v>4753</v>
       </c>
       <c r="D666" t="s">
         <v>43</v>
@@ -21643,7 +21643,7 @@
         <v>2287</v>
       </c>
       <c r="C669">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="D669" t="s">
         <v>840</v>
@@ -21660,7 +21660,7 @@
         <v>2290</v>
       </c>
       <c r="C670">
-        <v>5177</v>
+        <v>5181</v>
       </c>
       <c r="D670" t="s">
         <v>24</v>
@@ -21677,7 +21677,7 @@
         <v>2293</v>
       </c>
       <c r="C671">
-        <v>9765</v>
+        <v>9815</v>
       </c>
       <c r="D671" t="s">
         <v>412</v>
@@ -21694,7 +21694,7 @@
         <v>2296</v>
       </c>
       <c r="C672">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D672" t="s">
         <v>24</v>
@@ -21711,7 +21711,7 @@
         <v>2299</v>
       </c>
       <c r="C673">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="D673" t="s">
         <v>43</v>
@@ -21728,7 +21728,7 @@
         <v>2302</v>
       </c>
       <c r="C674">
-        <v>4065</v>
+        <v>4067</v>
       </c>
       <c r="D674" t="s">
         <v>34</v>
@@ -21745,7 +21745,7 @@
         <v>2305</v>
       </c>
       <c r="C675">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D675" t="s">
         <v>24</v>
@@ -21762,7 +21762,7 @@
         <v>2308</v>
       </c>
       <c r="C676">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D676" t="s">
         <v>24</v>
@@ -21796,7 +21796,7 @@
         <v>2315</v>
       </c>
       <c r="C678">
-        <v>6465</v>
+        <v>6473</v>
       </c>
       <c r="D678" t="s">
         <v>1950</v>
@@ -21813,7 +21813,7 @@
         <v>2318</v>
       </c>
       <c r="C679">
-        <v>2773</v>
+        <v>2784</v>
       </c>
       <c r="D679" t="s">
         <v>24</v>
@@ -21847,7 +21847,7 @@
         <v>2325</v>
       </c>
       <c r="C681">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="D681" t="s">
         <v>2323</v>
@@ -21864,7 +21864,7 @@
         <v>2328</v>
       </c>
       <c r="C682">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D682" t="s">
         <v>43</v>
@@ -21881,7 +21881,7 @@
         <v>2332</v>
       </c>
       <c r="C683">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D683" t="s">
         <v>2330</v>
@@ -21898,7 +21898,7 @@
         <v>2335</v>
       </c>
       <c r="C684">
-        <v>12740</v>
+        <v>12755</v>
       </c>
       <c r="D684" t="s">
         <v>24</v>
@@ -21915,7 +21915,7 @@
         <v>2338</v>
       </c>
       <c r="C685">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D685" t="s">
         <v>16</v>
@@ -21949,7 +21949,7 @@
         <v>2346</v>
       </c>
       <c r="C687">
-        <v>9060</v>
+        <v>9068</v>
       </c>
       <c r="D687" t="s">
         <v>2344</v>
@@ -21966,7 +21966,7 @@
         <v>2349</v>
       </c>
       <c r="C688">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D688" t="s">
         <v>1157</v>
@@ -21983,7 +21983,7 @@
         <v>2352</v>
       </c>
       <c r="C689">
-        <v>146317</v>
+        <v>146390</v>
       </c>
       <c r="D689" t="s">
         <v>806</v>
@@ -22000,7 +22000,7 @@
         <v>2355</v>
       </c>
       <c r="C690">
-        <v>9242</v>
+        <v>9253</v>
       </c>
       <c r="D690" t="s">
         <v>24</v>
@@ -22034,7 +22034,7 @@
         <v>2361</v>
       </c>
       <c r="C692">
-        <v>1126</v>
+        <v>1131</v>
       </c>
       <c r="D692" t="s">
         <v>43</v>
@@ -22051,7 +22051,7 @@
         <v>2364</v>
       </c>
       <c r="C693">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D693" t="s">
         <v>34</v>
@@ -22068,7 +22068,7 @@
         <v>2367</v>
       </c>
       <c r="C694">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D694" t="s">
         <v>20</v>
@@ -22085,7 +22085,7 @@
         <v>2370</v>
       </c>
       <c r="C695">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="D695" t="s">
         <v>24</v>
@@ -22102,7 +22102,7 @@
         <v>2373</v>
       </c>
       <c r="C696">
-        <v>3238</v>
+        <v>3245</v>
       </c>
       <c r="D696" t="s">
         <v>1890</v>
@@ -22119,7 +22119,7 @@
         <v>2376</v>
       </c>
       <c r="C697">
-        <v>2942</v>
+        <v>2948</v>
       </c>
       <c r="D697" t="s">
         <v>24</v>
@@ -22136,7 +22136,7 @@
         <v>2380</v>
       </c>
       <c r="C698">
-        <v>8596</v>
+        <v>8599</v>
       </c>
       <c r="D698" t="s">
         <v>43</v>
@@ -22153,7 +22153,7 @@
         <v>2383</v>
       </c>
       <c r="C699">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D699" t="s">
         <v>96</v>
@@ -22170,7 +22170,7 @@
         <v>2386</v>
       </c>
       <c r="C700">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="D700" t="s">
         <v>24</v>
@@ -22204,7 +22204,7 @@
         <v>2393</v>
       </c>
       <c r="C702">
-        <v>6559</v>
+        <v>6570</v>
       </c>
       <c r="D702" t="s">
         <v>588</v>
@@ -22221,7 +22221,7 @@
         <v>2397</v>
       </c>
       <c r="C703">
-        <v>13879</v>
+        <v>13902</v>
       </c>
       <c r="D703" t="s">
         <v>2395</v>
@@ -22238,7 +22238,7 @@
         <v>2401</v>
       </c>
       <c r="C704">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D704" t="s">
         <v>43</v>
@@ -22255,7 +22255,7 @@
         <v>2404</v>
       </c>
       <c r="C705">
-        <v>2797</v>
+        <v>2815</v>
       </c>
       <c r="D705" t="s">
         <v>43</v>
@@ -22272,7 +22272,7 @@
         <v>2407</v>
       </c>
       <c r="C706">
-        <v>5005</v>
+        <v>5023</v>
       </c>
       <c r="D706" t="s">
         <v>34</v>
@@ -22289,7 +22289,7 @@
         <v>2410</v>
       </c>
       <c r="C707">
-        <v>3261</v>
+        <v>3266</v>
       </c>
       <c r="D707" t="s">
         <v>1109</v>
@@ -22306,7 +22306,7 @@
         <v>2413</v>
       </c>
       <c r="C708">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D708" t="s">
         <v>43</v>
@@ -22340,7 +22340,7 @@
         <v>2421</v>
       </c>
       <c r="C710">
-        <v>33259</v>
+        <v>33297</v>
       </c>
       <c r="D710" t="s">
         <v>2133</v>
@@ -22357,7 +22357,7 @@
         <v>2424</v>
       </c>
       <c r="C711">
-        <v>4576</v>
+        <v>4583</v>
       </c>
       <c r="D711" t="s">
         <v>96</v>
@@ -22374,7 +22374,7 @@
         <v>2427</v>
       </c>
       <c r="C712">
-        <v>16685</v>
+        <v>16703</v>
       </c>
       <c r="D712" t="s">
         <v>301</v>
@@ -22391,7 +22391,7 @@
         <v>2431</v>
       </c>
       <c r="C713">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D713" t="s">
         <v>789</v>
@@ -22408,7 +22408,7 @@
         <v>2434</v>
       </c>
       <c r="C714">
-        <v>12601</v>
+        <v>12607</v>
       </c>
       <c r="D714" t="s">
         <v>43</v>
@@ -22425,7 +22425,7 @@
         <v>2437</v>
       </c>
       <c r="C715">
-        <v>16514</v>
+        <v>16536</v>
       </c>
       <c r="D715" t="s">
         <v>126</v>
@@ -22442,7 +22442,7 @@
         <v>2441</v>
       </c>
       <c r="C716">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="D716" t="s">
         <v>16</v>
@@ -22459,7 +22459,7 @@
         <v>2444</v>
       </c>
       <c r="C717">
-        <v>16780</v>
+        <v>16808</v>
       </c>
       <c r="D717" t="s">
         <v>43</v>
@@ -22476,7 +22476,7 @@
         <v>2447</v>
       </c>
       <c r="C718">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="D718" t="s">
         <v>24</v>
@@ -22493,7 +22493,7 @@
         <v>2451</v>
       </c>
       <c r="C719">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="D719" t="s">
         <v>43</v>
@@ -22510,7 +22510,7 @@
         <v>2454</v>
       </c>
       <c r="C720">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D720" t="s">
         <v>34</v>
@@ -22527,7 +22527,7 @@
         <v>2457</v>
       </c>
       <c r="C721">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="D721" t="s">
         <v>24</v>
@@ -22544,7 +22544,7 @@
         <v>2460</v>
       </c>
       <c r="C722">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="D722" t="s">
         <v>24</v>
@@ -22561,7 +22561,7 @@
         <v>2463</v>
       </c>
       <c r="C723">
-        <v>39682</v>
+        <v>39757</v>
       </c>
       <c r="D723" t="s">
         <v>43</v>
@@ -22578,7 +22578,7 @@
         <v>2466</v>
       </c>
       <c r="C724">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D724" t="s">
         <v>43</v>
@@ -22595,7 +22595,7 @@
         <v>2469</v>
       </c>
       <c r="C725">
-        <v>2347</v>
+        <v>2360</v>
       </c>
       <c r="D725" t="s">
         <v>43</v>
@@ -22612,7 +22612,7 @@
         <v>2472</v>
       </c>
       <c r="C726">
-        <v>37864</v>
+        <v>37952</v>
       </c>
       <c r="D726" t="s">
         <v>789</v>
@@ -22629,7 +22629,7 @@
         <v>2475</v>
       </c>
       <c r="C727">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="D727" t="s">
         <v>24</v>
@@ -22646,7 +22646,7 @@
         <v>2478</v>
       </c>
       <c r="C728">
-        <v>18231</v>
+        <v>18257</v>
       </c>
       <c r="D728" t="s">
         <v>588</v>
@@ -22663,7 +22663,7 @@
         <v>2481</v>
       </c>
       <c r="C729">
-        <v>26284</v>
+        <v>26301</v>
       </c>
       <c r="D729" t="s">
         <v>840</v>
@@ -22680,7 +22680,7 @@
         <v>2484</v>
       </c>
       <c r="C730">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="D730" t="s">
         <v>1109</v>
@@ -22697,7 +22697,7 @@
         <v>2489</v>
       </c>
       <c r="C731">
-        <v>2797</v>
+        <v>2809</v>
       </c>
       <c r="D731" t="s">
         <v>2487</v>
@@ -22714,7 +22714,7 @@
         <v>2492</v>
       </c>
       <c r="C732">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="D732" t="s">
         <v>43</v>
@@ -22731,7 +22731,7 @@
         <v>2495</v>
       </c>
       <c r="C733">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D733" t="s">
         <v>43</v>
@@ -22748,7 +22748,7 @@
         <v>2498</v>
       </c>
       <c r="C734">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D734" t="s">
         <v>43</v>
@@ -22799,7 +22799,7 @@
         <v>2508</v>
       </c>
       <c r="C737">
-        <v>14295</v>
+        <v>14316</v>
       </c>
       <c r="D737" t="s">
         <v>24</v>
@@ -22816,7 +22816,7 @@
         <v>2511</v>
       </c>
       <c r="C738">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="D738" t="s">
         <v>24</v>
@@ -22833,7 +22833,7 @@
         <v>2515</v>
       </c>
       <c r="C739">
-        <v>5666</v>
+        <v>5677</v>
       </c>
       <c r="D739" t="s">
         <v>24</v>
@@ -22850,7 +22850,7 @@
         <v>2518</v>
       </c>
       <c r="C740">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="D740" t="s">
         <v>16</v>
@@ -22867,7 +22867,7 @@
         <v>2521</v>
       </c>
       <c r="C741">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D741" t="s">
         <v>34</v>
@@ -22884,7 +22884,7 @@
         <v>2524</v>
       </c>
       <c r="C742">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D742" t="s">
         <v>24</v>
@@ -22901,7 +22901,7 @@
         <v>2528</v>
       </c>
       <c r="C743">
-        <v>14198</v>
+        <v>14208</v>
       </c>
       <c r="D743" t="s">
         <v>43</v>
@@ -22935,7 +22935,7 @@
         <v>2534</v>
       </c>
       <c r="C745">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D745" t="s">
         <v>24</v>
@@ -22952,7 +22952,7 @@
         <v>2537</v>
       </c>
       <c r="C746">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="D746" t="s">
         <v>43</v>
@@ -22969,7 +22969,7 @@
         <v>2540</v>
       </c>
       <c r="C747">
-        <v>4359</v>
+        <v>4363</v>
       </c>
       <c r="D747" t="s">
         <v>24</v>
@@ -22986,7 +22986,7 @@
         <v>2543</v>
       </c>
       <c r="C748">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="D748" t="s">
         <v>364</v>
@@ -23003,7 +23003,7 @@
         <v>2546</v>
       </c>
       <c r="C749">
-        <v>2489</v>
+        <v>2494</v>
       </c>
       <c r="D749" t="s">
         <v>271</v>
@@ -23020,7 +23020,7 @@
         <v>2549</v>
       </c>
       <c r="C750">
-        <v>4562</v>
+        <v>4591</v>
       </c>
       <c r="D750" t="s">
         <v>34</v>
@@ -23037,7 +23037,7 @@
         <v>2553</v>
       </c>
       <c r="C751">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="D751" t="s">
         <v>24</v>
@@ -23071,7 +23071,7 @@
         <v>2559</v>
       </c>
       <c r="C753">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="D753" t="s">
         <v>126</v>
@@ -23105,7 +23105,7 @@
         <v>2566</v>
       </c>
       <c r="C755">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D755" t="s">
         <v>24</v>
@@ -23122,7 +23122,7 @@
         <v>2569</v>
       </c>
       <c r="C756">
-        <v>7802</v>
+        <v>7813</v>
       </c>
       <c r="D756" t="s">
         <v>43</v>
@@ -23139,7 +23139,7 @@
         <v>2572</v>
       </c>
       <c r="C757">
-        <v>5345</v>
+        <v>5352</v>
       </c>
       <c r="D757" t="s">
         <v>24</v>
@@ -23156,7 +23156,7 @@
         <v>2575</v>
       </c>
       <c r="C758">
-        <v>17610</v>
+        <v>17619</v>
       </c>
       <c r="D758" t="s">
         <v>24</v>
@@ -23173,7 +23173,7 @@
         <v>2578</v>
       </c>
       <c r="C759">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="D759" t="s">
         <v>43</v>
@@ -23241,7 +23241,7 @@
         <v>2591</v>
       </c>
       <c r="C763">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="D763" t="s">
         <v>2589</v>
@@ -23258,7 +23258,7 @@
         <v>2595</v>
       </c>
       <c r="C764">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="D764" t="s">
         <v>43</v>
@@ -23292,7 +23292,7 @@
         <v>2601</v>
       </c>
       <c r="C766">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D766" t="s">
         <v>43</v>
@@ -23326,7 +23326,7 @@
         <v>2607</v>
       </c>
       <c r="C768">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="D768" t="s">
         <v>43</v>
@@ -23343,7 +23343,7 @@
         <v>2610</v>
       </c>
       <c r="C769">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D769" t="s">
         <v>24</v>
@@ -23360,7 +23360,7 @@
         <v>2613</v>
       </c>
       <c r="C770">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D770" t="s">
         <v>43</v>
@@ -23377,7 +23377,7 @@
         <v>2615</v>
       </c>
       <c r="C771">
-        <v>8824</v>
+        <v>8827</v>
       </c>
       <c r="D771" t="s">
         <v>1253</v>
@@ -23391,7 +23391,7 @@
         <v>2618</v>
       </c>
       <c r="C772">
-        <v>5552</v>
+        <v>5577</v>
       </c>
       <c r="D772" t="s">
         <v>43</v>
@@ -23408,7 +23408,7 @@
         <v>2622</v>
       </c>
       <c r="C773">
-        <v>11970</v>
+        <v>11983</v>
       </c>
       <c r="D773" t="s">
         <v>43</v>
@@ -23442,7 +23442,7 @@
         <v>2628</v>
       </c>
       <c r="C775">
-        <v>7454</v>
+        <v>7455</v>
       </c>
       <c r="D775" t="s">
         <v>43</v>
@@ -23459,7 +23459,7 @@
         <v>2631</v>
       </c>
       <c r="C776">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="D776" t="s">
         <v>43</v>
@@ -23476,7 +23476,7 @@
         <v>2634</v>
       </c>
       <c r="C777">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="D777" t="s">
         <v>16</v>
@@ -23493,7 +23493,7 @@
         <v>2637</v>
       </c>
       <c r="C778">
-        <v>33878</v>
+        <v>33884</v>
       </c>
       <c r="D778" t="s">
         <v>338</v>
@@ -23510,7 +23510,7 @@
         <v>2641</v>
       </c>
       <c r="C779">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="D779" t="s">
         <v>2639</v>
@@ -23527,7 +23527,7 @@
         <v>2644</v>
       </c>
       <c r="C780">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="D780" t="s">
         <v>43</v>
@@ -23544,7 +23544,7 @@
         <v>2647</v>
       </c>
       <c r="C781">
-        <v>6072</v>
+        <v>6077</v>
       </c>
       <c r="D781" t="s">
         <v>24</v>
@@ -23575,7 +23575,7 @@
         <v>2653</v>
       </c>
       <c r="C783">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="D783" t="s">
         <v>24</v>
@@ -23609,7 +23609,7 @@
         <v>2660</v>
       </c>
       <c r="C785">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D785" t="s">
         <v>24</v>
@@ -23626,7 +23626,7 @@
         <v>2663</v>
       </c>
       <c r="C786">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D786" t="s">
         <v>24</v>
@@ -23643,7 +23643,7 @@
         <v>2666</v>
       </c>
       <c r="C787">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="D787" t="s">
         <v>271</v>
@@ -23660,7 +23660,7 @@
         <v>2670</v>
       </c>
       <c r="C788">
-        <v>4773</v>
+        <v>4799</v>
       </c>
       <c r="D788" t="s">
         <v>24</v>
@@ -23677,7 +23677,7 @@
         <v>2673</v>
       </c>
       <c r="C789">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="D789" t="s">
         <v>1421</v>
@@ -23694,7 +23694,7 @@
         <v>2676</v>
       </c>
       <c r="C790">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="D790" t="s">
         <v>16</v>
@@ -23711,7 +23711,7 @@
         <v>2679</v>
       </c>
       <c r="C791">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="D791" t="s">
         <v>43</v>
@@ -23728,7 +23728,7 @@
         <v>2683</v>
       </c>
       <c r="C792">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D792" t="s">
         <v>2681</v>
@@ -23745,7 +23745,7 @@
         <v>2686</v>
       </c>
       <c r="C793">
-        <v>11500</v>
+        <v>11512</v>
       </c>
       <c r="D793" t="s">
         <v>24</v>
@@ -23762,7 +23762,7 @@
         <v>2689</v>
       </c>
       <c r="C794">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="D794" t="s">
         <v>16</v>
@@ -23779,7 +23779,7 @@
         <v>2692</v>
       </c>
       <c r="C795">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D795" t="s">
         <v>43</v>
@@ -23796,7 +23796,7 @@
         <v>2697</v>
       </c>
       <c r="C796">
-        <v>3943</v>
+        <v>3967</v>
       </c>
       <c r="D796" t="s">
         <v>2695</v>
@@ -23813,7 +23813,7 @@
         <v>2700</v>
       </c>
       <c r="C797">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="D797" t="s">
         <v>43</v>
@@ -23830,7 +23830,7 @@
         <v>2703</v>
       </c>
       <c r="C798">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D798" t="s">
         <v>43</v>
@@ -23847,7 +23847,7 @@
         <v>2706</v>
       </c>
       <c r="C799">
-        <v>2659</v>
+        <v>2664</v>
       </c>
       <c r="D799" t="s">
         <v>24</v>
@@ -23864,7 +23864,7 @@
         <v>2709</v>
       </c>
       <c r="C800">
-        <v>5252</v>
+        <v>5256</v>
       </c>
       <c r="D800" t="s">
         <v>43</v>
@@ -23898,7 +23898,7 @@
         <v>2717</v>
       </c>
       <c r="C802">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D802" t="s">
         <v>16</v>
@@ -23915,7 +23915,7 @@
         <v>2721</v>
       </c>
       <c r="C803">
-        <v>5036</v>
+        <v>5042</v>
       </c>
       <c r="D803" t="s">
         <v>34</v>
@@ -23932,7 +23932,7 @@
         <v>2724</v>
       </c>
       <c r="C804">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="D804" t="s">
         <v>131</v>
@@ -23983,7 +23983,7 @@
         <v>2734</v>
       </c>
       <c r="C807">
-        <v>3269</v>
+        <v>3309</v>
       </c>
       <c r="D807" t="s">
         <v>24</v>
@@ -24000,7 +24000,7 @@
         <v>2738</v>
       </c>
       <c r="C808">
-        <v>3238</v>
+        <v>3245</v>
       </c>
       <c r="D808" t="s">
         <v>43</v>
@@ -24017,7 +24017,7 @@
         <v>2742</v>
       </c>
       <c r="C809">
-        <v>8214</v>
+        <v>8224</v>
       </c>
       <c r="D809" t="s">
         <v>11</v>
@@ -24034,7 +24034,7 @@
         <v>2745</v>
       </c>
       <c r="C810">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="D810" t="s">
         <v>34</v>
@@ -24051,7 +24051,7 @@
         <v>2749</v>
       </c>
       <c r="C811">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D811" t="s">
         <v>34</v>
@@ -24068,7 +24068,7 @@
         <v>2752</v>
       </c>
       <c r="C812">
-        <v>4941</v>
+        <v>4943</v>
       </c>
       <c r="D812" t="s">
         <v>24</v>
@@ -24085,7 +24085,7 @@
         <v>2756</v>
       </c>
       <c r="C813">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D813" t="s">
         <v>2754</v>
@@ -24102,7 +24102,7 @@
         <v>2760</v>
       </c>
       <c r="C814">
-        <v>3286</v>
+        <v>3296</v>
       </c>
       <c r="D814" t="s">
         <v>43</v>
@@ -24119,7 +24119,7 @@
         <v>2764</v>
       </c>
       <c r="C815">
-        <v>8841</v>
+        <v>8847</v>
       </c>
       <c r="D815" t="s">
         <v>43</v>
@@ -24136,7 +24136,7 @@
         <v>2767</v>
       </c>
       <c r="C816">
-        <v>2296</v>
+        <v>2301</v>
       </c>
       <c r="D816" t="s">
         <v>43</v>
@@ -24170,7 +24170,7 @@
         <v>2773</v>
       </c>
       <c r="C818">
-        <v>3693</v>
+        <v>3700</v>
       </c>
       <c r="D818" t="s">
         <v>43</v>
@@ -24187,7 +24187,7 @@
         <v>2777</v>
       </c>
       <c r="C819">
-        <v>3732</v>
+        <v>3737</v>
       </c>
       <c r="D819" t="s">
         <v>34</v>
@@ -24204,7 +24204,7 @@
         <v>2780</v>
       </c>
       <c r="C820">
-        <v>8420</v>
+        <v>8424</v>
       </c>
       <c r="D820" t="s">
         <v>96</v>
@@ -24221,7 +24221,7 @@
         <v>2783</v>
       </c>
       <c r="C821">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="D821" t="s">
         <v>420</v>
@@ -24238,7 +24238,7 @@
         <v>2787</v>
       </c>
       <c r="C822">
-        <v>5774</v>
+        <v>5780</v>
       </c>
       <c r="D822" t="s">
         <v>24</v>
@@ -24255,7 +24255,7 @@
         <v>2790</v>
       </c>
       <c r="C823">
-        <v>38030</v>
+        <v>38160</v>
       </c>
       <c r="D823" t="s">
         <v>55</v>
@@ -24272,7 +24272,7 @@
         <v>2794</v>
       </c>
       <c r="C824">
-        <v>4715</v>
+        <v>4722</v>
       </c>
       <c r="D824" t="s">
         <v>34</v>
@@ -24306,7 +24306,7 @@
         <v>2800</v>
       </c>
       <c r="C826">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="D826" t="s">
         <v>126</v>
@@ -24323,7 +24323,7 @@
         <v>2804</v>
       </c>
       <c r="C827">
-        <v>11971</v>
+        <v>12001</v>
       </c>
       <c r="D827" t="s">
         <v>16</v>
@@ -24340,7 +24340,7 @@
         <v>2809</v>
       </c>
       <c r="C828">
-        <v>7774</v>
+        <v>7794</v>
       </c>
       <c r="D828" t="s">
         <v>2807</v>
@@ -24357,7 +24357,7 @@
         <v>2812</v>
       </c>
       <c r="C829">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="D829" t="s">
         <v>43</v>
@@ -24374,7 +24374,7 @@
         <v>2815</v>
       </c>
       <c r="C830">
-        <v>2482</v>
+        <v>2654</v>
       </c>
       <c r="D830" t="s">
         <v>1179</v>
@@ -24391,7 +24391,7 @@
         <v>2818</v>
       </c>
       <c r="C831">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="D831" t="s">
         <v>24</v>
@@ -24408,7 +24408,7 @@
         <v>2821</v>
       </c>
       <c r="C832">
-        <v>4126</v>
+        <v>4151</v>
       </c>
       <c r="D832" t="s">
         <v>177</v>
@@ -24425,7 +24425,7 @@
         <v>2825</v>
       </c>
       <c r="C833">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="D833" t="s">
         <v>43</v>
@@ -24442,7 +24442,7 @@
         <v>2829</v>
       </c>
       <c r="C834">
-        <v>26123</v>
+        <v>26140</v>
       </c>
       <c r="D834" t="s">
         <v>43</v>
@@ -24459,7 +24459,7 @@
         <v>2832</v>
       </c>
       <c r="C835">
-        <v>7816</v>
+        <v>7821</v>
       </c>
       <c r="D835" t="s">
         <v>43</v>
@@ -24493,7 +24493,7 @@
         <v>2838</v>
       </c>
       <c r="C837">
-        <v>5062</v>
+        <v>5113</v>
       </c>
       <c r="D837" t="s">
         <v>96</v>
@@ -24510,7 +24510,7 @@
         <v>2841</v>
       </c>
       <c r="C838">
-        <v>3083</v>
+        <v>3090</v>
       </c>
       <c r="D838" t="s">
         <v>43</v>
@@ -24527,7 +24527,7 @@
         <v>2845</v>
       </c>
       <c r="C839">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="D839" t="s">
         <v>24</v>
@@ -24544,7 +24544,7 @@
         <v>2848</v>
       </c>
       <c r="C840">
-        <v>11470</v>
+        <v>11507</v>
       </c>
       <c r="D840" t="s">
         <v>43</v>
@@ -24578,7 +24578,7 @@
         <v>2856</v>
       </c>
       <c r="C842">
-        <v>7658</v>
+        <v>7682</v>
       </c>
       <c r="D842" t="s">
         <v>24</v>
@@ -24595,7 +24595,7 @@
         <v>2860</v>
       </c>
       <c r="C843">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="D843" t="s">
         <v>24</v>
@@ -24612,7 +24612,7 @@
         <v>2864</v>
       </c>
       <c r="C844">
-        <v>6271</v>
+        <v>6279</v>
       </c>
       <c r="D844" t="s">
         <v>24</v>
@@ -24629,7 +24629,7 @@
         <v>2868</v>
       </c>
       <c r="C845">
-        <v>2175</v>
+        <v>2180</v>
       </c>
       <c r="D845" t="s">
         <v>24</v>
@@ -24646,7 +24646,7 @@
         <v>2871</v>
       </c>
       <c r="C846">
-        <v>22620</v>
+        <v>22647</v>
       </c>
       <c r="D846" t="s">
         <v>211</v>
@@ -24663,7 +24663,7 @@
         <v>2874</v>
       </c>
       <c r="C847">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="D847" t="s">
         <v>24</v>
@@ -24680,7 +24680,7 @@
         <v>2878</v>
       </c>
       <c r="C848">
-        <v>3723</v>
+        <v>3730</v>
       </c>
       <c r="D848" t="s">
         <v>24</v>
@@ -24697,7 +24697,7 @@
         <v>2882</v>
       </c>
       <c r="C849">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D849" t="s">
         <v>43</v>
@@ -24714,7 +24714,7 @@
         <v>2887</v>
       </c>
       <c r="C850">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="D850" t="s">
         <v>2885</v>
@@ -24731,7 +24731,7 @@
         <v>2891</v>
       </c>
       <c r="C851">
-        <v>11472</v>
+        <v>11483</v>
       </c>
       <c r="D851" t="s">
         <v>1078</v>
@@ -24762,7 +24762,7 @@
         <v>2897</v>
       </c>
       <c r="C853">
-        <v>6979</v>
+        <v>6984</v>
       </c>
       <c r="D853" t="s">
         <v>1109</v>
@@ -24776,7 +24776,7 @@
         <v>2901</v>
       </c>
       <c r="C854">
-        <v>5799</v>
+        <v>5806</v>
       </c>
       <c r="D854" t="s">
         <v>43</v>
@@ -24793,7 +24793,7 @@
         <v>2905</v>
       </c>
       <c r="C855">
-        <v>10244</v>
+        <v>10332</v>
       </c>
       <c r="D855" t="s">
         <v>387</v>
@@ -24810,7 +24810,7 @@
         <v>2909</v>
       </c>
       <c r="C856">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="D856" t="s">
         <v>24</v>
@@ -24827,7 +24827,7 @@
         <v>2913</v>
       </c>
       <c r="C857">
-        <v>8592</v>
+        <v>8604</v>
       </c>
       <c r="D857" t="s">
         <v>55</v>
@@ -24861,7 +24861,7 @@
         <v>2920</v>
       </c>
       <c r="C859">
-        <v>5085</v>
+        <v>5088</v>
       </c>
       <c r="D859" t="s">
         <v>530</v>
@@ -24878,7 +24878,7 @@
         <v>2924</v>
       </c>
       <c r="C860">
-        <v>4590</v>
+        <v>4597</v>
       </c>
       <c r="D860" t="s">
         <v>1197</v>
@@ -24895,7 +24895,7 @@
         <v>2928</v>
       </c>
       <c r="C861">
-        <v>4500</v>
+        <v>4536</v>
       </c>
       <c r="D861" t="s">
         <v>535</v>
@@ -24912,7 +24912,7 @@
         <v>2931</v>
       </c>
       <c r="C862">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="D862" t="s">
         <v>43</v>
@@ -24929,7 +24929,7 @@
         <v>2935</v>
       </c>
       <c r="C863">
-        <v>23955</v>
+        <v>23972</v>
       </c>
       <c r="D863" t="s">
         <v>1253</v>
@@ -24946,7 +24946,7 @@
         <v>2939</v>
       </c>
       <c r="C864">
-        <v>3531</v>
+        <v>3536</v>
       </c>
       <c r="D864" t="s">
         <v>945</v>
@@ -24963,7 +24963,7 @@
         <v>2943</v>
       </c>
       <c r="C865">
-        <v>20981</v>
+        <v>21052</v>
       </c>
       <c r="D865" t="s">
         <v>43</v>
@@ -24980,7 +24980,7 @@
         <v>2947</v>
       </c>
       <c r="C866">
-        <v>4932</v>
+        <v>4937</v>
       </c>
       <c r="D866" t="s">
         <v>16</v>
@@ -24997,7 +24997,7 @@
         <v>2950</v>
       </c>
       <c r="C867">
-        <v>2912</v>
+        <v>2917</v>
       </c>
       <c r="D867" t="s">
         <v>1078</v>
@@ -25014,7 +25014,7 @@
         <v>2954</v>
       </c>
       <c r="C868">
-        <v>34693</v>
+        <v>34715</v>
       </c>
       <c r="D868" t="s">
         <v>34</v>
@@ -25031,7 +25031,7 @@
         <v>2958</v>
       </c>
       <c r="C869">
-        <v>6237</v>
+        <v>6240</v>
       </c>
       <c r="D869" t="s">
         <v>387</v>
@@ -25048,7 +25048,7 @@
         <v>2962</v>
       </c>
       <c r="C870">
-        <v>34806</v>
+        <v>34817</v>
       </c>
       <c r="D870" t="s">
         <v>24</v>
@@ -25065,7 +25065,7 @@
         <v>2966</v>
       </c>
       <c r="C871">
-        <v>42562</v>
+        <v>42584</v>
       </c>
       <c r="D871" t="s">
         <v>34</v>
@@ -25082,7 +25082,7 @@
         <v>2969</v>
       </c>
       <c r="C872">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="D872" t="s">
         <v>24</v>
@@ -25099,7 +25099,7 @@
         <v>2973</v>
       </c>
       <c r="C873">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="D873" t="s">
         <v>24</v>
@@ -25116,7 +25116,7 @@
         <v>2977</v>
       </c>
       <c r="C874">
-        <v>7660</v>
+        <v>7663</v>
       </c>
       <c r="D874" t="s">
         <v>24</v>
@@ -25133,7 +25133,7 @@
         <v>2980</v>
       </c>
       <c r="C875">
-        <v>2378</v>
+        <v>2384</v>
       </c>
       <c r="D875" t="s">
         <v>24</v>
@@ -25150,7 +25150,7 @@
         <v>2984</v>
       </c>
       <c r="C876">
-        <v>7227</v>
+        <v>7225</v>
       </c>
       <c r="D876" t="s">
         <v>2681</v>
@@ -25167,7 +25167,7 @@
         <v>2987</v>
       </c>
       <c r="C877">
-        <v>4213</v>
+        <v>4227</v>
       </c>
       <c r="D877" t="s">
         <v>351</v>
@@ -25184,7 +25184,7 @@
         <v>2990</v>
       </c>
       <c r="C878">
-        <v>6078</v>
+        <v>6077</v>
       </c>
       <c r="D878" t="s">
         <v>43</v>
@@ -25201,7 +25201,7 @@
         <v>2993</v>
       </c>
       <c r="C879">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="D879" t="s">
         <v>43</v>
@@ -25235,7 +25235,7 @@
         <v>3000</v>
       </c>
       <c r="C881">
-        <v>5480</v>
+        <v>5487</v>
       </c>
       <c r="D881" t="s">
         <v>1511</v>
@@ -25269,7 +25269,7 @@
         <v>3007</v>
       </c>
       <c r="C883">
-        <v>2726</v>
+        <v>2733</v>
       </c>
       <c r="D883" t="s">
         <v>43</v>
@@ -25286,7 +25286,7 @@
         <v>3010</v>
       </c>
       <c r="C884">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="D884" t="s">
         <v>24</v>
@@ -25303,7 +25303,7 @@
         <v>3013</v>
       </c>
       <c r="C885">
-        <v>40148</v>
+        <v>40177</v>
       </c>
       <c r="D885" t="s">
         <v>43</v>
@@ -25320,7 +25320,7 @@
         <v>3017</v>
       </c>
       <c r="C886">
-        <v>12576</v>
+        <v>12577</v>
       </c>
       <c r="D886" t="s">
         <v>43</v>
@@ -25337,7 +25337,7 @@
         <v>3020</v>
       </c>
       <c r="C887">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="D887" t="s">
         <v>43</v>
@@ -25354,7 +25354,7 @@
         <v>3023</v>
       </c>
       <c r="C888">
-        <v>5746</v>
+        <v>5750</v>
       </c>
       <c r="D888" t="s">
         <v>2416</v>
@@ -25371,7 +25371,7 @@
         <v>3027</v>
       </c>
       <c r="C889">
-        <v>4197</v>
+        <v>4199</v>
       </c>
       <c r="D889" t="s">
         <v>43</v>
@@ -25388,7 +25388,7 @@
         <v>3030</v>
       </c>
       <c r="C890">
-        <v>86072</v>
+        <v>86132</v>
       </c>
       <c r="D890" t="s">
         <v>34</v>
@@ -25405,7 +25405,7 @@
         <v>3033</v>
       </c>
       <c r="C891">
-        <v>4838</v>
+        <v>4856</v>
       </c>
       <c r="D891" t="s">
         <v>24</v>
@@ -25422,7 +25422,7 @@
         <v>3035</v>
       </c>
       <c r="C892">
-        <v>3808</v>
+        <v>3810</v>
       </c>
       <c r="D892" t="s">
         <v>43</v>
@@ -25436,7 +25436,7 @@
         <v>3038</v>
       </c>
       <c r="C893">
-        <v>8652</v>
+        <v>8669</v>
       </c>
       <c r="D893" t="s">
         <v>43</v>
@@ -25453,7 +25453,7 @@
         <v>3041</v>
       </c>
       <c r="C894">
-        <v>4143</v>
+        <v>4147</v>
       </c>
       <c r="D894" t="s">
         <v>43</v>
@@ -25470,7 +25470,7 @@
         <v>3044</v>
       </c>
       <c r="C895">
-        <v>2261</v>
+        <v>2285</v>
       </c>
       <c r="D895" t="s">
         <v>11</v>
@@ -25504,7 +25504,7 @@
         <v>3050</v>
       </c>
       <c r="C897">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="D897" t="s">
         <v>43</v>
@@ -25521,7 +25521,7 @@
         <v>3053</v>
       </c>
       <c r="C898">
-        <v>2693</v>
+        <v>2694</v>
       </c>
       <c r="D898" t="s">
         <v>43</v>
@@ -25538,7 +25538,7 @@
         <v>3056</v>
       </c>
       <c r="C899">
-        <v>3795</v>
+        <v>3797</v>
       </c>
       <c r="D899" t="s">
         <v>43</v>
@@ -25555,7 +25555,7 @@
         <v>3059</v>
       </c>
       <c r="C900">
-        <v>13241</v>
+        <v>13242</v>
       </c>
       <c r="D900" t="s">
         <v>43</v>
@@ -25572,7 +25572,7 @@
         <v>3063</v>
       </c>
       <c r="C901">
-        <v>27102</v>
+        <v>27109</v>
       </c>
       <c r="D901" t="s">
         <v>43</v>
@@ -25589,7 +25589,7 @@
         <v>3066</v>
       </c>
       <c r="C902">
-        <v>5849</v>
+        <v>5852</v>
       </c>
       <c r="D902" t="s">
         <v>43</v>
@@ -25606,7 +25606,7 @@
         <v>3069</v>
       </c>
       <c r="C903">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D903" t="s">
         <v>43</v>
@@ -25623,7 +25623,7 @@
         <v>3072</v>
       </c>
       <c r="C904">
-        <v>4815</v>
+        <v>4814</v>
       </c>
       <c r="D904" t="s">
         <v>43</v>
@@ -25640,7 +25640,7 @@
         <v>3075</v>
       </c>
       <c r="C905">
-        <v>14866</v>
+        <v>14874</v>
       </c>
       <c r="D905" t="s">
         <v>43</v>
@@ -25671,7 +25671,7 @@
         <v>3082</v>
       </c>
       <c r="C907">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="D907" t="s">
         <v>43</v>
@@ -25688,7 +25688,7 @@
         <v>3086</v>
       </c>
       <c r="C908">
-        <v>8805</v>
+        <v>8835</v>
       </c>
       <c r="D908" t="s">
         <v>20</v>
@@ -25722,7 +25722,7 @@
         <v>3095</v>
       </c>
       <c r="C910">
-        <v>5985</v>
+        <v>6004</v>
       </c>
       <c r="D910" t="s">
         <v>3093</v>
@@ -25739,7 +25739,7 @@
         <v>3099</v>
       </c>
       <c r="C911">
-        <v>28677</v>
+        <v>28728</v>
       </c>
       <c r="D911" t="s">
         <v>3097</v>
@@ -25773,7 +25773,7 @@
         <v>3107</v>
       </c>
       <c r="C913">
-        <v>14193</v>
+        <v>14195</v>
       </c>
       <c r="D913" t="s">
         <v>364</v>
@@ -25790,7 +25790,7 @@
         <v>3111</v>
       </c>
       <c r="C914">
-        <v>12184</v>
+        <v>12203</v>
       </c>
       <c r="D914" t="s">
         <v>24</v>
@@ -25807,7 +25807,7 @@
         <v>3115</v>
       </c>
       <c r="C915">
-        <v>20044</v>
+        <v>20085</v>
       </c>
       <c r="D915" t="s">
         <v>24</v>
@@ -25824,7 +25824,7 @@
         <v>3118</v>
       </c>
       <c r="C916">
-        <v>5181</v>
+        <v>5200</v>
       </c>
       <c r="D916" t="s">
         <v>387</v>
@@ -25841,7 +25841,7 @@
         <v>3122</v>
       </c>
       <c r="C917">
-        <v>5208</v>
+        <v>5212</v>
       </c>
       <c r="D917" t="s">
         <v>988</v>
@@ -25858,7 +25858,7 @@
         <v>3125</v>
       </c>
       <c r="C918">
-        <v>3533</v>
+        <v>3538</v>
       </c>
       <c r="D918" t="s">
         <v>34</v>
@@ -25872,7 +25872,7 @@
         <v>3129</v>
       </c>
       <c r="C919">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="D919" t="s">
         <v>588</v>
@@ -25889,7 +25889,7 @@
         <v>3134</v>
       </c>
       <c r="C920">
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="D920" t="s">
         <v>3132</v>
@@ -25906,7 +25906,7 @@
         <v>3138</v>
       </c>
       <c r="C921">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="D921" t="s">
         <v>1109</v>
@@ -25923,7 +25923,7 @@
         <v>3143</v>
       </c>
       <c r="C922">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D922" t="s">
         <v>3141</v>
@@ -25940,7 +25940,7 @@
         <v>3146</v>
       </c>
       <c r="C923">
-        <v>58428</v>
+        <v>58553</v>
       </c>
       <c r="D923" t="s">
         <v>24</v>
@@ -25974,7 +25974,7 @@
         <v>3154</v>
       </c>
       <c r="C925">
-        <v>2486</v>
+        <v>2493</v>
       </c>
       <c r="D925" t="s">
         <v>1421</v>
@@ -25991,7 +25991,7 @@
         <v>3158</v>
       </c>
       <c r="C926">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="D926" t="s">
         <v>16</v>
@@ -26008,7 +26008,7 @@
         <v>3162</v>
       </c>
       <c r="C927">
-        <v>9293</v>
+        <v>9299</v>
       </c>
       <c r="D927" t="s">
         <v>1421</v>
@@ -26025,7 +26025,7 @@
         <v>3165</v>
       </c>
       <c r="C928">
-        <v>4315</v>
+        <v>4350</v>
       </c>
       <c r="D928" t="s">
         <v>789</v>
@@ -26042,7 +26042,7 @@
         <v>3169</v>
       </c>
       <c r="C929">
-        <v>6530</v>
+        <v>6536</v>
       </c>
       <c r="D929" t="s">
         <v>2416</v>
@@ -26059,7 +26059,7 @@
         <v>3173</v>
       </c>
       <c r="C930">
-        <v>13310</v>
+        <v>13324</v>
       </c>
       <c r="D930" t="s">
         <v>387</v>
@@ -26076,7 +26076,7 @@
         <v>3177</v>
       </c>
       <c r="C931">
-        <v>3776</v>
+        <v>3782</v>
       </c>
       <c r="D931" t="s">
         <v>2681</v>
@@ -26093,7 +26093,7 @@
         <v>3180</v>
       </c>
       <c r="C932">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="D932" t="s">
         <v>11</v>
@@ -26110,7 +26110,7 @@
         <v>3184</v>
       </c>
       <c r="C933">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="D933" t="s">
         <v>294</v>
@@ -26127,7 +26127,7 @@
         <v>3189</v>
       </c>
       <c r="C934">
-        <v>21909</v>
+        <v>21942</v>
       </c>
       <c r="D934" t="s">
         <v>3187</v>
@@ -26144,7 +26144,7 @@
         <v>3192</v>
       </c>
       <c r="C935">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="D935" t="s">
         <v>43</v>
@@ -26161,7 +26161,7 @@
         <v>3196</v>
       </c>
       <c r="C936">
-        <v>6967</v>
+        <v>6978</v>
       </c>
       <c r="D936" t="s">
         <v>131</v>
@@ -26178,7 +26178,7 @@
         <v>3200</v>
       </c>
       <c r="C937">
-        <v>6416</v>
+        <v>6421</v>
       </c>
       <c r="D937" t="s">
         <v>387</v>
@@ -26195,7 +26195,7 @@
         <v>3204</v>
       </c>
       <c r="C938">
-        <v>6263</v>
+        <v>6275</v>
       </c>
       <c r="D938" t="s">
         <v>96</v>
@@ -26212,7 +26212,7 @@
         <v>3208</v>
       </c>
       <c r="C939">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D939" t="s">
         <v>11</v>
@@ -26229,7 +26229,7 @@
         <v>3212</v>
       </c>
       <c r="C940">
-        <v>6607</v>
+        <v>6627</v>
       </c>
       <c r="D940" t="s">
         <v>3210</v>
@@ -26246,7 +26246,7 @@
         <v>3216</v>
       </c>
       <c r="C941">
-        <v>42757</v>
+        <v>42814</v>
       </c>
       <c r="D941" t="s">
         <v>2344</v>
@@ -26263,7 +26263,7 @@
         <v>3220</v>
       </c>
       <c r="C942">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="D942" t="s">
         <v>387</v>
@@ -26280,7 +26280,7 @@
         <v>3224</v>
       </c>
       <c r="C943">
-        <v>7268</v>
+        <v>7272</v>
       </c>
       <c r="D943" t="s">
         <v>11</v>
@@ -26297,7 +26297,7 @@
         <v>3228</v>
       </c>
       <c r="C944">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="D944" t="s">
         <v>135</v>
@@ -26314,7 +26314,7 @@
         <v>3232</v>
       </c>
       <c r="C945">
-        <v>6957</v>
+        <v>6959</v>
       </c>
       <c r="D945" t="s">
         <v>11</v>
@@ -26331,7 +26331,7 @@
         <v>3236</v>
       </c>
       <c r="C946">
-        <v>6872</v>
+        <v>6875</v>
       </c>
       <c r="D946" t="s">
         <v>1511</v>
@@ -26348,7 +26348,7 @@
         <v>3239</v>
       </c>
       <c r="C947">
-        <v>10705</v>
+        <v>10715</v>
       </c>
       <c r="D947" t="s">
         <v>387</v>
@@ -26365,7 +26365,7 @@
         <v>3242</v>
       </c>
       <c r="C948">
-        <v>3438</v>
+        <v>3447</v>
       </c>
       <c r="D948" t="s">
         <v>988</v>
@@ -26382,7 +26382,7 @@
         <v>3246</v>
       </c>
       <c r="C949">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="D949" t="s">
         <v>1197</v>
@@ -26399,7 +26399,7 @@
         <v>3250</v>
       </c>
       <c r="C950">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="D950" t="s">
         <v>11</v>
@@ -26416,7 +26416,7 @@
         <v>3254</v>
       </c>
       <c r="C951">
-        <v>4467</v>
+        <v>4478</v>
       </c>
       <c r="D951" t="s">
         <v>387</v>
@@ -26433,7 +26433,7 @@
         <v>3258</v>
       </c>
       <c r="C952">
-        <v>7559</v>
+        <v>7562</v>
       </c>
       <c r="D952" t="s">
         <v>387</v>
@@ -26450,7 +26450,7 @@
         <v>3261</v>
       </c>
       <c r="C953">
-        <v>6275</v>
+        <v>6286</v>
       </c>
       <c r="D953" t="s">
         <v>1706</v>
@@ -26467,7 +26467,7 @@
         <v>3265</v>
       </c>
       <c r="C954">
-        <v>7407</v>
+        <v>7416</v>
       </c>
       <c r="D954" t="s">
         <v>387</v>
@@ -26484,7 +26484,7 @@
         <v>3268</v>
       </c>
       <c r="C955">
-        <v>96595</v>
+        <v>96851</v>
       </c>
       <c r="D955" t="s">
         <v>387</v>
@@ -26518,7 +26518,7 @@
         <v>3275</v>
       </c>
       <c r="C957">
-        <v>18106</v>
+        <v>18139</v>
       </c>
       <c r="D957" t="s">
         <v>16</v>
@@ -26535,7 +26535,7 @@
         <v>3279</v>
       </c>
       <c r="C958">
-        <v>58962</v>
+        <v>59000</v>
       </c>
       <c r="D958" t="s">
         <v>3097</v>
@@ -26552,7 +26552,7 @@
         <v>3283</v>
       </c>
       <c r="C959">
-        <v>15041</v>
+        <v>15066</v>
       </c>
       <c r="D959" t="s">
         <v>43</v>
@@ -26569,7 +26569,7 @@
         <v>3287</v>
       </c>
       <c r="C960">
-        <v>6953</v>
+        <v>6956</v>
       </c>
       <c r="D960" t="s">
         <v>55</v>
@@ -26586,7 +26586,7 @@
         <v>3290</v>
       </c>
       <c r="C961">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="D961" t="s">
         <v>530</v>
@@ -26600,7 +26600,7 @@
         <v>3295</v>
       </c>
       <c r="C962">
-        <v>3366</v>
+        <v>3408</v>
       </c>
       <c r="D962" t="s">
         <v>3293</v>
@@ -26617,7 +26617,7 @@
         <v>3299</v>
       </c>
       <c r="C963">
-        <v>4148</v>
+        <v>4149</v>
       </c>
       <c r="D963" t="s">
         <v>364</v>
@@ -26634,7 +26634,7 @@
         <v>3303</v>
       </c>
       <c r="C964">
-        <v>10620</v>
+        <v>10624</v>
       </c>
       <c r="D964" t="s">
         <v>1421</v>
@@ -26651,7 +26651,7 @@
         <v>3307</v>
       </c>
       <c r="C965">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="D965" t="s">
         <v>387</v>
@@ -26668,7 +26668,7 @@
         <v>3311</v>
       </c>
       <c r="C966">
-        <v>4761</v>
+        <v>4777</v>
       </c>
       <c r="D966" t="s">
         <v>131</v>
@@ -26685,7 +26685,7 @@
         <v>3316</v>
       </c>
       <c r="C967">
-        <v>17194</v>
+        <v>17213</v>
       </c>
       <c r="D967" t="s">
         <v>3314</v>

--- a/repo.xlsx
+++ b/repo.xlsx
@@ -11090,7 +11090,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -11124,7 +11124,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>5069</v>
+        <v>5280</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -11175,7 +11175,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -11192,7 +11192,7 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -11209,7 +11209,7 @@
         <v>37</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -11226,7 +11226,7 @@
         <v>40</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -11260,7 +11260,7 @@
         <v>46</v>
       </c>
       <c r="C12">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -11277,7 +11277,7 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -11373,7 +11373,7 @@
         <v>71</v>
       </c>
       <c r="C19">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -11407,7 +11407,7 @@
         <v>78</v>
       </c>
       <c r="C21">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -11424,7 +11424,7 @@
         <v>81</v>
       </c>
       <c r="C22">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -11475,7 +11475,7 @@
         <v>93</v>
       </c>
       <c r="C25">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -11526,7 +11526,7 @@
         <v>106</v>
       </c>
       <c r="C28">
-        <v>4891</v>
+        <v>4906</v>
       </c>
       <c r="D28" t="s">
         <v>104</v>
@@ -11591,7 +11591,7 @@
         <v>120</v>
       </c>
       <c r="C32">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D32" t="s">
         <v>118</v>
@@ -11642,7 +11642,7 @@
         <v>130</v>
       </c>
       <c r="C35">
-        <v>885</v>
+        <v>929</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -11690,7 +11690,7 @@
         <v>140</v>
       </c>
       <c r="C38">
-        <v>3353</v>
+        <v>3356</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
@@ -11724,7 +11724,7 @@
         <v>147</v>
       </c>
       <c r="C40">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -11826,7 +11826,7 @@
         <v>170</v>
       </c>
       <c r="C46">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="D46" t="s">
         <v>168</v>
@@ -11843,7 +11843,7 @@
         <v>173</v>
       </c>
       <c r="C47">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D47" t="s">
         <v>125</v>
@@ -11877,7 +11877,7 @@
         <v>180</v>
       </c>
       <c r="C49">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="D49" t="s">
         <v>150</v>
@@ -11894,7 +11894,7 @@
         <v>184</v>
       </c>
       <c r="C50">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -11911,7 +11911,7 @@
         <v>188</v>
       </c>
       <c r="C51">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
         <v>142</v>
@@ -11979,7 +11979,7 @@
         <v>203</v>
       </c>
       <c r="C55">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="D55" t="s">
         <v>104</v>
@@ -12030,7 +12030,7 @@
         <v>214</v>
       </c>
       <c r="C58">
-        <v>8056</v>
+        <v>8099</v>
       </c>
       <c r="D58" t="s">
         <v>212</v>
@@ -12064,7 +12064,7 @@
         <v>220</v>
       </c>
       <c r="C60">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="D60" t="s">
         <v>125</v>
@@ -12095,7 +12095,7 @@
         <v>227</v>
       </c>
       <c r="C62">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -12112,7 +12112,7 @@
         <v>230</v>
       </c>
       <c r="C63">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -12180,7 +12180,7 @@
         <v>245</v>
       </c>
       <c r="C67">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D67" t="s">
         <v>243</v>
@@ -12197,7 +12197,7 @@
         <v>249</v>
       </c>
       <c r="C68">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -12214,7 +12214,7 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D69" t="s">
         <v>216</v>
@@ -12248,7 +12248,7 @@
         <v>260</v>
       </c>
       <c r="C71">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
         <v>32</v>
@@ -12265,7 +12265,7 @@
         <v>265</v>
       </c>
       <c r="C72">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D72" t="s">
         <v>263</v>
@@ -12350,7 +12350,7 @@
         <v>281</v>
       </c>
       <c r="C77">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D77" t="s">
         <v>32</v>
@@ -12364,7 +12364,7 @@
         <v>284</v>
       </c>
       <c r="C78">
-        <v>3555</v>
+        <v>3560</v>
       </c>
       <c r="D78" t="s">
         <v>28</v>
@@ -12381,7 +12381,7 @@
         <v>287</v>
       </c>
       <c r="C79">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" t="s">
         <v>69</v>
@@ -12415,7 +12415,7 @@
         <v>294</v>
       </c>
       <c r="C81">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
         <v>212</v>
@@ -12466,7 +12466,7 @@
         <v>306</v>
       </c>
       <c r="C84">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D84" t="s">
         <v>304</v>
@@ -12534,7 +12534,7 @@
         <v>320</v>
       </c>
       <c r="C88">
-        <v>3873</v>
+        <v>3880</v>
       </c>
       <c r="D88" t="s">
         <v>150</v>
@@ -12653,7 +12653,7 @@
         <v>347</v>
       </c>
       <c r="C95">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
         <v>345</v>
@@ -12670,7 +12670,7 @@
         <v>352</v>
       </c>
       <c r="C96">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D96" t="s">
         <v>350</v>
@@ -12772,7 +12772,7 @@
         <v>373</v>
       </c>
       <c r="C102">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
         <v>212</v>
@@ -12854,7 +12854,7 @@
         <v>390</v>
       </c>
       <c r="C107">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D107" t="s">
         <v>388</v>
@@ -12871,7 +12871,7 @@
         <v>394</v>
       </c>
       <c r="C108">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D108" t="s">
         <v>392</v>
@@ -12905,7 +12905,7 @@
         <v>401</v>
       </c>
       <c r="C110">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D110" t="s">
         <v>399</v>
@@ -13075,7 +13075,7 @@
         <v>432</v>
       </c>
       <c r="C120">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -13140,7 +13140,7 @@
         <v>446</v>
       </c>
       <c r="C124">
-        <v>11399</v>
+        <v>11408</v>
       </c>
       <c r="D124" t="s">
         <v>216</v>
@@ -13157,7 +13157,7 @@
         <v>449</v>
       </c>
       <c r="C125">
-        <v>11289</v>
+        <v>11296</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
@@ -13222,7 +13222,7 @@
         <v>462</v>
       </c>
       <c r="C129">
-        <v>7469</v>
+        <v>7478</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
@@ -13239,7 +13239,7 @@
         <v>467</v>
       </c>
       <c r="C130">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D130" t="s">
         <v>465</v>
@@ -13307,7 +13307,7 @@
         <v>482</v>
       </c>
       <c r="C134">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D134" t="s">
         <v>480</v>
@@ -13375,7 +13375,7 @@
         <v>495</v>
       </c>
       <c r="C138">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D138" t="s">
         <v>142</v>
@@ -13443,7 +13443,7 @@
         <v>511</v>
       </c>
       <c r="C142">
-        <v>4368</v>
+        <v>4375</v>
       </c>
       <c r="D142" t="s">
         <v>480</v>
@@ -13477,7 +13477,7 @@
         <v>517</v>
       </c>
       <c r="C144">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D144" t="s">
         <v>19</v>
@@ -13562,7 +13562,7 @@
         <v>534</v>
       </c>
       <c r="C149">
-        <v>2676</v>
+        <v>2681</v>
       </c>
       <c r="D149" t="s">
         <v>532</v>
@@ -13596,7 +13596,7 @@
         <v>542</v>
       </c>
       <c r="C151">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D151" t="s">
         <v>540</v>
@@ -13647,7 +13647,7 @@
         <v>551</v>
       </c>
       <c r="C154">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D154" t="s">
         <v>212</v>
@@ -13698,7 +13698,7 @@
         <v>561</v>
       </c>
       <c r="C157">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -13783,7 +13783,7 @@
         <v>578</v>
       </c>
       <c r="C162">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="D162" t="s">
         <v>576</v>
@@ -13885,7 +13885,7 @@
         <v>597</v>
       </c>
       <c r="C168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
         <v>304</v>
@@ -13987,7 +13987,7 @@
         <v>618</v>
       </c>
       <c r="C174">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -14120,7 +14120,7 @@
         <v>646</v>
       </c>
       <c r="C182">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D182" t="s">
         <v>194</v>
@@ -14171,7 +14171,7 @@
         <v>657</v>
       </c>
       <c r="C185">
-        <v>2741</v>
+        <v>2752</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -14188,7 +14188,7 @@
         <v>661</v>
       </c>
       <c r="C186">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" t="s">
         <v>659</v>
@@ -14256,7 +14256,7 @@
         <v>673</v>
       </c>
       <c r="C190">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D190" t="s">
         <v>19</v>
@@ -14273,7 +14273,7 @@
         <v>677</v>
       </c>
       <c r="C191">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D191" t="s">
         <v>675</v>
@@ -14392,7 +14392,7 @@
         <v>702</v>
       </c>
       <c r="C198">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -14409,7 +14409,7 @@
         <v>705</v>
       </c>
       <c r="C199">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D199" t="s">
         <v>19</v>
@@ -14443,7 +14443,7 @@
         <v>712</v>
       </c>
       <c r="C201">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -14596,7 +14596,7 @@
         <v>744</v>
       </c>
       <c r="C210">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="D210" t="s">
         <v>576</v>
@@ -14647,7 +14647,7 @@
         <v>754</v>
       </c>
       <c r="C213">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D213" t="s">
         <v>19</v>
@@ -14681,7 +14681,7 @@
         <v>760</v>
       </c>
       <c r="C215">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D215" t="s">
         <v>759</v>
@@ -14763,7 +14763,7 @@
         <v>776</v>
       </c>
       <c r="C220">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -14780,7 +14780,7 @@
         <v>779</v>
       </c>
       <c r="C221">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -14845,7 +14845,7 @@
         <v>792</v>
       </c>
       <c r="C225">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="D225" t="s">
         <v>100</v>
@@ -15015,7 +15015,7 @@
         <v>828</v>
       </c>
       <c r="C235">
-        <v>23619</v>
+        <v>23642</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
@@ -15134,7 +15134,7 @@
         <v>854</v>
       </c>
       <c r="C242">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D242" t="s">
         <v>852</v>
@@ -15270,7 +15270,7 @@
         <v>882</v>
       </c>
       <c r="C250">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="D250" t="s">
         <v>880</v>
@@ -15389,7 +15389,7 @@
         <v>908</v>
       </c>
       <c r="C257">
-        <v>6144</v>
+        <v>6168</v>
       </c>
       <c r="D257" t="s">
         <v>906</v>
@@ -15440,7 +15440,7 @@
         <v>917</v>
       </c>
       <c r="C260">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D260" t="s">
         <v>19</v>
@@ -15474,7 +15474,7 @@
         <v>924</v>
       </c>
       <c r="C262">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D262" t="s">
         <v>19</v>
@@ -15525,7 +15525,7 @@
         <v>935</v>
       </c>
       <c r="C265">
-        <v>11897</v>
+        <v>11904</v>
       </c>
       <c r="D265" t="s">
         <v>933</v>
@@ -15542,7 +15542,7 @@
         <v>938</v>
       </c>
       <c r="C266">
-        <v>6226</v>
+        <v>6230</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
@@ -15593,7 +15593,7 @@
         <v>948</v>
       </c>
       <c r="C269">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D269" t="s">
         <v>7</v>
@@ -15712,7 +15712,7 @@
         <v>970</v>
       </c>
       <c r="C276">
-        <v>8780</v>
+        <v>8781</v>
       </c>
       <c r="D276" t="s">
         <v>95</v>
@@ -15746,7 +15746,7 @@
         <v>978</v>
       </c>
       <c r="C278">
-        <v>7036</v>
+        <v>7041</v>
       </c>
       <c r="D278" t="s">
         <v>392</v>
@@ -15780,7 +15780,7 @@
         <v>985</v>
       </c>
       <c r="C280">
-        <v>6334</v>
+        <v>6335</v>
       </c>
       <c r="D280" t="s">
         <v>19</v>
@@ -15814,7 +15814,7 @@
         <v>990</v>
       </c>
       <c r="C282">
-        <v>4092</v>
+        <v>4094</v>
       </c>
       <c r="D282" t="s">
         <v>7</v>
@@ -15831,7 +15831,7 @@
         <v>993</v>
       </c>
       <c r="C283">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D283" t="s">
         <v>7</v>
@@ -15916,7 +15916,7 @@
         <v>1010</v>
       </c>
       <c r="C288">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D288" t="s">
         <v>125</v>
@@ -16001,7 +16001,7 @@
         <v>1028</v>
       </c>
       <c r="C293">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="D293" t="s">
         <v>1026</v>
@@ -16171,7 +16171,7 @@
         <v>1062</v>
       </c>
       <c r="C303">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D303" t="s">
         <v>1060</v>
@@ -16188,7 +16188,7 @@
         <v>1065</v>
       </c>
       <c r="C304">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D304" t="s">
         <v>142</v>
@@ -16256,7 +16256,7 @@
         <v>1079</v>
       </c>
       <c r="C308">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D308" t="s">
         <v>23</v>
@@ -16307,7 +16307,7 @@
         <v>1088</v>
       </c>
       <c r="C311">
-        <v>2244</v>
+        <v>2250</v>
       </c>
       <c r="D311" t="s">
         <v>7</v>
@@ -16324,7 +16324,7 @@
         <v>1091</v>
       </c>
       <c r="C312">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="D312" t="s">
         <v>7</v>
@@ -16477,7 +16477,7 @@
         <v>1123</v>
       </c>
       <c r="C321">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D321" t="s">
         <v>62</v>
@@ -16525,7 +16525,7 @@
         <v>1134</v>
       </c>
       <c r="C324">
-        <v>15431</v>
+        <v>15436</v>
       </c>
       <c r="D324" t="s">
         <v>856</v>
@@ -16542,7 +16542,7 @@
         <v>1138</v>
       </c>
       <c r="C325">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="D325" t="s">
         <v>898</v>
@@ -16559,7 +16559,7 @@
         <v>1141</v>
       </c>
       <c r="C326">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D326" t="s">
         <v>7</v>
@@ -16610,7 +16610,7 @@
         <v>1153</v>
       </c>
       <c r="C329">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="D329" t="s">
         <v>1151</v>
@@ -16746,7 +16746,7 @@
         <v>1180</v>
       </c>
       <c r="C337">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D337" t="s">
         <v>19</v>
@@ -16763,7 +16763,7 @@
         <v>1183</v>
       </c>
       <c r="C338">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
@@ -16780,7 +16780,7 @@
         <v>1187</v>
       </c>
       <c r="C339">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D339" t="s">
         <v>388</v>
@@ -16984,7 +16984,7 @@
         <v>1229</v>
       </c>
       <c r="C351">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D351" t="s">
         <v>1227</v>
@@ -17018,7 +17018,7 @@
         <v>1236</v>
       </c>
       <c r="C353">
-        <v>4505</v>
+        <v>4507</v>
       </c>
       <c r="D353" t="s">
         <v>168</v>
@@ -17052,7 +17052,7 @@
         <v>1246</v>
       </c>
       <c r="C355">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="D355" t="s">
         <v>1244</v>
@@ -17137,7 +17137,7 @@
         <v>1262</v>
       </c>
       <c r="C360">
-        <v>20036</v>
+        <v>20040</v>
       </c>
       <c r="D360" t="s">
         <v>312</v>
@@ -17188,7 +17188,7 @@
         <v>1272</v>
       </c>
       <c r="C363">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="D363" t="s">
         <v>194</v>
@@ -17307,7 +17307,7 @@
         <v>1295</v>
       </c>
       <c r="C370">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="D370" t="s">
         <v>308</v>
@@ -17324,7 +17324,7 @@
         <v>1298</v>
       </c>
       <c r="C371">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D371" t="s">
         <v>7</v>
@@ -17375,7 +17375,7 @@
         <v>1307</v>
       </c>
       <c r="C374">
-        <v>15486</v>
+        <v>15492</v>
       </c>
       <c r="D374" t="s">
         <v>7</v>
@@ -17460,7 +17460,7 @@
         <v>1324</v>
       </c>
       <c r="C379">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D379" t="s">
         <v>304</v>
@@ -17477,7 +17477,7 @@
         <v>1327</v>
       </c>
       <c r="C380">
-        <v>4249</v>
+        <v>4250</v>
       </c>
       <c r="D380" t="s">
         <v>19</v>
@@ -17868,7 +17868,7 @@
         <v>1403</v>
       </c>
       <c r="C403">
-        <v>7905</v>
+        <v>7909</v>
       </c>
       <c r="D403" t="s">
         <v>1401</v>
@@ -18157,7 +18157,7 @@
         <v>1462</v>
       </c>
       <c r="C420">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="D420" t="s">
         <v>32</v>
@@ -18225,7 +18225,7 @@
         <v>1476</v>
       </c>
       <c r="C424">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D424" t="s">
         <v>1474</v>
@@ -18293,7 +18293,7 @@
         <v>1489</v>
       </c>
       <c r="C428">
-        <v>2712</v>
+        <v>2726</v>
       </c>
       <c r="D428" t="s">
         <v>19</v>
@@ -18378,7 +18378,7 @@
         <v>1507</v>
       </c>
       <c r="C433">
-        <v>11827</v>
+        <v>11829</v>
       </c>
       <c r="D433" t="s">
         <v>7</v>
@@ -18409,7 +18409,7 @@
         <v>1511</v>
       </c>
       <c r="C435">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="D435" t="s">
         <v>23</v>
@@ -18443,7 +18443,7 @@
         <v>1519</v>
       </c>
       <c r="C437">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="D437" t="s">
         <v>1517</v>
@@ -18494,7 +18494,7 @@
         <v>1529</v>
       </c>
       <c r="C440">
-        <v>4088</v>
+        <v>4089</v>
       </c>
       <c r="D440" t="s">
         <v>7</v>
@@ -18511,7 +18511,7 @@
         <v>1532</v>
       </c>
       <c r="C441">
-        <v>21714</v>
+        <v>21715</v>
       </c>
       <c r="D441" t="s">
         <v>19</v>
@@ -18545,7 +18545,7 @@
         <v>1538</v>
       </c>
       <c r="C443">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="D443" t="s">
         <v>7</v>
@@ -18562,7 +18562,7 @@
         <v>1542</v>
       </c>
       <c r="C444">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="D444" t="s">
         <v>7</v>
@@ -18579,7 +18579,7 @@
         <v>1546</v>
       </c>
       <c r="C445">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="D445" t="s">
         <v>1544</v>
@@ -18613,7 +18613,7 @@
         <v>1553</v>
       </c>
       <c r="C447">
-        <v>7284</v>
+        <v>7285</v>
       </c>
       <c r="D447" t="s">
         <v>1551</v>
@@ -18681,7 +18681,7 @@
         <v>1567</v>
       </c>
       <c r="C451">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="D451" t="s">
         <v>7</v>
@@ -18749,7 +18749,7 @@
         <v>1580</v>
       </c>
       <c r="C455">
-        <v>3569</v>
+        <v>3575</v>
       </c>
       <c r="D455" t="s">
         <v>7</v>
@@ -18885,7 +18885,7 @@
         <v>1607</v>
       </c>
       <c r="C463">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D463" t="s">
         <v>7</v>
@@ -19021,7 +19021,7 @@
         <v>1634</v>
       </c>
       <c r="C471">
-        <v>7820</v>
+        <v>7823</v>
       </c>
       <c r="D471" t="s">
         <v>1632</v>
@@ -19089,7 +19089,7 @@
         <v>1647</v>
       </c>
       <c r="C475">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D475" t="s">
         <v>540</v>
@@ -19208,7 +19208,7 @@
         <v>1671</v>
       </c>
       <c r="C482">
-        <v>7881</v>
+        <v>7883</v>
       </c>
       <c r="D482" t="s">
         <v>1004</v>
@@ -19259,7 +19259,7 @@
         <v>1682</v>
       </c>
       <c r="C485">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D485" t="s">
         <v>1680</v>
@@ -19293,7 +19293,7 @@
         <v>1688</v>
       </c>
       <c r="C487">
-        <v>36726</v>
+        <v>36732</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
@@ -19429,7 +19429,7 @@
         <v>1716</v>
       </c>
       <c r="C495">
-        <v>42042</v>
+        <v>42043</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
@@ -19446,7 +19446,7 @@
         <v>1719</v>
       </c>
       <c r="C496">
-        <v>12313</v>
+        <v>12317</v>
       </c>
       <c r="D496" t="s">
         <v>23</v>
@@ -19531,7 +19531,7 @@
         <v>1736</v>
       </c>
       <c r="C501">
-        <v>6550</v>
+        <v>6551</v>
       </c>
       <c r="D501" t="s">
         <v>1734</v>
@@ -19565,7 +19565,7 @@
         <v>1742</v>
       </c>
       <c r="C503">
-        <v>6228</v>
+        <v>6231</v>
       </c>
       <c r="D503" t="s">
         <v>32</v>
@@ -19667,7 +19667,7 @@
         <v>1762</v>
       </c>
       <c r="C509">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="D509" t="s">
         <v>19</v>
@@ -19735,7 +19735,7 @@
         <v>1774</v>
       </c>
       <c r="C513">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="D513" t="s">
         <v>212</v>
@@ -19752,7 +19752,7 @@
         <v>1777</v>
       </c>
       <c r="C514">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="D514" t="s">
         <v>19</v>
@@ -19769,7 +19769,7 @@
         <v>1779</v>
       </c>
       <c r="C515">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D515" t="s">
         <v>216</v>
@@ -19956,7 +19956,7 @@
         <v>1817</v>
       </c>
       <c r="C526">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="D526" t="s">
         <v>1815</v>
@@ -19990,7 +19990,7 @@
         <v>1823</v>
       </c>
       <c r="C528">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D528" t="s">
         <v>32</v>
@@ -20092,7 +20092,7 @@
         <v>1842</v>
       </c>
       <c r="C534">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D534" t="s">
         <v>32</v>
@@ -20143,7 +20143,7 @@
         <v>1852</v>
       </c>
       <c r="C537">
-        <v>5492</v>
+        <v>5519</v>
       </c>
       <c r="D537" t="s">
         <v>1128</v>
@@ -20160,7 +20160,7 @@
         <v>1855</v>
       </c>
       <c r="C538">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="D538" t="s">
         <v>19</v>
@@ -20228,7 +20228,7 @@
         <v>1868</v>
       </c>
       <c r="C542">
-        <v>3374</v>
+        <v>3378</v>
       </c>
       <c r="D542" t="s">
         <v>441</v>
@@ -20245,7 +20245,7 @@
         <v>1872</v>
       </c>
       <c r="C543">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D543" t="s">
         <v>194</v>
@@ -20296,7 +20296,7 @@
         <v>1883</v>
       </c>
       <c r="C546">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="D546" t="s">
         <v>1881</v>
@@ -20381,7 +20381,7 @@
         <v>1900</v>
       </c>
       <c r="C551">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D551" t="s">
         <v>880</v>
@@ -20463,7 +20463,7 @@
         <v>1915</v>
       </c>
       <c r="C556">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D556" t="s">
         <v>880</v>
@@ -20480,7 +20480,7 @@
         <v>1918</v>
       </c>
       <c r="C557">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D557" t="s">
         <v>142</v>
@@ -20531,7 +20531,7 @@
         <v>1927</v>
       </c>
       <c r="C560">
-        <v>5743</v>
+        <v>5744</v>
       </c>
       <c r="D560" t="s">
         <v>23</v>
@@ -20548,7 +20548,7 @@
         <v>1930</v>
       </c>
       <c r="C561">
-        <v>15379</v>
+        <v>15380</v>
       </c>
       <c r="D561" t="s">
         <v>28</v>
@@ -20667,7 +20667,7 @@
         <v>1953</v>
       </c>
       <c r="C568">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D568" t="s">
         <v>7</v>
@@ -20701,7 +20701,7 @@
         <v>1960</v>
       </c>
       <c r="C570">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="D570" t="s">
         <v>7</v>
@@ -20718,7 +20718,7 @@
         <v>1963</v>
       </c>
       <c r="C571">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D571" t="s">
         <v>1348</v>
@@ -20769,7 +20769,7 @@
         <v>1973</v>
       </c>
       <c r="C574">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="D574" t="s">
         <v>1971</v>
@@ -20786,7 +20786,7 @@
         <v>1976</v>
       </c>
       <c r="C575">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D575" t="s">
         <v>212</v>
@@ -20803,7 +20803,7 @@
         <v>1980</v>
       </c>
       <c r="C576">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="D576" t="s">
         <v>1978</v>
@@ -20956,7 +20956,7 @@
         <v>2011</v>
       </c>
       <c r="C585">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="D585" t="s">
         <v>1355</v>
@@ -21024,7 +21024,7 @@
         <v>2023</v>
       </c>
       <c r="C589">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="D589" t="s">
         <v>7</v>
@@ -21058,7 +21058,7 @@
         <v>2029</v>
       </c>
       <c r="C591">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D591" t="s">
         <v>7</v>
@@ -21075,7 +21075,7 @@
         <v>2034</v>
       </c>
       <c r="C592">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D592" t="s">
         <v>2032</v>
@@ -21092,7 +21092,7 @@
         <v>2037</v>
       </c>
       <c r="C593">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="D593" t="s">
         <v>540</v>
@@ -21109,7 +21109,7 @@
         <v>2040</v>
       </c>
       <c r="C594">
-        <v>6134</v>
+        <v>6135</v>
       </c>
       <c r="D594" t="s">
         <v>7</v>
@@ -21126,7 +21126,7 @@
         <v>2043</v>
       </c>
       <c r="C595">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D595" t="s">
         <v>308</v>
@@ -21160,7 +21160,7 @@
         <v>2049</v>
       </c>
       <c r="C597">
-        <v>7017</v>
+        <v>7018</v>
       </c>
       <c r="D597" t="s">
         <v>23</v>
@@ -21211,7 +21211,7 @@
         <v>2060</v>
       </c>
       <c r="C600">
-        <v>7808</v>
+        <v>7812</v>
       </c>
       <c r="D600" t="s">
         <v>2058</v>
@@ -21364,7 +21364,7 @@
         <v>2090</v>
       </c>
       <c r="C609">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="D609" t="s">
         <v>104</v>
@@ -21381,7 +21381,7 @@
         <v>2094</v>
       </c>
       <c r="C610">
-        <v>3984</v>
+        <v>3986</v>
       </c>
       <c r="D610" t="s">
         <v>2092</v>
@@ -21398,7 +21398,7 @@
         <v>2097</v>
       </c>
       <c r="C611">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D611" t="s">
         <v>212</v>
@@ -21466,7 +21466,7 @@
         <v>2112</v>
       </c>
       <c r="C615">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="D615" t="s">
         <v>2110</v>
@@ -21551,7 +21551,7 @@
         <v>2128</v>
       </c>
       <c r="C620">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="D620" t="s">
         <v>32</v>
@@ -21568,7 +21568,7 @@
         <v>2132</v>
       </c>
       <c r="C621">
-        <v>25735</v>
+        <v>25740</v>
       </c>
       <c r="D621" t="s">
         <v>2130</v>
@@ -21602,7 +21602,7 @@
         <v>2140</v>
       </c>
       <c r="C623">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D623" t="s">
         <v>2138</v>
@@ -21619,7 +21619,7 @@
         <v>2144</v>
       </c>
       <c r="C624">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="D624" t="s">
         <v>2142</v>
@@ -21636,7 +21636,7 @@
         <v>2147</v>
       </c>
       <c r="C625">
-        <v>10550</v>
+        <v>10552</v>
       </c>
       <c r="D625" t="s">
         <v>822</v>
@@ -21653,7 +21653,7 @@
         <v>2150</v>
       </c>
       <c r="C626">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D626" t="s">
         <v>1657</v>
@@ -21857,7 +21857,7 @@
         <v>2190</v>
       </c>
       <c r="C638">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D638" t="s">
         <v>794</v>
@@ -21922,7 +21922,7 @@
         <v>2203</v>
       </c>
       <c r="C642">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="D642" t="s">
         <v>2201</v>
@@ -22092,7 +22092,7 @@
         <v>2237</v>
       </c>
       <c r="C652">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="D652" t="s">
         <v>354</v>
@@ -22126,7 +22126,7 @@
         <v>2243</v>
       </c>
       <c r="C654">
-        <v>14786</v>
+        <v>14790</v>
       </c>
       <c r="D654" t="s">
         <v>19</v>
@@ -22160,7 +22160,7 @@
         <v>2249</v>
       </c>
       <c r="C656">
-        <v>14713</v>
+        <v>14717</v>
       </c>
       <c r="D656" t="s">
         <v>1945</v>
@@ -22177,7 +22177,7 @@
         <v>2252</v>
       </c>
       <c r="C657">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D657" t="s">
         <v>308</v>
@@ -22194,7 +22194,7 @@
         <v>2255</v>
       </c>
       <c r="C658">
-        <v>15879</v>
+        <v>15881</v>
       </c>
       <c r="D658" t="s">
         <v>32</v>
@@ -22398,7 +22398,7 @@
         <v>2293</v>
       </c>
       <c r="C670">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="D670" t="s">
         <v>7</v>
@@ -22483,7 +22483,7 @@
         <v>2309</v>
       </c>
       <c r="C675">
-        <v>11190</v>
+        <v>11191</v>
       </c>
       <c r="D675" t="s">
         <v>194</v>
@@ -22517,7 +22517,7 @@
         <v>2315</v>
       </c>
       <c r="C677">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="D677" t="s">
         <v>19</v>
@@ -22551,7 +22551,7 @@
         <v>2321</v>
       </c>
       <c r="C679">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="D679" t="s">
         <v>19</v>
@@ -22568,7 +22568,7 @@
         <v>2325</v>
       </c>
       <c r="C680">
-        <v>7126</v>
+        <v>7128</v>
       </c>
       <c r="D680" t="s">
         <v>1494</v>
@@ -22585,7 +22585,7 @@
         <v>2328</v>
       </c>
       <c r="C681">
-        <v>10445</v>
+        <v>10450</v>
       </c>
       <c r="D681" t="s">
         <v>150</v>
@@ -22602,7 +22602,7 @@
         <v>2331</v>
       </c>
       <c r="C682">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D682" t="s">
         <v>7</v>
@@ -22636,7 +22636,7 @@
         <v>2337</v>
       </c>
       <c r="C684">
-        <v>51269</v>
+        <v>51273</v>
       </c>
       <c r="D684" t="s">
         <v>2102</v>
@@ -22670,7 +22670,7 @@
         <v>2344</v>
       </c>
       <c r="C686">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D686" t="s">
         <v>694</v>
@@ -22755,7 +22755,7 @@
         <v>2361</v>
       </c>
       <c r="C691">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="D691" t="s">
         <v>7</v>
@@ -22789,7 +22789,7 @@
         <v>2367</v>
       </c>
       <c r="C693">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D693" t="s">
         <v>441</v>
@@ -22908,7 +22908,7 @@
         <v>2391</v>
       </c>
       <c r="C700">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D700" t="s">
         <v>1094</v>
@@ -22925,7 +22925,7 @@
         <v>2394</v>
       </c>
       <c r="C701">
-        <v>19320</v>
+        <v>19322</v>
       </c>
       <c r="D701" t="s">
         <v>7</v>
@@ -22942,7 +22942,7 @@
         <v>2397</v>
       </c>
       <c r="C702">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="D702" t="s">
         <v>23</v>
@@ -22976,7 +22976,7 @@
         <v>2404</v>
       </c>
       <c r="C704">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="D704" t="s">
         <v>392</v>
@@ -23027,7 +23027,7 @@
         <v>2414</v>
       </c>
       <c r="C707">
-        <v>5110</v>
+        <v>5111</v>
       </c>
       <c r="D707" t="s">
         <v>2412</v>
@@ -23061,7 +23061,7 @@
         <v>2420</v>
       </c>
       <c r="C709">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D709" t="s">
         <v>7</v>
@@ -23177,7 +23177,7 @@
         <v>2442</v>
       </c>
       <c r="C716">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D716" t="s">
         <v>138</v>
@@ -23228,7 +23228,7 @@
         <v>2452</v>
       </c>
       <c r="C719">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="D719" t="s">
         <v>1766</v>
@@ -23296,7 +23296,7 @@
         <v>2465</v>
       </c>
       <c r="C723">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="D723" t="s">
         <v>441</v>
@@ -23313,7 +23313,7 @@
         <v>2468</v>
       </c>
       <c r="C724">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D724" t="s">
         <v>7</v>
@@ -23347,7 +23347,7 @@
         <v>2474</v>
       </c>
       <c r="C726">
-        <v>6842</v>
+        <v>6844</v>
       </c>
       <c r="D726" t="s">
         <v>19</v>
@@ -23449,7 +23449,7 @@
         <v>2495</v>
       </c>
       <c r="C732">
-        <v>40211</v>
+        <v>40216</v>
       </c>
       <c r="D732" t="s">
         <v>7</v>
@@ -23483,7 +23483,7 @@
         <v>2502</v>
       </c>
       <c r="C734">
-        <v>26732</v>
+        <v>26738</v>
       </c>
       <c r="D734" t="s">
         <v>2372</v>
@@ -23585,7 +23585,7 @@
         <v>2520</v>
       </c>
       <c r="C740">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D740" t="s">
         <v>212</v>
@@ -23619,7 +23619,7 @@
         <v>2527</v>
       </c>
       <c r="C742">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="D742" t="s">
         <v>7</v>
@@ -23738,7 +23738,7 @@
         <v>2550</v>
       </c>
       <c r="C749">
-        <v>10260</v>
+        <v>10266</v>
       </c>
       <c r="D749" t="s">
         <v>659</v>
@@ -23823,7 +23823,7 @@
         <v>2566</v>
       </c>
       <c r="C754">
-        <v>6590</v>
+        <v>6591</v>
       </c>
       <c r="D754" t="s">
         <v>2201</v>
@@ -23993,7 +23993,7 @@
         <v>2600</v>
       </c>
       <c r="C764">
-        <v>147266</v>
+        <v>147272</v>
       </c>
       <c r="D764" t="s">
         <v>1544</v>
@@ -24061,7 +24061,7 @@
         <v>2612</v>
       </c>
       <c r="C768">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D768" t="s">
         <v>19</v>
@@ -24146,7 +24146,7 @@
         <v>2627</v>
       </c>
       <c r="C773">
-        <v>9388</v>
+        <v>9390</v>
       </c>
       <c r="D773" t="s">
         <v>19</v>
@@ -24163,7 +24163,7 @@
         <v>2632</v>
       </c>
       <c r="C774">
-        <v>14144</v>
+        <v>14145</v>
       </c>
       <c r="D774" t="s">
         <v>2630</v>
@@ -24265,7 +24265,7 @@
         <v>2652</v>
       </c>
       <c r="C780">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="D780" t="s">
         <v>19</v>
@@ -24316,7 +24316,7 @@
         <v>2661</v>
       </c>
       <c r="C783">
-        <v>5221</v>
+        <v>5224</v>
       </c>
       <c r="D783" t="s">
         <v>32</v>
@@ -24350,7 +24350,7 @@
         <v>2668</v>
       </c>
       <c r="C785">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D785" t="s">
         <v>852</v>
@@ -24367,7 +24367,7 @@
         <v>2671</v>
       </c>
       <c r="C786">
-        <v>33654</v>
+        <v>33656</v>
       </c>
       <c r="D786" t="s">
         <v>2383</v>
@@ -24384,7 +24384,7 @@
         <v>2674</v>
       </c>
       <c r="C787">
-        <v>16826</v>
+        <v>16825</v>
       </c>
       <c r="D787" t="s">
         <v>576</v>
@@ -24452,7 +24452,7 @@
         <v>2686</v>
       </c>
       <c r="C791">
-        <v>12667</v>
+        <v>12668</v>
       </c>
       <c r="D791" t="s">
         <v>1657</v>
@@ -24469,7 +24469,7 @@
         <v>2690</v>
       </c>
       <c r="C792">
-        <v>17111</v>
+        <v>17112</v>
       </c>
       <c r="D792" t="s">
         <v>19</v>
@@ -24520,7 +24520,7 @@
         <v>2700</v>
       </c>
       <c r="C795">
-        <v>41637</v>
+        <v>41645</v>
       </c>
       <c r="D795" t="s">
         <v>19</v>
@@ -24554,7 +24554,7 @@
         <v>2706</v>
       </c>
       <c r="C797">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="D797" t="s">
         <v>675</v>
@@ -24571,7 +24571,7 @@
         <v>2709</v>
       </c>
       <c r="C798">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D798" t="s">
         <v>32</v>
@@ -24605,7 +24605,7 @@
         <v>2715</v>
       </c>
       <c r="C800">
-        <v>39078</v>
+        <v>39087</v>
       </c>
       <c r="D800" t="s">
         <v>1060</v>
@@ -24656,7 +24656,7 @@
         <v>2724</v>
       </c>
       <c r="C803">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="D803" t="s">
         <v>7</v>
@@ -24792,7 +24792,7 @@
         <v>2749</v>
       </c>
       <c r="C811">
-        <v>14515</v>
+        <v>14517</v>
       </c>
       <c r="D811" t="s">
         <v>7</v>
@@ -24809,7 +24809,7 @@
         <v>2752</v>
       </c>
       <c r="C812">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D812" t="s">
         <v>23</v>
@@ -24877,7 +24877,7 @@
         <v>2765</v>
       </c>
       <c r="C816">
-        <v>5764</v>
+        <v>5767</v>
       </c>
       <c r="D816" t="s">
         <v>7</v>
@@ -24979,7 +24979,7 @@
         <v>2784</v>
       </c>
       <c r="C822">
-        <v>14370</v>
+        <v>14375</v>
       </c>
       <c r="D822" t="s">
         <v>19</v>
@@ -25013,7 +25013,7 @@
         <v>2790</v>
       </c>
       <c r="C824">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="D824" t="s">
         <v>194</v>
@@ -25115,7 +25115,7 @@
         <v>2811</v>
       </c>
       <c r="C830">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D830" t="s">
         <v>2809</v>
@@ -25183,7 +25183,7 @@
         <v>2823</v>
       </c>
       <c r="C834">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="D834" t="s">
         <v>19</v>
@@ -25217,7 +25217,7 @@
         <v>2829</v>
       </c>
       <c r="C836">
-        <v>7963</v>
+        <v>7964</v>
       </c>
       <c r="D836" t="s">
         <v>19</v>
@@ -25251,7 +25251,7 @@
         <v>2835</v>
       </c>
       <c r="C838">
-        <v>17724</v>
+        <v>17726</v>
       </c>
       <c r="D838" t="s">
         <v>19</v>
@@ -25268,7 +25268,7 @@
         <v>2839</v>
       </c>
       <c r="C839">
-        <v>5732</v>
+        <v>5733</v>
       </c>
       <c r="D839" t="s">
         <v>19</v>
@@ -25285,7 +25285,7 @@
         <v>2842</v>
       </c>
       <c r="C840">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="D840" t="s">
         <v>194</v>
@@ -25401,7 +25401,7 @@
         <v>2863</v>
       </c>
       <c r="C847">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D847" t="s">
         <v>194</v>
@@ -25435,7 +25435,7 @@
         <v>2870</v>
       </c>
       <c r="C849">
-        <v>33943</v>
+        <v>33944</v>
       </c>
       <c r="D849" t="s">
         <v>607</v>
@@ -25537,7 +25537,7 @@
         <v>2889</v>
       </c>
       <c r="C855">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D855" t="s">
         <v>2887</v>
@@ -25585,7 +25585,7 @@
         <v>2899</v>
       </c>
       <c r="C858">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D858" t="s">
         <v>7</v>
@@ -25636,7 +25636,7 @@
         <v>2908</v>
       </c>
       <c r="C861">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D861" t="s">
         <v>194</v>
@@ -25789,7 +25789,7 @@
         <v>2938</v>
       </c>
       <c r="C870">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="D870" t="s">
         <v>216</v>
@@ -25959,7 +25959,7 @@
         <v>2973</v>
       </c>
       <c r="C880">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="D880" t="s">
         <v>19</v>
@@ -26010,7 +26010,7 @@
         <v>2984</v>
       </c>
       <c r="C883">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="D883" t="s">
         <v>32</v>
@@ -26112,7 +26112,7 @@
         <v>3006</v>
       </c>
       <c r="C889">
-        <v>8908</v>
+        <v>8909</v>
       </c>
       <c r="D889" t="s">
         <v>194</v>
@@ -26197,7 +26197,7 @@
         <v>3022</v>
       </c>
       <c r="C894">
-        <v>8463</v>
+        <v>8465</v>
       </c>
       <c r="D894" t="s">
         <v>23</v>
@@ -26214,7 +26214,7 @@
         <v>3024</v>
       </c>
       <c r="C895">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D895" t="s">
         <v>69</v>
@@ -26231,7 +26231,7 @@
         <v>3028</v>
       </c>
       <c r="C896">
-        <v>6065</v>
+        <v>6066</v>
       </c>
       <c r="D896" t="s">
         <v>19</v>
@@ -26248,7 +26248,7 @@
         <v>3031</v>
       </c>
       <c r="C897">
-        <v>39742</v>
+        <v>39764</v>
       </c>
       <c r="D897" t="s">
         <v>28</v>
@@ -26316,7 +26316,7 @@
         <v>3045</v>
       </c>
       <c r="C901">
-        <v>12261</v>
+        <v>12263</v>
       </c>
       <c r="D901" t="s">
         <v>212</v>
@@ -26350,7 +26350,7 @@
         <v>3053</v>
       </c>
       <c r="C903">
-        <v>8031</v>
+        <v>8030</v>
       </c>
       <c r="D903" t="s">
         <v>3051</v>
@@ -26367,7 +26367,7 @@
         <v>3056</v>
       </c>
       <c r="C904">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="D904" t="s">
         <v>1055</v>
@@ -26384,7 +26384,7 @@
         <v>3059</v>
       </c>
       <c r="C905">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="D905" t="s">
         <v>392</v>
@@ -26469,7 +26469,7 @@
         <v>3075</v>
       </c>
       <c r="C910">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D910" t="s">
         <v>194</v>
@@ -26486,7 +26486,7 @@
         <v>3078</v>
       </c>
       <c r="C911">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D911" t="s">
         <v>7</v>
@@ -26503,7 +26503,7 @@
         <v>3080</v>
       </c>
       <c r="C912">
-        <v>26421</v>
+        <v>26422</v>
       </c>
       <c r="D912" t="s">
         <v>675</v>
@@ -26520,7 +26520,7 @@
         <v>3083</v>
       </c>
       <c r="C913">
-        <v>5739</v>
+        <v>5743</v>
       </c>
       <c r="D913" t="s">
         <v>23</v>
@@ -26554,7 +26554,7 @@
         <v>3090</v>
       </c>
       <c r="C915">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="D915" t="s">
         <v>7</v>
@@ -26571,7 +26571,7 @@
         <v>3093</v>
       </c>
       <c r="C916">
-        <v>11788</v>
+        <v>11791</v>
       </c>
       <c r="D916" t="s">
         <v>7</v>
@@ -26605,7 +26605,7 @@
         <v>3101</v>
       </c>
       <c r="C918">
-        <v>7899</v>
+        <v>7898</v>
       </c>
       <c r="D918" t="s">
         <v>19</v>
@@ -26656,7 +26656,7 @@
         <v>3113</v>
       </c>
       <c r="C921">
-        <v>22947</v>
+        <v>22950</v>
       </c>
       <c r="D921" t="s">
         <v>472</v>
@@ -26673,7 +26673,7 @@
         <v>3116</v>
       </c>
       <c r="C922">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="D922" t="s">
         <v>100</v>
@@ -26758,7 +26758,7 @@
         <v>3136</v>
       </c>
       <c r="C927">
-        <v>11599</v>
+        <v>11600</v>
       </c>
       <c r="D927" t="s">
         <v>1355</v>
@@ -26820,7 +26820,7 @@
         <v>3150</v>
       </c>
       <c r="C931">
-        <v>11226</v>
+        <v>11228</v>
       </c>
       <c r="D931" t="s">
         <v>104</v>
@@ -26922,7 +26922,7 @@
         <v>3174</v>
       </c>
       <c r="C937">
-        <v>4695</v>
+        <v>4700</v>
       </c>
       <c r="D937" t="s">
         <v>3172</v>
@@ -26956,7 +26956,7 @@
         <v>3181</v>
       </c>
       <c r="C939">
-        <v>24208</v>
+        <v>24209</v>
       </c>
       <c r="D939" t="s">
         <v>1521</v>
@@ -26973,7 +26973,7 @@
         <v>3185</v>
       </c>
       <c r="C940">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="D940" t="s">
         <v>1227</v>
@@ -26990,7 +26990,7 @@
         <v>3189</v>
       </c>
       <c r="C941">
-        <v>21931</v>
+        <v>21955</v>
       </c>
       <c r="D941" t="s">
         <v>7</v>
@@ -27041,7 +27041,7 @@
         <v>3200</v>
       </c>
       <c r="C944">
-        <v>35086</v>
+        <v>35088</v>
       </c>
       <c r="D944" t="s">
         <v>32</v>
@@ -27058,7 +27058,7 @@
         <v>3205</v>
       </c>
       <c r="C945">
-        <v>6290</v>
+        <v>6291</v>
       </c>
       <c r="D945" t="s">
         <v>3203</v>
@@ -27075,7 +27075,7 @@
         <v>3209</v>
       </c>
       <c r="C946">
-        <v>34954</v>
+        <v>34955</v>
       </c>
       <c r="D946" t="s">
         <v>7</v>
@@ -27109,7 +27109,7 @@
         <v>3216</v>
       </c>
       <c r="C948">
-        <v>43007</v>
+        <v>43011</v>
       </c>
       <c r="D948" t="s">
         <v>32</v>
@@ -27160,7 +27160,7 @@
         <v>3227</v>
       </c>
       <c r="C951">
-        <v>7718</v>
+        <v>7717</v>
       </c>
       <c r="D951" t="s">
         <v>289</v>
@@ -27228,7 +27228,7 @@
         <v>3240</v>
       </c>
       <c r="C955">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="D955" t="s">
         <v>150</v>
@@ -27245,7 +27245,7 @@
         <v>3244</v>
       </c>
       <c r="C956">
-        <v>5589</v>
+        <v>5590</v>
       </c>
       <c r="D956" t="s">
         <v>1781</v>
@@ -27279,7 +27279,7 @@
         <v>3251</v>
       </c>
       <c r="C958">
-        <v>40514</v>
+        <v>40517</v>
       </c>
       <c r="D958" t="s">
         <v>289</v>
@@ -27296,7 +27296,7 @@
         <v>3254</v>
       </c>
       <c r="C959">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="D959" t="s">
         <v>7</v>
@@ -27449,7 +27449,7 @@
         <v>3282</v>
       </c>
       <c r="C968">
-        <v>87173</v>
+        <v>87175</v>
       </c>
       <c r="D968" t="s">
         <v>32</v>
@@ -27466,7 +27466,7 @@
         <v>3285</v>
       </c>
       <c r="C969">
-        <v>8843</v>
+        <v>8846</v>
       </c>
       <c r="D969" t="s">
         <v>7</v>
@@ -27483,7 +27483,7 @@
         <v>3287</v>
       </c>
       <c r="C970">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="D970" t="s">
         <v>7</v>
@@ -27548,7 +27548,7 @@
         <v>3299</v>
       </c>
       <c r="C974">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="D974" t="s">
         <v>194</v>
@@ -27599,7 +27599,7 @@
         <v>3308</v>
       </c>
       <c r="C977">
-        <v>27169</v>
+        <v>27170</v>
       </c>
       <c r="D977" t="s">
         <v>7</v>
@@ -27616,7 +27616,7 @@
         <v>3311</v>
       </c>
       <c r="C978">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="D978" t="s">
         <v>19</v>
@@ -27715,7 +27715,7 @@
         <v>3330</v>
       </c>
       <c r="C984">
-        <v>9191</v>
+        <v>9192</v>
       </c>
       <c r="D984" t="s">
         <v>125</v>
@@ -27749,7 +27749,7 @@
         <v>3339</v>
       </c>
       <c r="C986">
-        <v>6258</v>
+        <v>6260</v>
       </c>
       <c r="D986" t="s">
         <v>3337</v>
@@ -27783,7 +27783,7 @@
         <v>3348</v>
       </c>
       <c r="C988">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D988" t="s">
         <v>3346</v>
@@ -27817,7 +27817,7 @@
         <v>3356</v>
       </c>
       <c r="C990">
-        <v>12452</v>
+        <v>12453</v>
       </c>
       <c r="D990" t="s">
         <v>100</v>
@@ -27851,7 +27851,7 @@
         <v>3363</v>
       </c>
       <c r="C992">
-        <v>5403</v>
+        <v>5407</v>
       </c>
       <c r="D992" t="s">
         <v>104</v>
@@ -27885,7 +27885,7 @@
         <v>3370</v>
       </c>
       <c r="C994">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="D994" t="s">
         <v>32</v>
@@ -27967,7 +27967,7 @@
         <v>3391</v>
       </c>
       <c r="C999">
-        <v>59986</v>
+        <v>60001</v>
       </c>
       <c r="D999" t="s">
         <v>7</v>
@@ -28035,7 +28035,7 @@
         <v>3406</v>
       </c>
       <c r="C1003">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="D1003" t="s">
         <v>212</v>
@@ -28052,7 +28052,7 @@
         <v>3410</v>
       </c>
       <c r="C1004">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D1004" t="s">
         <v>212</v>
@@ -28069,7 +28069,7 @@
         <v>3414</v>
       </c>
       <c r="C1005">
-        <v>9363</v>
+        <v>9365</v>
       </c>
       <c r="D1005" t="s">
         <v>1697</v>
@@ -28086,7 +28086,7 @@
         <v>3416</v>
       </c>
       <c r="C1006">
-        <v>4619</v>
+        <v>4621</v>
       </c>
       <c r="D1006" t="s">
         <v>1060</v>
@@ -28103,7 +28103,7 @@
         <v>3420</v>
       </c>
       <c r="C1007">
-        <v>6619</v>
+        <v>6620</v>
       </c>
       <c r="D1007" t="s">
         <v>852</v>
@@ -28120,7 +28120,7 @@
         <v>3424</v>
       </c>
       <c r="C1008">
-        <v>13478</v>
+        <v>13480</v>
       </c>
       <c r="D1008" t="s">
         <v>759</v>
@@ -28154,7 +28154,7 @@
         <v>3431</v>
       </c>
       <c r="C1010">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="D1010" t="s">
         <v>2923</v>
@@ -28205,7 +28205,7 @@
         <v>3443</v>
       </c>
       <c r="C1013">
-        <v>22444</v>
+        <v>22448</v>
       </c>
       <c r="D1013" t="s">
         <v>3441</v>
@@ -28222,7 +28222,7 @@
         <v>3447</v>
       </c>
       <c r="C1014">
-        <v>7152</v>
+        <v>7154</v>
       </c>
       <c r="D1014" t="s">
         <v>399</v>
@@ -28239,7 +28239,7 @@
         <v>3451</v>
       </c>
       <c r="C1015">
-        <v>6487</v>
+        <v>6486</v>
       </c>
       <c r="D1015" t="s">
         <v>104</v>
@@ -28256,7 +28256,7 @@
         <v>3455</v>
       </c>
       <c r="C1016">
-        <v>6541</v>
+        <v>6542</v>
       </c>
       <c r="D1016" t="s">
         <v>23</v>
@@ -28273,7 +28273,7 @@
         <v>3459</v>
       </c>
       <c r="C1017">
-        <v>6774</v>
+        <v>6776</v>
       </c>
       <c r="D1017" t="s">
         <v>111</v>
@@ -28409,7 +28409,7 @@
         <v>3488</v>
       </c>
       <c r="C1025">
-        <v>10783</v>
+        <v>10782</v>
       </c>
       <c r="D1025" t="s">
         <v>884</v>
@@ -28477,7 +28477,7 @@
         <v>3504</v>
       </c>
       <c r="C1029">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="D1029" t="s">
         <v>3502</v>
@@ -28494,7 +28494,7 @@
         <v>3508</v>
       </c>
       <c r="C1030">
-        <v>6439</v>
+        <v>6440</v>
       </c>
       <c r="D1030" t="s">
         <v>1971</v>
@@ -28562,7 +28562,7 @@
         <v>3521</v>
       </c>
       <c r="C1034">
-        <v>98830</v>
+        <v>98840</v>
       </c>
       <c r="D1034" t="s">
         <v>104</v>
@@ -28596,7 +28596,7 @@
         <v>3528</v>
       </c>
       <c r="C1036">
-        <v>59390</v>
+        <v>59393</v>
       </c>
       <c r="D1036" t="s">
         <v>3341</v>
@@ -28613,7 +28613,7 @@
         <v>3532</v>
       </c>
       <c r="C1037">
-        <v>15283</v>
+        <v>15284</v>
       </c>
       <c r="D1037" t="s">
         <v>7</v>
@@ -28661,7 +28661,7 @@
         <v>3544</v>
       </c>
       <c r="C1040">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="D1040" t="s">
         <v>3542</v>
@@ -28678,7 +28678,7 @@
         <v>3548</v>
       </c>
       <c r="C1041">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="D1041" t="s">
         <v>631</v>
@@ -28729,7 +28729,7 @@
         <v>3560</v>
       </c>
       <c r="C1044">
-        <v>4954</v>
+        <v>4957</v>
       </c>
       <c r="D1044" t="s">
         <v>902</v>
@@ -28746,7 +28746,7 @@
         <v>3565</v>
       </c>
       <c r="C1045">
-        <v>17457</v>
+        <v>17460</v>
       </c>
       <c r="D1045" t="s">
         <v>3563</v>
